--- a/Workbooks/JA/ユーザー.xlsx
+++ b/Workbooks/JA/ユーザー.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88B0B5E-CBA3-4AEF-B406-EFB977D0EA6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1397886A-E0B5-44D7-A158-714D74777DD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,12 +109,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -130,7 +142,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -140,7 +152,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -148,13 +170,13 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="32">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -174,9 +196,9 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -196,9 +218,9 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -218,64 +240,9 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -295,6 +262,28 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
@@ -304,18 +293,93 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -387,8 +451,26 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -426,19 +508,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:H101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:H101" headerRowDxfId="20" dataDxfId="11">
   <autoFilter ref="A1:H101" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{1372863E-1574-486C-96A5-9F8A48DBEB17}" name="ID"/>
-    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="ユーザー名" dataDxfId="25"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="名" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="姓"/>
-    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="メールアドレス" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="組織単位名" totalsRowFunction="count" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="ロール" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{73F4371D-09E6-432B-A8D2-FDF51584A3F9}" name="ステータス"/>
+    <tableColumn id="8" xr3:uid="{1372863E-1574-486C-96A5-9F8A48DBEB17}" name="ID" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="ユーザー名" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="名" totalsRowLabel="Total" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="姓" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="メールアドレス" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="組織単位名" totalsRowFunction="count" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="ロール" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{73F4371D-09E6-432B-A8D2-FDF51584A3F9}" name="ステータス" dataDxfId="12"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -446,17 +528,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I101" totalsRowShown="0">
   <autoFilter ref="A1:I101" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="10" xr3:uid="{65749B7E-1278-4BF9-BE0E-B0B1A7EBF445}" name="ユーザー名" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{65749B7E-1278-4BF9-BE0E-B0B1A7EBF445}" name="ユーザー名" dataDxfId="31"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="名"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="姓"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="メールアドレス"/>
-    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="組織単位名" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="ロール" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{4E111FFE-AC48-4FF2-B3E5-DEDE4EC1D531}" name="パスワード" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="ID" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{08B4DCAC-6628-4928-B533-CE43508622D2}" name="結果" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="組織単位名" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="ロール" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{4E111FFE-AC48-4FF2-B3E5-DEDE4EC1D531}" name="パスワード" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="ID" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{08B4DCAC-6628-4928-B533-CE43508622D2}" name="結果" dataDxfId="8"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -464,15 +546,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:G101" totalsRowShown="0">
   <autoFilter ref="A1:G101" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="3" xr3:uid="{01450210-36BE-4B28-9B3B-758A2770B142}" name="ID" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{01450210-36BE-4B28-9B3B-758A2770B142}" name="ID" dataDxfId="28"/>
     <tableColumn id="1" xr3:uid="{D002318D-F09E-4941-86F7-CB540B53CA38}" name="名"/>
     <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="姓"/>
-    <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="メールアドレス" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{310BA8C6-70B4-40F4-B90F-2C40BB19BC10}" name="ステータス" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="パスワード" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{E7804193-086E-4884-9B07-86C7E77E0835}" name="結果" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="メールアドレス" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{310BA8C6-70B4-40F4-B90F-2C40BB19BC10}" name="ステータス" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="パスワード" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{E7804193-086E-4884-9B07-86C7E77E0835}" name="結果" dataDxfId="6"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -480,11 +562,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C101" totalsRowShown="0">
   <autoFilter ref="A1:C101" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ID" dataDxfId="10"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ユーザー名" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="結果" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ID" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ユーザー名" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="結果" dataDxfId="4"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -492,12 +574,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CA60972A-F912-4245-9614-90616502EB7F}" name="Table136" displayName="Table136" ref="A1:D101" totalsRowShown="0">
   <autoFilter ref="A1:D101" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{762AF24D-1071-4CC3-855B-AFBA1EC67A8F}" name="ユーザー名" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{1DC8369C-6CB3-40DF-9563-6D20384EDB27}" name="追加される組織単位名" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{D8F46081-FD39-42E4-9328-82EAB5A46B2A}" name="削除される組織単位名" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{8A01008F-4F65-412C-9DCE-2CD43107AA97}" name="結果" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{762AF24D-1071-4CC3-855B-AFBA1EC67A8F}" name="ユーザー名" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{1DC8369C-6CB3-40DF-9563-6D20384EDB27}" name="追加される組織単位名" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{D8F46081-FD39-42E4-9328-82EAB5A46B2A}" name="削除される組織単位名" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{8A01008F-4F65-412C-9DCE-2CD43107AA97}" name="結果" dataDxfId="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -505,12 +587,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D7C59586-DAF7-4411-AF3A-D7C272A65EF7}" name="Table1367" displayName="Table1367" ref="A1:D101" totalsRowShown="0">
   <autoFilter ref="A1:D101" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6ADEC0F4-60B9-440B-ACB4-4A0E21BD6E55}" name="ユーザー名" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{35497579-2B4A-401D-AAA7-DC449805F456}" name="追加されるロール名" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{6ADEC0F4-60B9-440B-ACB4-4A0E21BD6E55}" name="ユーザー名" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{35497579-2B4A-401D-AAA7-DC449805F456}" name="追加されるロール名" dataDxfId="21"/>
     <tableColumn id="2" xr3:uid="{FFF7ADE8-2EC3-4F29-AE06-AA9A280597F6}" name="削除されるロール名" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{80C9DBFB-CF60-44AC-81AB-9BA9267B4649}" name="結果" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -797,530 +879,1030 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="2"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="2"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="2"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="2"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="5"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="5"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="5"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="5"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="5"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="5"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="5"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="5"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="5"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="5"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="5"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="5"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="5"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="5"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="5"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="5"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="5"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="5"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="5"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="5"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="5"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="5"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="5"/>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="5"/>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="5"/>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="5"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="5"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="5"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="5"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="5"/>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="5"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="5"/>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="5"/>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="5"/>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="5"/>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="5"/>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="5"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="5"/>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="5"/>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="5"/>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="5"/>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="5"/>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="5"/>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="5"/>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="5"/>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="5"/>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="5"/>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="5"/>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="5"/>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="5"/>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="5"/>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="5"/>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="5"/>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="5"/>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="5"/>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="5"/>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="5"/>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="5"/>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="5"/>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="5"/>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="5"/>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="5"/>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="5"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="7"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="7"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="7"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="7"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="7"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="7"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="7"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="7"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="7"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="7"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="7"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="7"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="7"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="7"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="7"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="7"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="7"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="7"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="7"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="7"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="7"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="7"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="7"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="7"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="7"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="7"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="7"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="7"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="7"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="7"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="7"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="7"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" s="7"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" s="7"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" s="7"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" s="7"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" s="7"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" s="7"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" s="7"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" s="7"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" s="7"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" s="7"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" s="7"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" s="7"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" s="7"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" s="7"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" s="7"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" s="7"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" s="7"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" s="7"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" s="7"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" s="7"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" s="7"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" s="7"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" s="7"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" s="7"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73" s="7"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" s="7"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75" s="7"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" s="7"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77" s="7"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A78" s="7"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A79" s="7"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A80" s="7"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81" s="7"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82" s="7"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="7"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83" s="7"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84" s="7"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85" s="7"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86" s="7"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="7"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A87" s="7"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="7"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A88" s="7"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="7"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A89" s="7"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A90" s="7"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="7"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A91" s="7"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A92" s="7"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="7"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A93" s="7"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="7"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A94" s="7"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="7"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A95" s="7"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="7"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A96" s="7"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="7"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A97" s="7"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="7"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A98" s="7"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="7"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A99" s="7"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="7"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100" s="7"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="7"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101" s="7"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1375,788 +1957,788 @@
       <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D2" s="4"/>
       <c r="E2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D3" s="4"/>
       <c r="E3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D4" s="4"/>
       <c r="E4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D5" s="4"/>
       <c r="E5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D6" s="4"/>
       <c r="E6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D7" s="4"/>
       <c r="E7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D8" s="4"/>
       <c r="E8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D9" s="4"/>
       <c r="E9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D10" s="4"/>
       <c r="E10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D11" s="4"/>
       <c r="E11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D12" s="4"/>
       <c r="E12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D13" s="4"/>
       <c r="E13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D14" s="4"/>
       <c r="E14" s="2"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D15" s="4"/>
       <c r="E15" s="2"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D16" s="4"/>
       <c r="E16" s="2"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D17" s="4"/>
       <c r="E17" s="2"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D18" s="4"/>
       <c r="E18" s="2"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D19" s="4"/>
       <c r="E19" s="2"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D20" s="4"/>
       <c r="E20" s="2"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D21" s="4"/>
       <c r="E21" s="2"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D22" s="4"/>
       <c r="E22" s="2"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D23" s="4"/>
       <c r="E23" s="2"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D24" s="4"/>
       <c r="E24" s="2"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D25" s="4"/>
       <c r="E25" s="2"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D26" s="4"/>
       <c r="E26" s="2"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D27" s="4"/>
       <c r="E27" s="2"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D28" s="4"/>
       <c r="E28" s="2"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D29" s="4"/>
       <c r="E29" s="2"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D30" s="4"/>
       <c r="E30" s="2"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D31" s="4"/>
       <c r="E31" s="2"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
     </row>
     <row r="32" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D32" s="4"/>
       <c r="E32" s="2"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D33" s="4"/>
       <c r="E33" s="2"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D34" s="4"/>
       <c r="E34" s="2"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D35" s="4"/>
       <c r="E35" s="2"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D36" s="4"/>
       <c r="E36" s="2"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D37" s="4"/>
       <c r="E37" s="2"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D38" s="4"/>
       <c r="E38" s="2"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D39" s="4"/>
       <c r="E39" s="2"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D40" s="4"/>
       <c r="E40" s="2"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D41" s="4"/>
       <c r="E41" s="2"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D42" s="4"/>
       <c r="E42" s="2"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D43" s="4"/>
       <c r="E43" s="2"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D44" s="4"/>
       <c r="E44" s="2"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D45" s="4"/>
       <c r="E45" s="2"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D46" s="4"/>
       <c r="E46" s="2"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D47" s="4"/>
       <c r="E47" s="2"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D48" s="4"/>
       <c r="E48" s="2"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
     </row>
     <row r="49" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D49" s="4"/>
       <c r="E49" s="2"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
     </row>
     <row r="50" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D50" s="4"/>
       <c r="E50" s="2"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
     </row>
     <row r="51" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D51" s="4"/>
       <c r="E51" s="2"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
     </row>
     <row r="52" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D52" s="4"/>
       <c r="E52" s="2"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
     </row>
     <row r="53" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D53" s="4"/>
       <c r="E53" s="2"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
     </row>
     <row r="54" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D54" s="4"/>
       <c r="E54" s="2"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
     </row>
     <row r="55" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D55" s="4"/>
       <c r="E55" s="2"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
     </row>
     <row r="56" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D56" s="4"/>
       <c r="E56" s="2"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
     </row>
     <row r="57" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D57" s="4"/>
       <c r="E57" s="2"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
     </row>
     <row r="58" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D58" s="4"/>
       <c r="E58" s="2"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
     </row>
     <row r="59" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D59" s="4"/>
       <c r="E59" s="2"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
     </row>
     <row r="60" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D60" s="4"/>
       <c r="E60" s="2"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
     </row>
     <row r="61" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D61" s="4"/>
       <c r="E61" s="2"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
     </row>
     <row r="62" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D62" s="4"/>
       <c r="E62" s="2"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
     </row>
     <row r="63" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D63" s="4"/>
       <c r="E63" s="2"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
     </row>
     <row r="64" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D64" s="4"/>
       <c r="E64" s="2"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
     </row>
     <row r="65" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D65" s="4"/>
       <c r="E65" s="2"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
     </row>
     <row r="66" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D66" s="4"/>
       <c r="E66" s="2"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
     </row>
     <row r="67" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D67" s="4"/>
       <c r="E67" s="2"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
     </row>
     <row r="68" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D68" s="4"/>
       <c r="E68" s="2"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
     </row>
     <row r="69" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D69" s="4"/>
       <c r="E69" s="2"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
     </row>
     <row r="70" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D70" s="4"/>
       <c r="E70" s="2"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
     </row>
     <row r="71" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D71" s="4"/>
       <c r="E71" s="2"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
     </row>
     <row r="72" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D72" s="4"/>
       <c r="E72" s="2"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
     </row>
     <row r="73" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D73" s="4"/>
       <c r="E73" s="2"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
     </row>
     <row r="74" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D74" s="4"/>
       <c r="E74" s="2"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
     </row>
     <row r="75" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D75" s="4"/>
       <c r="E75" s="2"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
     </row>
     <row r="76" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D76" s="4"/>
       <c r="E76" s="2"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
     </row>
     <row r="77" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D77" s="4"/>
       <c r="E77" s="2"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
     </row>
     <row r="78" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D78" s="4"/>
       <c r="E78" s="2"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
     </row>
     <row r="79" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D79" s="4"/>
       <c r="E79" s="2"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
     </row>
     <row r="80" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D80" s="4"/>
       <c r="E80" s="2"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
     </row>
     <row r="81" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D81" s="4"/>
       <c r="E81" s="2"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
     </row>
     <row r="82" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D82" s="4"/>
       <c r="E82" s="2"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
     </row>
     <row r="83" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D83" s="4"/>
       <c r="E83" s="2"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
     </row>
     <row r="84" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D84" s="4"/>
       <c r="E84" s="2"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
     </row>
     <row r="85" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D85" s="4"/>
       <c r="E85" s="2"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
     </row>
     <row r="86" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D86" s="4"/>
       <c r="E86" s="2"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
     </row>
     <row r="87" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D87" s="4"/>
       <c r="E87" s="2"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
     </row>
     <row r="88" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D88" s="4"/>
       <c r="E88" s="2"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
     </row>
     <row r="89" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D89" s="4"/>
       <c r="E89" s="2"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
     </row>
     <row r="90" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D90" s="4"/>
       <c r="E90" s="2"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
     </row>
     <row r="91" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D91" s="4"/>
       <c r="E91" s="2"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
     </row>
     <row r="92" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D92" s="4"/>
       <c r="E92" s="2"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
     </row>
     <row r="93" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D93" s="4"/>
       <c r="E93" s="2"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
     </row>
     <row r="94" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D94" s="4"/>
       <c r="E94" s="2"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
     </row>
     <row r="95" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D95" s="4"/>
       <c r="E95" s="2"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
     </row>
     <row r="96" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D96" s="4"/>
       <c r="E96" s="2"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
     </row>
     <row r="97" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D97" s="4"/>
       <c r="E97" s="2"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
     </row>
     <row r="98" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D98" s="4"/>
       <c r="E98" s="2"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
     </row>
     <row r="99" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D99" s="4"/>
       <c r="E99" s="2"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
     </row>
     <row r="100" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D100" s="4"/>
       <c r="E100" s="2"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
     </row>
     <row r="101" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D101" s="4"/>
       <c r="E101" s="2"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2205,591 +2787,591 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E2"/>
-      <c r="G2" s="2"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E3"/>
-      <c r="G3" s="2"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E4"/>
-      <c r="G4" s="2"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E5"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E6"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E7"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E8"/>
-      <c r="G8" s="2"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E9"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E10"/>
-      <c r="G10" s="2"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="E12" s="1"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="E13" s="1"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="E14" s="1"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="E15" s="1"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="E16" s="1"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="E17" s="1"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="E18" s="1"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="E19" s="1"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="E20" s="1"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="E21" s="1"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="E22" s="1"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="E23" s="1"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="E24" s="1"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="E25" s="1"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="E26" s="1"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="E27" s="1"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="E28" s="1"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="E29" s="1"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="E30" s="1"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="E31" s="1"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="E32" s="1"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+      <c r="G32" s="8"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="E33" s="1"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
+      <c r="G33" s="8"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="E34" s="1"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
+      <c r="G34" s="8"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="E35" s="1"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+      <c r="G35" s="8"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="E36" s="1"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+      <c r="G36" s="8"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="E37" s="1"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+      <c r="G37" s="8"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="E38" s="1"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
+      <c r="G38" s="8"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="E39" s="1"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
+      <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="E40" s="1"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
+      <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
       <c r="E41" s="1"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
+      <c r="G41" s="8"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
       <c r="E42" s="1"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
+      <c r="G42" s="8"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
       <c r="E43" s="1"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
+      <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
       <c r="E44" s="1"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
+      <c r="G44" s="8"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
       <c r="E45" s="1"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
+      <c r="G45" s="8"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
       <c r="E46" s="1"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
+      <c r="G46" s="8"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
       <c r="E47" s="1"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
+      <c r="G47" s="8"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="E48" s="1"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
+      <c r="G48" s="8"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="E49" s="1"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
+      <c r="G49" s="8"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="E50" s="1"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
+      <c r="G50" s="8"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="E51" s="1"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
+      <c r="G51" s="8"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
       <c r="E52" s="1"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
+      <c r="G52" s="8"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
       <c r="E53" s="1"/>
       <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
+      <c r="G53" s="8"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
       <c r="E54" s="1"/>
       <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
+      <c r="G54" s="8"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
       <c r="E55" s="1"/>
       <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
+      <c r="G55" s="8"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
       <c r="E56" s="1"/>
       <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
+      <c r="G56" s="8"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
       <c r="E57" s="1"/>
       <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
+      <c r="G57" s="8"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
       <c r="E58" s="1"/>
       <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
+      <c r="G58" s="8"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
       <c r="E59" s="1"/>
       <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
+      <c r="G59" s="8"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
       <c r="E60" s="1"/>
       <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
+      <c r="G60" s="8"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
       <c r="E61" s="1"/>
       <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
+      <c r="G61" s="8"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
       <c r="E62" s="1"/>
       <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
+      <c r="G62" s="8"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
       <c r="E63" s="1"/>
       <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
+      <c r="G63" s="8"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
       <c r="E64" s="1"/>
       <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
+      <c r="G64" s="8"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
       <c r="E65" s="1"/>
       <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
+      <c r="G65" s="8"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
       <c r="E66" s="1"/>
       <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
+      <c r="G66" s="8"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
       <c r="E67" s="1"/>
       <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
+      <c r="G67" s="8"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
       <c r="E68" s="1"/>
       <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
+      <c r="G68" s="8"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
       <c r="E69" s="1"/>
       <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
+      <c r="G69" s="8"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
       <c r="E70" s="1"/>
       <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
+      <c r="G70" s="8"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
       <c r="E71" s="1"/>
       <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
+      <c r="G71" s="8"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
       <c r="E72" s="1"/>
       <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
+      <c r="G72" s="8"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
       <c r="E73" s="1"/>
       <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
+      <c r="G73" s="8"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
       <c r="E74" s="1"/>
       <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
+      <c r="G74" s="8"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="E75" s="1"/>
       <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
+      <c r="G75" s="8"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
       <c r="E76" s="1"/>
       <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
+      <c r="G76" s="8"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
       <c r="E77" s="1"/>
       <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
+      <c r="G77" s="8"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
       <c r="E78" s="1"/>
       <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
+      <c r="G78" s="8"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
       <c r="E79" s="1"/>
       <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
+      <c r="G79" s="8"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
       <c r="E80" s="1"/>
       <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
+      <c r="G80" s="8"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
       <c r="E81" s="1"/>
       <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
+      <c r="G81" s="8"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="2"/>
       <c r="E82" s="1"/>
       <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
+      <c r="G82" s="8"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
       <c r="E83" s="1"/>
       <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
+      <c r="G83" s="8"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
       <c r="E84" s="1"/>
       <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
+      <c r="G84" s="8"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="2"/>
       <c r="E85" s="1"/>
       <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
+      <c r="G85" s="8"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="2"/>
       <c r="E86" s="1"/>
       <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
+      <c r="G86" s="8"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="2"/>
       <c r="E87" s="1"/>
       <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
+      <c r="G87" s="8"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
       <c r="E88" s="1"/>
       <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
+      <c r="G88" s="8"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
       <c r="E89" s="1"/>
       <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
+      <c r="G89" s="8"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="2"/>
       <c r="E90" s="1"/>
       <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
+      <c r="G90" s="8"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
       <c r="E91" s="1"/>
       <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
+      <c r="G91" s="8"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
       <c r="E92" s="1"/>
       <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
+      <c r="G92" s="8"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
       <c r="E93" s="1"/>
       <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
+      <c r="G93" s="8"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
       <c r="E94" s="1"/>
       <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
+      <c r="G94" s="8"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
       <c r="E95" s="1"/>
       <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
+      <c r="G95" s="8"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
       <c r="E96" s="1"/>
       <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
+      <c r="G96" s="8"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
       <c r="E97" s="1"/>
       <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
+      <c r="G97" s="8"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
       <c r="E98" s="1"/>
       <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
+      <c r="G98" s="8"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
       <c r="E99" s="1"/>
       <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
+      <c r="G99" s="8"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
       <c r="E100" s="1"/>
       <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
+      <c r="G100" s="8"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
       <c r="E101" s="1"/>
       <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
+      <c r="G101" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2821,407 +3403,407 @@
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C6" s="2"/>
+      <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C7" s="2"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
-      <c r="C8" s="1"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
-      <c r="C10" s="1"/>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="C22" s="9"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="C23" s="9"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="C24" s="9"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="C26" s="9"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="C28" s="9"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="C29" s="9"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="C30" s="9"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="C31" s="9"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="C32" s="9"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="C33" s="9"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="C34" s="9"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
-      <c r="C35" s="1"/>
+      <c r="C35" s="9"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="C36" s="9"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="C37" s="9"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="C38" s="9"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="C39" s="9"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="C40" s="9"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="C41" s="9"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="C42" s="9"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
-      <c r="C43" s="1"/>
+      <c r="C43" s="9"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="C44" s="9"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
-      <c r="C45" s="1"/>
+      <c r="C45" s="9"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="C46" s="9"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="C47" s="9"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="C48" s="9"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
-      <c r="C49" s="1"/>
+      <c r="C49" s="9"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
-      <c r="C50" s="1"/>
+      <c r="C50" s="9"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
-      <c r="C51" s="1"/>
+      <c r="C51" s="9"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
-      <c r="C52" s="1"/>
+      <c r="C52" s="9"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
-      <c r="C53" s="1"/>
+      <c r="C53" s="9"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
-      <c r="C54" s="1"/>
+      <c r="C54" s="9"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
-      <c r="C55" s="1"/>
+      <c r="C55" s="9"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
-      <c r="C56" s="1"/>
+      <c r="C56" s="9"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
-      <c r="C57" s="1"/>
+      <c r="C57" s="9"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
-      <c r="C58" s="1"/>
+      <c r="C58" s="9"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
-      <c r="C59" s="1"/>
+      <c r="C59" s="9"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
-      <c r="C60" s="1"/>
+      <c r="C60" s="9"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
-      <c r="C61" s="1"/>
+      <c r="C61" s="9"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
-      <c r="C62" s="1"/>
+      <c r="C62" s="9"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
-      <c r="C63" s="1"/>
+      <c r="C63" s="9"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
-      <c r="C64" s="1"/>
+      <c r="C64" s="9"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
-      <c r="C65" s="1"/>
+      <c r="C65" s="9"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
-      <c r="C66" s="1"/>
+      <c r="C66" s="9"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
-      <c r="C67" s="1"/>
+      <c r="C67" s="9"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
-      <c r="C68" s="1"/>
+      <c r="C68" s="9"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
-      <c r="C69" s="1"/>
+      <c r="C69" s="9"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
-      <c r="C70" s="1"/>
+      <c r="C70" s="9"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
-      <c r="C71" s="1"/>
+      <c r="C71" s="9"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
-      <c r="C72" s="1"/>
+      <c r="C72" s="9"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
-      <c r="C73" s="1"/>
+      <c r="C73" s="9"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
-      <c r="C74" s="1"/>
+      <c r="C74" s="9"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
-      <c r="C75" s="1"/>
+      <c r="C75" s="9"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
-      <c r="C76" s="1"/>
+      <c r="C76" s="9"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
-      <c r="C77" s="1"/>
+      <c r="C77" s="9"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
-      <c r="C78" s="1"/>
+      <c r="C78" s="9"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
-      <c r="C79" s="1"/>
+      <c r="C79" s="9"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
-      <c r="C80" s="1"/>
+      <c r="C80" s="9"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
-      <c r="C81" s="1"/>
+      <c r="C81" s="9"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
-      <c r="C82" s="1"/>
+      <c r="C82" s="9"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
-      <c r="C83" s="1"/>
+      <c r="C83" s="9"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
-      <c r="C84" s="1"/>
+      <c r="C84" s="9"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
-      <c r="C85" s="1"/>
+      <c r="C85" s="9"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
-      <c r="C86" s="1"/>
+      <c r="C86" s="9"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
-      <c r="C87" s="1"/>
+      <c r="C87" s="9"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
-      <c r="C88" s="1"/>
+      <c r="C88" s="9"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
-      <c r="C89" s="1"/>
+      <c r="C89" s="9"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
-      <c r="C90" s="1"/>
+      <c r="C90" s="9"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
-      <c r="C91" s="1"/>
+      <c r="C91" s="9"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
-      <c r="C92" s="1"/>
+      <c r="C92" s="9"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
-      <c r="C93" s="1"/>
+      <c r="C93" s="9"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
-      <c r="C94" s="1"/>
+      <c r="C94" s="9"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
-      <c r="C95" s="1"/>
+      <c r="C95" s="9"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
-      <c r="C96" s="1"/>
+      <c r="C96" s="9"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
-      <c r="C97" s="1"/>
+      <c r="C97" s="9"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
-      <c r="C98" s="1"/>
+      <c r="C98" s="9"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
-      <c r="C99" s="1"/>
+      <c r="C99" s="9"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
-      <c r="C100" s="1"/>
+      <c r="C100" s="9"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
-      <c r="C101" s="1"/>
+      <c r="C101" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3256,311 +3838,311 @@
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D4" s="2"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D5" s="2"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D6" s="2"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D7" s="2"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D8" s="1"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D9" s="1"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D10" s="1"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D11" s="1"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D12" s="1"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D13" s="1"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D14" s="1"/>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D15" s="1"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D16" s="1"/>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D17" s="1"/>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D18" s="1"/>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D19" s="1"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D20" s="1"/>
+      <c r="D20" s="9"/>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D21" s="1"/>
+      <c r="D21" s="9"/>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D22" s="1"/>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D23" s="1"/>
+      <c r="D23" s="9"/>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D24" s="1"/>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D25" s="1"/>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D26" s="1"/>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D27" s="1"/>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D28" s="1"/>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D29" s="1"/>
+      <c r="D29" s="9"/>
     </row>
     <row r="30" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D30" s="1"/>
+      <c r="D30" s="9"/>
     </row>
     <row r="31" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D31" s="1"/>
+      <c r="D31" s="9"/>
     </row>
     <row r="32" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D32" s="1"/>
+      <c r="D32" s="9"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D33" s="1"/>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D34" s="1"/>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D35" s="1"/>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D36" s="1"/>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D37" s="1"/>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D38" s="1"/>
+      <c r="D38" s="9"/>
     </row>
     <row r="39" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D39" s="1"/>
+      <c r="D39" s="9"/>
     </row>
     <row r="40" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D40" s="1"/>
+      <c r="D40" s="9"/>
     </row>
     <row r="41" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D41" s="1"/>
+      <c r="D41" s="9"/>
     </row>
     <row r="42" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D42" s="1"/>
+      <c r="D42" s="9"/>
     </row>
     <row r="43" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D43" s="1"/>
+      <c r="D43" s="9"/>
     </row>
     <row r="44" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D44" s="1"/>
+      <c r="D44" s="9"/>
     </row>
     <row r="45" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D45" s="1"/>
+      <c r="D45" s="9"/>
     </row>
     <row r="46" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D46" s="1"/>
+      <c r="D46" s="9"/>
     </row>
     <row r="47" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D47" s="1"/>
+      <c r="D47" s="9"/>
     </row>
     <row r="48" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D48" s="1"/>
+      <c r="D48" s="9"/>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D49" s="1"/>
+      <c r="D49" s="9"/>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D50" s="1"/>
+      <c r="D50" s="9"/>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D51" s="1"/>
+      <c r="D51" s="9"/>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D52" s="1"/>
+      <c r="D52" s="9"/>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D53" s="1"/>
+      <c r="D53" s="9"/>
     </row>
     <row r="54" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D54" s="1"/>
+      <c r="D54" s="9"/>
     </row>
     <row r="55" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D55" s="1"/>
+      <c r="D55" s="9"/>
     </row>
     <row r="56" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D56" s="1"/>
+      <c r="D56" s="9"/>
     </row>
     <row r="57" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D57" s="1"/>
+      <c r="D57" s="9"/>
     </row>
     <row r="58" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D58" s="1"/>
+      <c r="D58" s="9"/>
     </row>
     <row r="59" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D59" s="1"/>
+      <c r="D59" s="9"/>
     </row>
     <row r="60" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D60" s="1"/>
+      <c r="D60" s="9"/>
     </row>
     <row r="61" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D61" s="1"/>
+      <c r="D61" s="9"/>
     </row>
     <row r="62" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D62" s="1"/>
+      <c r="D62" s="9"/>
     </row>
     <row r="63" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D63" s="1"/>
+      <c r="D63" s="9"/>
     </row>
     <row r="64" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D64" s="1"/>
+      <c r="D64" s="9"/>
     </row>
     <row r="65" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D65" s="1"/>
+      <c r="D65" s="9"/>
     </row>
     <row r="66" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D66" s="1"/>
+      <c r="D66" s="9"/>
     </row>
     <row r="67" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D67" s="1"/>
+      <c r="D67" s="9"/>
     </row>
     <row r="68" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D68" s="1"/>
+      <c r="D68" s="9"/>
     </row>
     <row r="69" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D69" s="1"/>
+      <c r="D69" s="9"/>
     </row>
     <row r="70" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D70" s="1"/>
+      <c r="D70" s="9"/>
     </row>
     <row r="71" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D71" s="1"/>
+      <c r="D71" s="9"/>
     </row>
     <row r="72" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D72" s="1"/>
+      <c r="D72" s="9"/>
     </row>
     <row r="73" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D73" s="1"/>
+      <c r="D73" s="9"/>
     </row>
     <row r="74" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D74" s="1"/>
+      <c r="D74" s="9"/>
     </row>
     <row r="75" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D75" s="1"/>
+      <c r="D75" s="9"/>
     </row>
     <row r="76" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D76" s="1"/>
+      <c r="D76" s="9"/>
     </row>
     <row r="77" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D77" s="1"/>
+      <c r="D77" s="9"/>
     </row>
     <row r="78" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D78" s="1"/>
+      <c r="D78" s="9"/>
     </row>
     <row r="79" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D79" s="1"/>
+      <c r="D79" s="9"/>
     </row>
     <row r="80" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D80" s="1"/>
+      <c r="D80" s="9"/>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D81" s="1"/>
+      <c r="D81" s="9"/>
     </row>
     <row r="82" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D82" s="1"/>
+      <c r="D82" s="9"/>
     </row>
     <row r="83" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D83" s="1"/>
+      <c r="D83" s="9"/>
     </row>
     <row r="84" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D84" s="1"/>
+      <c r="D84" s="9"/>
     </row>
     <row r="85" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D85" s="1"/>
+      <c r="D85" s="9"/>
     </row>
     <row r="86" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D86" s="1"/>
+      <c r="D86" s="9"/>
     </row>
     <row r="87" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D87" s="1"/>
+      <c r="D87" s="9"/>
     </row>
     <row r="88" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D88" s="1"/>
+      <c r="D88" s="9"/>
     </row>
     <row r="89" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D89" s="1"/>
+      <c r="D89" s="9"/>
     </row>
     <row r="90" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D90" s="1"/>
+      <c r="D90" s="9"/>
     </row>
     <row r="91" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D91" s="1"/>
+      <c r="D91" s="9"/>
     </row>
     <row r="92" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D92" s="1"/>
+      <c r="D92" s="9"/>
     </row>
     <row r="93" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D93" s="1"/>
+      <c r="D93" s="9"/>
     </row>
     <row r="94" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D94" s="1"/>
+      <c r="D94" s="9"/>
     </row>
     <row r="95" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D95" s="1"/>
+      <c r="D95" s="9"/>
     </row>
     <row r="96" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D96" s="1"/>
+      <c r="D96" s="9"/>
     </row>
     <row r="97" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D97" s="1"/>
+      <c r="D97" s="9"/>
     </row>
     <row r="98" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D98" s="1"/>
+      <c r="D98" s="9"/>
     </row>
     <row r="99" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D99" s="1"/>
+      <c r="D99" s="9"/>
     </row>
     <row r="100" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D100" s="1"/>
+      <c r="D100" s="9"/>
     </row>
     <row r="101" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D101" s="1"/>
+      <c r="D101" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3595,310 +4177,310 @@
       <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D3" s="2"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D4" s="2"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D5" s="2"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D6" s="2"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D7" s="2"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D8" s="1"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D9" s="1"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D10" s="1"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D11" s="1"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D12" s="1"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D13" s="1"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D14" s="1"/>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D15" s="1"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D16" s="1"/>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D17" s="1"/>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D18" s="1"/>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D19" s="1"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D20" s="1"/>
+      <c r="D20" s="9"/>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D21" s="1"/>
+      <c r="D21" s="9"/>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D22" s="1"/>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D23" s="1"/>
+      <c r="D23" s="9"/>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D24" s="1"/>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D25" s="1"/>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D26" s="1"/>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D27" s="1"/>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D28" s="1"/>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D29" s="1"/>
+      <c r="D29" s="9"/>
     </row>
     <row r="30" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D30" s="1"/>
+      <c r="D30" s="9"/>
     </row>
     <row r="31" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D31" s="1"/>
+      <c r="D31" s="9"/>
     </row>
     <row r="32" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D32" s="1"/>
+      <c r="D32" s="9"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D33" s="1"/>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D34" s="1"/>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D35" s="1"/>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D36" s="1"/>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D37" s="1"/>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D38" s="1"/>
+      <c r="D38" s="9"/>
     </row>
     <row r="39" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D39" s="1"/>
+      <c r="D39" s="9"/>
     </row>
     <row r="40" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D40" s="1"/>
+      <c r="D40" s="9"/>
     </row>
     <row r="41" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D41" s="1"/>
+      <c r="D41" s="9"/>
     </row>
     <row r="42" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D42" s="1"/>
+      <c r="D42" s="9"/>
     </row>
     <row r="43" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D43" s="1"/>
+      <c r="D43" s="9"/>
     </row>
     <row r="44" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D44" s="1"/>
+      <c r="D44" s="9"/>
     </row>
     <row r="45" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D45" s="1"/>
+      <c r="D45" s="9"/>
     </row>
     <row r="46" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D46" s="1"/>
+      <c r="D46" s="9"/>
     </row>
     <row r="47" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D47" s="1"/>
+      <c r="D47" s="9"/>
     </row>
     <row r="48" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D48" s="1"/>
+      <c r="D48" s="9"/>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D49" s="1"/>
+      <c r="D49" s="9"/>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D50" s="1"/>
+      <c r="D50" s="9"/>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D51" s="1"/>
+      <c r="D51" s="9"/>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D52" s="1"/>
+      <c r="D52" s="9"/>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D53" s="1"/>
+      <c r="D53" s="9"/>
     </row>
     <row r="54" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D54" s="1"/>
+      <c r="D54" s="9"/>
     </row>
     <row r="55" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D55" s="1"/>
+      <c r="D55" s="9"/>
     </row>
     <row r="56" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D56" s="1"/>
+      <c r="D56" s="9"/>
     </row>
     <row r="57" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D57" s="1"/>
+      <c r="D57" s="9"/>
     </row>
     <row r="58" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D58" s="1"/>
+      <c r="D58" s="9"/>
     </row>
     <row r="59" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D59" s="1"/>
+      <c r="D59" s="9"/>
     </row>
     <row r="60" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D60" s="1"/>
+      <c r="D60" s="9"/>
     </row>
     <row r="61" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D61" s="1"/>
+      <c r="D61" s="9"/>
     </row>
     <row r="62" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D62" s="1"/>
+      <c r="D62" s="9"/>
     </row>
     <row r="63" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D63" s="1"/>
+      <c r="D63" s="9"/>
     </row>
     <row r="64" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D64" s="1"/>
+      <c r="D64" s="9"/>
     </row>
     <row r="65" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D65" s="1"/>
+      <c r="D65" s="9"/>
     </row>
     <row r="66" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D66" s="1"/>
+      <c r="D66" s="9"/>
     </row>
     <row r="67" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D67" s="1"/>
+      <c r="D67" s="9"/>
     </row>
     <row r="68" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D68" s="1"/>
+      <c r="D68" s="9"/>
     </row>
     <row r="69" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D69" s="1"/>
+      <c r="D69" s="9"/>
     </row>
     <row r="70" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D70" s="1"/>
+      <c r="D70" s="9"/>
     </row>
     <row r="71" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D71" s="1"/>
+      <c r="D71" s="9"/>
     </row>
     <row r="72" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D72" s="1"/>
+      <c r="D72" s="9"/>
     </row>
     <row r="73" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D73" s="1"/>
+      <c r="D73" s="9"/>
     </row>
     <row r="74" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D74" s="1"/>
+      <c r="D74" s="9"/>
     </row>
     <row r="75" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D75" s="1"/>
+      <c r="D75" s="9"/>
     </row>
     <row r="76" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D76" s="1"/>
+      <c r="D76" s="9"/>
     </row>
     <row r="77" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D77" s="1"/>
+      <c r="D77" s="9"/>
     </row>
     <row r="78" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D78" s="1"/>
+      <c r="D78" s="9"/>
     </row>
     <row r="79" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D79" s="1"/>
+      <c r="D79" s="9"/>
     </row>
     <row r="80" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D80" s="1"/>
+      <c r="D80" s="9"/>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D81" s="1"/>
+      <c r="D81" s="9"/>
     </row>
     <row r="82" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D82" s="1"/>
+      <c r="D82" s="9"/>
     </row>
     <row r="83" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D83" s="1"/>
+      <c r="D83" s="9"/>
     </row>
     <row r="84" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D84" s="1"/>
+      <c r="D84" s="9"/>
     </row>
     <row r="85" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D85" s="1"/>
+      <c r="D85" s="9"/>
     </row>
     <row r="86" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D86" s="1"/>
+      <c r="D86" s="9"/>
     </row>
     <row r="87" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D87" s="1"/>
+      <c r="D87" s="9"/>
     </row>
     <row r="88" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D88" s="1"/>
+      <c r="D88" s="9"/>
     </row>
     <row r="89" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D89" s="1"/>
+      <c r="D89" s="9"/>
     </row>
     <row r="90" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D90" s="1"/>
+      <c r="D90" s="9"/>
     </row>
     <row r="91" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D91" s="1"/>
+      <c r="D91" s="9"/>
     </row>
     <row r="92" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D92" s="1"/>
+      <c r="D92" s="9"/>
     </row>
     <row r="93" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D93" s="1"/>
+      <c r="D93" s="9"/>
     </row>
     <row r="94" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D94" s="1"/>
+      <c r="D94" s="9"/>
     </row>
     <row r="95" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D95" s="1"/>
+      <c r="D95" s="9"/>
     </row>
     <row r="96" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D96" s="1"/>
+      <c r="D96" s="9"/>
     </row>
     <row r="97" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D97" s="1"/>
+      <c r="D97" s="9"/>
     </row>
     <row r="98" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D98" s="1"/>
+      <c r="D98" s="9"/>
     </row>
     <row r="99" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D99" s="1"/>
+      <c r="D99" s="9"/>
     </row>
     <row r="100" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D100" s="1"/>
+      <c r="D100" s="9"/>
     </row>
     <row r="101" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D101" s="1"/>
+      <c r="D101" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Workbooks/JA/ユーザー.xlsx
+++ b/Workbooks/JA/ユーザー.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C2CBD1-F1FB-473E-A271-17B0EDF3756E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79DD1D1-30AD-4E8C-B912-E28F5D886C9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
   <si>
     <t>名</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>ロール名</t>
+  </si>
+  <si>
+    <t>タイプ</t>
+  </si>
+  <si>
+    <t>処理が失敗しました。リクエストステータス：409 / レスポンス：{"message":"The name A is already used.","errorCode":1001,"resourceIds":null}。</t>
   </si>
 </sst>
 </file>
@@ -308,7 +314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -363,12 +369,797 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="42">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -599,29 +1390,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
@@ -646,6 +1414,73 @@
           <bgColor theme="2"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -671,790 +1506,6 @@
         </horizontal>
       </border>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </horizontal>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </horizontal>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </horizontal>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </horizontal>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </horizontal>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </horizontal>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1469,17 +1520,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:H201" headerRowDxfId="12" dataDxfId="11" totalsRowDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
-  <autoFilter ref="A1:H201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{1372863E-1574-486C-96A5-9F8A48DBEB17}" name="ID" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="ユーザー名" dataDxfId="6"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="名" totalsRowLabel="Total" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="姓" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="メールアドレス" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="組織単位名" totalsRowFunction="count" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="ロール名" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{73F4371D-09E6-432B-A8D2-FDF51584A3F9}" name="ステータス" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:I201" headerRowDxfId="41" dataDxfId="39" totalsRowDxfId="37" headerRowBorderDxfId="40" tableBorderDxfId="38">
+  <autoFilter ref="A1:I201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="9">
+    <tableColumn id="9" xr3:uid="{C22893F0-4B4D-460C-A013-95020C7502B4}" name="タイプ" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{1372863E-1574-486C-96A5-9F8A48DBEB17}" name="ID" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="ユーザー名" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="名" totalsRowLabel="Total" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="姓" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="メールアドレス" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="組織単位名" totalsRowFunction="count" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="ロール名" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{73F4371D-09E6-432B-A8D2-FDF51584A3F9}" name="ステータス" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1489,15 +1541,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I201" totalsRowShown="0">
   <autoFilter ref="A1:I201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="10" xr3:uid="{65749B7E-1278-4BF9-BE0E-B0B1A7EBF445}" name="ユーザー名" dataDxfId="39"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="名" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="姓" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="メールアドレス" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="組織単位名" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="ロール" dataDxfId="34"/>
-    <tableColumn id="9" xr3:uid="{4E111FFE-AC48-4FF2-B3E5-DEDE4EC1D531}" name="パスワード" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="ID" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{08B4DCAC-6628-4928-B533-CE43508622D2}" name="結果" dataDxfId="31"/>
+    <tableColumn id="10" xr3:uid="{65749B7E-1278-4BF9-BE0E-B0B1A7EBF445}" name="ユーザー名" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="名" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="姓" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="メールアドレス" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="組織単位名" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="ロール" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{4E111FFE-AC48-4FF2-B3E5-DEDE4EC1D531}" name="パスワード" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="ID" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{08B4DCAC-6628-4928-B533-CE43508622D2}" name="結果" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1507,13 +1559,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:G201" totalsRowShown="0">
   <autoFilter ref="A1:G201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="3" xr3:uid="{01450210-36BE-4B28-9B3B-758A2770B142}" name="ID" dataDxfId="30"/>
-    <tableColumn id="1" xr3:uid="{D002318D-F09E-4941-86F7-CB540B53CA38}" name="名" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="姓" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="メールアドレス" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{310BA8C6-70B4-40F4-B90F-2C40BB19BC10}" name="ステータス" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="パスワード" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{E7804193-086E-4884-9B07-86C7E77E0835}" name="結果" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{01450210-36BE-4B28-9B3B-758A2770B142}" name="ID" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{D002318D-F09E-4941-86F7-CB540B53CA38}" name="名" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="姓" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="メールアドレス" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{310BA8C6-70B4-40F4-B90F-2C40BB19BC10}" name="ステータス" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="パスワード" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{E7804193-086E-4884-9B07-86C7E77E0835}" name="結果" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1523,9 +1575,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C201" totalsRowShown="0">
   <autoFilter ref="A1:C201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ID" dataDxfId="23"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ユーザー名" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="結果" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ID" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ユーザー名" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="結果" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1535,10 +1587,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CA60972A-F912-4245-9614-90616502EB7F}" name="Table136" displayName="Table136" ref="A1:D201" totalsRowShown="0">
   <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{762AF24D-1071-4CC3-855B-AFBA1EC67A8F}" name="ユーザー名" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{1DC8369C-6CB3-40DF-9563-6D20384EDB27}" name="追加される組織単位名" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{D8F46081-FD39-42E4-9328-82EAB5A46B2A}" name="削除される組織単位名" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{8A01008F-4F65-412C-9DCE-2CD43107AA97}" name="結果" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{762AF24D-1071-4CC3-855B-AFBA1EC67A8F}" name="ユーザー名" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{1DC8369C-6CB3-40DF-9563-6D20384EDB27}" name="追加される組織単位名" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{D8F46081-FD39-42E4-9328-82EAB5A46B2A}" name="削除される組織単位名" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{8A01008F-4F65-412C-9DCE-2CD43107AA97}" name="結果" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1548,10 +1600,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D7C59586-DAF7-4411-AF3A-D7C272A65EF7}" name="Table1367" displayName="Table1367" ref="A1:D201" totalsRowShown="0">
   <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6ADEC0F4-60B9-440B-ACB4-4A0E21BD6E55}" name="ユーザー名" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{35497579-2B4A-401D-AAA7-DC449805F456}" name="追加されるロール名" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{FFF7ADE8-2EC3-4F29-AE06-AA9A280597F6}" name="削除されるロール名" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{80C9DBFB-CF60-44AC-81AB-9BA9267B4649}" name="結果" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{6ADEC0F4-60B9-440B-ACB4-4A0E21BD6E55}" name="ユーザー名" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{35497579-2B4A-401D-AAA7-DC449805F456}" name="追加されるロール名" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{FFF7ADE8-2EC3-4F29-AE06-AA9A280597F6}" name="削除されるロール名" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{80C9DBFB-CF60-44AC-81AB-9BA9267B4649}" name="結果" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1820,7 +1872,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B90804-4CC2-4F3A-A5A0-B313E9BACDDF}">
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1839,2031 +1891,2234 @@
     <col min="9" max="9" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="32"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="9"/>
+      <c r="E2" s="10"/>
       <c r="F2" s="9"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G2" s="9"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="9"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="9"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="9"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="9"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G6" s="9"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="9"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G7" s="9"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="10"/>
-      <c r="E8" s="9"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G8" s="9"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="9"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G9" s="9"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="9"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G10" s="9"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
-      <c r="B11" s="10"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F11" s="10"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
-      <c r="B12" s="10"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F12" s="10"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
-      <c r="B13" s="10"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F13" s="10"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
-      <c r="B14" s="10"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F14" s="10"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
-      <c r="B15" s="10"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F15" s="10"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
-      <c r="B16" s="10"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F16" s="10"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
-      <c r="B17" s="10"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F17" s="10"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
-      <c r="B18" s="10"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F18" s="10"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
-      <c r="B19" s="10"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F19" s="10"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
-      <c r="B20" s="10"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F20" s="10"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
-      <c r="B21" s="10"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F21" s="10"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
-      <c r="B22" s="10"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F22" s="10"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
-      <c r="B23" s="10"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F23" s="10"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
-      <c r="B24" s="10"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F24" s="10"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
-      <c r="B25" s="10"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="12"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F25" s="10"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
-      <c r="B26" s="10"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="12"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F26" s="10"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="12"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
-      <c r="B27" s="10"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="12"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F27" s="10"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="8"/>
-      <c r="B28" s="10"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="12"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F28" s="10"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="12"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
-      <c r="B29" s="10"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="12"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F29" s="10"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="12"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
-      <c r="B30" s="10"/>
+      <c r="B30" s="8"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="12"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F30" s="10"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="12"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="8"/>
-      <c r="B31" s="10"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="12"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F31" s="10"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="12"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
-      <c r="B32" s="10"/>
+      <c r="B32" s="8"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="12"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F32" s="10"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="12"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="8"/>
-      <c r="B33" s="10"/>
+      <c r="B33" s="8"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="12"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F33" s="10"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="12"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="8"/>
-      <c r="B34" s="10"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="12"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F34" s="10"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="12"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
-      <c r="B35" s="10"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="12"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F35" s="10"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="12"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
-      <c r="B36" s="10"/>
+      <c r="B36" s="8"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="12"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F36" s="10"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="12"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
-      <c r="B37" s="10"/>
+      <c r="B37" s="8"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="12"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F37" s="10"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="12"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
-      <c r="B38" s="10"/>
+      <c r="B38" s="8"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="12"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F38" s="10"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="12"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="8"/>
-      <c r="B39" s="10"/>
+      <c r="B39" s="8"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="12"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F39" s="10"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="12"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="8"/>
-      <c r="B40" s="10"/>
+      <c r="B40" s="8"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="12"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F40" s="10"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="12"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="8"/>
-      <c r="B41" s="10"/>
+      <c r="B41" s="8"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="12"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F41" s="10"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="12"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="8"/>
-      <c r="B42" s="10"/>
+      <c r="B42" s="8"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="12"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F42" s="10"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="12"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="8"/>
-      <c r="B43" s="10"/>
+      <c r="B43" s="8"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="12"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F43" s="10"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="12"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="8"/>
-      <c r="B44" s="10"/>
+      <c r="B44" s="8"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="12"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F44" s="10"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="12"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="8"/>
-      <c r="B45" s="10"/>
+      <c r="B45" s="8"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="12"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F45" s="10"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="12"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="10"/>
+      <c r="B46" s="8"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="12"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F46" s="10"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="12"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
-      <c r="B47" s="10"/>
+      <c r="B47" s="8"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="12"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F47" s="10"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="12"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="8"/>
-      <c r="B48" s="10"/>
+      <c r="B48" s="8"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="12"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F48" s="10"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="12"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="8"/>
-      <c r="B49" s="10"/>
+      <c r="B49" s="8"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="12"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F49" s="10"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="12"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="8"/>
-      <c r="B50" s="10"/>
+      <c r="B50" s="8"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="12"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F50" s="10"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="12"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="8"/>
-      <c r="B51" s="10"/>
+      <c r="B51" s="8"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="12"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F51" s="10"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="12"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="8"/>
-      <c r="B52" s="10"/>
+      <c r="B52" s="8"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="12"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F52" s="10"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="12"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="8"/>
-      <c r="B53" s="10"/>
+      <c r="B53" s="8"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="12"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F53" s="10"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="12"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="8"/>
-      <c r="B54" s="10"/>
+      <c r="B54" s="8"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="12"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F54" s="10"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="12"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="8"/>
-      <c r="B55" s="10"/>
+      <c r="B55" s="8"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="12"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F55" s="10"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="12"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="8"/>
-      <c r="B56" s="10"/>
+      <c r="B56" s="8"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="12"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F56" s="10"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="12"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="8"/>
-      <c r="B57" s="10"/>
+      <c r="B57" s="8"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="12"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F57" s="10"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="12"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="8"/>
-      <c r="B58" s="10"/>
+      <c r="B58" s="8"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="12"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F58" s="10"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="12"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="8"/>
-      <c r="B59" s="10"/>
+      <c r="B59" s="8"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="12"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F59" s="10"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="12"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="8"/>
-      <c r="B60" s="10"/>
+      <c r="B60" s="8"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
       <c r="E60" s="10"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="12"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F60" s="10"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="12"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="8"/>
-      <c r="B61" s="10"/>
+      <c r="B61" s="8"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
       <c r="E61" s="10"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="12"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F61" s="10"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="12"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="8"/>
-      <c r="B62" s="10"/>
+      <c r="B62" s="8"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="12"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F62" s="10"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="12"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="8"/>
-      <c r="B63" s="10"/>
+      <c r="B63" s="8"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="12"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F63" s="10"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="12"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="8"/>
-      <c r="B64" s="10"/>
+      <c r="B64" s="8"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="12"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F64" s="10"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="12"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="8"/>
-      <c r="B65" s="10"/>
+      <c r="B65" s="8"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="12"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F65" s="10"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="12"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="8"/>
-      <c r="B66" s="10"/>
+      <c r="B66" s="8"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
       <c r="E66" s="10"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="12"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F66" s="10"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="12"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="8"/>
-      <c r="B67" s="10"/>
+      <c r="B67" s="8"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="12"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F67" s="10"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="12"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="8"/>
-      <c r="B68" s="10"/>
+      <c r="B68" s="8"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
       <c r="E68" s="10"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="12"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F68" s="10"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="12"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="8"/>
-      <c r="B69" s="10"/>
+      <c r="B69" s="8"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="12"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F69" s="10"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="12"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="8"/>
-      <c r="B70" s="10"/>
+      <c r="B70" s="8"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="12"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F70" s="10"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="12"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="8"/>
-      <c r="B71" s="10"/>
+      <c r="B71" s="8"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
       <c r="E71" s="10"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="12"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F71" s="10"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="12"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="8"/>
-      <c r="B72" s="10"/>
+      <c r="B72" s="8"/>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
       <c r="E72" s="10"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="12"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F72" s="10"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="12"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="8"/>
-      <c r="B73" s="10"/>
+      <c r="B73" s="8"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
       <c r="E73" s="10"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="12"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F73" s="10"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="12"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="8"/>
-      <c r="B74" s="10"/>
+      <c r="B74" s="8"/>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
       <c r="E74" s="10"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="12"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F74" s="10"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="12"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="8"/>
-      <c r="B75" s="10"/>
+      <c r="B75" s="8"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
       <c r="E75" s="10"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="12"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F75" s="10"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="12"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="8"/>
-      <c r="B76" s="10"/>
+      <c r="B76" s="8"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
       <c r="E76" s="10"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="12"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F76" s="10"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="12"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="8"/>
-      <c r="B77" s="10"/>
+      <c r="B77" s="8"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
       <c r="E77" s="10"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="12"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F77" s="10"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="12"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="8"/>
-      <c r="B78" s="10"/>
+      <c r="B78" s="8"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
       <c r="E78" s="10"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="12"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F78" s="10"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="12"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="8"/>
-      <c r="B79" s="10"/>
+      <c r="B79" s="8"/>
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
       <c r="E79" s="10"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="12"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F79" s="10"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="12"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="8"/>
-      <c r="B80" s="10"/>
+      <c r="B80" s="8"/>
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
       <c r="E80" s="10"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="12"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F80" s="10"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="12"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="8"/>
-      <c r="B81" s="10"/>
+      <c r="B81" s="8"/>
       <c r="C81" s="10"/>
       <c r="D81" s="10"/>
       <c r="E81" s="10"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="12"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F81" s="10"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="12"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="8"/>
-      <c r="B82" s="10"/>
+      <c r="B82" s="8"/>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="12"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F82" s="10"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="12"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="8"/>
-      <c r="B83" s="10"/>
+      <c r="B83" s="8"/>
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
       <c r="E83" s="10"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="12"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F83" s="10"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="12"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="8"/>
-      <c r="B84" s="10"/>
+      <c r="B84" s="8"/>
       <c r="C84" s="10"/>
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="12"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F84" s="10"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="12"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="8"/>
-      <c r="B85" s="10"/>
+      <c r="B85" s="8"/>
       <c r="C85" s="10"/>
       <c r="D85" s="10"/>
       <c r="E85" s="10"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="12"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F85" s="10"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="12"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="8"/>
-      <c r="B86" s="10"/>
+      <c r="B86" s="8"/>
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
       <c r="E86" s="10"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="12"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F86" s="10"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="12"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="8"/>
-      <c r="B87" s="10"/>
+      <c r="B87" s="8"/>
       <c r="C87" s="10"/>
       <c r="D87" s="10"/>
       <c r="E87" s="10"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="12"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F87" s="10"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="12"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="8"/>
-      <c r="B88" s="10"/>
+      <c r="B88" s="8"/>
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
       <c r="E88" s="10"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="12"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F88" s="10"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="12"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="8"/>
-      <c r="B89" s="10"/>
+      <c r="B89" s="8"/>
       <c r="C89" s="10"/>
       <c r="D89" s="10"/>
       <c r="E89" s="10"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="12"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F89" s="10"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="12"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="8"/>
-      <c r="B90" s="10"/>
+      <c r="B90" s="8"/>
       <c r="C90" s="10"/>
       <c r="D90" s="10"/>
       <c r="E90" s="10"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="12"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F90" s="10"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="12"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="8"/>
-      <c r="B91" s="10"/>
+      <c r="B91" s="8"/>
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
       <c r="E91" s="10"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="12"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F91" s="10"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="12"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="8"/>
-      <c r="B92" s="10"/>
+      <c r="B92" s="8"/>
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
       <c r="E92" s="10"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="11"/>
-      <c r="H92" s="12"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F92" s="10"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="12"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="8"/>
-      <c r="B93" s="10"/>
+      <c r="B93" s="8"/>
       <c r="C93" s="10"/>
       <c r="D93" s="10"/>
       <c r="E93" s="10"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="11"/>
-      <c r="H93" s="12"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F93" s="10"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="12"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="8"/>
-      <c r="B94" s="10"/>
+      <c r="B94" s="8"/>
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
       <c r="E94" s="10"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="11"/>
-      <c r="H94" s="12"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F94" s="10"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="12"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="8"/>
-      <c r="B95" s="10"/>
+      <c r="B95" s="8"/>
       <c r="C95" s="10"/>
       <c r="D95" s="10"/>
       <c r="E95" s="10"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="12"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F95" s="10"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="12"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="8"/>
-      <c r="B96" s="10"/>
+      <c r="B96" s="8"/>
       <c r="C96" s="10"/>
       <c r="D96" s="10"/>
       <c r="E96" s="10"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="12"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F96" s="10"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="12"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="8"/>
-      <c r="B97" s="10"/>
+      <c r="B97" s="8"/>
       <c r="C97" s="10"/>
       <c r="D97" s="10"/>
       <c r="E97" s="10"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="12"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F97" s="10"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="12"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="8"/>
-      <c r="B98" s="10"/>
+      <c r="B98" s="8"/>
       <c r="C98" s="10"/>
       <c r="D98" s="10"/>
       <c r="E98" s="10"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="11"/>
-      <c r="H98" s="12"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F98" s="10"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="12"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="8"/>
-      <c r="B99" s="10"/>
+      <c r="B99" s="8"/>
       <c r="C99" s="10"/>
       <c r="D99" s="10"/>
       <c r="E99" s="10"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="12"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F99" s="10"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="12"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="8"/>
-      <c r="B100" s="10"/>
+      <c r="B100" s="8"/>
       <c r="C100" s="10"/>
       <c r="D100" s="10"/>
       <c r="E100" s="10"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="12"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A101" s="14"/>
-      <c r="B101" s="15"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="12"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101" s="8"/>
+      <c r="B101" s="14"/>
       <c r="C101" s="15"/>
       <c r="D101" s="15"/>
       <c r="E101" s="15"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="17"/>
-      <c r="H101" s="18"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F101" s="15"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="17"/>
+      <c r="I101" s="18"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="8"/>
-      <c r="B102" s="10"/>
+      <c r="B102" s="8"/>
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
       <c r="E102" s="10"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="11"/>
-      <c r="H102" s="12"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F102" s="10"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="12"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="8"/>
-      <c r="B103" s="10"/>
+      <c r="B103" s="8"/>
       <c r="C103" s="10"/>
       <c r="D103" s="10"/>
       <c r="E103" s="10"/>
-      <c r="F103" s="13"/>
-      <c r="G103" s="11"/>
-      <c r="H103" s="12"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F103" s="10"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="12"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="8"/>
-      <c r="B104" s="10"/>
+      <c r="B104" s="8"/>
       <c r="C104" s="10"/>
       <c r="D104" s="10"/>
       <c r="E104" s="10"/>
-      <c r="F104" s="13"/>
-      <c r="G104" s="11"/>
-      <c r="H104" s="12"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F104" s="10"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="12"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="8"/>
-      <c r="B105" s="10"/>
+      <c r="B105" s="8"/>
       <c r="C105" s="10"/>
       <c r="D105" s="10"/>
       <c r="E105" s="10"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="11"/>
-      <c r="H105" s="12"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F105" s="10"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="12"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="8"/>
-      <c r="B106" s="10"/>
+      <c r="B106" s="8"/>
       <c r="C106" s="10"/>
       <c r="D106" s="10"/>
       <c r="E106" s="10"/>
-      <c r="F106" s="13"/>
-      <c r="G106" s="11"/>
-      <c r="H106" s="12"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F106" s="10"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="12"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="8"/>
-      <c r="B107" s="10"/>
+      <c r="B107" s="8"/>
       <c r="C107" s="10"/>
       <c r="D107" s="10"/>
       <c r="E107" s="10"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="11"/>
-      <c r="H107" s="12"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F107" s="10"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="12"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="8"/>
-      <c r="B108" s="10"/>
+      <c r="B108" s="8"/>
       <c r="C108" s="10"/>
       <c r="D108" s="10"/>
       <c r="E108" s="10"/>
-      <c r="F108" s="13"/>
-      <c r="G108" s="11"/>
-      <c r="H108" s="12"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F108" s="10"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="12"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="8"/>
-      <c r="B109" s="10"/>
+      <c r="B109" s="8"/>
       <c r="C109" s="10"/>
       <c r="D109" s="10"/>
       <c r="E109" s="10"/>
-      <c r="F109" s="13"/>
-      <c r="G109" s="11"/>
-      <c r="H109" s="12"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F109" s="10"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="12"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="8"/>
-      <c r="B110" s="10"/>
+      <c r="B110" s="8"/>
       <c r="C110" s="10"/>
       <c r="D110" s="10"/>
       <c r="E110" s="10"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="11"/>
-      <c r="H110" s="12"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F110" s="10"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="12"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="8"/>
-      <c r="B111" s="10"/>
+      <c r="B111" s="8"/>
       <c r="C111" s="10"/>
       <c r="D111" s="10"/>
       <c r="E111" s="10"/>
-      <c r="F111" s="13"/>
-      <c r="G111" s="11"/>
-      <c r="H111" s="12"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F111" s="10"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="12"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="8"/>
-      <c r="B112" s="10"/>
+      <c r="B112" s="8"/>
       <c r="C112" s="10"/>
       <c r="D112" s="10"/>
       <c r="E112" s="10"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="11"/>
-      <c r="H112" s="12"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F112" s="10"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="12"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="8"/>
-      <c r="B113" s="10"/>
+      <c r="B113" s="8"/>
       <c r="C113" s="10"/>
       <c r="D113" s="10"/>
       <c r="E113" s="10"/>
-      <c r="F113" s="13"/>
-      <c r="G113" s="11"/>
-      <c r="H113" s="12"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F113" s="10"/>
+      <c r="G113" s="13"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="12"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="8"/>
-      <c r="B114" s="10"/>
+      <c r="B114" s="8"/>
       <c r="C114" s="10"/>
       <c r="D114" s="10"/>
       <c r="E114" s="10"/>
-      <c r="F114" s="13"/>
-      <c r="G114" s="11"/>
-      <c r="H114" s="12"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F114" s="10"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="11"/>
+      <c r="I114" s="12"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="8"/>
-      <c r="B115" s="10"/>
+      <c r="B115" s="8"/>
       <c r="C115" s="10"/>
       <c r="D115" s="10"/>
       <c r="E115" s="10"/>
-      <c r="F115" s="13"/>
-      <c r="G115" s="11"/>
-      <c r="H115" s="12"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F115" s="10"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="11"/>
+      <c r="I115" s="12"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="8"/>
-      <c r="B116" s="10"/>
+      <c r="B116" s="8"/>
       <c r="C116" s="10"/>
       <c r="D116" s="10"/>
       <c r="E116" s="10"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="11"/>
-      <c r="H116" s="12"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F116" s="10"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="11"/>
+      <c r="I116" s="12"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="8"/>
-      <c r="B117" s="10"/>
+      <c r="B117" s="8"/>
       <c r="C117" s="10"/>
       <c r="D117" s="10"/>
       <c r="E117" s="10"/>
-      <c r="F117" s="13"/>
-      <c r="G117" s="11"/>
-      <c r="H117" s="12"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F117" s="10"/>
+      <c r="G117" s="13"/>
+      <c r="H117" s="11"/>
+      <c r="I117" s="12"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="8"/>
-      <c r="B118" s="10"/>
+      <c r="B118" s="8"/>
       <c r="C118" s="10"/>
       <c r="D118" s="10"/>
       <c r="E118" s="10"/>
-      <c r="F118" s="13"/>
-      <c r="G118" s="11"/>
-      <c r="H118" s="12"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F118" s="10"/>
+      <c r="G118" s="13"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="12"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="8"/>
-      <c r="B119" s="10"/>
+      <c r="B119" s="8"/>
       <c r="C119" s="10"/>
       <c r="D119" s="10"/>
       <c r="E119" s="10"/>
-      <c r="F119" s="13"/>
-      <c r="G119" s="11"/>
-      <c r="H119" s="12"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F119" s="10"/>
+      <c r="G119" s="13"/>
+      <c r="H119" s="11"/>
+      <c r="I119" s="12"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="8"/>
-      <c r="B120" s="10"/>
+      <c r="B120" s="8"/>
       <c r="C120" s="10"/>
       <c r="D120" s="10"/>
       <c r="E120" s="10"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="11"/>
-      <c r="H120" s="12"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F120" s="10"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="12"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="8"/>
-      <c r="B121" s="10"/>
+      <c r="B121" s="8"/>
       <c r="C121" s="10"/>
       <c r="D121" s="10"/>
       <c r="E121" s="10"/>
-      <c r="F121" s="13"/>
-      <c r="G121" s="11"/>
-      <c r="H121" s="12"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F121" s="10"/>
+      <c r="G121" s="13"/>
+      <c r="H121" s="11"/>
+      <c r="I121" s="12"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="8"/>
-      <c r="B122" s="10"/>
+      <c r="B122" s="8"/>
       <c r="C122" s="10"/>
       <c r="D122" s="10"/>
       <c r="E122" s="10"/>
-      <c r="F122" s="13"/>
-      <c r="G122" s="11"/>
-      <c r="H122" s="12"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F122" s="10"/>
+      <c r="G122" s="13"/>
+      <c r="H122" s="11"/>
+      <c r="I122" s="12"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="8"/>
-      <c r="B123" s="10"/>
+      <c r="B123" s="8"/>
       <c r="C123" s="10"/>
       <c r="D123" s="10"/>
       <c r="E123" s="10"/>
-      <c r="F123" s="13"/>
-      <c r="G123" s="11"/>
-      <c r="H123" s="12"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F123" s="10"/>
+      <c r="G123" s="13"/>
+      <c r="H123" s="11"/>
+      <c r="I123" s="12"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="8"/>
-      <c r="B124" s="10"/>
+      <c r="B124" s="8"/>
       <c r="C124" s="10"/>
       <c r="D124" s="10"/>
       <c r="E124" s="10"/>
-      <c r="F124" s="13"/>
-      <c r="G124" s="11"/>
-      <c r="H124" s="12"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F124" s="10"/>
+      <c r="G124" s="13"/>
+      <c r="H124" s="11"/>
+      <c r="I124" s="12"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="8"/>
-      <c r="B125" s="10"/>
+      <c r="B125" s="8"/>
       <c r="C125" s="10"/>
       <c r="D125" s="10"/>
       <c r="E125" s="10"/>
-      <c r="F125" s="13"/>
-      <c r="G125" s="11"/>
-      <c r="H125" s="12"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F125" s="10"/>
+      <c r="G125" s="13"/>
+      <c r="H125" s="11"/>
+      <c r="I125" s="12"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="8"/>
-      <c r="B126" s="10"/>
+      <c r="B126" s="8"/>
       <c r="C126" s="10"/>
       <c r="D126" s="10"/>
       <c r="E126" s="10"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="11"/>
-      <c r="H126" s="12"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F126" s="10"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="11"/>
+      <c r="I126" s="12"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="8"/>
-      <c r="B127" s="10"/>
+      <c r="B127" s="8"/>
       <c r="C127" s="10"/>
       <c r="D127" s="10"/>
       <c r="E127" s="10"/>
-      <c r="F127" s="13"/>
-      <c r="G127" s="11"/>
-      <c r="H127" s="12"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F127" s="10"/>
+      <c r="G127" s="13"/>
+      <c r="H127" s="11"/>
+      <c r="I127" s="12"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="8"/>
-      <c r="B128" s="10"/>
+      <c r="B128" s="8"/>
       <c r="C128" s="10"/>
       <c r="D128" s="10"/>
       <c r="E128" s="10"/>
-      <c r="F128" s="13"/>
-      <c r="G128" s="11"/>
-      <c r="H128" s="12"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F128" s="10"/>
+      <c r="G128" s="13"/>
+      <c r="H128" s="11"/>
+      <c r="I128" s="12"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="8"/>
-      <c r="B129" s="10"/>
+      <c r="B129" s="8"/>
       <c r="C129" s="10"/>
       <c r="D129" s="10"/>
       <c r="E129" s="10"/>
-      <c r="F129" s="13"/>
-      <c r="G129" s="11"/>
-      <c r="H129" s="12"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F129" s="10"/>
+      <c r="G129" s="13"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="12"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="8"/>
-      <c r="B130" s="10"/>
+      <c r="B130" s="8"/>
       <c r="C130" s="10"/>
       <c r="D130" s="10"/>
       <c r="E130" s="10"/>
-      <c r="F130" s="13"/>
-      <c r="G130" s="11"/>
-      <c r="H130" s="12"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F130" s="10"/>
+      <c r="G130" s="13"/>
+      <c r="H130" s="11"/>
+      <c r="I130" s="12"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="8"/>
-      <c r="B131" s="10"/>
+      <c r="B131" s="8"/>
       <c r="C131" s="10"/>
       <c r="D131" s="10"/>
       <c r="E131" s="10"/>
-      <c r="F131" s="13"/>
-      <c r="G131" s="11"/>
-      <c r="H131" s="12"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F131" s="10"/>
+      <c r="G131" s="13"/>
+      <c r="H131" s="11"/>
+      <c r="I131" s="12"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="8"/>
-      <c r="B132" s="10"/>
+      <c r="B132" s="8"/>
       <c r="C132" s="10"/>
       <c r="D132" s="10"/>
       <c r="E132" s="10"/>
-      <c r="F132" s="13"/>
-      <c r="G132" s="11"/>
-      <c r="H132" s="12"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F132" s="10"/>
+      <c r="G132" s="13"/>
+      <c r="H132" s="11"/>
+      <c r="I132" s="12"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="8"/>
-      <c r="B133" s="10"/>
+      <c r="B133" s="8"/>
       <c r="C133" s="10"/>
       <c r="D133" s="10"/>
       <c r="E133" s="10"/>
-      <c r="F133" s="13"/>
-      <c r="G133" s="11"/>
-      <c r="H133" s="12"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F133" s="10"/>
+      <c r="G133" s="13"/>
+      <c r="H133" s="11"/>
+      <c r="I133" s="12"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="8"/>
-      <c r="B134" s="10"/>
+      <c r="B134" s="8"/>
       <c r="C134" s="10"/>
       <c r="D134" s="10"/>
       <c r="E134" s="10"/>
-      <c r="F134" s="13"/>
-      <c r="G134" s="11"/>
-      <c r="H134" s="12"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F134" s="10"/>
+      <c r="G134" s="13"/>
+      <c r="H134" s="11"/>
+      <c r="I134" s="12"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="8"/>
-      <c r="B135" s="10"/>
+      <c r="B135" s="8"/>
       <c r="C135" s="10"/>
       <c r="D135" s="10"/>
       <c r="E135" s="10"/>
-      <c r="F135" s="13"/>
-      <c r="G135" s="11"/>
-      <c r="H135" s="12"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F135" s="10"/>
+      <c r="G135" s="13"/>
+      <c r="H135" s="11"/>
+      <c r="I135" s="12"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="8"/>
-      <c r="B136" s="10"/>
+      <c r="B136" s="8"/>
       <c r="C136" s="10"/>
       <c r="D136" s="10"/>
       <c r="E136" s="10"/>
-      <c r="F136" s="13"/>
-      <c r="G136" s="11"/>
-      <c r="H136" s="12"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F136" s="10"/>
+      <c r="G136" s="13"/>
+      <c r="H136" s="11"/>
+      <c r="I136" s="12"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="8"/>
-      <c r="B137" s="10"/>
+      <c r="B137" s="8"/>
       <c r="C137" s="10"/>
       <c r="D137" s="10"/>
       <c r="E137" s="10"/>
-      <c r="F137" s="13"/>
-      <c r="G137" s="11"/>
-      <c r="H137" s="12"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F137" s="10"/>
+      <c r="G137" s="13"/>
+      <c r="H137" s="11"/>
+      <c r="I137" s="12"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="8"/>
-      <c r="B138" s="10"/>
+      <c r="B138" s="8"/>
       <c r="C138" s="10"/>
       <c r="D138" s="10"/>
       <c r="E138" s="10"/>
-      <c r="F138" s="13"/>
-      <c r="G138" s="11"/>
-      <c r="H138" s="12"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F138" s="10"/>
+      <c r="G138" s="13"/>
+      <c r="H138" s="11"/>
+      <c r="I138" s="12"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="8"/>
-      <c r="B139" s="10"/>
+      <c r="B139" s="8"/>
       <c r="C139" s="10"/>
       <c r="D139" s="10"/>
       <c r="E139" s="10"/>
-      <c r="F139" s="13"/>
-      <c r="G139" s="11"/>
-      <c r="H139" s="12"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F139" s="10"/>
+      <c r="G139" s="13"/>
+      <c r="H139" s="11"/>
+      <c r="I139" s="12"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="8"/>
-      <c r="B140" s="10"/>
+      <c r="B140" s="8"/>
       <c r="C140" s="10"/>
       <c r="D140" s="10"/>
       <c r="E140" s="10"/>
-      <c r="F140" s="13"/>
-      <c r="G140" s="11"/>
-      <c r="H140" s="12"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F140" s="10"/>
+      <c r="G140" s="13"/>
+      <c r="H140" s="11"/>
+      <c r="I140" s="12"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="8"/>
-      <c r="B141" s="10"/>
+      <c r="B141" s="8"/>
       <c r="C141" s="10"/>
       <c r="D141" s="10"/>
       <c r="E141" s="10"/>
-      <c r="F141" s="13"/>
-      <c r="G141" s="11"/>
-      <c r="H141" s="12"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F141" s="10"/>
+      <c r="G141" s="13"/>
+      <c r="H141" s="11"/>
+      <c r="I141" s="12"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="8"/>
-      <c r="B142" s="10"/>
+      <c r="B142" s="8"/>
       <c r="C142" s="10"/>
       <c r="D142" s="10"/>
       <c r="E142" s="10"/>
-      <c r="F142" s="13"/>
-      <c r="G142" s="11"/>
-      <c r="H142" s="12"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F142" s="10"/>
+      <c r="G142" s="13"/>
+      <c r="H142" s="11"/>
+      <c r="I142" s="12"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="8"/>
-      <c r="B143" s="10"/>
+      <c r="B143" s="8"/>
       <c r="C143" s="10"/>
       <c r="D143" s="10"/>
       <c r="E143" s="10"/>
-      <c r="F143" s="13"/>
-      <c r="G143" s="11"/>
-      <c r="H143" s="12"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F143" s="10"/>
+      <c r="G143" s="13"/>
+      <c r="H143" s="11"/>
+      <c r="I143" s="12"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="8"/>
-      <c r="B144" s="10"/>
+      <c r="B144" s="8"/>
       <c r="C144" s="10"/>
       <c r="D144" s="10"/>
       <c r="E144" s="10"/>
-      <c r="F144" s="13"/>
-      <c r="G144" s="11"/>
-      <c r="H144" s="12"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F144" s="10"/>
+      <c r="G144" s="13"/>
+      <c r="H144" s="11"/>
+      <c r="I144" s="12"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="8"/>
-      <c r="B145" s="10"/>
+      <c r="B145" s="8"/>
       <c r="C145" s="10"/>
       <c r="D145" s="10"/>
       <c r="E145" s="10"/>
-      <c r="F145" s="13"/>
-      <c r="G145" s="11"/>
-      <c r="H145" s="12"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F145" s="10"/>
+      <c r="G145" s="13"/>
+      <c r="H145" s="11"/>
+      <c r="I145" s="12"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="8"/>
-      <c r="B146" s="10"/>
+      <c r="B146" s="8"/>
       <c r="C146" s="10"/>
       <c r="D146" s="10"/>
       <c r="E146" s="10"/>
-      <c r="F146" s="13"/>
-      <c r="G146" s="11"/>
-      <c r="H146" s="12"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F146" s="10"/>
+      <c r="G146" s="13"/>
+      <c r="H146" s="11"/>
+      <c r="I146" s="12"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="8"/>
-      <c r="B147" s="10"/>
+      <c r="B147" s="8"/>
       <c r="C147" s="10"/>
       <c r="D147" s="10"/>
       <c r="E147" s="10"/>
-      <c r="F147" s="13"/>
-      <c r="G147" s="11"/>
-      <c r="H147" s="12"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F147" s="10"/>
+      <c r="G147" s="13"/>
+      <c r="H147" s="11"/>
+      <c r="I147" s="12"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="8"/>
-      <c r="B148" s="10"/>
+      <c r="B148" s="8"/>
       <c r="C148" s="10"/>
       <c r="D148" s="10"/>
       <c r="E148" s="10"/>
-      <c r="F148" s="13"/>
-      <c r="G148" s="11"/>
-      <c r="H148" s="12"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F148" s="10"/>
+      <c r="G148" s="13"/>
+      <c r="H148" s="11"/>
+      <c r="I148" s="12"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="8"/>
-      <c r="B149" s="10"/>
+      <c r="B149" s="8"/>
       <c r="C149" s="10"/>
       <c r="D149" s="10"/>
       <c r="E149" s="10"/>
-      <c r="F149" s="13"/>
-      <c r="G149" s="11"/>
-      <c r="H149" s="12"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F149" s="10"/>
+      <c r="G149" s="13"/>
+      <c r="H149" s="11"/>
+      <c r="I149" s="12"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="8"/>
-      <c r="B150" s="10"/>
+      <c r="B150" s="8"/>
       <c r="C150" s="10"/>
       <c r="D150" s="10"/>
       <c r="E150" s="10"/>
-      <c r="F150" s="13"/>
-      <c r="G150" s="11"/>
-      <c r="H150" s="12"/>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F150" s="10"/>
+      <c r="G150" s="13"/>
+      <c r="H150" s="11"/>
+      <c r="I150" s="12"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="8"/>
-      <c r="B151" s="10"/>
+      <c r="B151" s="8"/>
       <c r="C151" s="10"/>
       <c r="D151" s="10"/>
       <c r="E151" s="10"/>
-      <c r="F151" s="13"/>
-      <c r="G151" s="11"/>
-      <c r="H151" s="12"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F151" s="10"/>
+      <c r="G151" s="13"/>
+      <c r="H151" s="11"/>
+      <c r="I151" s="12"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="8"/>
-      <c r="B152" s="10"/>
+      <c r="B152" s="8"/>
       <c r="C152" s="10"/>
       <c r="D152" s="10"/>
       <c r="E152" s="10"/>
-      <c r="F152" s="13"/>
-      <c r="G152" s="11"/>
-      <c r="H152" s="12"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F152" s="10"/>
+      <c r="G152" s="13"/>
+      <c r="H152" s="11"/>
+      <c r="I152" s="12"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="8"/>
-      <c r="B153" s="10"/>
+      <c r="B153" s="8"/>
       <c r="C153" s="10"/>
       <c r="D153" s="10"/>
       <c r="E153" s="10"/>
-      <c r="F153" s="13"/>
-      <c r="G153" s="11"/>
-      <c r="H153" s="12"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F153" s="10"/>
+      <c r="G153" s="13"/>
+      <c r="H153" s="11"/>
+      <c r="I153" s="12"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="8"/>
-      <c r="B154" s="10"/>
+      <c r="B154" s="8"/>
       <c r="C154" s="10"/>
       <c r="D154" s="10"/>
       <c r="E154" s="10"/>
-      <c r="F154" s="13"/>
-      <c r="G154" s="11"/>
-      <c r="H154" s="12"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F154" s="10"/>
+      <c r="G154" s="13"/>
+      <c r="H154" s="11"/>
+      <c r="I154" s="12"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="8"/>
-      <c r="B155" s="10"/>
+      <c r="B155" s="8"/>
       <c r="C155" s="10"/>
       <c r="D155" s="10"/>
       <c r="E155" s="10"/>
-      <c r="F155" s="13"/>
-      <c r="G155" s="11"/>
-      <c r="H155" s="12"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F155" s="10"/>
+      <c r="G155" s="13"/>
+      <c r="H155" s="11"/>
+      <c r="I155" s="12"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" s="8"/>
-      <c r="B156" s="10"/>
+      <c r="B156" s="8"/>
       <c r="C156" s="10"/>
       <c r="D156" s="10"/>
       <c r="E156" s="10"/>
-      <c r="F156" s="13"/>
-      <c r="G156" s="11"/>
-      <c r="H156" s="12"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F156" s="10"/>
+      <c r="G156" s="13"/>
+      <c r="H156" s="11"/>
+      <c r="I156" s="12"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" s="8"/>
-      <c r="B157" s="10"/>
+      <c r="B157" s="8"/>
       <c r="C157" s="10"/>
       <c r="D157" s="10"/>
       <c r="E157" s="10"/>
-      <c r="F157" s="13"/>
-      <c r="G157" s="11"/>
-      <c r="H157" s="12"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F157" s="10"/>
+      <c r="G157" s="13"/>
+      <c r="H157" s="11"/>
+      <c r="I157" s="12"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="8"/>
-      <c r="B158" s="10"/>
+      <c r="B158" s="8"/>
       <c r="C158" s="10"/>
       <c r="D158" s="10"/>
       <c r="E158" s="10"/>
-      <c r="F158" s="13"/>
-      <c r="G158" s="11"/>
-      <c r="H158" s="12"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F158" s="10"/>
+      <c r="G158" s="13"/>
+      <c r="H158" s="11"/>
+      <c r="I158" s="12"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="8"/>
-      <c r="B159" s="10"/>
+      <c r="B159" s="8"/>
       <c r="C159" s="10"/>
       <c r="D159" s="10"/>
       <c r="E159" s="10"/>
-      <c r="F159" s="13"/>
-      <c r="G159" s="11"/>
-      <c r="H159" s="12"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F159" s="10"/>
+      <c r="G159" s="13"/>
+      <c r="H159" s="11"/>
+      <c r="I159" s="12"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="8"/>
-      <c r="B160" s="10"/>
+      <c r="B160" s="8"/>
       <c r="C160" s="10"/>
       <c r="D160" s="10"/>
       <c r="E160" s="10"/>
-      <c r="F160" s="13"/>
-      <c r="G160" s="11"/>
-      <c r="H160" s="12"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F160" s="10"/>
+      <c r="G160" s="13"/>
+      <c r="H160" s="11"/>
+      <c r="I160" s="12"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="8"/>
-      <c r="B161" s="10"/>
+      <c r="B161" s="8"/>
       <c r="C161" s="10"/>
       <c r="D161" s="10"/>
       <c r="E161" s="10"/>
-      <c r="F161" s="13"/>
-      <c r="G161" s="11"/>
-      <c r="H161" s="12"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F161" s="10"/>
+      <c r="G161" s="13"/>
+      <c r="H161" s="11"/>
+      <c r="I161" s="12"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="8"/>
-      <c r="B162" s="10"/>
+      <c r="B162" s="8"/>
       <c r="C162" s="10"/>
       <c r="D162" s="10"/>
       <c r="E162" s="10"/>
-      <c r="F162" s="13"/>
-      <c r="G162" s="11"/>
-      <c r="H162" s="12"/>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F162" s="10"/>
+      <c r="G162" s="13"/>
+      <c r="H162" s="11"/>
+      <c r="I162" s="12"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" s="8"/>
-      <c r="B163" s="10"/>
+      <c r="B163" s="8"/>
       <c r="C163" s="10"/>
       <c r="D163" s="10"/>
       <c r="E163" s="10"/>
-      <c r="F163" s="13"/>
-      <c r="G163" s="11"/>
-      <c r="H163" s="12"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F163" s="10"/>
+      <c r="G163" s="13"/>
+      <c r="H163" s="11"/>
+      <c r="I163" s="12"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" s="8"/>
-      <c r="B164" s="10"/>
+      <c r="B164" s="8"/>
       <c r="C164" s="10"/>
       <c r="D164" s="10"/>
       <c r="E164" s="10"/>
-      <c r="F164" s="13"/>
-      <c r="G164" s="11"/>
-      <c r="H164" s="12"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F164" s="10"/>
+      <c r="G164" s="13"/>
+      <c r="H164" s="11"/>
+      <c r="I164" s="12"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" s="8"/>
-      <c r="B165" s="10"/>
+      <c r="B165" s="8"/>
       <c r="C165" s="10"/>
       <c r="D165" s="10"/>
       <c r="E165" s="10"/>
-      <c r="F165" s="13"/>
-      <c r="G165" s="11"/>
-      <c r="H165" s="12"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F165" s="10"/>
+      <c r="G165" s="13"/>
+      <c r="H165" s="11"/>
+      <c r="I165" s="12"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" s="8"/>
-      <c r="B166" s="10"/>
+      <c r="B166" s="8"/>
       <c r="C166" s="10"/>
       <c r="D166" s="10"/>
       <c r="E166" s="10"/>
-      <c r="F166" s="13"/>
-      <c r="G166" s="11"/>
-      <c r="H166" s="12"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F166" s="10"/>
+      <c r="G166" s="13"/>
+      <c r="H166" s="11"/>
+      <c r="I166" s="12"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" s="8"/>
-      <c r="B167" s="10"/>
+      <c r="B167" s="8"/>
       <c r="C167" s="10"/>
       <c r="D167" s="10"/>
       <c r="E167" s="10"/>
-      <c r="F167" s="13"/>
-      <c r="G167" s="11"/>
-      <c r="H167" s="12"/>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F167" s="10"/>
+      <c r="G167" s="13"/>
+      <c r="H167" s="11"/>
+      <c r="I167" s="12"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" s="8"/>
-      <c r="B168" s="10"/>
+      <c r="B168" s="8"/>
       <c r="C168" s="10"/>
       <c r="D168" s="10"/>
       <c r="E168" s="10"/>
-      <c r="F168" s="13"/>
-      <c r="G168" s="11"/>
-      <c r="H168" s="12"/>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F168" s="10"/>
+      <c r="G168" s="13"/>
+      <c r="H168" s="11"/>
+      <c r="I168" s="12"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="8"/>
-      <c r="B169" s="10"/>
+      <c r="B169" s="8"/>
       <c r="C169" s="10"/>
       <c r="D169" s="10"/>
       <c r="E169" s="10"/>
-      <c r="F169" s="13"/>
-      <c r="G169" s="11"/>
-      <c r="H169" s="12"/>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F169" s="10"/>
+      <c r="G169" s="13"/>
+      <c r="H169" s="11"/>
+      <c r="I169" s="12"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" s="8"/>
-      <c r="B170" s="10"/>
+      <c r="B170" s="8"/>
       <c r="C170" s="10"/>
       <c r="D170" s="10"/>
       <c r="E170" s="10"/>
-      <c r="F170" s="13"/>
-      <c r="G170" s="11"/>
-      <c r="H170" s="12"/>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F170" s="10"/>
+      <c r="G170" s="13"/>
+      <c r="H170" s="11"/>
+      <c r="I170" s="12"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" s="8"/>
-      <c r="B171" s="10"/>
+      <c r="B171" s="8"/>
       <c r="C171" s="10"/>
       <c r="D171" s="10"/>
       <c r="E171" s="10"/>
-      <c r="F171" s="13"/>
-      <c r="G171" s="11"/>
-      <c r="H171" s="12"/>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F171" s="10"/>
+      <c r="G171" s="13"/>
+      <c r="H171" s="11"/>
+      <c r="I171" s="12"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" s="8"/>
-      <c r="B172" s="10"/>
+      <c r="B172" s="8"/>
       <c r="C172" s="10"/>
       <c r="D172" s="10"/>
       <c r="E172" s="10"/>
-      <c r="F172" s="13"/>
-      <c r="G172" s="11"/>
-      <c r="H172" s="12"/>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F172" s="10"/>
+      <c r="G172" s="13"/>
+      <c r="H172" s="11"/>
+      <c r="I172" s="12"/>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" s="8"/>
-      <c r="B173" s="10"/>
+      <c r="B173" s="8"/>
       <c r="C173" s="10"/>
       <c r="D173" s="10"/>
       <c r="E173" s="10"/>
-      <c r="F173" s="13"/>
-      <c r="G173" s="11"/>
-      <c r="H173" s="12"/>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F173" s="10"/>
+      <c r="G173" s="13"/>
+      <c r="H173" s="11"/>
+      <c r="I173" s="12"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" s="8"/>
-      <c r="B174" s="10"/>
+      <c r="B174" s="8"/>
       <c r="C174" s="10"/>
       <c r="D174" s="10"/>
       <c r="E174" s="10"/>
-      <c r="F174" s="13"/>
-      <c r="G174" s="11"/>
-      <c r="H174" s="12"/>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F174" s="10"/>
+      <c r="G174" s="13"/>
+      <c r="H174" s="11"/>
+      <c r="I174" s="12"/>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" s="8"/>
-      <c r="B175" s="10"/>
+      <c r="B175" s="8"/>
       <c r="C175" s="10"/>
       <c r="D175" s="10"/>
       <c r="E175" s="10"/>
-      <c r="F175" s="13"/>
-      <c r="G175" s="11"/>
-      <c r="H175" s="12"/>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F175" s="10"/>
+      <c r="G175" s="13"/>
+      <c r="H175" s="11"/>
+      <c r="I175" s="12"/>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" s="8"/>
-      <c r="B176" s="10"/>
+      <c r="B176" s="8"/>
       <c r="C176" s="10"/>
       <c r="D176" s="10"/>
       <c r="E176" s="10"/>
-      <c r="F176" s="13"/>
-      <c r="G176" s="11"/>
-      <c r="H176" s="12"/>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F176" s="10"/>
+      <c r="G176" s="13"/>
+      <c r="H176" s="11"/>
+      <c r="I176" s="12"/>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" s="8"/>
-      <c r="B177" s="10"/>
+      <c r="B177" s="8"/>
       <c r="C177" s="10"/>
       <c r="D177" s="10"/>
       <c r="E177" s="10"/>
-      <c r="F177" s="13"/>
-      <c r="G177" s="11"/>
-      <c r="H177" s="12"/>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F177" s="10"/>
+      <c r="G177" s="13"/>
+      <c r="H177" s="11"/>
+      <c r="I177" s="12"/>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" s="8"/>
-      <c r="B178" s="10"/>
+      <c r="B178" s="8"/>
       <c r="C178" s="10"/>
       <c r="D178" s="10"/>
       <c r="E178" s="10"/>
-      <c r="F178" s="13"/>
-      <c r="G178" s="11"/>
-      <c r="H178" s="12"/>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F178" s="10"/>
+      <c r="G178" s="13"/>
+      <c r="H178" s="11"/>
+      <c r="I178" s="12"/>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" s="8"/>
-      <c r="B179" s="10"/>
+      <c r="B179" s="8"/>
       <c r="C179" s="10"/>
       <c r="D179" s="10"/>
       <c r="E179" s="10"/>
-      <c r="F179" s="13"/>
-      <c r="G179" s="11"/>
-      <c r="H179" s="12"/>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F179" s="10"/>
+      <c r="G179" s="13"/>
+      <c r="H179" s="11"/>
+      <c r="I179" s="12"/>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" s="8"/>
-      <c r="B180" s="10"/>
+      <c r="B180" s="8"/>
       <c r="C180" s="10"/>
       <c r="D180" s="10"/>
       <c r="E180" s="10"/>
-      <c r="F180" s="13"/>
-      <c r="G180" s="11"/>
-      <c r="H180" s="12"/>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F180" s="10"/>
+      <c r="G180" s="13"/>
+      <c r="H180" s="11"/>
+      <c r="I180" s="12"/>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" s="8"/>
-      <c r="B181" s="10"/>
+      <c r="B181" s="8"/>
       <c r="C181" s="10"/>
       <c r="D181" s="10"/>
       <c r="E181" s="10"/>
-      <c r="F181" s="13"/>
-      <c r="G181" s="11"/>
-      <c r="H181" s="12"/>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F181" s="10"/>
+      <c r="G181" s="13"/>
+      <c r="H181" s="11"/>
+      <c r="I181" s="12"/>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" s="8"/>
-      <c r="B182" s="10"/>
+      <c r="B182" s="8"/>
       <c r="C182" s="10"/>
       <c r="D182" s="10"/>
       <c r="E182" s="10"/>
-      <c r="F182" s="13"/>
-      <c r="G182" s="11"/>
-      <c r="H182" s="12"/>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F182" s="10"/>
+      <c r="G182" s="13"/>
+      <c r="H182" s="11"/>
+      <c r="I182" s="12"/>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" s="8"/>
-      <c r="B183" s="10"/>
+      <c r="B183" s="8"/>
       <c r="C183" s="10"/>
       <c r="D183" s="10"/>
       <c r="E183" s="10"/>
-      <c r="F183" s="13"/>
-      <c r="G183" s="11"/>
-      <c r="H183" s="12"/>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F183" s="10"/>
+      <c r="G183" s="13"/>
+      <c r="H183" s="11"/>
+      <c r="I183" s="12"/>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" s="8"/>
-      <c r="B184" s="10"/>
+      <c r="B184" s="8"/>
       <c r="C184" s="10"/>
       <c r="D184" s="10"/>
       <c r="E184" s="10"/>
-      <c r="F184" s="13"/>
-      <c r="G184" s="11"/>
-      <c r="H184" s="12"/>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F184" s="10"/>
+      <c r="G184" s="13"/>
+      <c r="H184" s="11"/>
+      <c r="I184" s="12"/>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" s="8"/>
-      <c r="B185" s="10"/>
+      <c r="B185" s="8"/>
       <c r="C185" s="10"/>
       <c r="D185" s="10"/>
       <c r="E185" s="10"/>
-      <c r="F185" s="13"/>
-      <c r="G185" s="11"/>
-      <c r="H185" s="12"/>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F185" s="10"/>
+      <c r="G185" s="13"/>
+      <c r="H185" s="11"/>
+      <c r="I185" s="12"/>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" s="8"/>
-      <c r="B186" s="10"/>
+      <c r="B186" s="8"/>
       <c r="C186" s="10"/>
       <c r="D186" s="10"/>
       <c r="E186" s="10"/>
-      <c r="F186" s="13"/>
-      <c r="G186" s="11"/>
-      <c r="H186" s="12"/>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F186" s="10"/>
+      <c r="G186" s="13"/>
+      <c r="H186" s="11"/>
+      <c r="I186" s="12"/>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" s="8"/>
-      <c r="B187" s="10"/>
+      <c r="B187" s="8"/>
       <c r="C187" s="10"/>
       <c r="D187" s="10"/>
       <c r="E187" s="10"/>
-      <c r="F187" s="13"/>
-      <c r="G187" s="11"/>
-      <c r="H187" s="12"/>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F187" s="10"/>
+      <c r="G187" s="13"/>
+      <c r="H187" s="11"/>
+      <c r="I187" s="12"/>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" s="8"/>
-      <c r="B188" s="10"/>
+      <c r="B188" s="8"/>
       <c r="C188" s="10"/>
       <c r="D188" s="10"/>
       <c r="E188" s="10"/>
-      <c r="F188" s="13"/>
-      <c r="G188" s="11"/>
-      <c r="H188" s="12"/>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F188" s="10"/>
+      <c r="G188" s="13"/>
+      <c r="H188" s="11"/>
+      <c r="I188" s="12"/>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" s="8"/>
-      <c r="B189" s="10"/>
+      <c r="B189" s="8"/>
       <c r="C189" s="10"/>
       <c r="D189" s="10"/>
       <c r="E189" s="10"/>
-      <c r="F189" s="13"/>
-      <c r="G189" s="11"/>
-      <c r="H189" s="12"/>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F189" s="10"/>
+      <c r="G189" s="13"/>
+      <c r="H189" s="11"/>
+      <c r="I189" s="12"/>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" s="8"/>
-      <c r="B190" s="10"/>
+      <c r="B190" s="8"/>
       <c r="C190" s="10"/>
       <c r="D190" s="10"/>
       <c r="E190" s="10"/>
-      <c r="F190" s="13"/>
-      <c r="G190" s="11"/>
-      <c r="H190" s="12"/>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F190" s="10"/>
+      <c r="G190" s="13"/>
+      <c r="H190" s="11"/>
+      <c r="I190" s="12"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" s="8"/>
-      <c r="B191" s="10"/>
+      <c r="B191" s="8"/>
       <c r="C191" s="10"/>
       <c r="D191" s="10"/>
       <c r="E191" s="10"/>
-      <c r="F191" s="13"/>
-      <c r="G191" s="11"/>
-      <c r="H191" s="12"/>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F191" s="10"/>
+      <c r="G191" s="13"/>
+      <c r="H191" s="11"/>
+      <c r="I191" s="12"/>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" s="8"/>
-      <c r="B192" s="10"/>
+      <c r="B192" s="8"/>
       <c r="C192" s="10"/>
       <c r="D192" s="10"/>
       <c r="E192" s="10"/>
-      <c r="F192" s="13"/>
-      <c r="G192" s="11"/>
-      <c r="H192" s="12"/>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F192" s="10"/>
+      <c r="G192" s="13"/>
+      <c r="H192" s="11"/>
+      <c r="I192" s="12"/>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" s="8"/>
-      <c r="B193" s="10"/>
+      <c r="B193" s="8"/>
       <c r="C193" s="10"/>
       <c r="D193" s="10"/>
       <c r="E193" s="10"/>
-      <c r="F193" s="13"/>
-      <c r="G193" s="11"/>
-      <c r="H193" s="12"/>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F193" s="10"/>
+      <c r="G193" s="13"/>
+      <c r="H193" s="11"/>
+      <c r="I193" s="12"/>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" s="8"/>
-      <c r="B194" s="10"/>
+      <c r="B194" s="8"/>
       <c r="C194" s="10"/>
       <c r="D194" s="10"/>
       <c r="E194" s="10"/>
-      <c r="F194" s="13"/>
-      <c r="G194" s="11"/>
-      <c r="H194" s="12"/>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F194" s="10"/>
+      <c r="G194" s="13"/>
+      <c r="H194" s="11"/>
+      <c r="I194" s="12"/>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" s="8"/>
-      <c r="B195" s="10"/>
+      <c r="B195" s="8"/>
       <c r="C195" s="10"/>
       <c r="D195" s="10"/>
       <c r="E195" s="10"/>
-      <c r="F195" s="13"/>
-      <c r="G195" s="11"/>
-      <c r="H195" s="12"/>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F195" s="10"/>
+      <c r="G195" s="13"/>
+      <c r="H195" s="11"/>
+      <c r="I195" s="12"/>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" s="8"/>
-      <c r="B196" s="10"/>
+      <c r="B196" s="8"/>
       <c r="C196" s="10"/>
       <c r="D196" s="10"/>
       <c r="E196" s="10"/>
-      <c r="F196" s="13"/>
-      <c r="G196" s="11"/>
-      <c r="H196" s="12"/>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F196" s="10"/>
+      <c r="G196" s="13"/>
+      <c r="H196" s="11"/>
+      <c r="I196" s="12"/>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" s="8"/>
-      <c r="B197" s="10"/>
+      <c r="B197" s="8"/>
       <c r="C197" s="10"/>
       <c r="D197" s="10"/>
       <c r="E197" s="10"/>
-      <c r="F197" s="13"/>
-      <c r="G197" s="11"/>
-      <c r="H197" s="12"/>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F197" s="10"/>
+      <c r="G197" s="13"/>
+      <c r="H197" s="11"/>
+      <c r="I197" s="12"/>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" s="8"/>
-      <c r="B198" s="10"/>
+      <c r="B198" s="8"/>
       <c r="C198" s="10"/>
       <c r="D198" s="10"/>
       <c r="E198" s="10"/>
-      <c r="F198" s="13"/>
-      <c r="G198" s="11"/>
-      <c r="H198" s="12"/>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F198" s="10"/>
+      <c r="G198" s="13"/>
+      <c r="H198" s="11"/>
+      <c r="I198" s="12"/>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" s="8"/>
-      <c r="B199" s="10"/>
+      <c r="B199" s="8"/>
       <c r="C199" s="10"/>
       <c r="D199" s="10"/>
       <c r="E199" s="10"/>
-      <c r="F199" s="13"/>
-      <c r="G199" s="11"/>
-      <c r="H199" s="12"/>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F199" s="10"/>
+      <c r="G199" s="13"/>
+      <c r="H199" s="11"/>
+      <c r="I199" s="12"/>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" s="8"/>
-      <c r="B200" s="10"/>
+      <c r="B200" s="8"/>
       <c r="C200" s="10"/>
       <c r="D200" s="10"/>
       <c r="E200" s="10"/>
-      <c r="F200" s="13"/>
-      <c r="G200" s="11"/>
-      <c r="H200" s="12"/>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F200" s="10"/>
+      <c r="G200" s="13"/>
+      <c r="H200" s="11"/>
+      <c r="I200" s="12"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" s="14"/>
-      <c r="B201" s="15"/>
+      <c r="B201" s="14"/>
       <c r="C201" s="15"/>
       <c r="D201" s="15"/>
       <c r="E201" s="15"/>
-      <c r="F201" s="16"/>
-      <c r="G201" s="17"/>
-      <c r="H201" s="18"/>
+      <c r="F201" s="15"/>
+      <c r="G201" s="16"/>
+      <c r="H201" s="17"/>
+      <c r="I201" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3934,7 +4189,9 @@
       <c r="F2" s="21"/>
       <c r="G2" s="24"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="I2" s="10" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="19"/>

--- a/Workbooks/JA/ユーザー.xlsx
+++ b/Workbooks/JA/ユーザー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79DD1D1-30AD-4E8C-B912-E28F5D886C9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829338E2-37DB-489B-8AF2-7C82CC2D1D59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,8 @@
     <sheet name="作成" sheetId="1" r:id="rId2"/>
     <sheet name="編集" sheetId="5" r:id="rId3"/>
     <sheet name="削除" sheetId="2" r:id="rId4"/>
-    <sheet name="組織単位の追加・削除" sheetId="7" r:id="rId5"/>
-    <sheet name="ロールの追加・削除" sheetId="8" r:id="rId6"/>
+    <sheet name="組織単位を追加または削除" sheetId="7" r:id="rId5"/>
+    <sheet name="ロールを追加または削除" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -8234,6 +8234,11 @@
       <c r="G201" s="9"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{AE54C896-4182-499E-B11F-3D57E93582E8}">
+      <formula1>"Active,Inactive"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/Workbooks/JA/ユーザー.xlsx
+++ b/Workbooks/JA/ユーザー.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829338E2-37DB-489B-8AF2-7C82CC2D1D59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11105B0-2825-43CB-9C57-64DF567615EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>名</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>タイプ</t>
-  </si>
-  <si>
-    <t>処理が失敗しました。リクエストステータス：409 / レスポンス：{"message":"The name A is already used.","errorCode":1001,"resourceIds":null}。</t>
   </si>
 </sst>
 </file>
@@ -1881,11 +1878,11 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.81640625" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.453125" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.08984375" customWidth="1"/>
-    <col min="6" max="6" width="26.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.26953125" style="3" customWidth="1"/>
     <col min="7" max="7" width="24.81640625" style="3" customWidth="1"/>
     <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.54296875" customWidth="1"/>
@@ -4121,6 +4118,14 @@
       <c r="I201" s="18"/>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なID" error="IDは0より大きい整数である必要があります。" sqref="B2:B1048576" xr:uid="{13F3126E-9F37-412A-B55C-0203A29A4C58}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なステータス" error="サポートされているステータスを選択してください。" sqref="I2:I1048576" xr:uid="{05FB7461-76B4-4CD7-B106-F4E1E86BADEB}">
+      <formula1>"Active,Inactive"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -4189,9 +4194,7 @@
       <c r="F2" s="21"/>
       <c r="G2" s="24"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="19"/>
@@ -6384,6 +6387,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なID" error="IDは0より大きい整数である必要があります。" sqref="H2:H1048576" xr:uid="{8ED4B105-B57E-483A-A8E7-5AD93587E784}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -8234,9 +8242,12 @@
       <c r="G201" s="9"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{AE54C896-4182-499E-B11F-3D57E93582E8}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なステータス" error="サポートされているステータスを選択してください。" sqref="E2:E1048576" xr:uid="{AE54C896-4182-499E-B11F-3D57E93582E8}">
       <formula1>"Active,Inactive"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なID" error="IDは0より大きい整数である必要があります。" sqref="A2:A1048576" xr:uid="{CCA7D833-6739-4C5E-A174-5BF3207240BB}">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9273,6 +9284,11 @@
       <c r="C201" s="10"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なID" error="IDは0より大きい整数である必要があります。" sqref="A2:A1048576" xr:uid="{6E7E1666-3E1F-4A15-B2E8-71DB6A907BD1}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/Workbooks/JA/ユーザー.xlsx
+++ b/Workbooks/JA/ユーザー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F3D279-31A5-4989-9C60-11877CD8E964}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2813F7E9-F73D-485B-B9FF-3E829B002D89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,8 @@
     <sheet name="作成" sheetId="1" r:id="rId2"/>
     <sheet name="編集" sheetId="5" r:id="rId3"/>
     <sheet name="削除" sheetId="2" r:id="rId4"/>
-    <sheet name="組織単位を追加または削除" sheetId="6" r:id="rId5"/>
-    <sheet name="ロールを追加または削除" sheetId="7" r:id="rId6"/>
+    <sheet name="ロールを追加または削除" sheetId="7" r:id="rId5"/>
+    <sheet name="組織単位を追加または削除" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -403,12 +403,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="52">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -1061,45 +1055,10 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1287,6 +1246,24 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1308,7 +1285,8 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </left>
@@ -1317,12 +1295,6 @@
         </right>
         <top/>
         <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1342,10 +1314,38 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1362,90 +1362,90 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:I201" headerRowDxfId="39" dataDxfId="37" totalsRowDxfId="38" headerRowBorderDxfId="51" tableBorderDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:I201" headerRowDxfId="51" dataDxfId="49" totalsRowDxfId="47" headerRowBorderDxfId="50" tableBorderDxfId="48">
   <autoFilter ref="A1:I201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{C22893F0-4B4D-460C-A013-95020C7502B4}" name="タイプ" dataDxfId="48" totalsRowDxfId="49"/>
-    <tableColumn id="8" xr3:uid="{1372863E-1574-486C-96A5-9F8A48DBEB17}" name="ID" dataDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="ユーザー名" dataDxfId="46"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="名" totalsRowLabel="Total" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="姓" dataDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="メールアドレス" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="組織単位名" totalsRowFunction="count" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="ロール名" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{73F4371D-09E6-432B-A8D2-FDF51584A3F9}" name="ステータス" dataDxfId="40"/>
+    <tableColumn id="9" xr3:uid="{C22893F0-4B4D-460C-A013-95020C7502B4}" name="タイプ" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="8" xr3:uid="{1372863E-1574-486C-96A5-9F8A48DBEB17}" name="ID" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="ユーザー名" dataDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="名" totalsRowLabel="Total" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="姓" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="メールアドレス" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="組織単位名" totalsRowFunction="count" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="ロール名" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{73F4371D-09E6-432B-A8D2-FDF51584A3F9}" name="ステータス" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I201" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I201" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="A1:I201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="10" xr3:uid="{65749B7E-1278-4BF9-BE0E-B0B1A7EBF445}" name="ユーザー名" dataDxfId="36"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="名" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="姓" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="メールアドレス" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="組織単位名" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="ロール" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{4E111FFE-AC48-4FF2-B3E5-DEDE4EC1D531}" name="パスワード" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="ID" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{08B4DCAC-6628-4928-B533-CE43508622D2}" name="結果" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{65749B7E-1278-4BF9-BE0E-B0B1A7EBF445}" name="ユーザー名" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="名" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="姓" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="メールアドレス" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="組織単位名" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="ロール" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{4E111FFE-AC48-4FF2-B3E5-DEDE4EC1D531}" name="パスワード" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="ID" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{08B4DCAC-6628-4928-B533-CE43508622D2}" name="結果" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:G201" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:G201" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A1:G201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="3" xr3:uid="{01450210-36BE-4B28-9B3B-758A2770B142}" name="ID" dataDxfId="25"/>
-    <tableColumn id="1" xr3:uid="{D002318D-F09E-4941-86F7-CB540B53CA38}" name="名" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="姓" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="メールアドレス" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{310BA8C6-70B4-40F4-B90F-2C40BB19BC10}" name="ステータス" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="パスワード" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{E7804193-086E-4884-9B07-86C7E77E0835}" name="結果" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{01450210-36BE-4B28-9B3B-758A2770B142}" name="ID" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{D002318D-F09E-4941-86F7-CB540B53CA38}" name="名" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="姓" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="メールアドレス" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{310BA8C6-70B4-40F4-B90F-2C40BB19BC10}" name="ステータス" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="パスワード" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{E7804193-086E-4884-9B07-86C7E77E0835}" name="結果" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C201" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C201" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:C201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ID" dataDxfId="16"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ユーザー名" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="結果" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ID" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ユーザー名" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="結果" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F4943553-1107-4ABF-92F1-3D44259ECE3F}" name="Table136" displayName="Table136" ref="A1:D201" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{9A9C6F0D-2E14-43CF-BA3F-71838E8A8593}" name="Table1367" displayName="Table1367" ref="A1:D201" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{AECF12CD-DED5-4EAC-990D-027FA15BD77B}" name="ユーザー名" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{386847AF-7B54-40AC-B632-9092A64C412D}" name="追加される組織単位名" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{927EBCB0-231E-4AA5-99D9-8C13EE557A37}" name="削除される組織単位名" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{85CBEB5B-343A-4F2F-8DE9-C961C7CE168C}" name="結果" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{EB9188D5-49DF-4F54-A843-A55D3E2C1BE7}" name="ユーザー名" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{85E99034-1CC5-49C9-990E-916A8CEEC70B}" name="追加されるロール名" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{CE37118B-AB12-42D8-BD3F-A9948E262C56}" name="削除されるロール名" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{C8060084-F897-4904-AA9C-11EEA24740A4}" name="結果" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{9A9C6F0D-2E14-43CF-BA3F-71838E8A8593}" name="Table1367" displayName="Table1367" ref="A1:D201" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F4943553-1107-4ABF-92F1-3D44259ECE3F}" name="Table136" displayName="Table136" ref="A1:D201" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{EB9188D5-49DF-4F54-A843-A55D3E2C1BE7}" name="ユーザー名" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{85E99034-1CC5-49C9-990E-916A8CEEC70B}" name="追加されるロール名" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{CE37118B-AB12-42D8-BD3F-A9948E262C56}" name="削除されるロール名" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{C8060084-F897-4904-AA9C-11EEA24740A4}" name="結果" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{AECF12CD-DED5-4EAC-990D-027FA15BD77B}" name="ユーザー名" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{386847AF-7B54-40AC-B632-9092A64C412D}" name="追加される組織単位名" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{927EBCB0-231E-4AA5-99D9-8C13EE557A37}" name="削除される組織単位名" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{85CBEB5B-343A-4F2F-8DE9-C961C7CE168C}" name="結果" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9148,6 +9148,1245 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0BFD02-16FB-4C41-BC65-11F4AD2B5ADD}">
+  <dimension ref="A1:D201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.453125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="24.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.7265625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="4"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="12"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="12"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="4"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="12"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="4"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="12"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="12"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="4"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="12"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="4"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="12"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="4"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="12"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="12"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="4"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="12"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="4"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="12"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="4"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="12"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="4"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="12"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="4"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="12"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="4"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="12"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="4"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="12"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="4"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="12"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="4"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="12"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="4"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="12"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="4"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="12"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="4"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="12"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="12"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="12"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="4"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="12"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="4"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" s="12"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="4"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="12"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="4"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" s="12"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="4"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" s="12"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="25"/>
+      <c r="D89" s="4"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="12"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="4"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="12"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="4"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" s="12"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="4"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" s="12"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="25"/>
+      <c r="D93" s="4"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" s="12"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="4"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" s="12"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="4"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" s="12"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="4"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" s="12"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="4"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" s="12"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="4"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" s="12"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="25"/>
+      <c r="D99" s="4"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" s="12"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="4"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" s="12"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="4"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" s="12"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="4"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" s="12"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="4"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" s="12"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="4"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" s="12"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="4"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" s="12"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="4"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" s="12"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="4"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" s="12"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="4"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" s="12"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="4"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" s="12"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="4"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" s="12"/>
+      <c r="B111" s="12"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="4"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" s="12"/>
+      <c r="B112" s="12"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="4"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" s="12"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="4"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" s="12"/>
+      <c r="B114" s="12"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="4"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" s="12"/>
+      <c r="B115" s="12"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="4"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" s="12"/>
+      <c r="B116" s="12"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="4"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" s="12"/>
+      <c r="B117" s="12"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="4"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" s="12"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="4"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" s="12"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="12"/>
+      <c r="D119" s="4"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" s="12"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="4"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" s="12"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="4"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" s="12"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="4"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" s="12"/>
+      <c r="B123" s="12"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="4"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" s="12"/>
+      <c r="B124" s="12"/>
+      <c r="C124" s="12"/>
+      <c r="D124" s="4"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" s="12"/>
+      <c r="B125" s="12"/>
+      <c r="C125" s="12"/>
+      <c r="D125" s="4"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" s="12"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="12"/>
+      <c r="D126" s="4"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127" s="12"/>
+      <c r="B127" s="12"/>
+      <c r="C127" s="12"/>
+      <c r="D127" s="4"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128" s="12"/>
+      <c r="B128" s="12"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="4"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" s="12"/>
+      <c r="B129" s="12"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="4"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" s="12"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="4"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" s="12"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="4"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" s="12"/>
+      <c r="B132" s="12"/>
+      <c r="C132" s="12"/>
+      <c r="D132" s="4"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" s="12"/>
+      <c r="B133" s="12"/>
+      <c r="C133" s="12"/>
+      <c r="D133" s="4"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" s="12"/>
+      <c r="B134" s="12"/>
+      <c r="C134" s="12"/>
+      <c r="D134" s="4"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" s="12"/>
+      <c r="B135" s="12"/>
+      <c r="C135" s="12"/>
+      <c r="D135" s="4"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" s="12"/>
+      <c r="B136" s="12"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="4"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" s="12"/>
+      <c r="B137" s="12"/>
+      <c r="C137" s="12"/>
+      <c r="D137" s="4"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" s="12"/>
+      <c r="B138" s="12"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="4"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" s="12"/>
+      <c r="B139" s="12"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="4"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" s="12"/>
+      <c r="B140" s="12"/>
+      <c r="C140" s="12"/>
+      <c r="D140" s="4"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" s="12"/>
+      <c r="B141" s="12"/>
+      <c r="C141" s="12"/>
+      <c r="D141" s="4"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" s="12"/>
+      <c r="B142" s="12"/>
+      <c r="C142" s="12"/>
+      <c r="D142" s="4"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" s="12"/>
+      <c r="B143" s="12"/>
+      <c r="C143" s="12"/>
+      <c r="D143" s="4"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144" s="12"/>
+      <c r="B144" s="12"/>
+      <c r="C144" s="12"/>
+      <c r="D144" s="4"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A145" s="12"/>
+      <c r="B145" s="12"/>
+      <c r="C145" s="12"/>
+      <c r="D145" s="4"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146" s="12"/>
+      <c r="B146" s="12"/>
+      <c r="C146" s="12"/>
+      <c r="D146" s="4"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A147" s="12"/>
+      <c r="B147" s="12"/>
+      <c r="C147" s="12"/>
+      <c r="D147" s="4"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A148" s="12"/>
+      <c r="B148" s="12"/>
+      <c r="C148" s="12"/>
+      <c r="D148" s="4"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A149" s="12"/>
+      <c r="B149" s="12"/>
+      <c r="C149" s="12"/>
+      <c r="D149" s="4"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A150" s="12"/>
+      <c r="B150" s="12"/>
+      <c r="C150" s="12"/>
+      <c r="D150" s="4"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A151" s="12"/>
+      <c r="B151" s="12"/>
+      <c r="C151" s="12"/>
+      <c r="D151" s="4"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A152" s="12"/>
+      <c r="B152" s="12"/>
+      <c r="C152" s="12"/>
+      <c r="D152" s="4"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A153" s="12"/>
+      <c r="B153" s="12"/>
+      <c r="C153" s="12"/>
+      <c r="D153" s="4"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A154" s="12"/>
+      <c r="B154" s="12"/>
+      <c r="C154" s="12"/>
+      <c r="D154" s="4"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A155" s="12"/>
+      <c r="B155" s="12"/>
+      <c r="C155" s="12"/>
+      <c r="D155" s="4"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A156" s="12"/>
+      <c r="B156" s="12"/>
+      <c r="C156" s="12"/>
+      <c r="D156" s="4"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A157" s="12"/>
+      <c r="B157" s="12"/>
+      <c r="C157" s="12"/>
+      <c r="D157" s="4"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A158" s="12"/>
+      <c r="B158" s="12"/>
+      <c r="C158" s="12"/>
+      <c r="D158" s="4"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A159" s="12"/>
+      <c r="B159" s="12"/>
+      <c r="C159" s="12"/>
+      <c r="D159" s="4"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A160" s="12"/>
+      <c r="B160" s="12"/>
+      <c r="C160" s="12"/>
+      <c r="D160" s="4"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A161" s="12"/>
+      <c r="B161" s="12"/>
+      <c r="C161" s="12"/>
+      <c r="D161" s="4"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A162" s="12"/>
+      <c r="B162" s="12"/>
+      <c r="C162" s="12"/>
+      <c r="D162" s="4"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A163" s="12"/>
+      <c r="B163" s="12"/>
+      <c r="C163" s="12"/>
+      <c r="D163" s="4"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A164" s="12"/>
+      <c r="B164" s="12"/>
+      <c r="C164" s="12"/>
+      <c r="D164" s="4"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A165" s="12"/>
+      <c r="B165" s="12"/>
+      <c r="C165" s="12"/>
+      <c r="D165" s="4"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A166" s="12"/>
+      <c r="B166" s="12"/>
+      <c r="C166" s="12"/>
+      <c r="D166" s="4"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A167" s="12"/>
+      <c r="B167" s="12"/>
+      <c r="C167" s="12"/>
+      <c r="D167" s="4"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A168" s="12"/>
+      <c r="B168" s="12"/>
+      <c r="C168" s="12"/>
+      <c r="D168" s="4"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A169" s="12"/>
+      <c r="B169" s="12"/>
+      <c r="C169" s="12"/>
+      <c r="D169" s="4"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A170" s="12"/>
+      <c r="B170" s="12"/>
+      <c r="C170" s="12"/>
+      <c r="D170" s="4"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A171" s="12"/>
+      <c r="B171" s="12"/>
+      <c r="C171" s="12"/>
+      <c r="D171" s="4"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A172" s="12"/>
+      <c r="B172" s="12"/>
+      <c r="C172" s="12"/>
+      <c r="D172" s="4"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A173" s="12"/>
+      <c r="B173" s="12"/>
+      <c r="C173" s="12"/>
+      <c r="D173" s="4"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A174" s="12"/>
+      <c r="B174" s="12"/>
+      <c r="C174" s="12"/>
+      <c r="D174" s="4"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A175" s="12"/>
+      <c r="B175" s="12"/>
+      <c r="C175" s="12"/>
+      <c r="D175" s="4"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A176" s="12"/>
+      <c r="B176" s="12"/>
+      <c r="C176" s="12"/>
+      <c r="D176" s="4"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A177" s="12"/>
+      <c r="B177" s="12"/>
+      <c r="C177" s="12"/>
+      <c r="D177" s="4"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A178" s="12"/>
+      <c r="B178" s="12"/>
+      <c r="C178" s="12"/>
+      <c r="D178" s="4"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A179" s="12"/>
+      <c r="B179" s="12"/>
+      <c r="C179" s="12"/>
+      <c r="D179" s="4"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A180" s="12"/>
+      <c r="B180" s="12"/>
+      <c r="C180" s="12"/>
+      <c r="D180" s="4"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A181" s="12"/>
+      <c r="B181" s="12"/>
+      <c r="C181" s="12"/>
+      <c r="D181" s="4"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A182" s="12"/>
+      <c r="B182" s="12"/>
+      <c r="C182" s="12"/>
+      <c r="D182" s="4"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A183" s="12"/>
+      <c r="B183" s="12"/>
+      <c r="C183" s="12"/>
+      <c r="D183" s="4"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A184" s="12"/>
+      <c r="B184" s="12"/>
+      <c r="C184" s="12"/>
+      <c r="D184" s="4"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A185" s="12"/>
+      <c r="B185" s="12"/>
+      <c r="C185" s="12"/>
+      <c r="D185" s="4"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A186" s="12"/>
+      <c r="B186" s="12"/>
+      <c r="C186" s="12"/>
+      <c r="D186" s="4"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A187" s="12"/>
+      <c r="B187" s="12"/>
+      <c r="C187" s="12"/>
+      <c r="D187" s="4"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A188" s="12"/>
+      <c r="B188" s="12"/>
+      <c r="C188" s="12"/>
+      <c r="D188" s="4"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A189" s="12"/>
+      <c r="B189" s="12"/>
+      <c r="C189" s="12"/>
+      <c r="D189" s="4"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A190" s="12"/>
+      <c r="B190" s="12"/>
+      <c r="C190" s="12"/>
+      <c r="D190" s="4"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A191" s="12"/>
+      <c r="B191" s="12"/>
+      <c r="C191" s="12"/>
+      <c r="D191" s="4"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A192" s="12"/>
+      <c r="B192" s="12"/>
+      <c r="C192" s="12"/>
+      <c r="D192" s="4"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A193" s="12"/>
+      <c r="B193" s="12"/>
+      <c r="C193" s="12"/>
+      <c r="D193" s="4"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A194" s="12"/>
+      <c r="B194" s="12"/>
+      <c r="C194" s="12"/>
+      <c r="D194" s="4"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A195" s="12"/>
+      <c r="B195" s="12"/>
+      <c r="C195" s="12"/>
+      <c r="D195" s="4"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A196" s="12"/>
+      <c r="B196" s="12"/>
+      <c r="C196" s="12"/>
+      <c r="D196" s="4"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A197" s="12"/>
+      <c r="B197" s="12"/>
+      <c r="C197" s="12"/>
+      <c r="D197" s="4"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A198" s="12"/>
+      <c r="B198" s="12"/>
+      <c r="C198" s="12"/>
+      <c r="D198" s="4"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A199" s="12"/>
+      <c r="B199" s="12"/>
+      <c r="C199" s="12"/>
+      <c r="D199" s="4"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A200" s="12"/>
+      <c r="B200" s="12"/>
+      <c r="C200" s="12"/>
+      <c r="D200" s="4"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A201" s="26"/>
+      <c r="B201" s="26"/>
+      <c r="C201" s="28"/>
+      <c r="D201" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FD21A4-EDA0-4949-8986-1B290224CC45}">
   <dimension ref="A1:D201"/>
   <sheetViews>
@@ -10384,1243 +11623,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0BFD02-16FB-4C41-BC65-11F4AD2B5ADD}">
-  <dimension ref="A1:D201"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="18.453125" style="2" customWidth="1"/>
-    <col min="2" max="3" width="24.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.7265625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="4"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="4"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="4"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="4"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="4"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="4"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="4"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="12"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="4"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="4"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="4"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="12"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="4"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="12"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="4"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="12"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="4"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="12"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="4"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="12"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="4"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="12"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="4"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="12"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="4"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="12"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="4"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="12"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="4"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="12"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="4"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="12"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="4"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="12"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="4"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="12"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="4"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="12"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="4"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="12"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="4"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="12"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="4"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="12"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="4"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="12"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="4"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="12"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="4"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="12"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="4"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" s="12"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="4"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" s="12"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="4"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" s="12"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="4"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="12"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="4"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" s="12"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="4"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" s="12"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="4"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="12"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="4"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" s="12"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="25"/>
-      <c r="D93" s="4"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" s="12"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="25"/>
-      <c r="D94" s="4"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" s="12"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="25"/>
-      <c r="D95" s="4"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" s="12"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="25"/>
-      <c r="D96" s="4"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" s="12"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="25"/>
-      <c r="D97" s="4"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" s="12"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="25"/>
-      <c r="D98" s="4"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" s="12"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="25"/>
-      <c r="D99" s="4"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" s="12"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="25"/>
-      <c r="D100" s="4"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" s="12"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="25"/>
-      <c r="D101" s="4"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102" s="12"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="12"/>
-      <c r="D102" s="4"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103" s="12"/>
-      <c r="B103" s="12"/>
-      <c r="C103" s="12"/>
-      <c r="D103" s="4"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" s="12"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="12"/>
-      <c r="D104" s="4"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105" s="12"/>
-      <c r="B105" s="12"/>
-      <c r="C105" s="12"/>
-      <c r="D105" s="4"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106" s="12"/>
-      <c r="B106" s="12"/>
-      <c r="C106" s="12"/>
-      <c r="D106" s="4"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" s="12"/>
-      <c r="B107" s="12"/>
-      <c r="C107" s="12"/>
-      <c r="D107" s="4"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A108" s="12"/>
-      <c r="B108" s="12"/>
-      <c r="C108" s="12"/>
-      <c r="D108" s="4"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A109" s="12"/>
-      <c r="B109" s="12"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="4"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110" s="12"/>
-      <c r="B110" s="12"/>
-      <c r="C110" s="12"/>
-      <c r="D110" s="4"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A111" s="12"/>
-      <c r="B111" s="12"/>
-      <c r="C111" s="12"/>
-      <c r="D111" s="4"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A112" s="12"/>
-      <c r="B112" s="12"/>
-      <c r="C112" s="12"/>
-      <c r="D112" s="4"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" s="12"/>
-      <c r="B113" s="12"/>
-      <c r="C113" s="12"/>
-      <c r="D113" s="4"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114" s="12"/>
-      <c r="B114" s="12"/>
-      <c r="C114" s="12"/>
-      <c r="D114" s="4"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A115" s="12"/>
-      <c r="B115" s="12"/>
-      <c r="C115" s="12"/>
-      <c r="D115" s="4"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116" s="12"/>
-      <c r="B116" s="12"/>
-      <c r="C116" s="12"/>
-      <c r="D116" s="4"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A117" s="12"/>
-      <c r="B117" s="12"/>
-      <c r="C117" s="12"/>
-      <c r="D117" s="4"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118" s="12"/>
-      <c r="B118" s="12"/>
-      <c r="C118" s="12"/>
-      <c r="D118" s="4"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A119" s="12"/>
-      <c r="B119" s="12"/>
-      <c r="C119" s="12"/>
-      <c r="D119" s="4"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A120" s="12"/>
-      <c r="B120" s="12"/>
-      <c r="C120" s="12"/>
-      <c r="D120" s="4"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" s="12"/>
-      <c r="B121" s="12"/>
-      <c r="C121" s="12"/>
-      <c r="D121" s="4"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122" s="12"/>
-      <c r="B122" s="12"/>
-      <c r="C122" s="12"/>
-      <c r="D122" s="4"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A123" s="12"/>
-      <c r="B123" s="12"/>
-      <c r="C123" s="12"/>
-      <c r="D123" s="4"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A124" s="12"/>
-      <c r="B124" s="12"/>
-      <c r="C124" s="12"/>
-      <c r="D124" s="4"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A125" s="12"/>
-      <c r="B125" s="12"/>
-      <c r="C125" s="12"/>
-      <c r="D125" s="4"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A126" s="12"/>
-      <c r="B126" s="12"/>
-      <c r="C126" s="12"/>
-      <c r="D126" s="4"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A127" s="12"/>
-      <c r="B127" s="12"/>
-      <c r="C127" s="12"/>
-      <c r="D127" s="4"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A128" s="12"/>
-      <c r="B128" s="12"/>
-      <c r="C128" s="12"/>
-      <c r="D128" s="4"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A129" s="12"/>
-      <c r="B129" s="12"/>
-      <c r="C129" s="12"/>
-      <c r="D129" s="4"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A130" s="12"/>
-      <c r="B130" s="12"/>
-      <c r="C130" s="12"/>
-      <c r="D130" s="4"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A131" s="12"/>
-      <c r="B131" s="12"/>
-      <c r="C131" s="12"/>
-      <c r="D131" s="4"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A132" s="12"/>
-      <c r="B132" s="12"/>
-      <c r="C132" s="12"/>
-      <c r="D132" s="4"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A133" s="12"/>
-      <c r="B133" s="12"/>
-      <c r="C133" s="12"/>
-      <c r="D133" s="4"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A134" s="12"/>
-      <c r="B134" s="12"/>
-      <c r="C134" s="12"/>
-      <c r="D134" s="4"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A135" s="12"/>
-      <c r="B135" s="12"/>
-      <c r="C135" s="12"/>
-      <c r="D135" s="4"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A136" s="12"/>
-      <c r="B136" s="12"/>
-      <c r="C136" s="12"/>
-      <c r="D136" s="4"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A137" s="12"/>
-      <c r="B137" s="12"/>
-      <c r="C137" s="12"/>
-      <c r="D137" s="4"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A138" s="12"/>
-      <c r="B138" s="12"/>
-      <c r="C138" s="12"/>
-      <c r="D138" s="4"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A139" s="12"/>
-      <c r="B139" s="12"/>
-      <c r="C139" s="12"/>
-      <c r="D139" s="4"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A140" s="12"/>
-      <c r="B140" s="12"/>
-      <c r="C140" s="12"/>
-      <c r="D140" s="4"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A141" s="12"/>
-      <c r="B141" s="12"/>
-      <c r="C141" s="12"/>
-      <c r="D141" s="4"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A142" s="12"/>
-      <c r="B142" s="12"/>
-      <c r="C142" s="12"/>
-      <c r="D142" s="4"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A143" s="12"/>
-      <c r="B143" s="12"/>
-      <c r="C143" s="12"/>
-      <c r="D143" s="4"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A144" s="12"/>
-      <c r="B144" s="12"/>
-      <c r="C144" s="12"/>
-      <c r="D144" s="4"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A145" s="12"/>
-      <c r="B145" s="12"/>
-      <c r="C145" s="12"/>
-      <c r="D145" s="4"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A146" s="12"/>
-      <c r="B146" s="12"/>
-      <c r="C146" s="12"/>
-      <c r="D146" s="4"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A147" s="12"/>
-      <c r="B147" s="12"/>
-      <c r="C147" s="12"/>
-      <c r="D147" s="4"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A148" s="12"/>
-      <c r="B148" s="12"/>
-      <c r="C148" s="12"/>
-      <c r="D148" s="4"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A149" s="12"/>
-      <c r="B149" s="12"/>
-      <c r="C149" s="12"/>
-      <c r="D149" s="4"/>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A150" s="12"/>
-      <c r="B150" s="12"/>
-      <c r="C150" s="12"/>
-      <c r="D150" s="4"/>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A151" s="12"/>
-      <c r="B151" s="12"/>
-      <c r="C151" s="12"/>
-      <c r="D151" s="4"/>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A152" s="12"/>
-      <c r="B152" s="12"/>
-      <c r="C152" s="12"/>
-      <c r="D152" s="4"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A153" s="12"/>
-      <c r="B153" s="12"/>
-      <c r="C153" s="12"/>
-      <c r="D153" s="4"/>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A154" s="12"/>
-      <c r="B154" s="12"/>
-      <c r="C154" s="12"/>
-      <c r="D154" s="4"/>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A155" s="12"/>
-      <c r="B155" s="12"/>
-      <c r="C155" s="12"/>
-      <c r="D155" s="4"/>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A156" s="12"/>
-      <c r="B156" s="12"/>
-      <c r="C156" s="12"/>
-      <c r="D156" s="4"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A157" s="12"/>
-      <c r="B157" s="12"/>
-      <c r="C157" s="12"/>
-      <c r="D157" s="4"/>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A158" s="12"/>
-      <c r="B158" s="12"/>
-      <c r="C158" s="12"/>
-      <c r="D158" s="4"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A159" s="12"/>
-      <c r="B159" s="12"/>
-      <c r="C159" s="12"/>
-      <c r="D159" s="4"/>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A160" s="12"/>
-      <c r="B160" s="12"/>
-      <c r="C160" s="12"/>
-      <c r="D160" s="4"/>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A161" s="12"/>
-      <c r="B161" s="12"/>
-      <c r="C161" s="12"/>
-      <c r="D161" s="4"/>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A162" s="12"/>
-      <c r="B162" s="12"/>
-      <c r="C162" s="12"/>
-      <c r="D162" s="4"/>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A163" s="12"/>
-      <c r="B163" s="12"/>
-      <c r="C163" s="12"/>
-      <c r="D163" s="4"/>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A164" s="12"/>
-      <c r="B164" s="12"/>
-      <c r="C164" s="12"/>
-      <c r="D164" s="4"/>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A165" s="12"/>
-      <c r="B165" s="12"/>
-      <c r="C165" s="12"/>
-      <c r="D165" s="4"/>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A166" s="12"/>
-      <c r="B166" s="12"/>
-      <c r="C166" s="12"/>
-      <c r="D166" s="4"/>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A167" s="12"/>
-      <c r="B167" s="12"/>
-      <c r="C167" s="12"/>
-      <c r="D167" s="4"/>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A168" s="12"/>
-      <c r="B168" s="12"/>
-      <c r="C168" s="12"/>
-      <c r="D168" s="4"/>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A169" s="12"/>
-      <c r="B169" s="12"/>
-      <c r="C169" s="12"/>
-      <c r="D169" s="4"/>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A170" s="12"/>
-      <c r="B170" s="12"/>
-      <c r="C170" s="12"/>
-      <c r="D170" s="4"/>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A171" s="12"/>
-      <c r="B171" s="12"/>
-      <c r="C171" s="12"/>
-      <c r="D171" s="4"/>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A172" s="12"/>
-      <c r="B172" s="12"/>
-      <c r="C172" s="12"/>
-      <c r="D172" s="4"/>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A173" s="12"/>
-      <c r="B173" s="12"/>
-      <c r="C173" s="12"/>
-      <c r="D173" s="4"/>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A174" s="12"/>
-      <c r="B174" s="12"/>
-      <c r="C174" s="12"/>
-      <c r="D174" s="4"/>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A175" s="12"/>
-      <c r="B175" s="12"/>
-      <c r="C175" s="12"/>
-      <c r="D175" s="4"/>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A176" s="12"/>
-      <c r="B176" s="12"/>
-      <c r="C176" s="12"/>
-      <c r="D176" s="4"/>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A177" s="12"/>
-      <c r="B177" s="12"/>
-      <c r="C177" s="12"/>
-      <c r="D177" s="4"/>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A178" s="12"/>
-      <c r="B178" s="12"/>
-      <c r="C178" s="12"/>
-      <c r="D178" s="4"/>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A179" s="12"/>
-      <c r="B179" s="12"/>
-      <c r="C179" s="12"/>
-      <c r="D179" s="4"/>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A180" s="12"/>
-      <c r="B180" s="12"/>
-      <c r="C180" s="12"/>
-      <c r="D180" s="4"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A181" s="12"/>
-      <c r="B181" s="12"/>
-      <c r="C181" s="12"/>
-      <c r="D181" s="4"/>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A182" s="12"/>
-      <c r="B182" s="12"/>
-      <c r="C182" s="12"/>
-      <c r="D182" s="4"/>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A183" s="12"/>
-      <c r="B183" s="12"/>
-      <c r="C183" s="12"/>
-      <c r="D183" s="4"/>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A184" s="12"/>
-      <c r="B184" s="12"/>
-      <c r="C184" s="12"/>
-      <c r="D184" s="4"/>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A185" s="12"/>
-      <c r="B185" s="12"/>
-      <c r="C185" s="12"/>
-      <c r="D185" s="4"/>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A186" s="12"/>
-      <c r="B186" s="12"/>
-      <c r="C186" s="12"/>
-      <c r="D186" s="4"/>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A187" s="12"/>
-      <c r="B187" s="12"/>
-      <c r="C187" s="12"/>
-      <c r="D187" s="4"/>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A188" s="12"/>
-      <c r="B188" s="12"/>
-      <c r="C188" s="12"/>
-      <c r="D188" s="4"/>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A189" s="12"/>
-      <c r="B189" s="12"/>
-      <c r="C189" s="12"/>
-      <c r="D189" s="4"/>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A190" s="12"/>
-      <c r="B190" s="12"/>
-      <c r="C190" s="12"/>
-      <c r="D190" s="4"/>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A191" s="12"/>
-      <c r="B191" s="12"/>
-      <c r="C191" s="12"/>
-      <c r="D191" s="4"/>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A192" s="12"/>
-      <c r="B192" s="12"/>
-      <c r="C192" s="12"/>
-      <c r="D192" s="4"/>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A193" s="12"/>
-      <c r="B193" s="12"/>
-      <c r="C193" s="12"/>
-      <c r="D193" s="4"/>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A194" s="12"/>
-      <c r="B194" s="12"/>
-      <c r="C194" s="12"/>
-      <c r="D194" s="4"/>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A195" s="12"/>
-      <c r="B195" s="12"/>
-      <c r="C195" s="12"/>
-      <c r="D195" s="4"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A196" s="12"/>
-      <c r="B196" s="12"/>
-      <c r="C196" s="12"/>
-      <c r="D196" s="4"/>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A197" s="12"/>
-      <c r="B197" s="12"/>
-      <c r="C197" s="12"/>
-      <c r="D197" s="4"/>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A198" s="12"/>
-      <c r="B198" s="12"/>
-      <c r="C198" s="12"/>
-      <c r="D198" s="4"/>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A199" s="12"/>
-      <c r="B199" s="12"/>
-      <c r="C199" s="12"/>
-      <c r="D199" s="4"/>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A200" s="12"/>
-      <c r="B200" s="12"/>
-      <c r="C200" s="12"/>
-      <c r="D200" s="4"/>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A201" s="26"/>
-      <c r="B201" s="26"/>
-      <c r="C201" s="28"/>
-      <c r="D201" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/Workbooks/JA/ユーザー.xlsx
+++ b/Workbooks/JA/ユーザー.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2813F7E9-F73D-485B-B9FF-3E829B002D89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6FBD6E-AAC6-4D68-926E-8A4EA52859D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>名</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>削除されるロール名</t>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+  </si>
+  <si>
+    <t>ユーザー ID</t>
   </si>
 </sst>
 </file>
@@ -1426,26 +1432,26 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{9A9C6F0D-2E14-43CF-BA3F-71838E8A8593}" name="Table1367" displayName="Table1367" ref="A1:D201" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{9A9C6F0D-2E14-43CF-BA3F-71838E8A8593}" name="Table1367" displayName="Table1367" ref="A1:D201" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{EB9188D5-49DF-4F54-A843-A55D3E2C1BE7}" name="ユーザー名" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{85E99034-1CC5-49C9-990E-916A8CEEC70B}" name="追加されるロール名" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{CE37118B-AB12-42D8-BD3F-A9948E262C56}" name="削除されるロール名" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{C8060084-F897-4904-AA9C-11EEA24740A4}" name="結果" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{EB9188D5-49DF-4F54-A843-A55D3E2C1BE7}" name="ユーザー ID" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{85E99034-1CC5-49C9-990E-916A8CEEC70B}" name="追加されるロール名" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{CE37118B-AB12-42D8-BD3F-A9948E262C56}" name="削除されるロール名" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{C8060084-F897-4904-AA9C-11EEA24740A4}" name="結果" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F4943553-1107-4ABF-92F1-3D44259ECE3F}" name="Table136" displayName="Table136" ref="A1:D201" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F4943553-1107-4ABF-92F1-3D44259ECE3F}" name="Table136" displayName="Table136" ref="A1:D201" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{AECF12CD-DED5-4EAC-990D-027FA15BD77B}" name="ユーザー名" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{386847AF-7B54-40AC-B632-9092A64C412D}" name="追加される組織単位名" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{927EBCB0-231E-4AA5-99D9-8C13EE557A37}" name="削除される組織単位名" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{85CBEB5B-343A-4F2F-8DE9-C961C7CE168C}" name="結果" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{AECF12CD-DED5-4EAC-990D-027FA15BD77B}" name="ユーザーID" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{386847AF-7B54-40AC-B632-9092A64C412D}" name="追加される組織単位名" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{927EBCB0-231E-4AA5-99D9-8C13EE557A37}" name="削除される組織単位名" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{85CBEB5B-343A-4F2F-8DE9-C961C7CE168C}" name="結果" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9165,7 +9171,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>14</v>
@@ -10378,6 +10384,11 @@
       <c r="D201" s="4"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なID" error="IDは0より大きい整数である必要があります。" sqref="A2:A1048576" xr:uid="{7922DEE3-64C1-4FF9-B2CD-0A6A4ECE9852}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -10404,7 +10415,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>12</v>
@@ -11617,6 +11628,11 @@
       <c r="D201" s="4"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なID" error="IDは0より大きい整数である必要があります。" sqref="A2:A1048576" xr:uid="{013F0FD5-DA0C-4B79-A8D2-D5EA322649BB}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/Workbooks/JA/ユーザー.xlsx
+++ b/Workbooks/JA/ユーザー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6FBD6E-AAC6-4D68-926E-8A4EA52859D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC54A5A4-ABD6-400C-AC1F-D03FF5F463C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1728,15 +1728,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.81640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.08984375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.26953125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.81640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.81640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.54296875" style="2" customWidth="1"/>
+    <col min="1" max="2" width="15.6328125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="25.6328125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="25.6328125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="45.6328125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.6328125" style="2" customWidth="1"/>
     <col min="10" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
@@ -3996,15 +3992,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.1796875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="34.08984375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="26.453125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.54296875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="49.1796875" style="2" customWidth="1"/>
+    <col min="1" max="3" width="25.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6328125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="45.6328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.6328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.6328125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="45.6328125" style="2" customWidth="1"/>
     <col min="10" max="10" width="11.26953125" style="2" customWidth="1"/>
     <col min="11" max="16384" width="8.7265625" style="2"/>
   </cols>
@@ -6263,12 +6256,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.7265625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.36328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" style="2" customWidth="1"/>
+    <col min="2" max="4" width="25.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.6328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="45.6328125" style="2" customWidth="1"/>
     <col min="8" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
@@ -8122,9 +8114,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.6328125" style="2" customWidth="1"/>
     <col min="4" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
@@ -9163,9 +9155,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.453125" style="2" customWidth="1"/>
-    <col min="2" max="3" width="24.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" style="2" customWidth="1"/>
+    <col min="2" max="4" width="45.6328125" style="2" customWidth="1"/>
     <col min="5" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
@@ -10407,9 +10398,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.453125" style="2" customWidth="1"/>
-    <col min="2" max="3" width="24.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.6328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" style="2" customWidth="1"/>
+    <col min="2" max="4" width="45.6328125" style="2" customWidth="1"/>
     <col min="5" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>

--- a/Workbooks/JA/ユーザー.xlsx
+++ b/Workbooks/JA/ユーザー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9537ACCD-FA1F-4643-973A-E8E31655ED02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABC55F9-43C9-4F4B-8946-A46B5D82C96D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58335" yWindow="735" windowWidth="36765" windowHeight="13335" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4940" yWindow="4940" windowWidth="30570" windowHeight="11930" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>名</t>
   </si>
@@ -127,6 +127,65 @@
   </si>
   <si>
     <t>ユーザー名 *</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ログレベル</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開発ログを許可</t>
+    <rPh sb="0" eb="2">
+      <t>かいはつ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>きょか</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>コンソールへログイン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解像度の幅</t>
+    <rPh sb="0" eb="3">
+      <t>かいぞうど</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>はば</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解像度の高さ</t>
+    <rPh sb="0" eb="3">
+      <t>かいぞうど</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>たか</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解像度の階調</t>
+    <rPh sb="0" eb="3">
+      <t>かいぞうど</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>かいちょう</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>フォントスムージング</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>プロセスを自動ダウンロード</t>
+    <rPh sb="5" eb="7">
+      <t>じどう</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,83 +519,30 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="67">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1047,6 +1053,83 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="5"/>
@@ -1497,97 +1580,105 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:I201" headerRowDxfId="58" dataDxfId="56" totalsRowDxfId="54" headerRowBorderDxfId="57" tableBorderDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:I201" headerRowDxfId="66" dataDxfId="64" totalsRowDxfId="62" headerRowBorderDxfId="65" tableBorderDxfId="63">
   <autoFilter ref="A1:I201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{C22893F0-4B4D-460C-A013-95020C7502B4}" name="タイプ" dataDxfId="53" totalsRowDxfId="52"/>
-    <tableColumn id="8" xr3:uid="{1372863E-1574-486C-96A5-9F8A48DBEB17}" name="ID" dataDxfId="51"/>
-    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="ユーザー名" dataDxfId="50"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="名" totalsRowLabel="Total" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="姓" dataDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="メールアドレス" dataDxfId="47"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="組織単位名" totalsRowFunction="count" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="ロール名" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{73F4371D-09E6-432B-A8D2-FDF51584A3F9}" name="ステータス" dataDxfId="44"/>
+    <tableColumn id="9" xr3:uid="{C22893F0-4B4D-460C-A013-95020C7502B4}" name="タイプ" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="8" xr3:uid="{1372863E-1574-486C-96A5-9F8A48DBEB17}" name="ID" dataDxfId="59"/>
+    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="ユーザー名" dataDxfId="58"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="名" totalsRowLabel="Total" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="姓" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="メールアドレス" dataDxfId="55"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="組織単位名" totalsRowFunction="count" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="ロール名" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{73F4371D-09E6-432B-A8D2-FDF51584A3F9}" name="ステータス" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:P201" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="A1:P201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="16">
-    <tableColumn id="10" xr3:uid="{65749B7E-1278-4BF9-BE0E-B0B1A7EBF445}" name="ユーザー名 *" dataDxfId="41"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="名" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="姓" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="メールアドレス" dataDxfId="38"/>
-    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="組織単位名" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="ロール" dataDxfId="36"/>
-    <tableColumn id="9" xr3:uid="{4E111FFE-AC48-4FF2-B3E5-DEDE4EC1D531}" name="パスワード" dataDxfId="35"/>
-    <tableColumn id="14" xr3:uid="{6DE9A60B-D2AA-4C5B-9D19-151C1E73E0AC}" name="ドメイン\ユーザ名 - Attended ロボット" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{262304B2-69B6-47FC-833F-5922ED105520}" name="ライセンスの種類 - Attended ロボット" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{42564DA4-8D53-4C1B-9C2C-4BE92DD00FFC}" name="個人のワークスペースを作成 - Attended ロボット" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{49DD615B-15C2-4B9A-960E-9A70F1B8C51E}" name="スタンドアロンライセンス - Attended ロボット" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{B5515926-7E95-4BDC-B434-092F68C9E676}" name="ドメイン\ユーザー名 - Unattended ロボット" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{1EFF2166-C43F-4EFE-A90C-FFD898ED903B}" name="パスワード - Unattended Robot" dataDxfId="1"/>
-    <tableColumn id="17" xr3:uid="{E40F7CE9-454E-4944-9C0F-78161314E5AC}" name="同時接続実行を無効化 - Unattended Robot" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="ID" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{08B4DCAC-6628-4928-B533-CE43508622D2}" name="結果" dataDxfId="33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:X201" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
+  <autoFilter ref="A1:X201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="24">
+    <tableColumn id="10" xr3:uid="{65749B7E-1278-4BF9-BE0E-B0B1A7EBF445}" name="ユーザー名 *" dataDxfId="49"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="名" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="姓" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="メールアドレス" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="組織単位名" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="ロール" dataDxfId="44"/>
+    <tableColumn id="9" xr3:uid="{4E111FFE-AC48-4FF2-B3E5-DEDE4EC1D531}" name="パスワード" dataDxfId="43"/>
+    <tableColumn id="14" xr3:uid="{6DE9A60B-D2AA-4C5B-9D19-151C1E73E0AC}" name="ドメイン\ユーザ名 - Attended ロボット" dataDxfId="42"/>
+    <tableColumn id="13" xr3:uid="{262304B2-69B6-47FC-833F-5922ED105520}" name="ライセンスの種類 - Attended ロボット" dataDxfId="41"/>
+    <tableColumn id="15" xr3:uid="{42564DA4-8D53-4C1B-9C2C-4BE92DD00FFC}" name="個人のワークスペースを作成 - Attended ロボット" dataDxfId="40"/>
+    <tableColumn id="16" xr3:uid="{49DD615B-15C2-4B9A-960E-9A70F1B8C51E}" name="スタンドアロンライセンス - Attended ロボット" dataDxfId="39"/>
+    <tableColumn id="12" xr3:uid="{B5515926-7E95-4BDC-B434-092F68C9E676}" name="ドメイン\ユーザー名 - Unattended ロボット" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{1EFF2166-C43F-4EFE-A90C-FFD898ED903B}" name="パスワード - Unattended Robot" dataDxfId="37"/>
+    <tableColumn id="17" xr3:uid="{E40F7CE9-454E-4944-9C0F-78161314E5AC}" name="同時接続実行を無効化 - Unattended Robot" dataDxfId="36"/>
+    <tableColumn id="24" xr3:uid="{4737097B-807F-467E-994B-823169C8851E}" name="ログレベル" dataDxfId="7"/>
+    <tableColumn id="23" xr3:uid="{F4F5E00E-44D5-478B-9E16-1E0836A97A31}" name="開発ログを許可" dataDxfId="6"/>
+    <tableColumn id="22" xr3:uid="{54CE7D6A-8149-4FF1-856C-0297F6C4EA6A}" name="コンソールへログイン" dataDxfId="5"/>
+    <tableColumn id="21" xr3:uid="{981701E3-426C-4D88-A3C1-45F9E3D28795}" name="解像度の幅" dataDxfId="4"/>
+    <tableColumn id="20" xr3:uid="{9DC42AD1-736C-4BEB-A7A8-35E20A7368C1}" name="解像度の高さ" dataDxfId="3"/>
+    <tableColumn id="19" xr3:uid="{45F1E31B-C2C4-4911-8745-575C838381F3}" name="解像度の階調" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{433CEED5-AD86-4341-87B3-24E355BD37E2}" name="フォントスムージング" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{ABE2AD9D-F7D1-4BD9-B771-C5E569C50B19}" name="プロセスを自動ダウンロード" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="ID" dataDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{08B4DCAC-6628-4928-B533-CE43508622D2}" name="結果" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:G201" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:G201" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="A1:G201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="3" xr3:uid="{01450210-36BE-4B28-9B3B-758A2770B142}" name="ID" dataDxfId="30"/>
-    <tableColumn id="1" xr3:uid="{D002318D-F09E-4941-86F7-CB540B53CA38}" name="名" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="姓" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="メールアドレス" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{310BA8C6-70B4-40F4-B90F-2C40BB19BC10}" name="ステータス" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="パスワード" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{E7804193-086E-4884-9B07-86C7E77E0835}" name="結果" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{01450210-36BE-4B28-9B3B-758A2770B142}" name="ID" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{D002318D-F09E-4941-86F7-CB540B53CA38}" name="名" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="姓" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="メールアドレス" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{310BA8C6-70B4-40F4-B90F-2C40BB19BC10}" name="ステータス" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="パスワード" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{E7804193-086E-4884-9B07-86C7E77E0835}" name="結果" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C201" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C201" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A1:C201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ID" dataDxfId="21"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ユーザー名" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="結果" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ID" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ユーザー名" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="結果" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{9A9C6F0D-2E14-43CF-BA3F-71838E8A8593}" name="Table1367" displayName="Table1367" ref="A1:D201" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{9A9C6F0D-2E14-43CF-BA3F-71838E8A8593}" name="Table1367" displayName="Table1367" ref="A1:D201" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{EB9188D5-49DF-4F54-A843-A55D3E2C1BE7}" name="ユーザー ID" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{85E99034-1CC5-49C9-990E-916A8CEEC70B}" name="追加されるロール名" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{CE37118B-AB12-42D8-BD3F-A9948E262C56}" name="削除されるロール名" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{C8060084-F897-4904-AA9C-11EEA24740A4}" name="結果" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{EB9188D5-49DF-4F54-A843-A55D3E2C1BE7}" name="ユーザー ID" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{85E99034-1CC5-49C9-990E-916A8CEEC70B}" name="追加されるロール名" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{CE37118B-AB12-42D8-BD3F-A9948E262C56}" name="削除されるロール名" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{C8060084-F897-4904-AA9C-11EEA24740A4}" name="結果" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F4943553-1107-4ABF-92F1-3D44259ECE3F}" name="Table136" displayName="Table136" ref="A1:D201" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F4943553-1107-4ABF-92F1-3D44259ECE3F}" name="Table136" displayName="Table136" ref="A1:D201" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{AECF12CD-DED5-4EAC-990D-027FA15BD77B}" name="ユーザーID" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{386847AF-7B54-40AC-B632-9092A64C412D}" name="追加される組織単位名" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{927EBCB0-231E-4AA5-99D9-8C13EE557A37}" name="削除される組織単位名" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{85CBEB5B-343A-4F2F-8DE9-C961C7CE168C}" name="結果" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{AECF12CD-DED5-4EAC-990D-027FA15BD77B}" name="ユーザーID" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{386847AF-7B54-40AC-B632-9092A64C412D}" name="追加される組織単位名" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{927EBCB0-231E-4AA5-99D9-8C13EE557A37}" name="削除される組織単位名" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{85CBEB5B-343A-4F2F-8DE9-C961C7CE168C}" name="結果" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4121,10 +4212,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P201"/>
+  <dimension ref="A1:X201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4134,13 +4225,13 @@
     <col min="5" max="6" width="45.6640625" style="29" customWidth="1"/>
     <col min="7" max="7" width="25.5" style="29" customWidth="1"/>
     <col min="8" max="14" width="25.5" style="2" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" style="31" customWidth="1"/>
-    <col min="16" max="16" width="45.6640625" style="31" customWidth="1"/>
-    <col min="17" max="17" width="11.25" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="8.75" style="2"/>
+    <col min="15" max="22" width="25.75" style="2" customWidth="1"/>
+    <col min="23" max="23" width="11.25" style="31" customWidth="1"/>
+    <col min="24" max="24" width="8.75" style="31"/>
+    <col min="25" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:24" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -4183,14 +4274,38 @@
       <c r="N1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="X1" s="23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -4198,10 +4313,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="12"/>
       <c r="G2" s="25"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -4209,10 +4324,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="12"/>
       <c r="G3" s="25"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -4220,10 +4335,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="12"/>
       <c r="G4" s="25"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -4231,10 +4346,10 @@
       <c r="E5" s="8"/>
       <c r="F5" s="12"/>
       <c r="G5" s="25"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -4242,10 +4357,10 @@
       <c r="E6" s="8"/>
       <c r="F6" s="12"/>
       <c r="G6" s="25"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -4253,10 +4368,10 @@
       <c r="E7" s="8"/>
       <c r="F7" s="12"/>
       <c r="G7" s="25"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -4264,10 +4379,10 @@
       <c r="E8" s="8"/>
       <c r="F8" s="12"/>
       <c r="G8" s="25"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -4275,10 +4390,10 @@
       <c r="E9" s="8"/>
       <c r="F9" s="12"/>
       <c r="G9" s="25"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -4286,10 +4401,10 @@
       <c r="E10" s="8"/>
       <c r="F10" s="12"/>
       <c r="G10" s="25"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -4297,10 +4412,10 @@
       <c r="E11" s="8"/>
       <c r="F11" s="12"/>
       <c r="G11" s="25"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -4308,10 +4423,10 @@
       <c r="E12" s="8"/>
       <c r="F12" s="12"/>
       <c r="G12" s="25"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -4319,10 +4434,10 @@
       <c r="E13" s="8"/>
       <c r="F13" s="12"/>
       <c r="G13" s="25"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -4330,10 +4445,10 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -4341,10 +4456,10 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="9"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -4352,10 +4467,10 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="9"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -4363,10 +4478,10 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="9"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -4374,10 +4489,10 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="9"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -4385,10 +4500,10 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="9"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -4396,10 +4511,10 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="9"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -4407,10 +4522,10 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="9"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -4418,10 +4533,10 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="9"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -4429,10 +4544,10 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="9"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -4440,10 +4555,10 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="9"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -4451,10 +4566,10 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="9"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -4462,10 +4577,10 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="9"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -4473,10 +4588,10 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="9"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -4484,10 +4599,10 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="9"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -4495,10 +4610,10 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="9"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -4506,10 +4621,10 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="9"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -4517,10 +4632,10 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="9"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -4528,10 +4643,10 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="9"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -4539,10 +4654,10 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="9"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -4550,10 +4665,10 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="9"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -4561,10 +4676,10 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="9"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -4572,10 +4687,10 @@
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="9"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -4583,10 +4698,10 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="9"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -4594,10 +4709,10 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="9"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -4605,10 +4720,10 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="9"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -4616,10 +4731,10 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="9"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -4627,10 +4742,10 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="9"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -4638,10 +4753,10 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="9"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -4649,10 +4764,10 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="9"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -4660,10 +4775,10 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="9"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -4671,10 +4786,10 @@
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="9"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -4682,10 +4797,10 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="9"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -4693,10 +4808,10 @@
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="9"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -4704,10 +4819,10 @@
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="9"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -4715,10 +4830,10 @@
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="9"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -4726,10 +4841,10 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="9"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -4737,10 +4852,10 @@
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="9"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -4748,10 +4863,10 @@
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="9"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -4759,10 +4874,10 @@
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="9"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -4770,10 +4885,10 @@
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="9"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -4781,10 +4896,10 @@
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="9"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -4792,10 +4907,10 @@
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="9"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -4803,10 +4918,10 @@
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="9"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -4814,10 +4929,10 @@
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="9"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -4825,10 +4940,10 @@
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="9"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -4836,10 +4951,10 @@
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="9"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -4847,10 +4962,10 @@
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="9"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W61" s="3"/>
+      <c r="X61" s="3"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -4858,10 +4973,10 @@
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="9"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -4869,10 +4984,10 @@
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="9"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W63" s="3"/>
+      <c r="X63" s="3"/>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -4880,10 +4995,10 @@
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="9"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W64" s="3"/>
+      <c r="X64" s="3"/>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -4891,10 +5006,10 @@
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="9"/>
-      <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W65" s="3"/>
+      <c r="X65" s="3"/>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -4902,10 +5017,10 @@
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="9"/>
-      <c r="O66" s="3"/>
-      <c r="P66" s="3"/>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W66" s="3"/>
+      <c r="X66" s="3"/>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -4913,10 +5028,10 @@
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="9"/>
-      <c r="O67" s="3"/>
-      <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -4924,10 +5039,10 @@
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="9"/>
-      <c r="O68" s="3"/>
-      <c r="P68" s="3"/>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W68" s="3"/>
+      <c r="X68" s="3"/>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -4935,10 +5050,10 @@
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="9"/>
-      <c r="O69" s="3"/>
-      <c r="P69" s="3"/>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W69" s="3"/>
+      <c r="X69" s="3"/>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -4946,10 +5061,10 @@
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="9"/>
-      <c r="O70" s="3"/>
-      <c r="P70" s="3"/>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W70" s="3"/>
+      <c r="X70" s="3"/>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -4957,10 +5072,10 @@
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="9"/>
-      <c r="O71" s="3"/>
-      <c r="P71" s="3"/>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W71" s="3"/>
+      <c r="X71" s="3"/>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -4968,10 +5083,10 @@
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="9"/>
-      <c r="O72" s="3"/>
-      <c r="P72" s="3"/>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W72" s="3"/>
+      <c r="X72" s="3"/>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -4979,10 +5094,10 @@
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="9"/>
-      <c r="O73" s="3"/>
-      <c r="P73" s="3"/>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W73" s="3"/>
+      <c r="X73" s="3"/>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -4990,10 +5105,10 @@
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="9"/>
-      <c r="O74" s="3"/>
-      <c r="P74" s="3"/>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W74" s="3"/>
+      <c r="X74" s="3"/>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -5001,10 +5116,10 @@
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="9"/>
-      <c r="O75" s="3"/>
-      <c r="P75" s="3"/>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W75" s="3"/>
+      <c r="X75" s="3"/>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -5012,10 +5127,10 @@
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="9"/>
-      <c r="O76" s="3"/>
-      <c r="P76" s="3"/>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W76" s="3"/>
+      <c r="X76" s="3"/>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -5023,10 +5138,10 @@
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="9"/>
-      <c r="O77" s="3"/>
-      <c r="P77" s="3"/>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W77" s="3"/>
+      <c r="X77" s="3"/>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -5034,10 +5149,10 @@
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="9"/>
-      <c r="O78" s="3"/>
-      <c r="P78" s="3"/>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W78" s="3"/>
+      <c r="X78" s="3"/>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -5045,10 +5160,10 @@
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="9"/>
-      <c r="O79" s="3"/>
-      <c r="P79" s="3"/>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W79" s="3"/>
+      <c r="X79" s="3"/>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -5056,10 +5171,10 @@
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="9"/>
-      <c r="O80" s="3"/>
-      <c r="P80" s="3"/>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W80" s="3"/>
+      <c r="X80" s="3"/>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -5067,10 +5182,10 @@
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="9"/>
-      <c r="O81" s="3"/>
-      <c r="P81" s="3"/>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W81" s="3"/>
+      <c r="X81" s="3"/>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -5078,10 +5193,10 @@
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="9"/>
-      <c r="O82" s="3"/>
-      <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -5089,10 +5204,10 @@
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="9"/>
-      <c r="O83" s="3"/>
-      <c r="P83" s="3"/>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W83" s="3"/>
+      <c r="X83" s="3"/>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -5100,10 +5215,10 @@
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="9"/>
-      <c r="O84" s="3"/>
-      <c r="P84" s="3"/>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W84" s="3"/>
+      <c r="X84" s="3"/>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -5111,10 +5226,10 @@
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="9"/>
-      <c r="O85" s="3"/>
-      <c r="P85" s="3"/>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W85" s="3"/>
+      <c r="X85" s="3"/>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -5122,10 +5237,10 @@
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="9"/>
-      <c r="O86" s="3"/>
-      <c r="P86" s="3"/>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W86" s="3"/>
+      <c r="X86" s="3"/>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -5133,10 +5248,10 @@
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="9"/>
-      <c r="O87" s="3"/>
-      <c r="P87" s="3"/>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W87" s="3"/>
+      <c r="X87" s="3"/>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -5144,10 +5259,10 @@
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="9"/>
-      <c r="O88" s="3"/>
-      <c r="P88" s="3"/>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W88" s="3"/>
+      <c r="X88" s="3"/>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -5155,10 +5270,10 @@
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="9"/>
-      <c r="O89" s="3"/>
-      <c r="P89" s="3"/>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W89" s="3"/>
+      <c r="X89" s="3"/>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -5166,10 +5281,10 @@
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="9"/>
-      <c r="O90" s="3"/>
-      <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -5177,10 +5292,10 @@
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="9"/>
-      <c r="O91" s="3"/>
-      <c r="P91" s="3"/>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W91" s="3"/>
+      <c r="X91" s="3"/>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -5188,10 +5303,10 @@
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="9"/>
-      <c r="O92" s="3"/>
-      <c r="P92" s="3"/>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W92" s="3"/>
+      <c r="X92" s="3"/>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -5199,10 +5314,10 @@
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="9"/>
-      <c r="O93" s="3"/>
-      <c r="P93" s="3"/>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W93" s="3"/>
+      <c r="X93" s="3"/>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -5210,10 +5325,10 @@
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="9"/>
-      <c r="O94" s="3"/>
-      <c r="P94" s="3"/>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W94" s="3"/>
+      <c r="X94" s="3"/>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -5221,10 +5336,10 @@
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="9"/>
-      <c r="O95" s="3"/>
-      <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -5232,10 +5347,10 @@
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="9"/>
-      <c r="O96" s="3"/>
-      <c r="P96" s="3"/>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W96" s="3"/>
+      <c r="X96" s="3"/>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -5243,10 +5358,10 @@
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="9"/>
-      <c r="O97" s="3"/>
-      <c r="P97" s="3"/>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W97" s="3"/>
+      <c r="X97" s="3"/>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -5254,10 +5369,10 @@
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="9"/>
-      <c r="O98" s="3"/>
-      <c r="P98" s="3"/>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W98" s="3"/>
+      <c r="X98" s="3"/>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -5265,10 +5380,10 @@
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="9"/>
-      <c r="O99" s="3"/>
-      <c r="P99" s="3"/>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W99" s="3"/>
+      <c r="X99" s="3"/>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -5276,10 +5391,10 @@
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="9"/>
-      <c r="O100" s="3"/>
-      <c r="P100" s="3"/>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W100" s="3"/>
+      <c r="X100" s="3"/>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -5287,10 +5402,10 @@
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="9"/>
-      <c r="O101" s="3"/>
-      <c r="P101" s="3"/>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W101" s="3"/>
+      <c r="X101" s="3"/>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -5298,10 +5413,10 @@
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
-      <c r="O102" s="3"/>
-      <c r="P102" s="3"/>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W102" s="3"/>
+      <c r="X102" s="3"/>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -5309,10 +5424,10 @@
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
-      <c r="O103" s="3"/>
-      <c r="P103" s="3"/>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W103" s="3"/>
+      <c r="X103" s="3"/>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -5320,10 +5435,10 @@
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
-      <c r="O104" s="3"/>
-      <c r="P104" s="3"/>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W104" s="3"/>
+      <c r="X104" s="3"/>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -5331,10 +5446,10 @@
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
-      <c r="O105" s="3"/>
-      <c r="P105" s="3"/>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W105" s="3"/>
+      <c r="X105" s="3"/>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -5342,10 +5457,10 @@
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
-      <c r="O106" s="3"/>
-      <c r="P106" s="3"/>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W106" s="3"/>
+      <c r="X106" s="3"/>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -5353,10 +5468,10 @@
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
-      <c r="O107" s="3"/>
-      <c r="P107" s="3"/>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W107" s="3"/>
+      <c r="X107" s="3"/>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -5364,10 +5479,10 @@
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
-      <c r="O108" s="3"/>
-      <c r="P108" s="3"/>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W108" s="3"/>
+      <c r="X108" s="3"/>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -5375,10 +5490,10 @@
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
-      <c r="O109" s="3"/>
-      <c r="P109" s="3"/>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W109" s="3"/>
+      <c r="X109" s="3"/>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -5386,10 +5501,10 @@
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
-      <c r="O110" s="3"/>
-      <c r="P110" s="3"/>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W110" s="3"/>
+      <c r="X110" s="3"/>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -5397,10 +5512,10 @@
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
-      <c r="O111" s="3"/>
-      <c r="P111" s="3"/>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W111" s="3"/>
+      <c r="X111" s="3"/>
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -5408,10 +5523,10 @@
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
-      <c r="O112" s="3"/>
-      <c r="P112" s="3"/>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W112" s="3"/>
+      <c r="X112" s="3"/>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -5419,10 +5534,10 @@
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
-      <c r="O113" s="3"/>
-      <c r="P113" s="3"/>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W113" s="3"/>
+      <c r="X113" s="3"/>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -5430,10 +5545,10 @@
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
-      <c r="O114" s="3"/>
-      <c r="P114" s="3"/>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W114" s="3"/>
+      <c r="X114" s="3"/>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -5441,10 +5556,10 @@
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
-      <c r="O115" s="3"/>
-      <c r="P115" s="3"/>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W115" s="3"/>
+      <c r="X115" s="3"/>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -5452,10 +5567,10 @@
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
-      <c r="O116" s="3"/>
-      <c r="P116" s="3"/>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W116" s="3"/>
+      <c r="X116" s="3"/>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -5463,10 +5578,10 @@
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
-      <c r="O117" s="3"/>
-      <c r="P117" s="3"/>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W117" s="3"/>
+      <c r="X117" s="3"/>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -5474,10 +5589,10 @@
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
-      <c r="O118" s="3"/>
-      <c r="P118" s="3"/>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W118" s="3"/>
+      <c r="X118" s="3"/>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -5485,10 +5600,10 @@
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
-      <c r="O119" s="3"/>
-      <c r="P119" s="3"/>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W119" s="3"/>
+      <c r="X119" s="3"/>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -5496,10 +5611,10 @@
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
-      <c r="O120" s="3"/>
-      <c r="P120" s="3"/>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W120" s="3"/>
+      <c r="X120" s="3"/>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -5507,10 +5622,10 @@
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
-      <c r="O121" s="3"/>
-      <c r="P121" s="3"/>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W121" s="3"/>
+      <c r="X121" s="3"/>
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -5518,10 +5633,10 @@
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
-      <c r="O122" s="3"/>
-      <c r="P122" s="3"/>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W122" s="3"/>
+      <c r="X122" s="3"/>
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -5529,10 +5644,10 @@
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
-      <c r="O123" s="3"/>
-      <c r="P123" s="3"/>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W123" s="3"/>
+      <c r="X123" s="3"/>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -5540,10 +5655,10 @@
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
-      <c r="O124" s="3"/>
-      <c r="P124" s="3"/>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W124" s="3"/>
+      <c r="X124" s="3"/>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -5551,10 +5666,10 @@
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
-      <c r="O125" s="3"/>
-      <c r="P125" s="3"/>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W125" s="3"/>
+      <c r="X125" s="3"/>
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -5562,10 +5677,10 @@
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
-      <c r="O126" s="3"/>
-      <c r="P126" s="3"/>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W126" s="3"/>
+      <c r="X126" s="3"/>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -5573,10 +5688,10 @@
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
-      <c r="O127" s="3"/>
-      <c r="P127" s="3"/>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W127" s="3"/>
+      <c r="X127" s="3"/>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -5584,10 +5699,10 @@
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
-      <c r="O128" s="3"/>
-      <c r="P128" s="3"/>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W128" s="3"/>
+      <c r="X128" s="3"/>
+    </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -5595,10 +5710,10 @@
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
-      <c r="O129" s="3"/>
-      <c r="P129" s="3"/>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W129" s="3"/>
+      <c r="X129" s="3"/>
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -5606,10 +5721,10 @@
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
-      <c r="O130" s="3"/>
-      <c r="P130" s="3"/>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W130" s="3"/>
+      <c r="X130" s="3"/>
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -5617,10 +5732,10 @@
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
-      <c r="O131" s="3"/>
-      <c r="P131" s="3"/>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W131" s="3"/>
+      <c r="X131" s="3"/>
+    </row>
+    <row r="132" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -5628,10 +5743,10 @@
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
-      <c r="O132" s="3"/>
-      <c r="P132" s="3"/>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W132" s="3"/>
+      <c r="X132" s="3"/>
+    </row>
+    <row r="133" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -5639,10 +5754,10 @@
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
-      <c r="O133" s="3"/>
-      <c r="P133" s="3"/>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W133" s="3"/>
+      <c r="X133" s="3"/>
+    </row>
+    <row r="134" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -5650,10 +5765,10 @@
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
-      <c r="O134" s="3"/>
-      <c r="P134" s="3"/>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W134" s="3"/>
+      <c r="X134" s="3"/>
+    </row>
+    <row r="135" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -5661,10 +5776,10 @@
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
-      <c r="O135" s="3"/>
-      <c r="P135" s="3"/>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W135" s="3"/>
+      <c r="X135" s="3"/>
+    </row>
+    <row r="136" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -5672,10 +5787,10 @@
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
-      <c r="O136" s="3"/>
-      <c r="P136" s="3"/>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W136" s="3"/>
+      <c r="X136" s="3"/>
+    </row>
+    <row r="137" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -5683,10 +5798,10 @@
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
-      <c r="O137" s="3"/>
-      <c r="P137" s="3"/>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W137" s="3"/>
+      <c r="X137" s="3"/>
+    </row>
+    <row r="138" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -5694,10 +5809,10 @@
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
-      <c r="O138" s="3"/>
-      <c r="P138" s="3"/>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W138" s="3"/>
+      <c r="X138" s="3"/>
+    </row>
+    <row r="139" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -5705,10 +5820,10 @@
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
-      <c r="O139" s="3"/>
-      <c r="P139" s="3"/>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W139" s="3"/>
+      <c r="X139" s="3"/>
+    </row>
+    <row r="140" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -5716,10 +5831,10 @@
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
-      <c r="O140" s="3"/>
-      <c r="P140" s="3"/>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W140" s="3"/>
+      <c r="X140" s="3"/>
+    </row>
+    <row r="141" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -5727,10 +5842,10 @@
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
-      <c r="O141" s="3"/>
-      <c r="P141" s="3"/>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W141" s="3"/>
+      <c r="X141" s="3"/>
+    </row>
+    <row r="142" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -5738,10 +5853,10 @@
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
-      <c r="O142" s="3"/>
-      <c r="P142" s="3"/>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W142" s="3"/>
+      <c r="X142" s="3"/>
+    </row>
+    <row r="143" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -5749,10 +5864,10 @@
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
-      <c r="O143" s="3"/>
-      <c r="P143" s="3"/>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W143" s="3"/>
+      <c r="X143" s="3"/>
+    </row>
+    <row r="144" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -5760,10 +5875,10 @@
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
-      <c r="O144" s="3"/>
-      <c r="P144" s="3"/>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W144" s="3"/>
+      <c r="X144" s="3"/>
+    </row>
+    <row r="145" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -5771,10 +5886,10 @@
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
-      <c r="O145" s="3"/>
-      <c r="P145" s="3"/>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W145" s="3"/>
+      <c r="X145" s="3"/>
+    </row>
+    <row r="146" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -5782,10 +5897,10 @@
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
-      <c r="O146" s="3"/>
-      <c r="P146" s="3"/>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W146" s="3"/>
+      <c r="X146" s="3"/>
+    </row>
+    <row r="147" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -5793,10 +5908,10 @@
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
       <c r="G147" s="8"/>
-      <c r="O147" s="3"/>
-      <c r="P147" s="3"/>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W147" s="3"/>
+      <c r="X147" s="3"/>
+    </row>
+    <row r="148" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -5804,10 +5919,10 @@
       <c r="E148" s="8"/>
       <c r="F148" s="8"/>
       <c r="G148" s="8"/>
-      <c r="O148" s="3"/>
-      <c r="P148" s="3"/>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W148" s="3"/>
+      <c r="X148" s="3"/>
+    </row>
+    <row r="149" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -5815,10 +5930,10 @@
       <c r="E149" s="8"/>
       <c r="F149" s="8"/>
       <c r="G149" s="8"/>
-      <c r="O149" s="3"/>
-      <c r="P149" s="3"/>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W149" s="3"/>
+      <c r="X149" s="3"/>
+    </row>
+    <row r="150" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -5826,10 +5941,10 @@
       <c r="E150" s="8"/>
       <c r="F150" s="8"/>
       <c r="G150" s="8"/>
-      <c r="O150" s="3"/>
-      <c r="P150" s="3"/>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W150" s="3"/>
+      <c r="X150" s="3"/>
+    </row>
+    <row r="151" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -5837,10 +5952,10 @@
       <c r="E151" s="8"/>
       <c r="F151" s="8"/>
       <c r="G151" s="8"/>
-      <c r="O151" s="3"/>
-      <c r="P151" s="3"/>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W151" s="3"/>
+      <c r="X151" s="3"/>
+    </row>
+    <row r="152" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -5848,10 +5963,10 @@
       <c r="E152" s="8"/>
       <c r="F152" s="8"/>
       <c r="G152" s="8"/>
-      <c r="O152" s="3"/>
-      <c r="P152" s="3"/>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W152" s="3"/>
+      <c r="X152" s="3"/>
+    </row>
+    <row r="153" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -5859,10 +5974,10 @@
       <c r="E153" s="8"/>
       <c r="F153" s="8"/>
       <c r="G153" s="8"/>
-      <c r="O153" s="3"/>
-      <c r="P153" s="3"/>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W153" s="3"/>
+      <c r="X153" s="3"/>
+    </row>
+    <row r="154" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -5870,10 +5985,10 @@
       <c r="E154" s="8"/>
       <c r="F154" s="8"/>
       <c r="G154" s="8"/>
-      <c r="O154" s="3"/>
-      <c r="P154" s="3"/>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W154" s="3"/>
+      <c r="X154" s="3"/>
+    </row>
+    <row r="155" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -5881,10 +5996,10 @@
       <c r="E155" s="8"/>
       <c r="F155" s="8"/>
       <c r="G155" s="8"/>
-      <c r="O155" s="3"/>
-      <c r="P155" s="3"/>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W155" s="3"/>
+      <c r="X155" s="3"/>
+    </row>
+    <row r="156" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -5892,10 +6007,10 @@
       <c r="E156" s="8"/>
       <c r="F156" s="8"/>
       <c r="G156" s="8"/>
-      <c r="O156" s="3"/>
-      <c r="P156" s="3"/>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W156" s="3"/>
+      <c r="X156" s="3"/>
+    </row>
+    <row r="157" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -5903,10 +6018,10 @@
       <c r="E157" s="8"/>
       <c r="F157" s="8"/>
       <c r="G157" s="8"/>
-      <c r="O157" s="3"/>
-      <c r="P157" s="3"/>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W157" s="3"/>
+      <c r="X157" s="3"/>
+    </row>
+    <row r="158" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -5914,10 +6029,10 @@
       <c r="E158" s="8"/>
       <c r="F158" s="8"/>
       <c r="G158" s="8"/>
-      <c r="O158" s="3"/>
-      <c r="P158" s="3"/>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W158" s="3"/>
+      <c r="X158" s="3"/>
+    </row>
+    <row r="159" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -5925,10 +6040,10 @@
       <c r="E159" s="8"/>
       <c r="F159" s="8"/>
       <c r="G159" s="8"/>
-      <c r="O159" s="3"/>
-      <c r="P159" s="3"/>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W159" s="3"/>
+      <c r="X159" s="3"/>
+    </row>
+    <row r="160" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -5936,10 +6051,10 @@
       <c r="E160" s="8"/>
       <c r="F160" s="8"/>
       <c r="G160" s="8"/>
-      <c r="O160" s="3"/>
-      <c r="P160" s="3"/>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W160" s="3"/>
+      <c r="X160" s="3"/>
+    </row>
+    <row r="161" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -5947,10 +6062,10 @@
       <c r="E161" s="8"/>
       <c r="F161" s="8"/>
       <c r="G161" s="8"/>
-      <c r="O161" s="3"/>
-      <c r="P161" s="3"/>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W161" s="3"/>
+      <c r="X161" s="3"/>
+    </row>
+    <row r="162" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -5958,10 +6073,10 @@
       <c r="E162" s="8"/>
       <c r="F162" s="8"/>
       <c r="G162" s="8"/>
-      <c r="O162" s="3"/>
-      <c r="P162" s="3"/>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W162" s="3"/>
+      <c r="X162" s="3"/>
+    </row>
+    <row r="163" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -5969,10 +6084,10 @@
       <c r="E163" s="8"/>
       <c r="F163" s="8"/>
       <c r="G163" s="8"/>
-      <c r="O163" s="3"/>
-      <c r="P163" s="3"/>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W163" s="3"/>
+      <c r="X163" s="3"/>
+    </row>
+    <row r="164" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
@@ -5980,10 +6095,10 @@
       <c r="E164" s="8"/>
       <c r="F164" s="8"/>
       <c r="G164" s="8"/>
-      <c r="O164" s="3"/>
-      <c r="P164" s="3"/>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W164" s="3"/>
+      <c r="X164" s="3"/>
+    </row>
+    <row r="165" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
@@ -5991,10 +6106,10 @@
       <c r="E165" s="8"/>
       <c r="F165" s="8"/>
       <c r="G165" s="8"/>
-      <c r="O165" s="3"/>
-      <c r="P165" s="3"/>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W165" s="3"/>
+      <c r="X165" s="3"/>
+    </row>
+    <row r="166" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
@@ -6002,10 +6117,10 @@
       <c r="E166" s="8"/>
       <c r="F166" s="8"/>
       <c r="G166" s="8"/>
-      <c r="O166" s="3"/>
-      <c r="P166" s="3"/>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W166" s="3"/>
+      <c r="X166" s="3"/>
+    </row>
+    <row r="167" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
@@ -6013,10 +6128,10 @@
       <c r="E167" s="8"/>
       <c r="F167" s="8"/>
       <c r="G167" s="8"/>
-      <c r="O167" s="3"/>
-      <c r="P167" s="3"/>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W167" s="3"/>
+      <c r="X167" s="3"/>
+    </row>
+    <row r="168" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
@@ -6024,10 +6139,10 @@
       <c r="E168" s="8"/>
       <c r="F168" s="8"/>
       <c r="G168" s="8"/>
-      <c r="O168" s="3"/>
-      <c r="P168" s="3"/>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W168" s="3"/>
+      <c r="X168" s="3"/>
+    </row>
+    <row r="169" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
@@ -6035,10 +6150,10 @@
       <c r="E169" s="8"/>
       <c r="F169" s="8"/>
       <c r="G169" s="8"/>
-      <c r="O169" s="3"/>
-      <c r="P169" s="3"/>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W169" s="3"/>
+      <c r="X169" s="3"/>
+    </row>
+    <row r="170" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
@@ -6046,10 +6161,10 @@
       <c r="E170" s="8"/>
       <c r="F170" s="8"/>
       <c r="G170" s="8"/>
-      <c r="O170" s="3"/>
-      <c r="P170" s="3"/>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W170" s="3"/>
+      <c r="X170" s="3"/>
+    </row>
+    <row r="171" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
@@ -6057,10 +6172,10 @@
       <c r="E171" s="8"/>
       <c r="F171" s="8"/>
       <c r="G171" s="8"/>
-      <c r="O171" s="3"/>
-      <c r="P171" s="3"/>
-    </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W171" s="3"/>
+      <c r="X171" s="3"/>
+    </row>
+    <row r="172" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
@@ -6068,10 +6183,10 @@
       <c r="E172" s="8"/>
       <c r="F172" s="8"/>
       <c r="G172" s="8"/>
-      <c r="O172" s="3"/>
-      <c r="P172" s="3"/>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W172" s="3"/>
+      <c r="X172" s="3"/>
+    </row>
+    <row r="173" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
@@ -6079,10 +6194,10 @@
       <c r="E173" s="8"/>
       <c r="F173" s="8"/>
       <c r="G173" s="8"/>
-      <c r="O173" s="3"/>
-      <c r="P173" s="3"/>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W173" s="3"/>
+      <c r="X173" s="3"/>
+    </row>
+    <row r="174" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
@@ -6090,10 +6205,10 @@
       <c r="E174" s="8"/>
       <c r="F174" s="8"/>
       <c r="G174" s="8"/>
-      <c r="O174" s="3"/>
-      <c r="P174" s="3"/>
-    </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W174" s="3"/>
+      <c r="X174" s="3"/>
+    </row>
+    <row r="175" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
@@ -6101,10 +6216,10 @@
       <c r="E175" s="8"/>
       <c r="F175" s="8"/>
       <c r="G175" s="8"/>
-      <c r="O175" s="3"/>
-      <c r="P175" s="3"/>
-    </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W175" s="3"/>
+      <c r="X175" s="3"/>
+    </row>
+    <row r="176" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -6112,10 +6227,10 @@
       <c r="E176" s="8"/>
       <c r="F176" s="8"/>
       <c r="G176" s="8"/>
-      <c r="O176" s="3"/>
-      <c r="P176" s="3"/>
-    </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W176" s="3"/>
+      <c r="X176" s="3"/>
+    </row>
+    <row r="177" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="8"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
@@ -6123,10 +6238,10 @@
       <c r="E177" s="8"/>
       <c r="F177" s="8"/>
       <c r="G177" s="8"/>
-      <c r="O177" s="3"/>
-      <c r="P177" s="3"/>
-    </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W177" s="3"/>
+      <c r="X177" s="3"/>
+    </row>
+    <row r="178" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="8"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
@@ -6134,10 +6249,10 @@
       <c r="E178" s="8"/>
       <c r="F178" s="8"/>
       <c r="G178" s="8"/>
-      <c r="O178" s="3"/>
-      <c r="P178" s="3"/>
-    </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W178" s="3"/>
+      <c r="X178" s="3"/>
+    </row>
+    <row r="179" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
@@ -6145,10 +6260,10 @@
       <c r="E179" s="8"/>
       <c r="F179" s="8"/>
       <c r="G179" s="8"/>
-      <c r="O179" s="3"/>
-      <c r="P179" s="3"/>
-    </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W179" s="3"/>
+      <c r="X179" s="3"/>
+    </row>
+    <row r="180" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
@@ -6156,10 +6271,10 @@
       <c r="E180" s="8"/>
       <c r="F180" s="8"/>
       <c r="G180" s="8"/>
-      <c r="O180" s="3"/>
-      <c r="P180" s="3"/>
-    </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W180" s="3"/>
+      <c r="X180" s="3"/>
+    </row>
+    <row r="181" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="8"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
@@ -6167,10 +6282,10 @@
       <c r="E181" s="8"/>
       <c r="F181" s="8"/>
       <c r="G181" s="8"/>
-      <c r="O181" s="3"/>
-      <c r="P181" s="3"/>
-    </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W181" s="3"/>
+      <c r="X181" s="3"/>
+    </row>
+    <row r="182" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="8"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
@@ -6178,10 +6293,10 @@
       <c r="E182" s="8"/>
       <c r="F182" s="8"/>
       <c r="G182" s="8"/>
-      <c r="O182" s="3"/>
-      <c r="P182" s="3"/>
-    </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W182" s="3"/>
+      <c r="X182" s="3"/>
+    </row>
+    <row r="183" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="8"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
@@ -6189,10 +6304,10 @@
       <c r="E183" s="8"/>
       <c r="F183" s="8"/>
       <c r="G183" s="8"/>
-      <c r="O183" s="3"/>
-      <c r="P183" s="3"/>
-    </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W183" s="3"/>
+      <c r="X183" s="3"/>
+    </row>
+    <row r="184" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="8"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
@@ -6200,10 +6315,10 @@
       <c r="E184" s="8"/>
       <c r="F184" s="8"/>
       <c r="G184" s="8"/>
-      <c r="O184" s="3"/>
-      <c r="P184" s="3"/>
-    </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W184" s="3"/>
+      <c r="X184" s="3"/>
+    </row>
+    <row r="185" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="8"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
@@ -6211,10 +6326,10 @@
       <c r="E185" s="8"/>
       <c r="F185" s="8"/>
       <c r="G185" s="8"/>
-      <c r="O185" s="3"/>
-      <c r="P185" s="3"/>
-    </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W185" s="3"/>
+      <c r="X185" s="3"/>
+    </row>
+    <row r="186" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="8"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
@@ -6222,10 +6337,10 @@
       <c r="E186" s="8"/>
       <c r="F186" s="8"/>
       <c r="G186" s="8"/>
-      <c r="O186" s="3"/>
-      <c r="P186" s="3"/>
-    </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W186" s="3"/>
+      <c r="X186" s="3"/>
+    </row>
+    <row r="187" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="8"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
@@ -6233,10 +6348,10 @@
       <c r="E187" s="8"/>
       <c r="F187" s="8"/>
       <c r="G187" s="8"/>
-      <c r="O187" s="3"/>
-      <c r="P187" s="3"/>
-    </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W187" s="3"/>
+      <c r="X187" s="3"/>
+    </row>
+    <row r="188" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="8"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
@@ -6244,10 +6359,10 @@
       <c r="E188" s="8"/>
       <c r="F188" s="8"/>
       <c r="G188" s="8"/>
-      <c r="O188" s="3"/>
-      <c r="P188" s="3"/>
-    </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W188" s="3"/>
+      <c r="X188" s="3"/>
+    </row>
+    <row r="189" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="8"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
@@ -6255,10 +6370,10 @@
       <c r="E189" s="8"/>
       <c r="F189" s="8"/>
       <c r="G189" s="8"/>
-      <c r="O189" s="3"/>
-      <c r="P189" s="3"/>
-    </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W189" s="3"/>
+      <c r="X189" s="3"/>
+    </row>
+    <row r="190" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="8"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
@@ -6266,10 +6381,10 @@
       <c r="E190" s="8"/>
       <c r="F190" s="8"/>
       <c r="G190" s="8"/>
-      <c r="O190" s="3"/>
-      <c r="P190" s="3"/>
-    </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W190" s="3"/>
+      <c r="X190" s="3"/>
+    </row>
+    <row r="191" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="8"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
@@ -6277,10 +6392,10 @@
       <c r="E191" s="8"/>
       <c r="F191" s="8"/>
       <c r="G191" s="8"/>
-      <c r="O191" s="3"/>
-      <c r="P191" s="3"/>
-    </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W191" s="3"/>
+      <c r="X191" s="3"/>
+    </row>
+    <row r="192" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="8"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
@@ -6288,10 +6403,10 @@
       <c r="E192" s="8"/>
       <c r="F192" s="8"/>
       <c r="G192" s="8"/>
-      <c r="O192" s="3"/>
-      <c r="P192" s="3"/>
-    </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W192" s="3"/>
+      <c r="X192" s="3"/>
+    </row>
+    <row r="193" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="8"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
@@ -6299,10 +6414,10 @@
       <c r="E193" s="8"/>
       <c r="F193" s="8"/>
       <c r="G193" s="8"/>
-      <c r="O193" s="3"/>
-      <c r="P193" s="3"/>
-    </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W193" s="3"/>
+      <c r="X193" s="3"/>
+    </row>
+    <row r="194" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="8"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
@@ -6310,10 +6425,10 @@
       <c r="E194" s="8"/>
       <c r="F194" s="8"/>
       <c r="G194" s="8"/>
-      <c r="O194" s="3"/>
-      <c r="P194" s="3"/>
-    </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W194" s="3"/>
+      <c r="X194" s="3"/>
+    </row>
+    <row r="195" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="8"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
@@ -6321,10 +6436,10 @@
       <c r="E195" s="8"/>
       <c r="F195" s="8"/>
       <c r="G195" s="8"/>
-      <c r="O195" s="3"/>
-      <c r="P195" s="3"/>
-    </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W195" s="3"/>
+      <c r="X195" s="3"/>
+    </row>
+    <row r="196" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="8"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
@@ -6332,10 +6447,10 @@
       <c r="E196" s="8"/>
       <c r="F196" s="8"/>
       <c r="G196" s="8"/>
-      <c r="O196" s="3"/>
-      <c r="P196" s="3"/>
-    </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W196" s="3"/>
+      <c r="X196" s="3"/>
+    </row>
+    <row r="197" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="8"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
@@ -6343,10 +6458,10 @@
       <c r="E197" s="8"/>
       <c r="F197" s="8"/>
       <c r="G197" s="8"/>
-      <c r="O197" s="3"/>
-      <c r="P197" s="3"/>
-    </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W197" s="3"/>
+      <c r="X197" s="3"/>
+    </row>
+    <row r="198" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="8"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
@@ -6354,10 +6469,10 @@
       <c r="E198" s="8"/>
       <c r="F198" s="8"/>
       <c r="G198" s="8"/>
-      <c r="O198" s="3"/>
-      <c r="P198" s="3"/>
-    </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W198" s="3"/>
+      <c r="X198" s="3"/>
+    </row>
+    <row r="199" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="8"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
@@ -6365,10 +6480,10 @@
       <c r="E199" s="8"/>
       <c r="F199" s="8"/>
       <c r="G199" s="8"/>
-      <c r="O199" s="21"/>
-      <c r="P199" s="21"/>
-    </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W199" s="21"/>
+      <c r="X199" s="21"/>
+    </row>
+    <row r="200" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="8"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
@@ -6376,10 +6491,10 @@
       <c r="E200" s="8"/>
       <c r="F200" s="8"/>
       <c r="G200" s="9"/>
-      <c r="O200" s="3"/>
-      <c r="P200" s="3"/>
-    </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="W200" s="3"/>
+      <c r="X200" s="3"/>
+    </row>
+    <row r="201" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="10"/>
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
@@ -6387,20 +6502,27 @@
       <c r="E201" s="10"/>
       <c r="F201" s="10"/>
       <c r="G201" s="11"/>
-      <c r="O201" s="3"/>
-      <c r="P201" s="3"/>
+      <c r="W201" s="3"/>
+      <c r="X201" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なID" error="IDは0より大きい整数である必要があります。" sqref="O2:O1048576" xr:uid="{8ED4B105-B57E-483A-A8E7-5AD93587E784}">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:K1048576 N2:N1048576 U2:V1048576 P2:Q1048576" xr:uid="{C260899B-113D-470B-89F6-D6A3946916A9}">
+      <formula1>"TRUE, FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なID" error="IDは0より大きい整数である必要があります。" sqref="W2:W1048576" xr:uid="{8ED4B105-B57E-483A-A8E7-5AD93587E784}">
       <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:K1048576 N2:N1048576" xr:uid="{C260899B-113D-470B-89F6-D6A3946916A9}">
-      <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576" xr:uid="{D95B43DE-6095-484D-B17C-048FD7035870}">
       <formula1>"NonProduction, Attended, Unattended, Studio, Development, StudioX, Headless, StudioPro, TestAutomation"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:T1048576" xr:uid="{5325A3FF-07E7-4CA1-A4A0-D0CC08FC1CA1}">
+      <formula1>0</formula1>
+      <formula2>32767</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576" xr:uid="{F6B5ED4E-5129-4EEA-8960-EA4924F56786}">
+      <formula1>"Verbose, Trace, Information, Warning, Error, Critical, Off"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Workbooks/JA/ユーザー.xlsx
+++ b/Workbooks/JA/ユーザー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABC55F9-43C9-4F4B-8946-A46B5D82C96D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500106A1-4D45-4507-A11C-FEB391C3512E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="4940" windowWidth="30570" windowHeight="11930" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="58695" yWindow="1005" windowWidth="26580" windowHeight="12930" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
   <si>
     <t>名</t>
   </si>
@@ -519,30 +519,171 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="67">
+  <dxfs count="82">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1043,6 +1184,30 @@
         </bottom>
       </border>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1580,105 +1745,120 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:I201" headerRowDxfId="66" dataDxfId="64" totalsRowDxfId="62" headerRowBorderDxfId="65" tableBorderDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:I201" headerRowDxfId="81" dataDxfId="79" totalsRowDxfId="77" headerRowBorderDxfId="80" tableBorderDxfId="78">
   <autoFilter ref="A1:I201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{C22893F0-4B4D-460C-A013-95020C7502B4}" name="タイプ" dataDxfId="61" totalsRowDxfId="60"/>
-    <tableColumn id="8" xr3:uid="{1372863E-1574-486C-96A5-9F8A48DBEB17}" name="ID" dataDxfId="59"/>
-    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="ユーザー名" dataDxfId="58"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="名" totalsRowLabel="Total" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="姓" dataDxfId="56"/>
-    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="メールアドレス" dataDxfId="55"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="組織単位名" totalsRowFunction="count" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="ロール名" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{73F4371D-09E6-432B-A8D2-FDF51584A3F9}" name="ステータス" dataDxfId="52"/>
+    <tableColumn id="9" xr3:uid="{C22893F0-4B4D-460C-A013-95020C7502B4}" name="タイプ" dataDxfId="76" totalsRowDxfId="75"/>
+    <tableColumn id="8" xr3:uid="{1372863E-1574-486C-96A5-9F8A48DBEB17}" name="ID" dataDxfId="74"/>
+    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="ユーザー名" dataDxfId="73"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="名" totalsRowLabel="Total" dataDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="姓" dataDxfId="71"/>
+    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="メールアドレス" dataDxfId="70"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="組織単位名" totalsRowFunction="count" dataDxfId="69"/>
+    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="ロール名" dataDxfId="68"/>
+    <tableColumn id="4" xr3:uid="{73F4371D-09E6-432B-A8D2-FDF51584A3F9}" name="ステータス" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:X201" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:X201" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
   <autoFilter ref="A1:X201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="24">
-    <tableColumn id="10" xr3:uid="{65749B7E-1278-4BF9-BE0E-B0B1A7EBF445}" name="ユーザー名 *" dataDxfId="49"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="名" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="姓" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="メールアドレス" dataDxfId="46"/>
-    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="組織単位名" dataDxfId="45"/>
-    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="ロール" dataDxfId="44"/>
-    <tableColumn id="9" xr3:uid="{4E111FFE-AC48-4FF2-B3E5-DEDE4EC1D531}" name="パスワード" dataDxfId="43"/>
-    <tableColumn id="14" xr3:uid="{6DE9A60B-D2AA-4C5B-9D19-151C1E73E0AC}" name="ドメイン\ユーザ名 - Attended ロボット" dataDxfId="42"/>
-    <tableColumn id="13" xr3:uid="{262304B2-69B6-47FC-833F-5922ED105520}" name="ライセンスの種類 - Attended ロボット" dataDxfId="41"/>
-    <tableColumn id="15" xr3:uid="{42564DA4-8D53-4C1B-9C2C-4BE92DD00FFC}" name="個人のワークスペースを作成 - Attended ロボット" dataDxfId="40"/>
-    <tableColumn id="16" xr3:uid="{49DD615B-15C2-4B9A-960E-9A70F1B8C51E}" name="スタンドアロンライセンス - Attended ロボット" dataDxfId="39"/>
-    <tableColumn id="12" xr3:uid="{B5515926-7E95-4BDC-B434-092F68C9E676}" name="ドメイン\ユーザー名 - Unattended ロボット" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{1EFF2166-C43F-4EFE-A90C-FFD898ED903B}" name="パスワード - Unattended Robot" dataDxfId="37"/>
-    <tableColumn id="17" xr3:uid="{E40F7CE9-454E-4944-9C0F-78161314E5AC}" name="同時接続実行を無効化 - Unattended Robot" dataDxfId="36"/>
-    <tableColumn id="24" xr3:uid="{4737097B-807F-467E-994B-823169C8851E}" name="ログレベル" dataDxfId="7"/>
-    <tableColumn id="23" xr3:uid="{F4F5E00E-44D5-478B-9E16-1E0836A97A31}" name="開発ログを許可" dataDxfId="6"/>
-    <tableColumn id="22" xr3:uid="{54CE7D6A-8149-4FF1-856C-0297F6C4EA6A}" name="コンソールへログイン" dataDxfId="5"/>
-    <tableColumn id="21" xr3:uid="{981701E3-426C-4D88-A3C1-45F9E3D28795}" name="解像度の幅" dataDxfId="4"/>
-    <tableColumn id="20" xr3:uid="{9DC42AD1-736C-4BEB-A7A8-35E20A7368C1}" name="解像度の高さ" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{45F1E31B-C2C4-4911-8745-575C838381F3}" name="解像度の階調" dataDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{433CEED5-AD86-4341-87B3-24E355BD37E2}" name="フォントスムージング" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{ABE2AD9D-F7D1-4BD9-B771-C5E569C50B19}" name="プロセスを自動ダウンロード" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="ID" dataDxfId="35"/>
-    <tableColumn id="8" xr3:uid="{08B4DCAC-6628-4928-B533-CE43508622D2}" name="結果" dataDxfId="34"/>
+    <tableColumn id="10" xr3:uid="{65749B7E-1278-4BF9-BE0E-B0B1A7EBF445}" name="ユーザー名 *" dataDxfId="64"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="名" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="姓" dataDxfId="62"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="メールアドレス" dataDxfId="61"/>
+    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="組織単位名" dataDxfId="60"/>
+    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="ロール" dataDxfId="59"/>
+    <tableColumn id="9" xr3:uid="{4E111FFE-AC48-4FF2-B3E5-DEDE4EC1D531}" name="パスワード" dataDxfId="58"/>
+    <tableColumn id="14" xr3:uid="{6DE9A60B-D2AA-4C5B-9D19-151C1E73E0AC}" name="ドメイン\ユーザ名 - Attended ロボット" dataDxfId="57"/>
+    <tableColumn id="13" xr3:uid="{262304B2-69B6-47FC-833F-5922ED105520}" name="ライセンスの種類 - Attended ロボット" dataDxfId="56"/>
+    <tableColumn id="15" xr3:uid="{42564DA4-8D53-4C1B-9C2C-4BE92DD00FFC}" name="個人のワークスペースを作成 - Attended ロボット" dataDxfId="55"/>
+    <tableColumn id="16" xr3:uid="{49DD615B-15C2-4B9A-960E-9A70F1B8C51E}" name="スタンドアロンライセンス - Attended ロボット" dataDxfId="54"/>
+    <tableColumn id="12" xr3:uid="{B5515926-7E95-4BDC-B434-092F68C9E676}" name="ドメイン\ユーザー名 - Unattended ロボット" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{1EFF2166-C43F-4EFE-A90C-FFD898ED903B}" name="パスワード - Unattended Robot" dataDxfId="52"/>
+    <tableColumn id="17" xr3:uid="{E40F7CE9-454E-4944-9C0F-78161314E5AC}" name="同時接続実行を無効化 - Unattended Robot" dataDxfId="51"/>
+    <tableColumn id="24" xr3:uid="{4737097B-807F-467E-994B-823169C8851E}" name="ログレベル" dataDxfId="50"/>
+    <tableColumn id="23" xr3:uid="{F4F5E00E-44D5-478B-9E16-1E0836A97A31}" name="開発ログを許可" dataDxfId="49"/>
+    <tableColumn id="22" xr3:uid="{54CE7D6A-8149-4FF1-856C-0297F6C4EA6A}" name="コンソールへログイン" dataDxfId="48"/>
+    <tableColumn id="21" xr3:uid="{981701E3-426C-4D88-A3C1-45F9E3D28795}" name="解像度の幅" dataDxfId="47"/>
+    <tableColumn id="20" xr3:uid="{9DC42AD1-736C-4BEB-A7A8-35E20A7368C1}" name="解像度の高さ" dataDxfId="46"/>
+    <tableColumn id="19" xr3:uid="{45F1E31B-C2C4-4911-8745-575C838381F3}" name="解像度の階調" dataDxfId="45"/>
+    <tableColumn id="18" xr3:uid="{433CEED5-AD86-4341-87B3-24E355BD37E2}" name="フォントスムージング" dataDxfId="44"/>
+    <tableColumn id="11" xr3:uid="{ABE2AD9D-F7D1-4BD9-B771-C5E569C50B19}" name="プロセスを自動ダウンロード" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="ID" dataDxfId="42"/>
+    <tableColumn id="8" xr3:uid="{08B4DCAC-6628-4928-B533-CE43508622D2}" name="結果" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:G201" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
-  <autoFilter ref="A1:G201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="7">
-    <tableColumn id="3" xr3:uid="{01450210-36BE-4B28-9B3B-758A2770B142}" name="ID" dataDxfId="31"/>
-    <tableColumn id="1" xr3:uid="{D002318D-F09E-4941-86F7-CB540B53CA38}" name="名" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="姓" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="メールアドレス" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{310BA8C6-70B4-40F4-B90F-2C40BB19BC10}" name="ステータス" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="パスワード" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{E7804193-086E-4884-9B07-86C7E77E0835}" name="結果" dataDxfId="25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:V201" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+  <autoFilter ref="A1:V201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="22">
+    <tableColumn id="3" xr3:uid="{01450210-36BE-4B28-9B3B-758A2770B142}" name="ID" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{D002318D-F09E-4941-86F7-CB540B53CA38}" name="名" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="姓" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="メールアドレス" dataDxfId="35"/>
+    <tableColumn id="9" xr3:uid="{310BA8C6-70B4-40F4-B90F-2C40BB19BC10}" name="ステータス" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="パスワード" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{0A9FCE5D-7A4D-4D23-962D-3D890B31ECF6}" name="ドメイン\ユーザ名 - Attended ロボット" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{435EC5F0-D9A6-492E-AFC0-0DF64431D694}" name="ライセンスの種類 - Attended ロボット" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{78B66692-FDB2-4164-9EF9-EF729C4B3EE1}" name="個人のワークスペースを作成 - Attended ロボット" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{D39B748A-CEBA-4449-9A1E-C1A802A5B8E3}" name="スタンドアロンライセンス - Attended ロボット" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{E8BC110B-0EF0-4150-9004-8FD287FCEF10}" name="ドメイン\ユーザー名 - Unattended ロボット" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{C8D99A10-4E3F-4431-93D3-322E7C3CB822}" name="パスワード - Unattended Robot" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{D2D0C529-C8B4-4DAF-A87D-78D50327198E}" name="同時接続実行を無効化 - Unattended Robot" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{38F4D0BE-C738-4ED6-8F58-D9C863FB5182}" name="ログレベル" dataDxfId="7"/>
+    <tableColumn id="16" xr3:uid="{CA205852-D1C8-420F-9E61-81D5982308DE}" name="開発ログを許可" dataDxfId="6"/>
+    <tableColumn id="17" xr3:uid="{79F01462-F7AD-4A8F-8909-36D6802C36D3}" name="コンソールへログイン" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{503CA7D4-BC2E-4C6E-AE61-92987D0598E5}" name="解像度の幅" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{3A8786A2-3903-4EC9-90F0-3A1636A30463}" name="解像度の高さ" dataDxfId="3"/>
+    <tableColumn id="20" xr3:uid="{F7A5386B-EFAF-44D1-8380-825CDA61BD20}" name="解像度の階調" dataDxfId="2"/>
+    <tableColumn id="21" xr3:uid="{A1080AA5-CC3A-43C6-B6E2-8A15B9C71902}" name="フォントスムージング" dataDxfId="1"/>
+    <tableColumn id="22" xr3:uid="{B72276C2-2DF1-4464-97AF-8B980AA55BC1}" name="プロセスを自動ダウンロード" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{E7804193-086E-4884-9B07-86C7E77E0835}" name="結果" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C201" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C201" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:C201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ID" dataDxfId="22"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ユーザー名" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="結果" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ID" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ユーザー名" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="結果" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{9A9C6F0D-2E14-43CF-BA3F-71838E8A8593}" name="Table1367" displayName="Table1367" ref="A1:D201" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{9A9C6F0D-2E14-43CF-BA3F-71838E8A8593}" name="Table1367" displayName="Table1367" ref="A1:D201" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{EB9188D5-49DF-4F54-A843-A55D3E2C1BE7}" name="ユーザー ID" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{85E99034-1CC5-49C9-990E-916A8CEEC70B}" name="追加されるロール名" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{CE37118B-AB12-42D8-BD3F-A9948E262C56}" name="削除されるロール名" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{C8060084-F897-4904-AA9C-11EEA24740A4}" name="結果" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{EB9188D5-49DF-4F54-A843-A55D3E2C1BE7}" name="ユーザー ID" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{85E99034-1CC5-49C9-990E-916A8CEEC70B}" name="追加されるロール名" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{CE37118B-AB12-42D8-BD3F-A9948E262C56}" name="削除されるロール名" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{C8060084-F897-4904-AA9C-11EEA24740A4}" name="結果" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F4943553-1107-4ABF-92F1-3D44259ECE3F}" name="Table136" displayName="Table136" ref="A1:D201" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F4943553-1107-4ABF-92F1-3D44259ECE3F}" name="Table136" displayName="Table136" ref="A1:D201" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{AECF12CD-DED5-4EAC-990D-027FA15BD77B}" name="ユーザーID" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{386847AF-7B54-40AC-B632-9092A64C412D}" name="追加される組織単位名" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{927EBCB0-231E-4AA5-99D9-8C13EE557A37}" name="削除される組織単位名" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{85CBEB5B-343A-4F2F-8DE9-C961C7CE168C}" name="結果" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{AECF12CD-DED5-4EAC-990D-027FA15BD77B}" name="ユーザーID" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{386847AF-7B54-40AC-B632-9092A64C412D}" name="追加される組織単位名" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{927EBCB0-231E-4AA5-99D9-8C13EE557A37}" name="削除される組織単位名" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{85CBEB5B-343A-4F2F-8DE9-C961C7CE168C}" name="結果" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4214,8 +4394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="V1" sqref="H1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -6535,23 +6715,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF20293-3040-451C-BEA0-1DF5FCF14B01}">
-  <dimension ref="A1:G201"/>
+  <dimension ref="A1:V201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="2" customWidth="1"/>
-    <col min="2" max="4" width="25.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="45.6640625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.75" style="2"/>
+    <col min="1" max="1" width="15.6640625" style="29" customWidth="1"/>
+    <col min="2" max="4" width="25.6640625" style="29" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" style="29" customWidth="1"/>
+    <col min="7" max="13" width="25.5" style="2" customWidth="1"/>
+    <col min="14" max="21" width="25.75" style="2" customWidth="1"/>
+    <col min="22" max="22" width="45.6640625" style="31" customWidth="1"/>
+    <col min="23" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:22" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
@@ -6570,1818 +6752,1876 @@
       <c r="F1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" s="23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="12"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="12"/>
       <c r="F2" s="25"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V2" s="3"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="12"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="12"/>
       <c r="F3" s="25"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V3" s="3"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="12"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="12"/>
       <c r="F4" s="25"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V4" s="3"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="12"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="12"/>
       <c r="F5" s="25"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V5" s="3"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="12"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="12"/>
       <c r="F6" s="25"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V6" s="3"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="12"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="12"/>
       <c r="F7" s="25"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V7" s="3"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="12"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="12"/>
       <c r="F8" s="25"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V8" s="3"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="12"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="12"/>
       <c r="F9" s="25"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V9" s="3"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="12"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="12"/>
       <c r="F10" s="25"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V10" s="3"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V12" s="3"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V13" s="3"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V14" s="3"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V15" s="3"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V17" s="3"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V18" s="3"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V20" s="3"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V21" s="3"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V22" s="3"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V23" s="3"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V24" s="3"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V25" s="3"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V26" s="3"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V27" s="3"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V28" s="3"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V29" s="3"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V30" s="3"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V31" s="3"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V32" s="3"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V33" s="3"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V34" s="3"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V35" s="3"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V36" s="3"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V37" s="3"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V38" s="3"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V41" s="3"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V42" s="3"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9"/>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V43" s="3"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="9"/>
-      <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V44" s="3"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="9"/>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V45" s="3"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9"/>
-      <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V46" s="3"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9"/>
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V47" s="3"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V48" s="3"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9"/>
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V49" s="3"/>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="9"/>
-      <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V50" s="3"/>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="9"/>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V51" s="3"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9"/>
-      <c r="G52" s="3"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V52" s="3"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9"/>
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V53" s="3"/>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9"/>
-      <c r="G54" s="3"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V54" s="3"/>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9"/>
-      <c r="G55" s="3"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="9"/>
-      <c r="G56" s="3"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="9"/>
-      <c r="G57" s="3"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V57" s="3"/>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9"/>
-      <c r="G58" s="3"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V58" s="3"/>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9"/>
-      <c r="G59" s="3"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V59" s="3"/>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9"/>
-      <c r="G60" s="3"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V60" s="3"/>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="9"/>
-      <c r="G61" s="3"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V61" s="3"/>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="9"/>
-      <c r="G62" s="3"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V62" s="3"/>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="9"/>
-      <c r="G63" s="3"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V63" s="3"/>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="9"/>
-      <c r="G64" s="3"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V64" s="3"/>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="9"/>
-      <c r="G65" s="3"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V65" s="3"/>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="9"/>
-      <c r="G66" s="3"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V66" s="3"/>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="9"/>
-      <c r="G67" s="3"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="9"/>
-      <c r="G68" s="3"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V68" s="3"/>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="9"/>
-      <c r="G69" s="3"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V69" s="3"/>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="9"/>
-      <c r="G70" s="3"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V70" s="3"/>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="9"/>
-      <c r="G71" s="3"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V71" s="3"/>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="9"/>
-      <c r="G72" s="3"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V72" s="3"/>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="9"/>
-      <c r="G73" s="3"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V73" s="3"/>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="9"/>
-      <c r="G74" s="3"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V74" s="3"/>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="9"/>
-      <c r="G75" s="3"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V75" s="3"/>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="9"/>
-      <c r="G76" s="3"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V76" s="3"/>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="9"/>
-      <c r="G77" s="3"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V77" s="3"/>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="9"/>
-      <c r="G78" s="3"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V78" s="3"/>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="9"/>
-      <c r="G79" s="3"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V79" s="3"/>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="9"/>
-      <c r="G80" s="3"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V80" s="3"/>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="9"/>
-      <c r="G81" s="3"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V81" s="3"/>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="9"/>
-      <c r="G82" s="3"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="9"/>
-      <c r="G83" s="3"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V83" s="3"/>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="9"/>
-      <c r="G84" s="3"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V84" s="3"/>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="9"/>
-      <c r="G85" s="3"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V85" s="3"/>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="9"/>
-      <c r="G86" s="3"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V86" s="3"/>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="9"/>
-      <c r="G87" s="3"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V87" s="3"/>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="9"/>
-      <c r="G88" s="3"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V88" s="3"/>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="9"/>
-      <c r="G89" s="3"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V89" s="3"/>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="9"/>
-      <c r="G90" s="3"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="9"/>
-      <c r="G91" s="3"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V91" s="3"/>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="9"/>
-      <c r="G92" s="3"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V92" s="3"/>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="9"/>
-      <c r="G93" s="3"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V93" s="3"/>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="9"/>
-      <c r="G94" s="3"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V94" s="3"/>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="3"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="9"/>
-      <c r="G96" s="3"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V96" s="3"/>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="9"/>
-      <c r="G97" s="3"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V97" s="3"/>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="9"/>
-      <c r="G98" s="3"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V98" s="3"/>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="9"/>
-      <c r="G99" s="3"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V99" s="3"/>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="9"/>
-      <c r="G100" s="3"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V100" s="3"/>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="9"/>
-      <c r="G101" s="3"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V101" s="3"/>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
-      <c r="G102" s="3"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V102" s="3"/>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
-      <c r="G103" s="3"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V103" s="3"/>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
-      <c r="G104" s="3"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V104" s="3"/>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
-      <c r="G105" s="3"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V105" s="3"/>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
-      <c r="G106" s="3"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V106" s="3"/>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
-      <c r="G107" s="3"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V107" s="3"/>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
-      <c r="G108" s="3"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V108" s="3"/>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
-      <c r="G109" s="3"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V109" s="3"/>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
-      <c r="G110" s="3"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V110" s="3"/>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
-      <c r="G111" s="3"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V111" s="3"/>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
-      <c r="G112" s="3"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V112" s="3"/>
+    </row>
+    <row r="113" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
-      <c r="G113" s="3"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V113" s="3"/>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
-      <c r="G114" s="3"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V114" s="3"/>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
-      <c r="G115" s="3"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V115" s="3"/>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
-      <c r="G116" s="3"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V116" s="3"/>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
-      <c r="G117" s="3"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V117" s="3"/>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
-      <c r="G118" s="3"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V118" s="3"/>
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
-      <c r="G119" s="3"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V119" s="3"/>
+    </row>
+    <row r="120" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
-      <c r="G120" s="3"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V120" s="3"/>
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
-      <c r="G121" s="3"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V121" s="3"/>
+    </row>
+    <row r="122" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
-      <c r="G122" s="3"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V122" s="3"/>
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
-      <c r="G123" s="3"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V123" s="3"/>
+    </row>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
-      <c r="G124" s="3"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V124" s="3"/>
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
-      <c r="G125" s="3"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V125" s="3"/>
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
-      <c r="G126" s="3"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V126" s="3"/>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
-      <c r="G127" s="3"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V127" s="3"/>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
-      <c r="G128" s="3"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V128" s="3"/>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
-      <c r="G129" s="3"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V129" s="3"/>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
-      <c r="G130" s="3"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V130" s="3"/>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
-      <c r="G131" s="3"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V131" s="3"/>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
-      <c r="G132" s="3"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V132" s="3"/>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
-      <c r="G133" s="3"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V133" s="3"/>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
-      <c r="G134" s="3"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V134" s="3"/>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
-      <c r="G135" s="3"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V135" s="3"/>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
-      <c r="G136" s="3"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V136" s="3"/>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
-      <c r="G137" s="3"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V137" s="3"/>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
-      <c r="G138" s="3"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V138" s="3"/>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
-      <c r="G139" s="3"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V139" s="3"/>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
-      <c r="G140" s="3"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V140" s="3"/>
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
-      <c r="G141" s="3"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V141" s="3"/>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
-      <c r="G142" s="3"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V142" s="3"/>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
-      <c r="G143" s="3"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V143" s="3"/>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
-      <c r="G144" s="3"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V144" s="3"/>
+    </row>
+    <row r="145" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
-      <c r="G145" s="3"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V145" s="3"/>
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
-      <c r="G146" s="3"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V146" s="3"/>
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
-      <c r="G147" s="3"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V147" s="3"/>
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
       <c r="F148" s="8"/>
-      <c r="G148" s="3"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V148" s="3"/>
+    </row>
+    <row r="149" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
       <c r="F149" s="8"/>
-      <c r="G149" s="3"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V149" s="3"/>
+    </row>
+    <row r="150" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
       <c r="F150" s="8"/>
-      <c r="G150" s="3"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V150" s="3"/>
+    </row>
+    <row r="151" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
       <c r="D151" s="8"/>
       <c r="E151" s="8"/>
       <c r="F151" s="8"/>
-      <c r="G151" s="3"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V151" s="3"/>
+    </row>
+    <row r="152" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
       <c r="D152" s="8"/>
       <c r="E152" s="8"/>
       <c r="F152" s="8"/>
-      <c r="G152" s="3"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V152" s="3"/>
+    </row>
+    <row r="153" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
       <c r="D153" s="8"/>
       <c r="E153" s="8"/>
       <c r="F153" s="8"/>
-      <c r="G153" s="3"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V153" s="3"/>
+    </row>
+    <row r="154" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
       <c r="D154" s="8"/>
       <c r="E154" s="8"/>
       <c r="F154" s="8"/>
-      <c r="G154" s="3"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V154" s="3"/>
+    </row>
+    <row r="155" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
       <c r="F155" s="8"/>
-      <c r="G155" s="3"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V155" s="3"/>
+    </row>
+    <row r="156" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
       <c r="D156" s="8"/>
       <c r="E156" s="8"/>
       <c r="F156" s="8"/>
-      <c r="G156" s="3"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V156" s="3"/>
+    </row>
+    <row r="157" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
       <c r="D157" s="8"/>
       <c r="E157" s="8"/>
       <c r="F157" s="8"/>
-      <c r="G157" s="3"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V157" s="3"/>
+    </row>
+    <row r="158" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
       <c r="D158" s="8"/>
       <c r="E158" s="8"/>
       <c r="F158" s="8"/>
-      <c r="G158" s="3"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V158" s="3"/>
+    </row>
+    <row r="159" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
       <c r="D159" s="8"/>
       <c r="E159" s="8"/>
       <c r="F159" s="8"/>
-      <c r="G159" s="3"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V159" s="3"/>
+    </row>
+    <row r="160" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
       <c r="D160" s="8"/>
       <c r="E160" s="8"/>
       <c r="F160" s="8"/>
-      <c r="G160" s="3"/>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V160" s="3"/>
+    </row>
+    <row r="161" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
       <c r="E161" s="8"/>
       <c r="F161" s="8"/>
-      <c r="G161" s="3"/>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V161" s="3"/>
+    </row>
+    <row r="162" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
       <c r="D162" s="8"/>
       <c r="E162" s="8"/>
       <c r="F162" s="8"/>
-      <c r="G162" s="3"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V162" s="3"/>
+    </row>
+    <row r="163" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
       <c r="D163" s="8"/>
       <c r="E163" s="8"/>
       <c r="F163" s="8"/>
-      <c r="G163" s="3"/>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V163" s="3"/>
+    </row>
+    <row r="164" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
       <c r="D164" s="8"/>
       <c r="E164" s="8"/>
       <c r="F164" s="8"/>
-      <c r="G164" s="3"/>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V164" s="3"/>
+    </row>
+    <row r="165" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
       <c r="D165" s="8"/>
       <c r="E165" s="8"/>
       <c r="F165" s="8"/>
-      <c r="G165" s="3"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V165" s="3"/>
+    </row>
+    <row r="166" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
       <c r="D166" s="8"/>
       <c r="E166" s="8"/>
       <c r="F166" s="8"/>
-      <c r="G166" s="3"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V166" s="3"/>
+    </row>
+    <row r="167" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
       <c r="D167" s="8"/>
       <c r="E167" s="8"/>
       <c r="F167" s="8"/>
-      <c r="G167" s="3"/>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V167" s="3"/>
+    </row>
+    <row r="168" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
       <c r="D168" s="8"/>
       <c r="E168" s="8"/>
       <c r="F168" s="8"/>
-      <c r="G168" s="3"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V168" s="3"/>
+    </row>
+    <row r="169" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
       <c r="D169" s="8"/>
       <c r="E169" s="8"/>
       <c r="F169" s="8"/>
-      <c r="G169" s="3"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V169" s="3"/>
+    </row>
+    <row r="170" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
       <c r="D170" s="8"/>
       <c r="E170" s="8"/>
       <c r="F170" s="8"/>
-      <c r="G170" s="3"/>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V170" s="3"/>
+    </row>
+    <row r="171" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
       <c r="D171" s="8"/>
       <c r="E171" s="8"/>
       <c r="F171" s="8"/>
-      <c r="G171" s="3"/>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V171" s="3"/>
+    </row>
+    <row r="172" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
       <c r="D172" s="8"/>
       <c r="E172" s="8"/>
       <c r="F172" s="8"/>
-      <c r="G172" s="3"/>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V172" s="3"/>
+    </row>
+    <row r="173" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
       <c r="D173" s="8"/>
       <c r="E173" s="8"/>
       <c r="F173" s="8"/>
-      <c r="G173" s="3"/>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V173" s="3"/>
+    </row>
+    <row r="174" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
       <c r="D174" s="8"/>
       <c r="E174" s="8"/>
       <c r="F174" s="8"/>
-      <c r="G174" s="3"/>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V174" s="3"/>
+    </row>
+    <row r="175" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
       <c r="D175" s="8"/>
       <c r="E175" s="8"/>
       <c r="F175" s="8"/>
-      <c r="G175" s="3"/>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V175" s="3"/>
+    </row>
+    <row r="176" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
       <c r="D176" s="8"/>
       <c r="E176" s="8"/>
       <c r="F176" s="8"/>
-      <c r="G176" s="3"/>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V176" s="3"/>
+    </row>
+    <row r="177" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="8"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
       <c r="D177" s="8"/>
       <c r="E177" s="8"/>
       <c r="F177" s="8"/>
-      <c r="G177" s="3"/>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V177" s="3"/>
+    </row>
+    <row r="178" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="8"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
       <c r="D178" s="8"/>
       <c r="E178" s="8"/>
       <c r="F178" s="8"/>
-      <c r="G178" s="3"/>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V178" s="3"/>
+    </row>
+    <row r="179" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
       <c r="D179" s="8"/>
       <c r="E179" s="8"/>
       <c r="F179" s="8"/>
-      <c r="G179" s="3"/>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V179" s="3"/>
+    </row>
+    <row r="180" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
       <c r="D180" s="8"/>
       <c r="E180" s="8"/>
       <c r="F180" s="8"/>
-      <c r="G180" s="3"/>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V180" s="3"/>
+    </row>
+    <row r="181" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="8"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
       <c r="D181" s="8"/>
       <c r="E181" s="8"/>
       <c r="F181" s="8"/>
-      <c r="G181" s="3"/>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V181" s="3"/>
+    </row>
+    <row r="182" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="8"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
       <c r="D182" s="8"/>
       <c r="E182" s="8"/>
       <c r="F182" s="8"/>
-      <c r="G182" s="3"/>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V182" s="3"/>
+    </row>
+    <row r="183" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="8"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
       <c r="D183" s="8"/>
       <c r="E183" s="8"/>
       <c r="F183" s="8"/>
-      <c r="G183" s="3"/>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V183" s="3"/>
+    </row>
+    <row r="184" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="8"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
       <c r="D184" s="8"/>
       <c r="E184" s="8"/>
       <c r="F184" s="8"/>
-      <c r="G184" s="3"/>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V184" s="3"/>
+    </row>
+    <row r="185" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="8"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
       <c r="D185" s="8"/>
       <c r="E185" s="8"/>
       <c r="F185" s="8"/>
-      <c r="G185" s="3"/>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V185" s="3"/>
+    </row>
+    <row r="186" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="8"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
       <c r="D186" s="8"/>
       <c r="E186" s="8"/>
       <c r="F186" s="8"/>
-      <c r="G186" s="3"/>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V186" s="3"/>
+    </row>
+    <row r="187" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="8"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
       <c r="D187" s="8"/>
       <c r="E187" s="8"/>
       <c r="F187" s="8"/>
-      <c r="G187" s="3"/>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V187" s="3"/>
+    </row>
+    <row r="188" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="8"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
       <c r="D188" s="8"/>
       <c r="E188" s="8"/>
       <c r="F188" s="8"/>
-      <c r="G188" s="3"/>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V188" s="3"/>
+    </row>
+    <row r="189" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="8"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
       <c r="D189" s="8"/>
       <c r="E189" s="8"/>
       <c r="F189" s="8"/>
-      <c r="G189" s="3"/>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V189" s="3"/>
+    </row>
+    <row r="190" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="8"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
       <c r="D190" s="8"/>
       <c r="E190" s="8"/>
       <c r="F190" s="8"/>
-      <c r="G190" s="3"/>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V190" s="3"/>
+    </row>
+    <row r="191" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="8"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
       <c r="D191" s="8"/>
       <c r="E191" s="8"/>
       <c r="F191" s="8"/>
-      <c r="G191" s="3"/>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V191" s="3"/>
+    </row>
+    <row r="192" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="8"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
       <c r="D192" s="8"/>
       <c r="E192" s="8"/>
       <c r="F192" s="8"/>
-      <c r="G192" s="3"/>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V192" s="3"/>
+    </row>
+    <row r="193" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="8"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
       <c r="D193" s="8"/>
       <c r="E193" s="8"/>
       <c r="F193" s="8"/>
-      <c r="G193" s="3"/>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V193" s="3"/>
+    </row>
+    <row r="194" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="8"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
       <c r="D194" s="8"/>
       <c r="E194" s="8"/>
       <c r="F194" s="8"/>
-      <c r="G194" s="3"/>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V194" s="3"/>
+    </row>
+    <row r="195" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="8"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
       <c r="D195" s="8"/>
       <c r="E195" s="8"/>
       <c r="F195" s="8"/>
-      <c r="G195" s="3"/>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V195" s="3"/>
+    </row>
+    <row r="196" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="8"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
       <c r="D196" s="8"/>
       <c r="E196" s="8"/>
       <c r="F196" s="8"/>
-      <c r="G196" s="3"/>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V196" s="3"/>
+    </row>
+    <row r="197" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="8"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
       <c r="D197" s="8"/>
       <c r="E197" s="8"/>
       <c r="F197" s="8"/>
-      <c r="G197" s="3"/>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V197" s="3"/>
+    </row>
+    <row r="198" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="8"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
       <c r="D198" s="8"/>
       <c r="E198" s="8"/>
       <c r="F198" s="8"/>
-      <c r="G198" s="3"/>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V198" s="3"/>
+    </row>
+    <row r="199" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="8"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
       <c r="D199" s="8"/>
       <c r="E199" s="8"/>
       <c r="F199" s="8"/>
-      <c r="G199" s="3"/>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V199" s="3"/>
+    </row>
+    <row r="200" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="8"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
       <c r="D200" s="8"/>
       <c r="E200" s="8"/>
       <c r="F200" s="8"/>
-      <c r="G200" s="3"/>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="V200" s="3"/>
+    </row>
+    <row r="201" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="10"/>
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
       <c r="D201" s="10"/>
       <c r="E201" s="10"/>
       <c r="F201" s="11"/>
-      <c r="G201" s="3"/>
+      <c r="V201" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <dataValidations count="2">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なステータス" error="サポートされているステータスを選択してください。" sqref="E2:E1048576" xr:uid="{AE54C896-4182-499E-B11F-3D57E93582E8}">
       <formula1>"Active,Inactive"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なID" error="IDは0より大きい整数である必要があります。" sqref="A2:A1048576" xr:uid="{CCA7D833-6739-4C5E-A174-5BF3207240BB}">
       <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576" xr:uid="{E0E464C0-59A9-4118-91AA-F8F3503E2FA5}">
+      <formula1>"Verbose, Trace, Information, Warning, Error, Critical, Off"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:S1048576" xr:uid="{709F1C42-7DA4-413C-AD6B-9A3D5700BE5F}">
+      <formula1>0</formula1>
+      <formula2>32767</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{2E0A79E6-22BF-46B1-98A1-00527F585E56}">
+      <formula1>"NonProduction, Attended, Unattended, Studio, Development, StudioX, Headless, StudioPro, TestAutomation"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:J1048576 M2:M1048576 T2:U1048576 O2:P1048576" xr:uid="{3BA63961-21AA-4A71-AD30-18A582299C12}">
+      <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Workbooks/JA/ユーザー.xlsx
+++ b/Workbooks/JA/ユーザー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C11A211-B341-4F2C-80BC-896F8F5F00D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4F23FD-D44B-40B8-A441-83B7EEF158C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="1880" windowWidth="29640" windowHeight="15630" tabRatio="774" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="63030" yWindow="690" windowWidth="28800" windowHeight="11265" tabRatio="774" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t>タイプ</t>
     <phoneticPr fontId="3"/>
@@ -101,6 +101,10 @@
   </si>
   <si>
     <t>パスワード</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web ログインを許可</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -173,6 +177,10 @@
   </si>
   <si>
     <t>パスワード</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Web ログインを許可</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -558,7 +566,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="82">
+  <dxfs count="84">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -1045,6 +1053,17 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="5"/>
@@ -1216,6 +1235,17 @@
           <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
       </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -1842,66 +1872,68 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:I201" headerRowDxfId="81" dataDxfId="79" totalsRowDxfId="77" headerRowBorderDxfId="80" tableBorderDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:I201" headerRowDxfId="83" dataDxfId="81" totalsRowDxfId="79" headerRowBorderDxfId="82" tableBorderDxfId="80">
   <autoFilter ref="A1:I201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{06CD766F-781E-4B1E-8E49-C07F180816BA}" name="タイプ" dataDxfId="76" totalsRowDxfId="75"/>
-    <tableColumn id="8" xr3:uid="{1372863E-1574-486C-96A5-9F8A48DBEB17}" name="ID" dataDxfId="74"/>
-    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="ユーザー名" dataDxfId="73"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="名" totalsRowLabel="Total" dataDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="姓" dataDxfId="71"/>
-    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="メールアドレス" dataDxfId="70"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="組織単位名" totalsRowFunction="count" dataDxfId="69"/>
-    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="ロール名" dataDxfId="68"/>
-    <tableColumn id="4" xr3:uid="{73F4371D-09E6-432B-A8D2-FDF51584A3F9}" name="ステータス" dataDxfId="67"/>
+    <tableColumn id="9" xr3:uid="{06CD766F-781E-4B1E-8E49-C07F180816BA}" name="タイプ" dataDxfId="78" totalsRowDxfId="77"/>
+    <tableColumn id="8" xr3:uid="{1372863E-1574-486C-96A5-9F8A48DBEB17}" name="ID" dataDxfId="76"/>
+    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="ユーザー名" dataDxfId="75"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="名" totalsRowLabel="Total" dataDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="姓" dataDxfId="73"/>
+    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="メールアドレス" dataDxfId="72"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="組織単位名" totalsRowFunction="count" dataDxfId="71"/>
+    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="ロール名" dataDxfId="70"/>
+    <tableColumn id="4" xr3:uid="{73F4371D-09E6-432B-A8D2-FDF51584A3F9}" name="ステータス" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:X201" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
-  <autoFilter ref="A1:X201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="24">
-    <tableColumn id="10" xr3:uid="{65749B7E-1278-4BF9-BE0E-B0B1A7EBF445}" name="ユーザー名 *" dataDxfId="64"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="名" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="姓" dataDxfId="62"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="メールアドレス" dataDxfId="61"/>
-    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="組織単位名" dataDxfId="60"/>
-    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="ロール" dataDxfId="59"/>
-    <tableColumn id="9" xr3:uid="{4E111FFE-AC48-4FF2-B3E5-DEDE4EC1D531}" name="パスワード" dataDxfId="58"/>
-    <tableColumn id="14" xr3:uid="{1A4FAD89-F93A-4B1B-84C7-B32A3F985830}" name="ドメイン\ユーザ名 - Attended ロボット" dataDxfId="57"/>
-    <tableColumn id="15" xr3:uid="{DA0547EC-F276-415B-92E5-028784C029B7}" name="ライセンスの種類 - Attended ロボット" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{7108AAA8-2061-479C-A446-E6DA738F4D8B}" name="個人のワークスペースを作成 - Attended ロボット" dataDxfId="55"/>
-    <tableColumn id="12" xr3:uid="{D04E7F8D-CC16-4F65-9D9D-973F2498F4FC}" name="スタンドアロンライセンス - Attended ロボット" dataDxfId="54"/>
-    <tableColumn id="13" xr3:uid="{5E413036-A266-4CF7-A1FD-79FDAC7F9601}" name="ドメイン\ユーザー名 - Unattended ロボット" dataDxfId="53"/>
-    <tableColumn id="11" xr3:uid="{79ADE701-342C-46D1-AB7A-751E972CD13C}" name="パスワード - Unattended Robot" dataDxfId="52"/>
-    <tableColumn id="16" xr3:uid="{E6C49AE1-50A3-4A1E-B68A-0B2B0C10E805}" name="同時接続実行を無効化 - Unattended Robot" dataDxfId="51"/>
-    <tableColumn id="17" xr3:uid="{46C87FCA-C0AC-4AD1-8317-80E1CF50F2D2}" name="ログレベル" dataDxfId="50"/>
-    <tableColumn id="18" xr3:uid="{57EF6998-E383-4F06-B1DA-C52A08349D91}" name="開発ログを許可" dataDxfId="49"/>
-    <tableColumn id="19" xr3:uid="{275263AD-3D21-4069-803E-5DB25F17969D}" name="コンソールへログイン" dataDxfId="48"/>
-    <tableColumn id="24" xr3:uid="{1EDB8FD2-8E09-4474-91A5-A36ECEB14726}" name="解像度の幅" dataDxfId="47"/>
-    <tableColumn id="23" xr3:uid="{DB0036E5-18AF-4A7A-A604-C4CE721E562A}" name="解像度の高さ" dataDxfId="46"/>
-    <tableColumn id="22" xr3:uid="{36F3B513-66B2-4106-8E60-914DCF115BF0}" name="解像度の階調" dataDxfId="45"/>
-    <tableColumn id="20" xr3:uid="{8D155233-4738-4D3E-98AB-9BC866128487}" name="フォントスムージング" dataDxfId="44"/>
-    <tableColumn id="21" xr3:uid="{1F0CDD28-64EC-4EBF-91ED-86542199B14B}" name="プロセスを自動ダウンロード" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="ID" dataDxfId="42"/>
-    <tableColumn id="8" xr3:uid="{08B4DCAC-6628-4928-B533-CE43508622D2}" name="結果" dataDxfId="41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:Y201" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
+  <autoFilter ref="A1:Y201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="25">
+    <tableColumn id="10" xr3:uid="{65749B7E-1278-4BF9-BE0E-B0B1A7EBF445}" name="ユーザー名 *" dataDxfId="66"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="名" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="姓" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="メールアドレス" dataDxfId="63"/>
+    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="組織単位名" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="ロール" dataDxfId="61"/>
+    <tableColumn id="9" xr3:uid="{4E111FFE-AC48-4FF2-B3E5-DEDE4EC1D531}" name="パスワード" dataDxfId="60"/>
+    <tableColumn id="25" xr3:uid="{D520E602-B3C2-4F82-8D83-415FE0050004}" name="Web ログインを許可" dataDxfId="59"/>
+    <tableColumn id="14" xr3:uid="{1A4FAD89-F93A-4B1B-84C7-B32A3F985830}" name="ドメイン\ユーザ名 - Attended ロボット" dataDxfId="58"/>
+    <tableColumn id="15" xr3:uid="{DA0547EC-F276-415B-92E5-028784C029B7}" name="ライセンスの種類 - Attended ロボット" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{7108AAA8-2061-479C-A446-E6DA738F4D8B}" name="個人のワークスペースを作成 - Attended ロボット" dataDxfId="56"/>
+    <tableColumn id="12" xr3:uid="{D04E7F8D-CC16-4F65-9D9D-973F2498F4FC}" name="スタンドアロンライセンス - Attended ロボット" dataDxfId="55"/>
+    <tableColumn id="13" xr3:uid="{5E413036-A266-4CF7-A1FD-79FDAC7F9601}" name="ドメイン\ユーザー名 - Unattended ロボット" dataDxfId="54"/>
+    <tableColumn id="11" xr3:uid="{79ADE701-342C-46D1-AB7A-751E972CD13C}" name="パスワード - Unattended Robot" dataDxfId="53"/>
+    <tableColumn id="16" xr3:uid="{E6C49AE1-50A3-4A1E-B68A-0B2B0C10E805}" name="同時接続実行を無効化 - Unattended Robot" dataDxfId="52"/>
+    <tableColumn id="17" xr3:uid="{46C87FCA-C0AC-4AD1-8317-80E1CF50F2D2}" name="ログレベル" dataDxfId="51"/>
+    <tableColumn id="18" xr3:uid="{57EF6998-E383-4F06-B1DA-C52A08349D91}" name="開発ログを許可" dataDxfId="50"/>
+    <tableColumn id="19" xr3:uid="{275263AD-3D21-4069-803E-5DB25F17969D}" name="コンソールへログイン" dataDxfId="49"/>
+    <tableColumn id="24" xr3:uid="{1EDB8FD2-8E09-4474-91A5-A36ECEB14726}" name="解像度の幅" dataDxfId="48"/>
+    <tableColumn id="23" xr3:uid="{DB0036E5-18AF-4A7A-A604-C4CE721E562A}" name="解像度の高さ" dataDxfId="47"/>
+    <tableColumn id="22" xr3:uid="{36F3B513-66B2-4106-8E60-914DCF115BF0}" name="解像度の階調" dataDxfId="46"/>
+    <tableColumn id="20" xr3:uid="{8D155233-4738-4D3E-98AB-9BC866128487}" name="フォントスムージング" dataDxfId="45"/>
+    <tableColumn id="21" xr3:uid="{1F0CDD28-64EC-4EBF-91ED-86542199B14B}" name="プロセスを自動ダウンロード" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="ID" dataDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{08B4DCAC-6628-4928-B533-CE43508622D2}" name="結果" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:V201" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
-  <autoFilter ref="A1:V201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="22">
-    <tableColumn id="3" xr3:uid="{01450210-36BE-4B28-9B3B-758A2770B142}" name="ID" dataDxfId="38"/>
-    <tableColumn id="1" xr3:uid="{D002318D-F09E-4941-86F7-CB540B53CA38}" name="名" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="姓" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="メールアドレス" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{310BA8C6-70B4-40F4-B90F-2C40BB19BC10}" name="ステータス" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="パスワード" dataDxfId="33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:W201" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+  <autoFilter ref="A1:W201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="23">
+    <tableColumn id="3" xr3:uid="{01450210-36BE-4B28-9B3B-758A2770B142}" name="ID" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{D002318D-F09E-4941-86F7-CB540B53CA38}" name="名" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="姓" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="メールアドレス" dataDxfId="36"/>
+    <tableColumn id="9" xr3:uid="{310BA8C6-70B4-40F4-B90F-2C40BB19BC10}" name="ステータス" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="パスワード" dataDxfId="34"/>
+    <tableColumn id="10" xr3:uid="{3431FCE0-26EF-4093-9AE7-4084AE841E8A}" name="Web ログインを許可" dataDxfId="33"/>
     <tableColumn id="6" xr3:uid="{D8AF75B1-BA5F-4C40-881D-BE4839E452FB}" name="ドメイン\ユーザ名 - Attended ロボット" dataDxfId="32"/>
     <tableColumn id="7" xr3:uid="{9A1A257D-4C53-482B-A330-4A8DCE96C60A}" name="ライセンスの種類 - Attended ロボット" dataDxfId="31"/>
     <tableColumn id="14" xr3:uid="{C4940F77-AEFE-4413-8C8E-2CBEFB736317}" name="個人のワークスペースを作成 - Attended ロボット" dataDxfId="30"/>
@@ -4494,7 +4526,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:X201"/>
+  <dimension ref="A1:Y201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -4505,14 +4537,14 @@
     <col min="1" max="3" width="25.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.75" style="2" customWidth="1"/>
     <col min="5" max="6" width="45.75" style="2" customWidth="1"/>
-    <col min="7" max="22" width="25.75" style="2" customWidth="1"/>
-    <col min="23" max="23" width="15.75" style="2" customWidth="1"/>
-    <col min="24" max="24" width="45.75" style="2" customWidth="1"/>
-    <col min="25" max="25" width="11.25" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="8.75" style="2"/>
+    <col min="7" max="23" width="25.75" style="2" customWidth="1"/>
+    <col min="24" max="24" width="15.75" style="2" customWidth="1"/>
+    <col min="25" max="25" width="45.75" style="2" customWidth="1"/>
+    <col min="26" max="26" width="11.25" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:25" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
@@ -4579,14 +4611,17 @@
       <c r="V1" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="W1" s="25" t="s">
         <v>31</v>
       </c>
       <c r="X1" s="21" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y1" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -4609,10 +4644,11 @@
       <c r="T2" s="26"/>
       <c r="U2" s="26"/>
       <c r="V2" s="26"/>
-      <c r="W2" s="3"/>
+      <c r="W2" s="26"/>
       <c r="X2" s="3"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y2" s="3"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -4635,10 +4671,11 @@
       <c r="T3" s="25"/>
       <c r="U3" s="25"/>
       <c r="V3" s="25"/>
-      <c r="W3" s="3"/>
+      <c r="W3" s="25"/>
       <c r="X3" s="3"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y3" s="3"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -4661,10 +4698,11 @@
       <c r="T4" s="25"/>
       <c r="U4" s="25"/>
       <c r="V4" s="25"/>
-      <c r="W4" s="3"/>
+      <c r="W4" s="25"/>
       <c r="X4" s="3"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y4" s="3"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -4687,10 +4725,11 @@
       <c r="T5" s="25"/>
       <c r="U5" s="25"/>
       <c r="V5" s="25"/>
-      <c r="W5" s="3"/>
+      <c r="W5" s="25"/>
       <c r="X5" s="3"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y5" s="3"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -4713,10 +4752,11 @@
       <c r="T6" s="25"/>
       <c r="U6" s="25"/>
       <c r="V6" s="25"/>
-      <c r="W6" s="3"/>
+      <c r="W6" s="25"/>
       <c r="X6" s="3"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y6" s="3"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -4739,10 +4779,11 @@
       <c r="T7" s="25"/>
       <c r="U7" s="25"/>
       <c r="V7" s="25"/>
-      <c r="W7" s="3"/>
+      <c r="W7" s="25"/>
       <c r="X7" s="3"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y7" s="3"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -4765,10 +4806,11 @@
       <c r="T8" s="25"/>
       <c r="U8" s="25"/>
       <c r="V8" s="25"/>
-      <c r="W8" s="3"/>
+      <c r="W8" s="25"/>
       <c r="X8" s="3"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y8" s="3"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -4791,10 +4833,11 @@
       <c r="T9" s="25"/>
       <c r="U9" s="25"/>
       <c r="V9" s="25"/>
-      <c r="W9" s="3"/>
+      <c r="W9" s="25"/>
       <c r="X9" s="3"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y9" s="3"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -4817,10 +4860,11 @@
       <c r="T10" s="25"/>
       <c r="U10" s="25"/>
       <c r="V10" s="25"/>
-      <c r="W10" s="3"/>
+      <c r="W10" s="25"/>
       <c r="X10" s="3"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y10" s="3"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -4843,10 +4887,11 @@
       <c r="T11" s="25"/>
       <c r="U11" s="25"/>
       <c r="V11" s="25"/>
-      <c r="W11" s="3"/>
+      <c r="W11" s="25"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -4869,10 +4914,11 @@
       <c r="T12" s="25"/>
       <c r="U12" s="25"/>
       <c r="V12" s="25"/>
-      <c r="W12" s="3"/>
+      <c r="W12" s="25"/>
       <c r="X12" s="3"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y12" s="3"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -4895,10 +4941,11 @@
       <c r="T13" s="25"/>
       <c r="U13" s="25"/>
       <c r="V13" s="25"/>
-      <c r="W13" s="3"/>
+      <c r="W13" s="25"/>
       <c r="X13" s="3"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y13" s="3"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -4921,10 +4968,11 @@
       <c r="T14" s="25"/>
       <c r="U14" s="25"/>
       <c r="V14" s="25"/>
-      <c r="W14" s="3"/>
+      <c r="W14" s="25"/>
       <c r="X14" s="3"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y14" s="3"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -4947,10 +4995,11 @@
       <c r="T15" s="25"/>
       <c r="U15" s="25"/>
       <c r="V15" s="25"/>
-      <c r="W15" s="3"/>
+      <c r="W15" s="25"/>
       <c r="X15" s="3"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y15" s="3"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -4973,10 +5022,11 @@
       <c r="T16" s="25"/>
       <c r="U16" s="25"/>
       <c r="V16" s="25"/>
-      <c r="W16" s="3"/>
+      <c r="W16" s="25"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -4999,10 +5049,11 @@
       <c r="T17" s="25"/>
       <c r="U17" s="25"/>
       <c r="V17" s="25"/>
-      <c r="W17" s="3"/>
+      <c r="W17" s="25"/>
       <c r="X17" s="3"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y17" s="3"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -5025,10 +5076,11 @@
       <c r="T18" s="25"/>
       <c r="U18" s="25"/>
       <c r="V18" s="25"/>
-      <c r="W18" s="3"/>
+      <c r="W18" s="25"/>
       <c r="X18" s="3"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y18" s="3"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -5051,10 +5103,11 @@
       <c r="T19" s="25"/>
       <c r="U19" s="25"/>
       <c r="V19" s="25"/>
-      <c r="W19" s="3"/>
+      <c r="W19" s="25"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -5077,10 +5130,11 @@
       <c r="T20" s="25"/>
       <c r="U20" s="25"/>
       <c r="V20" s="25"/>
-      <c r="W20" s="3"/>
+      <c r="W20" s="25"/>
       <c r="X20" s="3"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y20" s="3"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -5103,10 +5157,11 @@
       <c r="T21" s="25"/>
       <c r="U21" s="25"/>
       <c r="V21" s="25"/>
-      <c r="W21" s="3"/>
+      <c r="W21" s="25"/>
       <c r="X21" s="3"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y21" s="3"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -5129,10 +5184,11 @@
       <c r="T22" s="25"/>
       <c r="U22" s="25"/>
       <c r="V22" s="25"/>
-      <c r="W22" s="3"/>
+      <c r="W22" s="25"/>
       <c r="X22" s="3"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y22" s="3"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -5155,10 +5211,11 @@
       <c r="T23" s="25"/>
       <c r="U23" s="25"/>
       <c r="V23" s="25"/>
-      <c r="W23" s="3"/>
+      <c r="W23" s="25"/>
       <c r="X23" s="3"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y23" s="3"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -5181,10 +5238,11 @@
       <c r="T24" s="25"/>
       <c r="U24" s="25"/>
       <c r="V24" s="25"/>
-      <c r="W24" s="3"/>
+      <c r="W24" s="25"/>
       <c r="X24" s="3"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y24" s="3"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -5207,10 +5265,11 @@
       <c r="T25" s="25"/>
       <c r="U25" s="25"/>
       <c r="V25" s="25"/>
-      <c r="W25" s="3"/>
+      <c r="W25" s="25"/>
       <c r="X25" s="3"/>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y25" s="3"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -5233,10 +5292,11 @@
       <c r="T26" s="25"/>
       <c r="U26" s="25"/>
       <c r="V26" s="25"/>
-      <c r="W26" s="3"/>
+      <c r="W26" s="25"/>
       <c r="X26" s="3"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y26" s="3"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -5259,10 +5319,11 @@
       <c r="T27" s="25"/>
       <c r="U27" s="25"/>
       <c r="V27" s="25"/>
-      <c r="W27" s="3"/>
+      <c r="W27" s="25"/>
       <c r="X27" s="3"/>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y27" s="3"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -5285,10 +5346,11 @@
       <c r="T28" s="25"/>
       <c r="U28" s="25"/>
       <c r="V28" s="25"/>
-      <c r="W28" s="3"/>
+      <c r="W28" s="25"/>
       <c r="X28" s="3"/>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y28" s="3"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -5311,10 +5373,11 @@
       <c r="T29" s="25"/>
       <c r="U29" s="25"/>
       <c r="V29" s="25"/>
-      <c r="W29" s="3"/>
+      <c r="W29" s="25"/>
       <c r="X29" s="3"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y29" s="3"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -5337,10 +5400,11 @@
       <c r="T30" s="25"/>
       <c r="U30" s="25"/>
       <c r="V30" s="25"/>
-      <c r="W30" s="3"/>
+      <c r="W30" s="25"/>
       <c r="X30" s="3"/>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y30" s="3"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -5363,10 +5427,11 @@
       <c r="T31" s="25"/>
       <c r="U31" s="25"/>
       <c r="V31" s="25"/>
-      <c r="W31" s="3"/>
+      <c r="W31" s="25"/>
       <c r="X31" s="3"/>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y31" s="3"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -5389,10 +5454,11 @@
       <c r="T32" s="25"/>
       <c r="U32" s="25"/>
       <c r="V32" s="25"/>
-      <c r="W32" s="3"/>
+      <c r="W32" s="25"/>
       <c r="X32" s="3"/>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y32" s="3"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -5415,10 +5481,11 @@
       <c r="T33" s="25"/>
       <c r="U33" s="25"/>
       <c r="V33" s="25"/>
-      <c r="W33" s="3"/>
+      <c r="W33" s="25"/>
       <c r="X33" s="3"/>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y33" s="3"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -5441,10 +5508,11 @@
       <c r="T34" s="25"/>
       <c r="U34" s="25"/>
       <c r="V34" s="25"/>
-      <c r="W34" s="3"/>
+      <c r="W34" s="25"/>
       <c r="X34" s="3"/>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y34" s="3"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -5467,10 +5535,11 @@
       <c r="T35" s="25"/>
       <c r="U35" s="25"/>
       <c r="V35" s="25"/>
-      <c r="W35" s="3"/>
+      <c r="W35" s="25"/>
       <c r="X35" s="3"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y35" s="3"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -5493,10 +5562,11 @@
       <c r="T36" s="25"/>
       <c r="U36" s="25"/>
       <c r="V36" s="25"/>
-      <c r="W36" s="3"/>
+      <c r="W36" s="25"/>
       <c r="X36" s="3"/>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y36" s="3"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -5519,10 +5589,11 @@
       <c r="T37" s="25"/>
       <c r="U37" s="25"/>
       <c r="V37" s="25"/>
-      <c r="W37" s="3"/>
+      <c r="W37" s="25"/>
       <c r="X37" s="3"/>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y37" s="3"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -5545,10 +5616,11 @@
       <c r="T38" s="25"/>
       <c r="U38" s="25"/>
       <c r="V38" s="25"/>
-      <c r="W38" s="3"/>
+      <c r="W38" s="25"/>
       <c r="X38" s="3"/>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y38" s="3"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -5571,10 +5643,11 @@
       <c r="T39" s="25"/>
       <c r="U39" s="25"/>
       <c r="V39" s="25"/>
-      <c r="W39" s="3"/>
+      <c r="W39" s="25"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -5597,10 +5670,11 @@
       <c r="T40" s="25"/>
       <c r="U40" s="25"/>
       <c r="V40" s="25"/>
-      <c r="W40" s="3"/>
+      <c r="W40" s="25"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -5623,10 +5697,11 @@
       <c r="T41" s="25"/>
       <c r="U41" s="25"/>
       <c r="V41" s="25"/>
-      <c r="W41" s="3"/>
+      <c r="W41" s="25"/>
       <c r="X41" s="3"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y41" s="3"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -5649,10 +5724,11 @@
       <c r="T42" s="25"/>
       <c r="U42" s="25"/>
       <c r="V42" s="25"/>
-      <c r="W42" s="3"/>
+      <c r="W42" s="25"/>
       <c r="X42" s="3"/>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y42" s="3"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -5675,10 +5751,11 @@
       <c r="T43" s="25"/>
       <c r="U43" s="25"/>
       <c r="V43" s="25"/>
-      <c r="W43" s="3"/>
+      <c r="W43" s="25"/>
       <c r="X43" s="3"/>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y43" s="3"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -5701,10 +5778,11 @@
       <c r="T44" s="25"/>
       <c r="U44" s="25"/>
       <c r="V44" s="25"/>
-      <c r="W44" s="3"/>
+      <c r="W44" s="25"/>
       <c r="X44" s="3"/>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y44" s="3"/>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -5727,10 +5805,11 @@
       <c r="T45" s="25"/>
       <c r="U45" s="25"/>
       <c r="V45" s="25"/>
-      <c r="W45" s="3"/>
+      <c r="W45" s="25"/>
       <c r="X45" s="3"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y45" s="3"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -5753,10 +5832,11 @@
       <c r="T46" s="25"/>
       <c r="U46" s="25"/>
       <c r="V46" s="25"/>
-      <c r="W46" s="3"/>
+      <c r="W46" s="25"/>
       <c r="X46" s="3"/>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y46" s="3"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -5779,10 +5859,11 @@
       <c r="T47" s="25"/>
       <c r="U47" s="25"/>
       <c r="V47" s="25"/>
-      <c r="W47" s="3"/>
+      <c r="W47" s="25"/>
       <c r="X47" s="3"/>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y47" s="3"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -5805,10 +5886,11 @@
       <c r="T48" s="25"/>
       <c r="U48" s="25"/>
       <c r="V48" s="25"/>
-      <c r="W48" s="3"/>
+      <c r="W48" s="25"/>
       <c r="X48" s="3"/>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y48" s="3"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -5831,10 +5913,11 @@
       <c r="T49" s="25"/>
       <c r="U49" s="25"/>
       <c r="V49" s="25"/>
-      <c r="W49" s="3"/>
+      <c r="W49" s="25"/>
       <c r="X49" s="3"/>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y49" s="3"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -5857,10 +5940,11 @@
       <c r="T50" s="25"/>
       <c r="U50" s="25"/>
       <c r="V50" s="25"/>
-      <c r="W50" s="3"/>
+      <c r="W50" s="25"/>
       <c r="X50" s="3"/>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y50" s="3"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -5883,10 +5967,11 @@
       <c r="T51" s="25"/>
       <c r="U51" s="25"/>
       <c r="V51" s="25"/>
-      <c r="W51" s="3"/>
+      <c r="W51" s="25"/>
       <c r="X51" s="3"/>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y51" s="3"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -5909,10 +5994,11 @@
       <c r="T52" s="25"/>
       <c r="U52" s="25"/>
       <c r="V52" s="25"/>
-      <c r="W52" s="3"/>
+      <c r="W52" s="25"/>
       <c r="X52" s="3"/>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y52" s="3"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -5935,10 +6021,11 @@
       <c r="T53" s="25"/>
       <c r="U53" s="25"/>
       <c r="V53" s="25"/>
-      <c r="W53" s="3"/>
+      <c r="W53" s="25"/>
       <c r="X53" s="3"/>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y53" s="3"/>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -5961,10 +6048,11 @@
       <c r="T54" s="25"/>
       <c r="U54" s="25"/>
       <c r="V54" s="25"/>
-      <c r="W54" s="3"/>
+      <c r="W54" s="25"/>
       <c r="X54" s="3"/>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y54" s="3"/>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -5987,10 +6075,11 @@
       <c r="T55" s="25"/>
       <c r="U55" s="25"/>
       <c r="V55" s="25"/>
-      <c r="W55" s="3"/>
+      <c r="W55" s="25"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -6013,10 +6102,11 @@
       <c r="T56" s="25"/>
       <c r="U56" s="25"/>
       <c r="V56" s="25"/>
-      <c r="W56" s="3"/>
+      <c r="W56" s="25"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -6039,10 +6129,11 @@
       <c r="T57" s="25"/>
       <c r="U57" s="25"/>
       <c r="V57" s="25"/>
-      <c r="W57" s="3"/>
+      <c r="W57" s="25"/>
       <c r="X57" s="3"/>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y57" s="3"/>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -6065,10 +6156,11 @@
       <c r="T58" s="25"/>
       <c r="U58" s="25"/>
       <c r="V58" s="25"/>
-      <c r="W58" s="3"/>
+      <c r="W58" s="25"/>
       <c r="X58" s="3"/>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y58" s="3"/>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -6091,10 +6183,11 @@
       <c r="T59" s="25"/>
       <c r="U59" s="25"/>
       <c r="V59" s="25"/>
-      <c r="W59" s="3"/>
+      <c r="W59" s="25"/>
       <c r="X59" s="3"/>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y59" s="3"/>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -6117,10 +6210,11 @@
       <c r="T60" s="25"/>
       <c r="U60" s="25"/>
       <c r="V60" s="25"/>
-      <c r="W60" s="3"/>
+      <c r="W60" s="25"/>
       <c r="X60" s="3"/>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y60" s="3"/>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -6143,10 +6237,11 @@
       <c r="T61" s="25"/>
       <c r="U61" s="25"/>
       <c r="V61" s="25"/>
-      <c r="W61" s="3"/>
+      <c r="W61" s="25"/>
       <c r="X61" s="3"/>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y61" s="3"/>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -6169,10 +6264,11 @@
       <c r="T62" s="25"/>
       <c r="U62" s="25"/>
       <c r="V62" s="25"/>
-      <c r="W62" s="3"/>
+      <c r="W62" s="25"/>
       <c r="X62" s="3"/>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y62" s="3"/>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -6195,10 +6291,11 @@
       <c r="T63" s="25"/>
       <c r="U63" s="25"/>
       <c r="V63" s="25"/>
-      <c r="W63" s="3"/>
+      <c r="W63" s="25"/>
       <c r="X63" s="3"/>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y63" s="3"/>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -6221,10 +6318,11 @@
       <c r="T64" s="25"/>
       <c r="U64" s="25"/>
       <c r="V64" s="25"/>
-      <c r="W64" s="3"/>
+      <c r="W64" s="25"/>
       <c r="X64" s="3"/>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y64" s="3"/>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -6247,10 +6345,11 @@
       <c r="T65" s="25"/>
       <c r="U65" s="25"/>
       <c r="V65" s="25"/>
-      <c r="W65" s="3"/>
+      <c r="W65" s="25"/>
       <c r="X65" s="3"/>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y65" s="3"/>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -6273,10 +6372,11 @@
       <c r="T66" s="25"/>
       <c r="U66" s="25"/>
       <c r="V66" s="25"/>
-      <c r="W66" s="3"/>
+      <c r="W66" s="25"/>
       <c r="X66" s="3"/>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y66" s="3"/>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -6299,10 +6399,11 @@
       <c r="T67" s="25"/>
       <c r="U67" s="25"/>
       <c r="V67" s="25"/>
-      <c r="W67" s="3"/>
+      <c r="W67" s="25"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -6325,10 +6426,11 @@
       <c r="T68" s="25"/>
       <c r="U68" s="25"/>
       <c r="V68" s="25"/>
-      <c r="W68" s="3"/>
+      <c r="W68" s="25"/>
       <c r="X68" s="3"/>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y68" s="3"/>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -6351,10 +6453,11 @@
       <c r="T69" s="25"/>
       <c r="U69" s="25"/>
       <c r="V69" s="25"/>
-      <c r="W69" s="3"/>
+      <c r="W69" s="25"/>
       <c r="X69" s="3"/>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y69" s="3"/>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -6377,10 +6480,11 @@
       <c r="T70" s="25"/>
       <c r="U70" s="25"/>
       <c r="V70" s="25"/>
-      <c r="W70" s="3"/>
+      <c r="W70" s="25"/>
       <c r="X70" s="3"/>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y70" s="3"/>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -6403,10 +6507,11 @@
       <c r="T71" s="25"/>
       <c r="U71" s="25"/>
       <c r="V71" s="25"/>
-      <c r="W71" s="3"/>
+      <c r="W71" s="25"/>
       <c r="X71" s="3"/>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y71" s="3"/>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -6429,10 +6534,11 @@
       <c r="T72" s="25"/>
       <c r="U72" s="25"/>
       <c r="V72" s="25"/>
-      <c r="W72" s="3"/>
+      <c r="W72" s="25"/>
       <c r="X72" s="3"/>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y72" s="3"/>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -6455,10 +6561,11 @@
       <c r="T73" s="25"/>
       <c r="U73" s="25"/>
       <c r="V73" s="25"/>
-      <c r="W73" s="3"/>
+      <c r="W73" s="25"/>
       <c r="X73" s="3"/>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y73" s="3"/>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -6481,10 +6588,11 @@
       <c r="T74" s="25"/>
       <c r="U74" s="25"/>
       <c r="V74" s="25"/>
-      <c r="W74" s="3"/>
+      <c r="W74" s="25"/>
       <c r="X74" s="3"/>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y74" s="3"/>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -6507,10 +6615,11 @@
       <c r="T75" s="25"/>
       <c r="U75" s="25"/>
       <c r="V75" s="25"/>
-      <c r="W75" s="3"/>
+      <c r="W75" s="25"/>
       <c r="X75" s="3"/>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y75" s="3"/>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -6533,10 +6642,11 @@
       <c r="T76" s="25"/>
       <c r="U76" s="25"/>
       <c r="V76" s="25"/>
-      <c r="W76" s="3"/>
+      <c r="W76" s="25"/>
       <c r="X76" s="3"/>
-    </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y76" s="3"/>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -6559,10 +6669,11 @@
       <c r="T77" s="25"/>
       <c r="U77" s="25"/>
       <c r="V77" s="25"/>
-      <c r="W77" s="3"/>
+      <c r="W77" s="25"/>
       <c r="X77" s="3"/>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y77" s="3"/>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -6585,10 +6696,11 @@
       <c r="T78" s="25"/>
       <c r="U78" s="25"/>
       <c r="V78" s="25"/>
-      <c r="W78" s="3"/>
+      <c r="W78" s="25"/>
       <c r="X78" s="3"/>
-    </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y78" s="3"/>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -6611,10 +6723,11 @@
       <c r="T79" s="25"/>
       <c r="U79" s="25"/>
       <c r="V79" s="25"/>
-      <c r="W79" s="3"/>
+      <c r="W79" s="25"/>
       <c r="X79" s="3"/>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y79" s="3"/>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -6637,10 +6750,11 @@
       <c r="T80" s="25"/>
       <c r="U80" s="25"/>
       <c r="V80" s="25"/>
-      <c r="W80" s="3"/>
+      <c r="W80" s="25"/>
       <c r="X80" s="3"/>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y80" s="3"/>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -6663,10 +6777,11 @@
       <c r="T81" s="25"/>
       <c r="U81" s="25"/>
       <c r="V81" s="25"/>
-      <c r="W81" s="3"/>
+      <c r="W81" s="25"/>
       <c r="X81" s="3"/>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y81" s="3"/>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -6689,10 +6804,11 @@
       <c r="T82" s="25"/>
       <c r="U82" s="25"/>
       <c r="V82" s="25"/>
-      <c r="W82" s="3"/>
+      <c r="W82" s="25"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -6715,10 +6831,11 @@
       <c r="T83" s="25"/>
       <c r="U83" s="25"/>
       <c r="V83" s="25"/>
-      <c r="W83" s="3"/>
+      <c r="W83" s="25"/>
       <c r="X83" s="3"/>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y83" s="3"/>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -6741,10 +6858,11 @@
       <c r="T84" s="25"/>
       <c r="U84" s="25"/>
       <c r="V84" s="25"/>
-      <c r="W84" s="3"/>
+      <c r="W84" s="25"/>
       <c r="X84" s="3"/>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y84" s="3"/>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -6767,10 +6885,11 @@
       <c r="T85" s="25"/>
       <c r="U85" s="25"/>
       <c r="V85" s="25"/>
-      <c r="W85" s="3"/>
+      <c r="W85" s="25"/>
       <c r="X85" s="3"/>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y85" s="3"/>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -6793,10 +6912,11 @@
       <c r="T86" s="25"/>
       <c r="U86" s="25"/>
       <c r="V86" s="25"/>
-      <c r="W86" s="3"/>
+      <c r="W86" s="25"/>
       <c r="X86" s="3"/>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y86" s="3"/>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -6819,10 +6939,11 @@
       <c r="T87" s="25"/>
       <c r="U87" s="25"/>
       <c r="V87" s="25"/>
-      <c r="W87" s="3"/>
+      <c r="W87" s="25"/>
       <c r="X87" s="3"/>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y87" s="3"/>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -6845,10 +6966,11 @@
       <c r="T88" s="25"/>
       <c r="U88" s="25"/>
       <c r="V88" s="25"/>
-      <c r="W88" s="3"/>
+      <c r="W88" s="25"/>
       <c r="X88" s="3"/>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y88" s="3"/>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -6871,10 +6993,11 @@
       <c r="T89" s="25"/>
       <c r="U89" s="25"/>
       <c r="V89" s="25"/>
-      <c r="W89" s="3"/>
+      <c r="W89" s="25"/>
       <c r="X89" s="3"/>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y89" s="3"/>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -6897,10 +7020,11 @@
       <c r="T90" s="25"/>
       <c r="U90" s="25"/>
       <c r="V90" s="25"/>
-      <c r="W90" s="3"/>
+      <c r="W90" s="25"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -6923,10 +7047,11 @@
       <c r="T91" s="25"/>
       <c r="U91" s="25"/>
       <c r="V91" s="25"/>
-      <c r="W91" s="3"/>
+      <c r="W91" s="25"/>
       <c r="X91" s="3"/>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y91" s="3"/>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -6949,10 +7074,11 @@
       <c r="T92" s="25"/>
       <c r="U92" s="25"/>
       <c r="V92" s="25"/>
-      <c r="W92" s="3"/>
+      <c r="W92" s="25"/>
       <c r="X92" s="3"/>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y92" s="3"/>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -6975,10 +7101,11 @@
       <c r="T93" s="25"/>
       <c r="U93" s="25"/>
       <c r="V93" s="25"/>
-      <c r="W93" s="3"/>
+      <c r="W93" s="25"/>
       <c r="X93" s="3"/>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y93" s="3"/>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -7001,10 +7128,11 @@
       <c r="T94" s="25"/>
       <c r="U94" s="25"/>
       <c r="V94" s="25"/>
-      <c r="W94" s="3"/>
+      <c r="W94" s="25"/>
       <c r="X94" s="3"/>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y94" s="3"/>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -7027,10 +7155,11 @@
       <c r="T95" s="25"/>
       <c r="U95" s="25"/>
       <c r="V95" s="25"/>
-      <c r="W95" s="3"/>
+      <c r="W95" s="25"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -7053,10 +7182,11 @@
       <c r="T96" s="25"/>
       <c r="U96" s="25"/>
       <c r="V96" s="25"/>
-      <c r="W96" s="3"/>
+      <c r="W96" s="25"/>
       <c r="X96" s="3"/>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y96" s="3"/>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -7079,10 +7209,11 @@
       <c r="T97" s="25"/>
       <c r="U97" s="25"/>
       <c r="V97" s="25"/>
-      <c r="W97" s="3"/>
+      <c r="W97" s="25"/>
       <c r="X97" s="3"/>
-    </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y97" s="3"/>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -7105,10 +7236,11 @@
       <c r="T98" s="25"/>
       <c r="U98" s="25"/>
       <c r="V98" s="25"/>
-      <c r="W98" s="3"/>
+      <c r="W98" s="25"/>
       <c r="X98" s="3"/>
-    </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y98" s="3"/>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -7131,10 +7263,11 @@
       <c r="T99" s="25"/>
       <c r="U99" s="25"/>
       <c r="V99" s="25"/>
-      <c r="W99" s="3"/>
+      <c r="W99" s="25"/>
       <c r="X99" s="3"/>
-    </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y99" s="3"/>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -7157,10 +7290,11 @@
       <c r="T100" s="25"/>
       <c r="U100" s="25"/>
       <c r="V100" s="25"/>
-      <c r="W100" s="3"/>
+      <c r="W100" s="25"/>
       <c r="X100" s="3"/>
-    </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y100" s="3"/>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -7183,10 +7317,11 @@
       <c r="T101" s="25"/>
       <c r="U101" s="25"/>
       <c r="V101" s="25"/>
-      <c r="W101" s="3"/>
+      <c r="W101" s="25"/>
       <c r="X101" s="3"/>
-    </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y101" s="3"/>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -7209,10 +7344,11 @@
       <c r="T102" s="25"/>
       <c r="U102" s="25"/>
       <c r="V102" s="25"/>
-      <c r="W102" s="3"/>
+      <c r="W102" s="25"/>
       <c r="X102" s="3"/>
-    </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y102" s="3"/>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -7235,10 +7371,11 @@
       <c r="T103" s="25"/>
       <c r="U103" s="25"/>
       <c r="V103" s="25"/>
-      <c r="W103" s="3"/>
+      <c r="W103" s="25"/>
       <c r="X103" s="3"/>
-    </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y103" s="3"/>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -7261,10 +7398,11 @@
       <c r="T104" s="25"/>
       <c r="U104" s="25"/>
       <c r="V104" s="25"/>
-      <c r="W104" s="3"/>
+      <c r="W104" s="25"/>
       <c r="X104" s="3"/>
-    </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y104" s="3"/>
+    </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -7287,10 +7425,11 @@
       <c r="T105" s="25"/>
       <c r="U105" s="25"/>
       <c r="V105" s="25"/>
-      <c r="W105" s="3"/>
+      <c r="W105" s="25"/>
       <c r="X105" s="3"/>
-    </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y105" s="3"/>
+    </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -7313,10 +7452,11 @@
       <c r="T106" s="25"/>
       <c r="U106" s="25"/>
       <c r="V106" s="25"/>
-      <c r="W106" s="3"/>
+      <c r="W106" s="25"/>
       <c r="X106" s="3"/>
-    </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y106" s="3"/>
+    </row>
+    <row r="107" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -7339,10 +7479,11 @@
       <c r="T107" s="25"/>
       <c r="U107" s="25"/>
       <c r="V107" s="25"/>
-      <c r="W107" s="3"/>
+      <c r="W107" s="25"/>
       <c r="X107" s="3"/>
-    </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y107" s="3"/>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -7365,10 +7506,11 @@
       <c r="T108" s="25"/>
       <c r="U108" s="25"/>
       <c r="V108" s="25"/>
-      <c r="W108" s="3"/>
+      <c r="W108" s="25"/>
       <c r="X108" s="3"/>
-    </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y108" s="3"/>
+    </row>
+    <row r="109" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -7391,10 +7533,11 @@
       <c r="T109" s="25"/>
       <c r="U109" s="25"/>
       <c r="V109" s="25"/>
-      <c r="W109" s="3"/>
+      <c r="W109" s="25"/>
       <c r="X109" s="3"/>
-    </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y109" s="3"/>
+    </row>
+    <row r="110" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -7417,10 +7560,11 @@
       <c r="T110" s="25"/>
       <c r="U110" s="25"/>
       <c r="V110" s="25"/>
-      <c r="W110" s="3"/>
+      <c r="W110" s="25"/>
       <c r="X110" s="3"/>
-    </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y110" s="3"/>
+    </row>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -7443,10 +7587,11 @@
       <c r="T111" s="25"/>
       <c r="U111" s="25"/>
       <c r="V111" s="25"/>
-      <c r="W111" s="3"/>
+      <c r="W111" s="25"/>
       <c r="X111" s="3"/>
-    </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y111" s="3"/>
+    </row>
+    <row r="112" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -7469,10 +7614,11 @@
       <c r="T112" s="25"/>
       <c r="U112" s="25"/>
       <c r="V112" s="25"/>
-      <c r="W112" s="3"/>
+      <c r="W112" s="25"/>
       <c r="X112" s="3"/>
-    </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y112" s="3"/>
+    </row>
+    <row r="113" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -7495,10 +7641,11 @@
       <c r="T113" s="25"/>
       <c r="U113" s="25"/>
       <c r="V113" s="25"/>
-      <c r="W113" s="3"/>
+      <c r="W113" s="25"/>
       <c r="X113" s="3"/>
-    </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y113" s="3"/>
+    </row>
+    <row r="114" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -7521,10 +7668,11 @@
       <c r="T114" s="25"/>
       <c r="U114" s="25"/>
       <c r="V114" s="25"/>
-      <c r="W114" s="3"/>
+      <c r="W114" s="25"/>
       <c r="X114" s="3"/>
-    </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y114" s="3"/>
+    </row>
+    <row r="115" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -7547,10 +7695,11 @@
       <c r="T115" s="25"/>
       <c r="U115" s="25"/>
       <c r="V115" s="25"/>
-      <c r="W115" s="3"/>
+      <c r="W115" s="25"/>
       <c r="X115" s="3"/>
-    </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y115" s="3"/>
+    </row>
+    <row r="116" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -7573,10 +7722,11 @@
       <c r="T116" s="25"/>
       <c r="U116" s="25"/>
       <c r="V116" s="25"/>
-      <c r="W116" s="3"/>
+      <c r="W116" s="25"/>
       <c r="X116" s="3"/>
-    </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y116" s="3"/>
+    </row>
+    <row r="117" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -7599,10 +7749,11 @@
       <c r="T117" s="25"/>
       <c r="U117" s="25"/>
       <c r="V117" s="25"/>
-      <c r="W117" s="3"/>
+      <c r="W117" s="25"/>
       <c r="X117" s="3"/>
-    </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y117" s="3"/>
+    </row>
+    <row r="118" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -7625,10 +7776,11 @@
       <c r="T118" s="25"/>
       <c r="U118" s="25"/>
       <c r="V118" s="25"/>
-      <c r="W118" s="3"/>
+      <c r="W118" s="25"/>
       <c r="X118" s="3"/>
-    </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y118" s="3"/>
+    </row>
+    <row r="119" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -7651,10 +7803,11 @@
       <c r="T119" s="25"/>
       <c r="U119" s="25"/>
       <c r="V119" s="25"/>
-      <c r="W119" s="3"/>
+      <c r="W119" s="25"/>
       <c r="X119" s="3"/>
-    </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y119" s="3"/>
+    </row>
+    <row r="120" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -7677,10 +7830,11 @@
       <c r="T120" s="25"/>
       <c r="U120" s="25"/>
       <c r="V120" s="25"/>
-      <c r="W120" s="3"/>
+      <c r="W120" s="25"/>
       <c r="X120" s="3"/>
-    </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y120" s="3"/>
+    </row>
+    <row r="121" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -7703,10 +7857,11 @@
       <c r="T121" s="25"/>
       <c r="U121" s="25"/>
       <c r="V121" s="25"/>
-      <c r="W121" s="3"/>
+      <c r="W121" s="25"/>
       <c r="X121" s="3"/>
-    </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y121" s="3"/>
+    </row>
+    <row r="122" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -7729,10 +7884,11 @@
       <c r="T122" s="25"/>
       <c r="U122" s="25"/>
       <c r="V122" s="25"/>
-      <c r="W122" s="3"/>
+      <c r="W122" s="25"/>
       <c r="X122" s="3"/>
-    </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y122" s="3"/>
+    </row>
+    <row r="123" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -7755,10 +7911,11 @@
       <c r="T123" s="25"/>
       <c r="U123" s="25"/>
       <c r="V123" s="25"/>
-      <c r="W123" s="3"/>
+      <c r="W123" s="25"/>
       <c r="X123" s="3"/>
-    </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y123" s="3"/>
+    </row>
+    <row r="124" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -7781,10 +7938,11 @@
       <c r="T124" s="25"/>
       <c r="U124" s="25"/>
       <c r="V124" s="25"/>
-      <c r="W124" s="3"/>
+      <c r="W124" s="25"/>
       <c r="X124" s="3"/>
-    </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y124" s="3"/>
+    </row>
+    <row r="125" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -7807,10 +7965,11 @@
       <c r="T125" s="25"/>
       <c r="U125" s="25"/>
       <c r="V125" s="25"/>
-      <c r="W125" s="3"/>
+      <c r="W125" s="25"/>
       <c r="X125" s="3"/>
-    </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y125" s="3"/>
+    </row>
+    <row r="126" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -7833,10 +7992,11 @@
       <c r="T126" s="25"/>
       <c r="U126" s="25"/>
       <c r="V126" s="25"/>
-      <c r="W126" s="3"/>
+      <c r="W126" s="25"/>
       <c r="X126" s="3"/>
-    </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y126" s="3"/>
+    </row>
+    <row r="127" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -7859,10 +8019,11 @@
       <c r="T127" s="25"/>
       <c r="U127" s="25"/>
       <c r="V127" s="25"/>
-      <c r="W127" s="3"/>
+      <c r="W127" s="25"/>
       <c r="X127" s="3"/>
-    </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y127" s="3"/>
+    </row>
+    <row r="128" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -7885,10 +8046,11 @@
       <c r="T128" s="25"/>
       <c r="U128" s="25"/>
       <c r="V128" s="25"/>
-      <c r="W128" s="3"/>
+      <c r="W128" s="25"/>
       <c r="X128" s="3"/>
-    </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y128" s="3"/>
+    </row>
+    <row r="129" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -7911,10 +8073,11 @@
       <c r="T129" s="25"/>
       <c r="U129" s="25"/>
       <c r="V129" s="25"/>
-      <c r="W129" s="3"/>
+      <c r="W129" s="25"/>
       <c r="X129" s="3"/>
-    </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y129" s="3"/>
+    </row>
+    <row r="130" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -7937,10 +8100,11 @@
       <c r="T130" s="25"/>
       <c r="U130" s="25"/>
       <c r="V130" s="25"/>
-      <c r="W130" s="3"/>
+      <c r="W130" s="25"/>
       <c r="X130" s="3"/>
-    </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y130" s="3"/>
+    </row>
+    <row r="131" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -7963,10 +8127,11 @@
       <c r="T131" s="25"/>
       <c r="U131" s="25"/>
       <c r="V131" s="25"/>
-      <c r="W131" s="3"/>
+      <c r="W131" s="25"/>
       <c r="X131" s="3"/>
-    </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y131" s="3"/>
+    </row>
+    <row r="132" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -7989,10 +8154,11 @@
       <c r="T132" s="25"/>
       <c r="U132" s="25"/>
       <c r="V132" s="25"/>
-      <c r="W132" s="3"/>
+      <c r="W132" s="25"/>
       <c r="X132" s="3"/>
-    </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y132" s="3"/>
+    </row>
+    <row r="133" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -8015,10 +8181,11 @@
       <c r="T133" s="25"/>
       <c r="U133" s="25"/>
       <c r="V133" s="25"/>
-      <c r="W133" s="3"/>
+      <c r="W133" s="25"/>
       <c r="X133" s="3"/>
-    </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y133" s="3"/>
+    </row>
+    <row r="134" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -8041,10 +8208,11 @@
       <c r="T134" s="25"/>
       <c r="U134" s="25"/>
       <c r="V134" s="25"/>
-      <c r="W134" s="3"/>
+      <c r="W134" s="25"/>
       <c r="X134" s="3"/>
-    </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y134" s="3"/>
+    </row>
+    <row r="135" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -8067,10 +8235,11 @@
       <c r="T135" s="25"/>
       <c r="U135" s="25"/>
       <c r="V135" s="25"/>
-      <c r="W135" s="3"/>
+      <c r="W135" s="25"/>
       <c r="X135" s="3"/>
-    </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y135" s="3"/>
+    </row>
+    <row r="136" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -8093,10 +8262,11 @@
       <c r="T136" s="25"/>
       <c r="U136" s="25"/>
       <c r="V136" s="25"/>
-      <c r="W136" s="3"/>
+      <c r="W136" s="25"/>
       <c r="X136" s="3"/>
-    </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y136" s="3"/>
+    </row>
+    <row r="137" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -8119,10 +8289,11 @@
       <c r="T137" s="25"/>
       <c r="U137" s="25"/>
       <c r="V137" s="25"/>
-      <c r="W137" s="3"/>
+      <c r="W137" s="25"/>
       <c r="X137" s="3"/>
-    </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y137" s="3"/>
+    </row>
+    <row r="138" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -8145,10 +8316,11 @@
       <c r="T138" s="25"/>
       <c r="U138" s="25"/>
       <c r="V138" s="25"/>
-      <c r="W138" s="3"/>
+      <c r="W138" s="25"/>
       <c r="X138" s="3"/>
-    </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y138" s="3"/>
+    </row>
+    <row r="139" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -8171,10 +8343,11 @@
       <c r="T139" s="25"/>
       <c r="U139" s="25"/>
       <c r="V139" s="25"/>
-      <c r="W139" s="3"/>
+      <c r="W139" s="25"/>
       <c r="X139" s="3"/>
-    </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y139" s="3"/>
+    </row>
+    <row r="140" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -8197,10 +8370,11 @@
       <c r="T140" s="25"/>
       <c r="U140" s="25"/>
       <c r="V140" s="25"/>
-      <c r="W140" s="3"/>
+      <c r="W140" s="25"/>
       <c r="X140" s="3"/>
-    </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y140" s="3"/>
+    </row>
+    <row r="141" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -8223,10 +8397,11 @@
       <c r="T141" s="25"/>
       <c r="U141" s="25"/>
       <c r="V141" s="25"/>
-      <c r="W141" s="3"/>
+      <c r="W141" s="25"/>
       <c r="X141" s="3"/>
-    </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y141" s="3"/>
+    </row>
+    <row r="142" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -8249,10 +8424,11 @@
       <c r="T142" s="25"/>
       <c r="U142" s="25"/>
       <c r="V142" s="25"/>
-      <c r="W142" s="3"/>
+      <c r="W142" s="25"/>
       <c r="X142" s="3"/>
-    </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y142" s="3"/>
+    </row>
+    <row r="143" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -8275,10 +8451,11 @@
       <c r="T143" s="25"/>
       <c r="U143" s="25"/>
       <c r="V143" s="25"/>
-      <c r="W143" s="3"/>
+      <c r="W143" s="25"/>
       <c r="X143" s="3"/>
-    </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y143" s="3"/>
+    </row>
+    <row r="144" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -8301,10 +8478,11 @@
       <c r="T144" s="25"/>
       <c r="U144" s="25"/>
       <c r="V144" s="25"/>
-      <c r="W144" s="3"/>
+      <c r="W144" s="25"/>
       <c r="X144" s="3"/>
-    </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y144" s="3"/>
+    </row>
+    <row r="145" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -8327,10 +8505,11 @@
       <c r="T145" s="25"/>
       <c r="U145" s="25"/>
       <c r="V145" s="25"/>
-      <c r="W145" s="3"/>
+      <c r="W145" s="25"/>
       <c r="X145" s="3"/>
-    </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y145" s="3"/>
+    </row>
+    <row r="146" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -8353,10 +8532,11 @@
       <c r="T146" s="25"/>
       <c r="U146" s="25"/>
       <c r="V146" s="25"/>
-      <c r="W146" s="3"/>
+      <c r="W146" s="25"/>
       <c r="X146" s="3"/>
-    </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y146" s="3"/>
+    </row>
+    <row r="147" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -8379,10 +8559,11 @@
       <c r="T147" s="25"/>
       <c r="U147" s="25"/>
       <c r="V147" s="25"/>
-      <c r="W147" s="3"/>
+      <c r="W147" s="25"/>
       <c r="X147" s="3"/>
-    </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y147" s="3"/>
+    </row>
+    <row r="148" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -8405,10 +8586,11 @@
       <c r="T148" s="25"/>
       <c r="U148" s="25"/>
       <c r="V148" s="25"/>
-      <c r="W148" s="3"/>
+      <c r="W148" s="25"/>
       <c r="X148" s="3"/>
-    </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y148" s="3"/>
+    </row>
+    <row r="149" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -8431,10 +8613,11 @@
       <c r="T149" s="25"/>
       <c r="U149" s="25"/>
       <c r="V149" s="25"/>
-      <c r="W149" s="3"/>
+      <c r="W149" s="25"/>
       <c r="X149" s="3"/>
-    </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y149" s="3"/>
+    </row>
+    <row r="150" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -8457,10 +8640,11 @@
       <c r="T150" s="25"/>
       <c r="U150" s="25"/>
       <c r="V150" s="25"/>
-      <c r="W150" s="3"/>
+      <c r="W150" s="25"/>
       <c r="X150" s="3"/>
-    </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y150" s="3"/>
+    </row>
+    <row r="151" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -8483,10 +8667,11 @@
       <c r="T151" s="25"/>
       <c r="U151" s="25"/>
       <c r="V151" s="25"/>
-      <c r="W151" s="3"/>
+      <c r="W151" s="25"/>
       <c r="X151" s="3"/>
-    </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y151" s="3"/>
+    </row>
+    <row r="152" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -8509,10 +8694,11 @@
       <c r="T152" s="25"/>
       <c r="U152" s="25"/>
       <c r="V152" s="25"/>
-      <c r="W152" s="3"/>
+      <c r="W152" s="25"/>
       <c r="X152" s="3"/>
-    </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y152" s="3"/>
+    </row>
+    <row r="153" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -8535,10 +8721,11 @@
       <c r="T153" s="25"/>
       <c r="U153" s="25"/>
       <c r="V153" s="25"/>
-      <c r="W153" s="3"/>
+      <c r="W153" s="25"/>
       <c r="X153" s="3"/>
-    </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y153" s="3"/>
+    </row>
+    <row r="154" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -8561,10 +8748,11 @@
       <c r="T154" s="25"/>
       <c r="U154" s="25"/>
       <c r="V154" s="25"/>
-      <c r="W154" s="3"/>
+      <c r="W154" s="25"/>
       <c r="X154" s="3"/>
-    </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y154" s="3"/>
+    </row>
+    <row r="155" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -8587,10 +8775,11 @@
       <c r="T155" s="25"/>
       <c r="U155" s="25"/>
       <c r="V155" s="25"/>
-      <c r="W155" s="3"/>
+      <c r="W155" s="25"/>
       <c r="X155" s="3"/>
-    </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y155" s="3"/>
+    </row>
+    <row r="156" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -8613,10 +8802,11 @@
       <c r="T156" s="25"/>
       <c r="U156" s="25"/>
       <c r="V156" s="25"/>
-      <c r="W156" s="3"/>
+      <c r="W156" s="25"/>
       <c r="X156" s="3"/>
-    </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y156" s="3"/>
+    </row>
+    <row r="157" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -8639,10 +8829,11 @@
       <c r="T157" s="25"/>
       <c r="U157" s="25"/>
       <c r="V157" s="25"/>
-      <c r="W157" s="3"/>
+      <c r="W157" s="25"/>
       <c r="X157" s="3"/>
-    </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y157" s="3"/>
+    </row>
+    <row r="158" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -8665,10 +8856,11 @@
       <c r="T158" s="25"/>
       <c r="U158" s="25"/>
       <c r="V158" s="25"/>
-      <c r="W158" s="3"/>
+      <c r="W158" s="25"/>
       <c r="X158" s="3"/>
-    </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y158" s="3"/>
+    </row>
+    <row r="159" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -8691,10 +8883,11 @@
       <c r="T159" s="25"/>
       <c r="U159" s="25"/>
       <c r="V159" s="25"/>
-      <c r="W159" s="3"/>
+      <c r="W159" s="25"/>
       <c r="X159" s="3"/>
-    </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y159" s="3"/>
+    </row>
+    <row r="160" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -8717,10 +8910,11 @@
       <c r="T160" s="25"/>
       <c r="U160" s="25"/>
       <c r="V160" s="25"/>
-      <c r="W160" s="3"/>
+      <c r="W160" s="25"/>
       <c r="X160" s="3"/>
-    </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y160" s="3"/>
+    </row>
+    <row r="161" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -8743,10 +8937,11 @@
       <c r="T161" s="25"/>
       <c r="U161" s="25"/>
       <c r="V161" s="25"/>
-      <c r="W161" s="3"/>
+      <c r="W161" s="25"/>
       <c r="X161" s="3"/>
-    </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y161" s="3"/>
+    </row>
+    <row r="162" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -8769,10 +8964,11 @@
       <c r="T162" s="25"/>
       <c r="U162" s="25"/>
       <c r="V162" s="25"/>
-      <c r="W162" s="3"/>
+      <c r="W162" s="25"/>
       <c r="X162" s="3"/>
-    </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y162" s="3"/>
+    </row>
+    <row r="163" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -8795,10 +8991,11 @@
       <c r="T163" s="25"/>
       <c r="U163" s="25"/>
       <c r="V163" s="25"/>
-      <c r="W163" s="3"/>
+      <c r="W163" s="25"/>
       <c r="X163" s="3"/>
-    </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y163" s="3"/>
+    </row>
+    <row r="164" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
@@ -8821,10 +9018,11 @@
       <c r="T164" s="25"/>
       <c r="U164" s="25"/>
       <c r="V164" s="25"/>
-      <c r="W164" s="3"/>
+      <c r="W164" s="25"/>
       <c r="X164" s="3"/>
-    </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y164" s="3"/>
+    </row>
+    <row r="165" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
@@ -8847,10 +9045,11 @@
       <c r="T165" s="25"/>
       <c r="U165" s="25"/>
       <c r="V165" s="25"/>
-      <c r="W165" s="3"/>
+      <c r="W165" s="25"/>
       <c r="X165" s="3"/>
-    </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y165" s="3"/>
+    </row>
+    <row r="166" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
@@ -8873,10 +9072,11 @@
       <c r="T166" s="25"/>
       <c r="U166" s="25"/>
       <c r="V166" s="25"/>
-      <c r="W166" s="3"/>
+      <c r="W166" s="25"/>
       <c r="X166" s="3"/>
-    </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y166" s="3"/>
+    </row>
+    <row r="167" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
@@ -8899,10 +9099,11 @@
       <c r="T167" s="25"/>
       <c r="U167" s="25"/>
       <c r="V167" s="25"/>
-      <c r="W167" s="3"/>
+      <c r="W167" s="25"/>
       <c r="X167" s="3"/>
-    </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y167" s="3"/>
+    </row>
+    <row r="168" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
@@ -8925,10 +9126,11 @@
       <c r="T168" s="25"/>
       <c r="U168" s="25"/>
       <c r="V168" s="25"/>
-      <c r="W168" s="3"/>
+      <c r="W168" s="25"/>
       <c r="X168" s="3"/>
-    </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y168" s="3"/>
+    </row>
+    <row r="169" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
@@ -8951,10 +9153,11 @@
       <c r="T169" s="25"/>
       <c r="U169" s="25"/>
       <c r="V169" s="25"/>
-      <c r="W169" s="3"/>
+      <c r="W169" s="25"/>
       <c r="X169" s="3"/>
-    </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y169" s="3"/>
+    </row>
+    <row r="170" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
@@ -8977,10 +9180,11 @@
       <c r="T170" s="25"/>
       <c r="U170" s="25"/>
       <c r="V170" s="25"/>
-      <c r="W170" s="3"/>
+      <c r="W170" s="25"/>
       <c r="X170" s="3"/>
-    </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y170" s="3"/>
+    </row>
+    <row r="171" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
@@ -9003,10 +9207,11 @@
       <c r="T171" s="25"/>
       <c r="U171" s="25"/>
       <c r="V171" s="25"/>
-      <c r="W171" s="3"/>
+      <c r="W171" s="25"/>
       <c r="X171" s="3"/>
-    </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y171" s="3"/>
+    </row>
+    <row r="172" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
@@ -9029,10 +9234,11 @@
       <c r="T172" s="25"/>
       <c r="U172" s="25"/>
       <c r="V172" s="25"/>
-      <c r="W172" s="3"/>
+      <c r="W172" s="25"/>
       <c r="X172" s="3"/>
-    </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y172" s="3"/>
+    </row>
+    <row r="173" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
@@ -9055,10 +9261,11 @@
       <c r="T173" s="25"/>
       <c r="U173" s="25"/>
       <c r="V173" s="25"/>
-      <c r="W173" s="3"/>
+      <c r="W173" s="25"/>
       <c r="X173" s="3"/>
-    </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y173" s="3"/>
+    </row>
+    <row r="174" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
@@ -9081,10 +9288,11 @@
       <c r="T174" s="25"/>
       <c r="U174" s="25"/>
       <c r="V174" s="25"/>
-      <c r="W174" s="3"/>
+      <c r="W174" s="25"/>
       <c r="X174" s="3"/>
-    </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y174" s="3"/>
+    </row>
+    <row r="175" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
@@ -9107,10 +9315,11 @@
       <c r="T175" s="25"/>
       <c r="U175" s="25"/>
       <c r="V175" s="25"/>
-      <c r="W175" s="3"/>
+      <c r="W175" s="25"/>
       <c r="X175" s="3"/>
-    </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y175" s="3"/>
+    </row>
+    <row r="176" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -9133,10 +9342,11 @@
       <c r="T176" s="25"/>
       <c r="U176" s="25"/>
       <c r="V176" s="25"/>
-      <c r="W176" s="3"/>
+      <c r="W176" s="25"/>
       <c r="X176" s="3"/>
-    </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y176" s="3"/>
+    </row>
+    <row r="177" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="8"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
@@ -9159,10 +9369,11 @@
       <c r="T177" s="25"/>
       <c r="U177" s="25"/>
       <c r="V177" s="25"/>
-      <c r="W177" s="3"/>
+      <c r="W177" s="25"/>
       <c r="X177" s="3"/>
-    </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y177" s="3"/>
+    </row>
+    <row r="178" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="8"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
@@ -9185,10 +9396,11 @@
       <c r="T178" s="25"/>
       <c r="U178" s="25"/>
       <c r="V178" s="25"/>
-      <c r="W178" s="3"/>
+      <c r="W178" s="25"/>
       <c r="X178" s="3"/>
-    </row>
-    <row r="179" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y178" s="3"/>
+    </row>
+    <row r="179" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
@@ -9211,10 +9423,11 @@
       <c r="T179" s="25"/>
       <c r="U179" s="25"/>
       <c r="V179" s="25"/>
-      <c r="W179" s="3"/>
+      <c r="W179" s="25"/>
       <c r="X179" s="3"/>
-    </row>
-    <row r="180" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y179" s="3"/>
+    </row>
+    <row r="180" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
@@ -9237,10 +9450,11 @@
       <c r="T180" s="25"/>
       <c r="U180" s="25"/>
       <c r="V180" s="25"/>
-      <c r="W180" s="3"/>
+      <c r="W180" s="25"/>
       <c r="X180" s="3"/>
-    </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y180" s="3"/>
+    </row>
+    <row r="181" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="8"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
@@ -9263,10 +9477,11 @@
       <c r="T181" s="25"/>
       <c r="U181" s="25"/>
       <c r="V181" s="25"/>
-      <c r="W181" s="3"/>
+      <c r="W181" s="25"/>
       <c r="X181" s="3"/>
-    </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y181" s="3"/>
+    </row>
+    <row r="182" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="8"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
@@ -9289,10 +9504,11 @@
       <c r="T182" s="25"/>
       <c r="U182" s="25"/>
       <c r="V182" s="25"/>
-      <c r="W182" s="3"/>
+      <c r="W182" s="25"/>
       <c r="X182" s="3"/>
-    </row>
-    <row r="183" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y182" s="3"/>
+    </row>
+    <row r="183" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="8"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
@@ -9315,10 +9531,11 @@
       <c r="T183" s="25"/>
       <c r="U183" s="25"/>
       <c r="V183" s="25"/>
-      <c r="W183" s="3"/>
+      <c r="W183" s="25"/>
       <c r="X183" s="3"/>
-    </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y183" s="3"/>
+    </row>
+    <row r="184" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="8"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
@@ -9341,10 +9558,11 @@
       <c r="T184" s="25"/>
       <c r="U184" s="25"/>
       <c r="V184" s="25"/>
-      <c r="W184" s="3"/>
+      <c r="W184" s="25"/>
       <c r="X184" s="3"/>
-    </row>
-    <row r="185" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y184" s="3"/>
+    </row>
+    <row r="185" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="8"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
@@ -9367,10 +9585,11 @@
       <c r="T185" s="25"/>
       <c r="U185" s="25"/>
       <c r="V185" s="25"/>
-      <c r="W185" s="3"/>
+      <c r="W185" s="25"/>
       <c r="X185" s="3"/>
-    </row>
-    <row r="186" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y185" s="3"/>
+    </row>
+    <row r="186" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="8"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
@@ -9393,10 +9612,11 @@
       <c r="T186" s="25"/>
       <c r="U186" s="25"/>
       <c r="V186" s="25"/>
-      <c r="W186" s="3"/>
+      <c r="W186" s="25"/>
       <c r="X186" s="3"/>
-    </row>
-    <row r="187" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y186" s="3"/>
+    </row>
+    <row r="187" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="8"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
@@ -9419,10 +9639,11 @@
       <c r="T187" s="25"/>
       <c r="U187" s="25"/>
       <c r="V187" s="25"/>
-      <c r="W187" s="3"/>
+      <c r="W187" s="25"/>
       <c r="X187" s="3"/>
-    </row>
-    <row r="188" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y187" s="3"/>
+    </row>
+    <row r="188" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="8"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
@@ -9445,10 +9666,11 @@
       <c r="T188" s="25"/>
       <c r="U188" s="25"/>
       <c r="V188" s="25"/>
-      <c r="W188" s="3"/>
+      <c r="W188" s="25"/>
       <c r="X188" s="3"/>
-    </row>
-    <row r="189" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y188" s="3"/>
+    </row>
+    <row r="189" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="8"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
@@ -9471,10 +9693,11 @@
       <c r="T189" s="25"/>
       <c r="U189" s="25"/>
       <c r="V189" s="25"/>
-      <c r="W189" s="3"/>
+      <c r="W189" s="25"/>
       <c r="X189" s="3"/>
-    </row>
-    <row r="190" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y189" s="3"/>
+    </row>
+    <row r="190" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="8"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
@@ -9497,10 +9720,11 @@
       <c r="T190" s="25"/>
       <c r="U190" s="25"/>
       <c r="V190" s="25"/>
-      <c r="W190" s="3"/>
+      <c r="W190" s="25"/>
       <c r="X190" s="3"/>
-    </row>
-    <row r="191" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y190" s="3"/>
+    </row>
+    <row r="191" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="8"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
@@ -9523,10 +9747,11 @@
       <c r="T191" s="25"/>
       <c r="U191" s="25"/>
       <c r="V191" s="25"/>
-      <c r="W191" s="3"/>
+      <c r="W191" s="25"/>
       <c r="X191" s="3"/>
-    </row>
-    <row r="192" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y191" s="3"/>
+    </row>
+    <row r="192" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="8"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
@@ -9549,10 +9774,11 @@
       <c r="T192" s="25"/>
       <c r="U192" s="25"/>
       <c r="V192" s="25"/>
-      <c r="W192" s="3"/>
+      <c r="W192" s="25"/>
       <c r="X192" s="3"/>
-    </row>
-    <row r="193" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y192" s="3"/>
+    </row>
+    <row r="193" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="8"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
@@ -9575,10 +9801,11 @@
       <c r="T193" s="25"/>
       <c r="U193" s="25"/>
       <c r="V193" s="25"/>
-      <c r="W193" s="3"/>
+      <c r="W193" s="25"/>
       <c r="X193" s="3"/>
-    </row>
-    <row r="194" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y193" s="3"/>
+    </row>
+    <row r="194" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="8"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
@@ -9601,10 +9828,11 @@
       <c r="T194" s="25"/>
       <c r="U194" s="25"/>
       <c r="V194" s="25"/>
-      <c r="W194" s="3"/>
+      <c r="W194" s="25"/>
       <c r="X194" s="3"/>
-    </row>
-    <row r="195" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y194" s="3"/>
+    </row>
+    <row r="195" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="8"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
@@ -9627,10 +9855,11 @@
       <c r="T195" s="25"/>
       <c r="U195" s="25"/>
       <c r="V195" s="25"/>
-      <c r="W195" s="3"/>
+      <c r="W195" s="25"/>
       <c r="X195" s="3"/>
-    </row>
-    <row r="196" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y195" s="3"/>
+    </row>
+    <row r="196" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="8"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
@@ -9653,10 +9882,11 @@
       <c r="T196" s="25"/>
       <c r="U196" s="25"/>
       <c r="V196" s="25"/>
-      <c r="W196" s="3"/>
+      <c r="W196" s="25"/>
       <c r="X196" s="3"/>
-    </row>
-    <row r="197" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y196" s="3"/>
+    </row>
+    <row r="197" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="8"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
@@ -9679,10 +9909,11 @@
       <c r="T197" s="25"/>
       <c r="U197" s="25"/>
       <c r="V197" s="25"/>
-      <c r="W197" s="3"/>
+      <c r="W197" s="25"/>
       <c r="X197" s="3"/>
-    </row>
-    <row r="198" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y197" s="3"/>
+    </row>
+    <row r="198" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="8"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
@@ -9705,10 +9936,11 @@
       <c r="T198" s="25"/>
       <c r="U198" s="25"/>
       <c r="V198" s="25"/>
-      <c r="W198" s="3"/>
+      <c r="W198" s="25"/>
       <c r="X198" s="3"/>
-    </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y198" s="3"/>
+    </row>
+    <row r="199" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="8"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
@@ -9731,10 +9963,11 @@
       <c r="T199" s="25"/>
       <c r="U199" s="25"/>
       <c r="V199" s="25"/>
-      <c r="W199" s="3"/>
+      <c r="W199" s="25"/>
       <c r="X199" s="3"/>
-    </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y199" s="3"/>
+    </row>
+    <row r="200" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="8"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
@@ -9757,10 +9990,11 @@
       <c r="T200" s="25"/>
       <c r="U200" s="25"/>
       <c r="V200" s="25"/>
-      <c r="W200" s="3"/>
+      <c r="W200" s="25"/>
       <c r="X200" s="3"/>
-    </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y200" s="3"/>
+    </row>
+    <row r="201" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="8"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
@@ -9783,25 +10017,26 @@
       <c r="T201" s="25"/>
       <c r="U201" s="25"/>
       <c r="V201" s="25"/>
-      <c r="W201" s="3"/>
+      <c r="W201" s="25"/>
       <c r="X201" s="3"/>
+      <c r="Y201" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid ID" error="ID must be an integer greater than 0." sqref="W2:W1048576" xr:uid="{EF111386-0BAE-4DDF-A24D-79B0B7D4CC7E}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid ID" error="ID must be an integer greater than 0." sqref="X2:X1048576" xr:uid="{EF111386-0BAE-4DDF-A24D-79B0B7D4CC7E}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576" xr:uid="{6F7C7187-3764-415A-BC5A-14E3BBE20675}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576" xr:uid="{6F7C7187-3764-415A-BC5A-14E3BBE20675}">
       <formula1>"NonProduction, Attended, Unattended, Studio, Development, StudioX, Headless, StudioPro, TestAutomation"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576 K2:K1048576 U2:V2 U2:V1048576 N2:N1048576 N2 N3:N1048576 P3:Q1048576 P2:Q1048576 P2:Q2 U3:V1048576" xr:uid="{B4730FF1-EE13-4FD9-927F-DE1C7444137B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576 L2:L1048576 V2:W2 V2:W1048576 O2:O1048576 O2 O3:O1048576 Q3:R1048576 Q2:R1048576 Q2:R2 V3:W1048576 H2:H1048576" xr:uid="{B4730FF1-EE13-4FD9-927F-DE1C7444137B}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576" xr:uid="{2380D758-D9E5-4B34-8FB6-E35BEFBAAAAF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P1048576" xr:uid="{2380D758-D9E5-4B34-8FB6-E35BEFBAAAAF}">
       <formula1>"Verbose, Trace, Information, Warning, Error, Critical, Off"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:T1048576" xr:uid="{42A5B7D1-A07F-4DE2-9D78-9FFB6342D7C5}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:U1048576" xr:uid="{42A5B7D1-A07F-4DE2-9D78-9FFB6342D7C5}">
       <formula1>0</formula1>
       <formula2>32767</formula2>
     </dataValidation>
@@ -9817,10 +10052,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF20293-3040-451C-BEA0-1DF5FCF14B01}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:V201"/>
+  <dimension ref="A1:W201"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -9828,13 +10063,13 @@
     <col min="1" max="1" width="15.75" style="25" customWidth="1"/>
     <col min="2" max="4" width="25.75" style="25" customWidth="1"/>
     <col min="5" max="5" width="15.75" style="25" customWidth="1"/>
-    <col min="6" max="6" width="25.75" style="25" customWidth="1"/>
-    <col min="7" max="21" width="25.75" style="2" customWidth="1"/>
-    <col min="22" max="22" width="15.9140625" style="27" customWidth="1"/>
-    <col min="23" max="16384" width="8.75" style="2"/>
+    <col min="6" max="7" width="25.75" style="25" customWidth="1"/>
+    <col min="8" max="22" width="25.75" style="2" customWidth="1"/>
+    <col min="23" max="23" width="15.9140625" style="27" customWidth="1"/>
+    <col min="24" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:23" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -9851,58 +10086,61 @@
         <v>8</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J1" s="25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L1" s="25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M1" s="25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N1" s="25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O1" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P1" s="25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R1" s="25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S1" s="25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T1" s="25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U1" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" s="21" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V1" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="22"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -9924,16 +10162,16 @@
       <c r="S2" s="26"/>
       <c r="T2" s="26"/>
       <c r="U2" s="26"/>
-      <c r="V2" s="3"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V2" s="26"/>
+      <c r="W2" s="3"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="22"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="25"/>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
@@ -9948,16 +10186,16 @@
       <c r="S3" s="25"/>
       <c r="T3" s="25"/>
       <c r="U3" s="25"/>
-      <c r="V3" s="3"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V3" s="25"/>
+      <c r="W3" s="3"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="25"/>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
@@ -9972,16 +10210,16 @@
       <c r="S4" s="25"/>
       <c r="T4" s="25"/>
       <c r="U4" s="25"/>
-      <c r="V4" s="3"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V4" s="25"/>
+      <c r="W4" s="3"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="25"/>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
@@ -9996,16 +10234,16 @@
       <c r="S5" s="25"/>
       <c r="T5" s="25"/>
       <c r="U5" s="25"/>
-      <c r="V5" s="3"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V5" s="25"/>
+      <c r="W5" s="3"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="25"/>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
@@ -10020,16 +10258,16 @@
       <c r="S6" s="25"/>
       <c r="T6" s="25"/>
       <c r="U6" s="25"/>
-      <c r="V6" s="3"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V6" s="25"/>
+      <c r="W6" s="3"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
@@ -10044,16 +10282,16 @@
       <c r="S7" s="25"/>
       <c r="T7" s="25"/>
       <c r="U7" s="25"/>
-      <c r="V7" s="3"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V7" s="25"/>
+      <c r="W7" s="3"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
@@ -10068,16 +10306,16 @@
       <c r="S8" s="25"/>
       <c r="T8" s="25"/>
       <c r="U8" s="25"/>
-      <c r="V8" s="3"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V8" s="25"/>
+      <c r="W8" s="3"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="25"/>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
@@ -10092,16 +10330,16 @@
       <c r="S9" s="25"/>
       <c r="T9" s="25"/>
       <c r="U9" s="25"/>
-      <c r="V9" s="3"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V9" s="25"/>
+      <c r="W9" s="3"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="25"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -10116,16 +10354,16 @@
       <c r="S10" s="25"/>
       <c r="T10" s="25"/>
       <c r="U10" s="25"/>
-      <c r="V10" s="3"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V10" s="25"/>
+      <c r="W10" s="3"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
@@ -10140,16 +10378,16 @@
       <c r="S11" s="25"/>
       <c r="T11" s="25"/>
       <c r="U11" s="25"/>
-      <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V11" s="25"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
@@ -10164,16 +10402,16 @@
       <c r="S12" s="25"/>
       <c r="T12" s="25"/>
       <c r="U12" s="25"/>
-      <c r="V12" s="3"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V12" s="25"/>
+      <c r="W12" s="3"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
       <c r="J13" s="25"/>
@@ -10188,16 +10426,16 @@
       <c r="S13" s="25"/>
       <c r="T13" s="25"/>
       <c r="U13" s="25"/>
-      <c r="V13" s="3"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V13" s="25"/>
+      <c r="W13" s="3"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
@@ -10212,16 +10450,16 @@
       <c r="S14" s="25"/>
       <c r="T14" s="25"/>
       <c r="U14" s="25"/>
-      <c r="V14" s="3"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V14" s="25"/>
+      <c r="W14" s="3"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
@@ -10236,16 +10474,16 @@
       <c r="S15" s="25"/>
       <c r="T15" s="25"/>
       <c r="U15" s="25"/>
-      <c r="V15" s="3"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V15" s="25"/>
+      <c r="W15" s="3"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
@@ -10260,16 +10498,16 @@
       <c r="S16" s="25"/>
       <c r="T16" s="25"/>
       <c r="U16" s="25"/>
-      <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V16" s="25"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
@@ -10284,16 +10522,16 @@
       <c r="S17" s="25"/>
       <c r="T17" s="25"/>
       <c r="U17" s="25"/>
-      <c r="V17" s="3"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V17" s="25"/>
+      <c r="W17" s="3"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="25"/>
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
@@ -10308,16 +10546,16 @@
       <c r="S18" s="25"/>
       <c r="T18" s="25"/>
       <c r="U18" s="25"/>
-      <c r="V18" s="3"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V18" s="25"/>
+      <c r="W18" s="3"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="25"/>
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
@@ -10332,16 +10570,16 @@
       <c r="S19" s="25"/>
       <c r="T19" s="25"/>
       <c r="U19" s="25"/>
-      <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V19" s="25"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="25"/>
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
@@ -10356,16 +10594,16 @@
       <c r="S20" s="25"/>
       <c r="T20" s="25"/>
       <c r="U20" s="25"/>
-      <c r="V20" s="3"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V20" s="25"/>
+      <c r="W20" s="3"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="25"/>
       <c r="H21" s="25"/>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
@@ -10380,16 +10618,16 @@
       <c r="S21" s="25"/>
       <c r="T21" s="25"/>
       <c r="U21" s="25"/>
-      <c r="V21" s="3"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V21" s="25"/>
+      <c r="W21" s="3"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="25"/>
       <c r="H22" s="25"/>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
@@ -10404,16 +10642,16 @@
       <c r="S22" s="25"/>
       <c r="T22" s="25"/>
       <c r="U22" s="25"/>
-      <c r="V22" s="3"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V22" s="25"/>
+      <c r="W22" s="3"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="25"/>
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
@@ -10428,16 +10666,16 @@
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
       <c r="U23" s="25"/>
-      <c r="V23" s="3"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V23" s="25"/>
+      <c r="W23" s="3"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="25"/>
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
@@ -10452,16 +10690,16 @@
       <c r="S24" s="25"/>
       <c r="T24" s="25"/>
       <c r="U24" s="25"/>
-      <c r="V24" s="3"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V24" s="25"/>
+      <c r="W24" s="3"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="25"/>
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
@@ -10476,16 +10714,16 @@
       <c r="S25" s="25"/>
       <c r="T25" s="25"/>
       <c r="U25" s="25"/>
-      <c r="V25" s="3"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V25" s="25"/>
+      <c r="W25" s="3"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="25"/>
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
@@ -10500,16 +10738,16 @@
       <c r="S26" s="25"/>
       <c r="T26" s="25"/>
       <c r="U26" s="25"/>
-      <c r="V26" s="3"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V26" s="25"/>
+      <c r="W26" s="3"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="25"/>
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
@@ -10524,16 +10762,16 @@
       <c r="S27" s="25"/>
       <c r="T27" s="25"/>
       <c r="U27" s="25"/>
-      <c r="V27" s="3"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V27" s="25"/>
+      <c r="W27" s="3"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="25"/>
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
@@ -10548,16 +10786,16 @@
       <c r="S28" s="25"/>
       <c r="T28" s="25"/>
       <c r="U28" s="25"/>
-      <c r="V28" s="3"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V28" s="25"/>
+      <c r="W28" s="3"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="25"/>
       <c r="H29" s="25"/>
       <c r="I29" s="25"/>
       <c r="J29" s="25"/>
@@ -10572,16 +10810,16 @@
       <c r="S29" s="25"/>
       <c r="T29" s="25"/>
       <c r="U29" s="25"/>
-      <c r="V29" s="3"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V29" s="25"/>
+      <c r="W29" s="3"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="25"/>
       <c r="H30" s="25"/>
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
@@ -10596,16 +10834,16 @@
       <c r="S30" s="25"/>
       <c r="T30" s="25"/>
       <c r="U30" s="25"/>
-      <c r="V30" s="3"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V30" s="25"/>
+      <c r="W30" s="3"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="25"/>
       <c r="H31" s="25"/>
       <c r="I31" s="25"/>
       <c r="J31" s="25"/>
@@ -10620,16 +10858,16 @@
       <c r="S31" s="25"/>
       <c r="T31" s="25"/>
       <c r="U31" s="25"/>
-      <c r="V31" s="3"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V31" s="25"/>
+      <c r="W31" s="3"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="25"/>
       <c r="H32" s="25"/>
       <c r="I32" s="25"/>
       <c r="J32" s="25"/>
@@ -10644,16 +10882,16 @@
       <c r="S32" s="25"/>
       <c r="T32" s="25"/>
       <c r="U32" s="25"/>
-      <c r="V32" s="3"/>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V32" s="25"/>
+      <c r="W32" s="3"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="25"/>
       <c r="H33" s="25"/>
       <c r="I33" s="25"/>
       <c r="J33" s="25"/>
@@ -10668,16 +10906,16 @@
       <c r="S33" s="25"/>
       <c r="T33" s="25"/>
       <c r="U33" s="25"/>
-      <c r="V33" s="3"/>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V33" s="25"/>
+      <c r="W33" s="3"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="25"/>
       <c r="H34" s="25"/>
       <c r="I34" s="25"/>
       <c r="J34" s="25"/>
@@ -10692,16 +10930,16 @@
       <c r="S34" s="25"/>
       <c r="T34" s="25"/>
       <c r="U34" s="25"/>
-      <c r="V34" s="3"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V34" s="25"/>
+      <c r="W34" s="3"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="25"/>
       <c r="H35" s="25"/>
       <c r="I35" s="25"/>
       <c r="J35" s="25"/>
@@ -10716,16 +10954,16 @@
       <c r="S35" s="25"/>
       <c r="T35" s="25"/>
       <c r="U35" s="25"/>
-      <c r="V35" s="3"/>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V35" s="25"/>
+      <c r="W35" s="3"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="25"/>
       <c r="H36" s="25"/>
       <c r="I36" s="25"/>
       <c r="J36" s="25"/>
@@ -10740,16 +10978,16 @@
       <c r="S36" s="25"/>
       <c r="T36" s="25"/>
       <c r="U36" s="25"/>
-      <c r="V36" s="3"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V36" s="25"/>
+      <c r="W36" s="3"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="25"/>
       <c r="H37" s="25"/>
       <c r="I37" s="25"/>
       <c r="J37" s="25"/>
@@ -10764,16 +11002,16 @@
       <c r="S37" s="25"/>
       <c r="T37" s="25"/>
       <c r="U37" s="25"/>
-      <c r="V37" s="3"/>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V37" s="25"/>
+      <c r="W37" s="3"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="25"/>
       <c r="H38" s="25"/>
       <c r="I38" s="25"/>
       <c r="J38" s="25"/>
@@ -10788,16 +11026,16 @@
       <c r="S38" s="25"/>
       <c r="T38" s="25"/>
       <c r="U38" s="25"/>
-      <c r="V38" s="3"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V38" s="25"/>
+      <c r="W38" s="3"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="25"/>
       <c r="H39" s="25"/>
       <c r="I39" s="25"/>
       <c r="J39" s="25"/>
@@ -10812,16 +11050,16 @@
       <c r="S39" s="25"/>
       <c r="T39" s="25"/>
       <c r="U39" s="25"/>
-      <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V39" s="25"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="25"/>
       <c r="H40" s="25"/>
       <c r="I40" s="25"/>
       <c r="J40" s="25"/>
@@ -10836,16 +11074,16 @@
       <c r="S40" s="25"/>
       <c r="T40" s="25"/>
       <c r="U40" s="25"/>
-      <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V40" s="25"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="25"/>
       <c r="H41" s="25"/>
       <c r="I41" s="25"/>
       <c r="J41" s="25"/>
@@ -10860,16 +11098,16 @@
       <c r="S41" s="25"/>
       <c r="T41" s="25"/>
       <c r="U41" s="25"/>
-      <c r="V41" s="3"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V41" s="25"/>
+      <c r="W41" s="3"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="25"/>
       <c r="H42" s="25"/>
       <c r="I42" s="25"/>
       <c r="J42" s="25"/>
@@ -10884,16 +11122,16 @@
       <c r="S42" s="25"/>
       <c r="T42" s="25"/>
       <c r="U42" s="25"/>
-      <c r="V42" s="3"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V42" s="25"/>
+      <c r="W42" s="3"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9"/>
-      <c r="G43" s="25"/>
       <c r="H43" s="25"/>
       <c r="I43" s="25"/>
       <c r="J43" s="25"/>
@@ -10908,16 +11146,16 @@
       <c r="S43" s="25"/>
       <c r="T43" s="25"/>
       <c r="U43" s="25"/>
-      <c r="V43" s="3"/>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V43" s="25"/>
+      <c r="W43" s="3"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="9"/>
-      <c r="G44" s="25"/>
       <c r="H44" s="25"/>
       <c r="I44" s="25"/>
       <c r="J44" s="25"/>
@@ -10932,16 +11170,16 @@
       <c r="S44" s="25"/>
       <c r="T44" s="25"/>
       <c r="U44" s="25"/>
-      <c r="V44" s="3"/>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V44" s="25"/>
+      <c r="W44" s="3"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="9"/>
-      <c r="G45" s="25"/>
       <c r="H45" s="25"/>
       <c r="I45" s="25"/>
       <c r="J45" s="25"/>
@@ -10956,16 +11194,16 @@
       <c r="S45" s="25"/>
       <c r="T45" s="25"/>
       <c r="U45" s="25"/>
-      <c r="V45" s="3"/>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V45" s="25"/>
+      <c r="W45" s="3"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9"/>
-      <c r="G46" s="25"/>
       <c r="H46" s="25"/>
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
@@ -10980,16 +11218,16 @@
       <c r="S46" s="25"/>
       <c r="T46" s="25"/>
       <c r="U46" s="25"/>
-      <c r="V46" s="3"/>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V46" s="25"/>
+      <c r="W46" s="3"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9"/>
-      <c r="G47" s="25"/>
       <c r="H47" s="25"/>
       <c r="I47" s="25"/>
       <c r="J47" s="25"/>
@@ -11004,16 +11242,16 @@
       <c r="S47" s="25"/>
       <c r="T47" s="25"/>
       <c r="U47" s="25"/>
-      <c r="V47" s="3"/>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V47" s="25"/>
+      <c r="W47" s="3"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="25"/>
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
       <c r="J48" s="25"/>
@@ -11028,16 +11266,16 @@
       <c r="S48" s="25"/>
       <c r="T48" s="25"/>
       <c r="U48" s="25"/>
-      <c r="V48" s="3"/>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V48" s="25"/>
+      <c r="W48" s="3"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9"/>
-      <c r="G49" s="25"/>
       <c r="H49" s="25"/>
       <c r="I49" s="25"/>
       <c r="J49" s="25"/>
@@ -11052,16 +11290,16 @@
       <c r="S49" s="25"/>
       <c r="T49" s="25"/>
       <c r="U49" s="25"/>
-      <c r="V49" s="3"/>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V49" s="25"/>
+      <c r="W49" s="3"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="9"/>
-      <c r="G50" s="25"/>
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
@@ -11076,16 +11314,16 @@
       <c r="S50" s="25"/>
       <c r="T50" s="25"/>
       <c r="U50" s="25"/>
-      <c r="V50" s="3"/>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V50" s="25"/>
+      <c r="W50" s="3"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="9"/>
-      <c r="G51" s="25"/>
       <c r="H51" s="25"/>
       <c r="I51" s="25"/>
       <c r="J51" s="25"/>
@@ -11100,16 +11338,16 @@
       <c r="S51" s="25"/>
       <c r="T51" s="25"/>
       <c r="U51" s="25"/>
-      <c r="V51" s="3"/>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V51" s="25"/>
+      <c r="W51" s="3"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9"/>
-      <c r="G52" s="25"/>
       <c r="H52" s="25"/>
       <c r="I52" s="25"/>
       <c r="J52" s="25"/>
@@ -11124,16 +11362,16 @@
       <c r="S52" s="25"/>
       <c r="T52" s="25"/>
       <c r="U52" s="25"/>
-      <c r="V52" s="3"/>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V52" s="25"/>
+      <c r="W52" s="3"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9"/>
-      <c r="G53" s="25"/>
       <c r="H53" s="25"/>
       <c r="I53" s="25"/>
       <c r="J53" s="25"/>
@@ -11148,16 +11386,16 @@
       <c r="S53" s="25"/>
       <c r="T53" s="25"/>
       <c r="U53" s="25"/>
-      <c r="V53" s="3"/>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V53" s="25"/>
+      <c r="W53" s="3"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9"/>
-      <c r="G54" s="25"/>
       <c r="H54" s="25"/>
       <c r="I54" s="25"/>
       <c r="J54" s="25"/>
@@ -11172,16 +11410,16 @@
       <c r="S54" s="25"/>
       <c r="T54" s="25"/>
       <c r="U54" s="25"/>
-      <c r="V54" s="3"/>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V54" s="25"/>
+      <c r="W54" s="3"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9"/>
-      <c r="G55" s="25"/>
       <c r="H55" s="25"/>
       <c r="I55" s="25"/>
       <c r="J55" s="25"/>
@@ -11196,16 +11434,16 @@
       <c r="S55" s="25"/>
       <c r="T55" s="25"/>
       <c r="U55" s="25"/>
-      <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V55" s="25"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="9"/>
-      <c r="G56" s="25"/>
       <c r="H56" s="25"/>
       <c r="I56" s="25"/>
       <c r="J56" s="25"/>
@@ -11220,16 +11458,16 @@
       <c r="S56" s="25"/>
       <c r="T56" s="25"/>
       <c r="U56" s="25"/>
-      <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V56" s="25"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="9"/>
-      <c r="G57" s="25"/>
       <c r="H57" s="25"/>
       <c r="I57" s="25"/>
       <c r="J57" s="25"/>
@@ -11244,16 +11482,16 @@
       <c r="S57" s="25"/>
       <c r="T57" s="25"/>
       <c r="U57" s="25"/>
-      <c r="V57" s="3"/>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V57" s="25"/>
+      <c r="W57" s="3"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9"/>
-      <c r="G58" s="25"/>
       <c r="H58" s="25"/>
       <c r="I58" s="25"/>
       <c r="J58" s="25"/>
@@ -11268,16 +11506,16 @@
       <c r="S58" s="25"/>
       <c r="T58" s="25"/>
       <c r="U58" s="25"/>
-      <c r="V58" s="3"/>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V58" s="25"/>
+      <c r="W58" s="3"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9"/>
-      <c r="G59" s="25"/>
       <c r="H59" s="25"/>
       <c r="I59" s="25"/>
       <c r="J59" s="25"/>
@@ -11292,16 +11530,16 @@
       <c r="S59" s="25"/>
       <c r="T59" s="25"/>
       <c r="U59" s="25"/>
-      <c r="V59" s="3"/>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V59" s="25"/>
+      <c r="W59" s="3"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9"/>
-      <c r="G60" s="25"/>
       <c r="H60" s="25"/>
       <c r="I60" s="25"/>
       <c r="J60" s="25"/>
@@ -11316,16 +11554,16 @@
       <c r="S60" s="25"/>
       <c r="T60" s="25"/>
       <c r="U60" s="25"/>
-      <c r="V60" s="3"/>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V60" s="25"/>
+      <c r="W60" s="3"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="9"/>
-      <c r="G61" s="25"/>
       <c r="H61" s="25"/>
       <c r="I61" s="25"/>
       <c r="J61" s="25"/>
@@ -11340,16 +11578,16 @@
       <c r="S61" s="25"/>
       <c r="T61" s="25"/>
       <c r="U61" s="25"/>
-      <c r="V61" s="3"/>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V61" s="25"/>
+      <c r="W61" s="3"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="9"/>
-      <c r="G62" s="25"/>
       <c r="H62" s="25"/>
       <c r="I62" s="25"/>
       <c r="J62" s="25"/>
@@ -11364,16 +11602,16 @@
       <c r="S62" s="25"/>
       <c r="T62" s="25"/>
       <c r="U62" s="25"/>
-      <c r="V62" s="3"/>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V62" s="25"/>
+      <c r="W62" s="3"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="9"/>
-      <c r="G63" s="25"/>
       <c r="H63" s="25"/>
       <c r="I63" s="25"/>
       <c r="J63" s="25"/>
@@ -11388,16 +11626,16 @@
       <c r="S63" s="25"/>
       <c r="T63" s="25"/>
       <c r="U63" s="25"/>
-      <c r="V63" s="3"/>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V63" s="25"/>
+      <c r="W63" s="3"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="9"/>
-      <c r="G64" s="25"/>
       <c r="H64" s="25"/>
       <c r="I64" s="25"/>
       <c r="J64" s="25"/>
@@ -11412,16 +11650,16 @@
       <c r="S64" s="25"/>
       <c r="T64" s="25"/>
       <c r="U64" s="25"/>
-      <c r="V64" s="3"/>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V64" s="25"/>
+      <c r="W64" s="3"/>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="9"/>
-      <c r="G65" s="25"/>
       <c r="H65" s="25"/>
       <c r="I65" s="25"/>
       <c r="J65" s="25"/>
@@ -11436,16 +11674,16 @@
       <c r="S65" s="25"/>
       <c r="T65" s="25"/>
       <c r="U65" s="25"/>
-      <c r="V65" s="3"/>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V65" s="25"/>
+      <c r="W65" s="3"/>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="9"/>
-      <c r="G66" s="25"/>
       <c r="H66" s="25"/>
       <c r="I66" s="25"/>
       <c r="J66" s="25"/>
@@ -11460,16 +11698,16 @@
       <c r="S66" s="25"/>
       <c r="T66" s="25"/>
       <c r="U66" s="25"/>
-      <c r="V66" s="3"/>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V66" s="25"/>
+      <c r="W66" s="3"/>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="9"/>
-      <c r="G67" s="25"/>
       <c r="H67" s="25"/>
       <c r="I67" s="25"/>
       <c r="J67" s="25"/>
@@ -11484,16 +11722,16 @@
       <c r="S67" s="25"/>
       <c r="T67" s="25"/>
       <c r="U67" s="25"/>
-      <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V67" s="25"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="9"/>
-      <c r="G68" s="25"/>
       <c r="H68" s="25"/>
       <c r="I68" s="25"/>
       <c r="J68" s="25"/>
@@ -11508,16 +11746,16 @@
       <c r="S68" s="25"/>
       <c r="T68" s="25"/>
       <c r="U68" s="25"/>
-      <c r="V68" s="3"/>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V68" s="25"/>
+      <c r="W68" s="3"/>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="9"/>
-      <c r="G69" s="25"/>
       <c r="H69" s="25"/>
       <c r="I69" s="25"/>
       <c r="J69" s="25"/>
@@ -11532,16 +11770,16 @@
       <c r="S69" s="25"/>
       <c r="T69" s="25"/>
       <c r="U69" s="25"/>
-      <c r="V69" s="3"/>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V69" s="25"/>
+      <c r="W69" s="3"/>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="9"/>
-      <c r="G70" s="25"/>
       <c r="H70" s="25"/>
       <c r="I70" s="25"/>
       <c r="J70" s="25"/>
@@ -11556,16 +11794,16 @@
       <c r="S70" s="25"/>
       <c r="T70" s="25"/>
       <c r="U70" s="25"/>
-      <c r="V70" s="3"/>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V70" s="25"/>
+      <c r="W70" s="3"/>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="9"/>
-      <c r="G71" s="25"/>
       <c r="H71" s="25"/>
       <c r="I71" s="25"/>
       <c r="J71" s="25"/>
@@ -11580,16 +11818,16 @@
       <c r="S71" s="25"/>
       <c r="T71" s="25"/>
       <c r="U71" s="25"/>
-      <c r="V71" s="3"/>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V71" s="25"/>
+      <c r="W71" s="3"/>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="9"/>
-      <c r="G72" s="25"/>
       <c r="H72" s="25"/>
       <c r="I72" s="25"/>
       <c r="J72" s="25"/>
@@ -11604,16 +11842,16 @@
       <c r="S72" s="25"/>
       <c r="T72" s="25"/>
       <c r="U72" s="25"/>
-      <c r="V72" s="3"/>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V72" s="25"/>
+      <c r="W72" s="3"/>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="9"/>
-      <c r="G73" s="25"/>
       <c r="H73" s="25"/>
       <c r="I73" s="25"/>
       <c r="J73" s="25"/>
@@ -11628,16 +11866,16 @@
       <c r="S73" s="25"/>
       <c r="T73" s="25"/>
       <c r="U73" s="25"/>
-      <c r="V73" s="3"/>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V73" s="25"/>
+      <c r="W73" s="3"/>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="9"/>
-      <c r="G74" s="25"/>
       <c r="H74" s="25"/>
       <c r="I74" s="25"/>
       <c r="J74" s="25"/>
@@ -11652,16 +11890,16 @@
       <c r="S74" s="25"/>
       <c r="T74" s="25"/>
       <c r="U74" s="25"/>
-      <c r="V74" s="3"/>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V74" s="25"/>
+      <c r="W74" s="3"/>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="9"/>
-      <c r="G75" s="25"/>
       <c r="H75" s="25"/>
       <c r="I75" s="25"/>
       <c r="J75" s="25"/>
@@ -11676,16 +11914,16 @@
       <c r="S75" s="25"/>
       <c r="T75" s="25"/>
       <c r="U75" s="25"/>
-      <c r="V75" s="3"/>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V75" s="25"/>
+      <c r="W75" s="3"/>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="9"/>
-      <c r="G76" s="25"/>
       <c r="H76" s="25"/>
       <c r="I76" s="25"/>
       <c r="J76" s="25"/>
@@ -11700,16 +11938,16 @@
       <c r="S76" s="25"/>
       <c r="T76" s="25"/>
       <c r="U76" s="25"/>
-      <c r="V76" s="3"/>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V76" s="25"/>
+      <c r="W76" s="3"/>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="9"/>
-      <c r="G77" s="25"/>
       <c r="H77" s="25"/>
       <c r="I77" s="25"/>
       <c r="J77" s="25"/>
@@ -11724,16 +11962,16 @@
       <c r="S77" s="25"/>
       <c r="T77" s="25"/>
       <c r="U77" s="25"/>
-      <c r="V77" s="3"/>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V77" s="25"/>
+      <c r="W77" s="3"/>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="9"/>
-      <c r="G78" s="25"/>
       <c r="H78" s="25"/>
       <c r="I78" s="25"/>
       <c r="J78" s="25"/>
@@ -11748,16 +11986,16 @@
       <c r="S78" s="25"/>
       <c r="T78" s="25"/>
       <c r="U78" s="25"/>
-      <c r="V78" s="3"/>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V78" s="25"/>
+      <c r="W78" s="3"/>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="9"/>
-      <c r="G79" s="25"/>
       <c r="H79" s="25"/>
       <c r="I79" s="25"/>
       <c r="J79" s="25"/>
@@ -11772,16 +12010,16 @@
       <c r="S79" s="25"/>
       <c r="T79" s="25"/>
       <c r="U79" s="25"/>
-      <c r="V79" s="3"/>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V79" s="25"/>
+      <c r="W79" s="3"/>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="9"/>
-      <c r="G80" s="25"/>
       <c r="H80" s="25"/>
       <c r="I80" s="25"/>
       <c r="J80" s="25"/>
@@ -11796,16 +12034,16 @@
       <c r="S80" s="25"/>
       <c r="T80" s="25"/>
       <c r="U80" s="25"/>
-      <c r="V80" s="3"/>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V80" s="25"/>
+      <c r="W80" s="3"/>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="9"/>
-      <c r="G81" s="25"/>
       <c r="H81" s="25"/>
       <c r="I81" s="25"/>
       <c r="J81" s="25"/>
@@ -11820,16 +12058,16 @@
       <c r="S81" s="25"/>
       <c r="T81" s="25"/>
       <c r="U81" s="25"/>
-      <c r="V81" s="3"/>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V81" s="25"/>
+      <c r="W81" s="3"/>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="9"/>
-      <c r="G82" s="25"/>
       <c r="H82" s="25"/>
       <c r="I82" s="25"/>
       <c r="J82" s="25"/>
@@ -11844,16 +12082,16 @@
       <c r="S82" s="25"/>
       <c r="T82" s="25"/>
       <c r="U82" s="25"/>
-      <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V82" s="25"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="9"/>
-      <c r="G83" s="25"/>
       <c r="H83" s="25"/>
       <c r="I83" s="25"/>
       <c r="J83" s="25"/>
@@ -11868,16 +12106,16 @@
       <c r="S83" s="25"/>
       <c r="T83" s="25"/>
       <c r="U83" s="25"/>
-      <c r="V83" s="3"/>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V83" s="25"/>
+      <c r="W83" s="3"/>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="9"/>
-      <c r="G84" s="25"/>
       <c r="H84" s="25"/>
       <c r="I84" s="25"/>
       <c r="J84" s="25"/>
@@ -11892,16 +12130,16 @@
       <c r="S84" s="25"/>
       <c r="T84" s="25"/>
       <c r="U84" s="25"/>
-      <c r="V84" s="3"/>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V84" s="25"/>
+      <c r="W84" s="3"/>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="9"/>
-      <c r="G85" s="25"/>
       <c r="H85" s="25"/>
       <c r="I85" s="25"/>
       <c r="J85" s="25"/>
@@ -11916,16 +12154,16 @@
       <c r="S85" s="25"/>
       <c r="T85" s="25"/>
       <c r="U85" s="25"/>
-      <c r="V85" s="3"/>
-    </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V85" s="25"/>
+      <c r="W85" s="3"/>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="9"/>
-      <c r="G86" s="25"/>
       <c r="H86" s="25"/>
       <c r="I86" s="25"/>
       <c r="J86" s="25"/>
@@ -11940,16 +12178,16 @@
       <c r="S86" s="25"/>
       <c r="T86" s="25"/>
       <c r="U86" s="25"/>
-      <c r="V86" s="3"/>
-    </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V86" s="25"/>
+      <c r="W86" s="3"/>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="9"/>
-      <c r="G87" s="25"/>
       <c r="H87" s="25"/>
       <c r="I87" s="25"/>
       <c r="J87" s="25"/>
@@ -11964,16 +12202,16 @@
       <c r="S87" s="25"/>
       <c r="T87" s="25"/>
       <c r="U87" s="25"/>
-      <c r="V87" s="3"/>
-    </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V87" s="25"/>
+      <c r="W87" s="3"/>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="9"/>
-      <c r="G88" s="25"/>
       <c r="H88" s="25"/>
       <c r="I88" s="25"/>
       <c r="J88" s="25"/>
@@ -11988,16 +12226,16 @@
       <c r="S88" s="25"/>
       <c r="T88" s="25"/>
       <c r="U88" s="25"/>
-      <c r="V88" s="3"/>
-    </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V88" s="25"/>
+      <c r="W88" s="3"/>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="9"/>
-      <c r="G89" s="25"/>
       <c r="H89" s="25"/>
       <c r="I89" s="25"/>
       <c r="J89" s="25"/>
@@ -12012,16 +12250,16 @@
       <c r="S89" s="25"/>
       <c r="T89" s="25"/>
       <c r="U89" s="25"/>
-      <c r="V89" s="3"/>
-    </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V89" s="25"/>
+      <c r="W89" s="3"/>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="9"/>
-      <c r="G90" s="25"/>
       <c r="H90" s="25"/>
       <c r="I90" s="25"/>
       <c r="J90" s="25"/>
@@ -12036,16 +12274,16 @@
       <c r="S90" s="25"/>
       <c r="T90" s="25"/>
       <c r="U90" s="25"/>
-      <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V90" s="25"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="9"/>
-      <c r="G91" s="25"/>
       <c r="H91" s="25"/>
       <c r="I91" s="25"/>
       <c r="J91" s="25"/>
@@ -12060,16 +12298,16 @@
       <c r="S91" s="25"/>
       <c r="T91" s="25"/>
       <c r="U91" s="25"/>
-      <c r="V91" s="3"/>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V91" s="25"/>
+      <c r="W91" s="3"/>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="9"/>
-      <c r="G92" s="25"/>
       <c r="H92" s="25"/>
       <c r="I92" s="25"/>
       <c r="J92" s="25"/>
@@ -12084,16 +12322,16 @@
       <c r="S92" s="25"/>
       <c r="T92" s="25"/>
       <c r="U92" s="25"/>
-      <c r="V92" s="3"/>
-    </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V92" s="25"/>
+      <c r="W92" s="3"/>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="9"/>
-      <c r="G93" s="25"/>
       <c r="H93" s="25"/>
       <c r="I93" s="25"/>
       <c r="J93" s="25"/>
@@ -12108,16 +12346,16 @@
       <c r="S93" s="25"/>
       <c r="T93" s="25"/>
       <c r="U93" s="25"/>
-      <c r="V93" s="3"/>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V93" s="25"/>
+      <c r="W93" s="3"/>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="9"/>
-      <c r="G94" s="25"/>
       <c r="H94" s="25"/>
       <c r="I94" s="25"/>
       <c r="J94" s="25"/>
@@ -12132,16 +12370,16 @@
       <c r="S94" s="25"/>
       <c r="T94" s="25"/>
       <c r="U94" s="25"/>
-      <c r="V94" s="3"/>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V94" s="25"/>
+      <c r="W94" s="3"/>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="25"/>
       <c r="H95" s="25"/>
       <c r="I95" s="25"/>
       <c r="J95" s="25"/>
@@ -12156,16 +12394,16 @@
       <c r="S95" s="25"/>
       <c r="T95" s="25"/>
       <c r="U95" s="25"/>
-      <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V95" s="25"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="9"/>
-      <c r="G96" s="25"/>
       <c r="H96" s="25"/>
       <c r="I96" s="25"/>
       <c r="J96" s="25"/>
@@ -12180,16 +12418,16 @@
       <c r="S96" s="25"/>
       <c r="T96" s="25"/>
       <c r="U96" s="25"/>
-      <c r="V96" s="3"/>
-    </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V96" s="25"/>
+      <c r="W96" s="3"/>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="9"/>
-      <c r="G97" s="25"/>
       <c r="H97" s="25"/>
       <c r="I97" s="25"/>
       <c r="J97" s="25"/>
@@ -12204,16 +12442,16 @@
       <c r="S97" s="25"/>
       <c r="T97" s="25"/>
       <c r="U97" s="25"/>
-      <c r="V97" s="3"/>
-    </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V97" s="25"/>
+      <c r="W97" s="3"/>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="9"/>
-      <c r="G98" s="25"/>
       <c r="H98" s="25"/>
       <c r="I98" s="25"/>
       <c r="J98" s="25"/>
@@ -12228,16 +12466,16 @@
       <c r="S98" s="25"/>
       <c r="T98" s="25"/>
       <c r="U98" s="25"/>
-      <c r="V98" s="3"/>
-    </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V98" s="25"/>
+      <c r="W98" s="3"/>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="9"/>
-      <c r="G99" s="25"/>
       <c r="H99" s="25"/>
       <c r="I99" s="25"/>
       <c r="J99" s="25"/>
@@ -12252,16 +12490,16 @@
       <c r="S99" s="25"/>
       <c r="T99" s="25"/>
       <c r="U99" s="25"/>
-      <c r="V99" s="3"/>
-    </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V99" s="25"/>
+      <c r="W99" s="3"/>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="9"/>
-      <c r="G100" s="25"/>
       <c r="H100" s="25"/>
       <c r="I100" s="25"/>
       <c r="J100" s="25"/>
@@ -12276,16 +12514,16 @@
       <c r="S100" s="25"/>
       <c r="T100" s="25"/>
       <c r="U100" s="25"/>
-      <c r="V100" s="3"/>
-    </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V100" s="25"/>
+      <c r="W100" s="3"/>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="9"/>
-      <c r="G101" s="25"/>
       <c r="H101" s="25"/>
       <c r="I101" s="25"/>
       <c r="J101" s="25"/>
@@ -12300,16 +12538,16 @@
       <c r="S101" s="25"/>
       <c r="T101" s="25"/>
       <c r="U101" s="25"/>
-      <c r="V101" s="3"/>
-    </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V101" s="25"/>
+      <c r="W101" s="3"/>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="9"/>
-      <c r="G102" s="25"/>
       <c r="H102" s="25"/>
       <c r="I102" s="25"/>
       <c r="J102" s="25"/>
@@ -12324,16 +12562,16 @@
       <c r="S102" s="25"/>
       <c r="T102" s="25"/>
       <c r="U102" s="25"/>
-      <c r="V102" s="3"/>
-    </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V102" s="25"/>
+      <c r="W102" s="3"/>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="9"/>
-      <c r="G103" s="25"/>
       <c r="H103" s="25"/>
       <c r="I103" s="25"/>
       <c r="J103" s="25"/>
@@ -12348,16 +12586,16 @@
       <c r="S103" s="25"/>
       <c r="T103" s="25"/>
       <c r="U103" s="25"/>
-      <c r="V103" s="3"/>
-    </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V103" s="25"/>
+      <c r="W103" s="3"/>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="9"/>
-      <c r="G104" s="25"/>
       <c r="H104" s="25"/>
       <c r="I104" s="25"/>
       <c r="J104" s="25"/>
@@ -12372,16 +12610,16 @@
       <c r="S104" s="25"/>
       <c r="T104" s="25"/>
       <c r="U104" s="25"/>
-      <c r="V104" s="3"/>
-    </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V104" s="25"/>
+      <c r="W104" s="3"/>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="9"/>
-      <c r="G105" s="25"/>
       <c r="H105" s="25"/>
       <c r="I105" s="25"/>
       <c r="J105" s="25"/>
@@ -12396,16 +12634,16 @@
       <c r="S105" s="25"/>
       <c r="T105" s="25"/>
       <c r="U105" s="25"/>
-      <c r="V105" s="3"/>
-    </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V105" s="25"/>
+      <c r="W105" s="3"/>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="9"/>
-      <c r="G106" s="25"/>
       <c r="H106" s="25"/>
       <c r="I106" s="25"/>
       <c r="J106" s="25"/>
@@ -12420,16 +12658,16 @@
       <c r="S106" s="25"/>
       <c r="T106" s="25"/>
       <c r="U106" s="25"/>
-      <c r="V106" s="3"/>
-    </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V106" s="25"/>
+      <c r="W106" s="3"/>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="9"/>
-      <c r="G107" s="25"/>
       <c r="H107" s="25"/>
       <c r="I107" s="25"/>
       <c r="J107" s="25"/>
@@ -12444,16 +12682,16 @@
       <c r="S107" s="25"/>
       <c r="T107" s="25"/>
       <c r="U107" s="25"/>
-      <c r="V107" s="3"/>
-    </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V107" s="25"/>
+      <c r="W107" s="3"/>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="9"/>
-      <c r="G108" s="25"/>
       <c r="H108" s="25"/>
       <c r="I108" s="25"/>
       <c r="J108" s="25"/>
@@ -12468,16 +12706,16 @@
       <c r="S108" s="25"/>
       <c r="T108" s="25"/>
       <c r="U108" s="25"/>
-      <c r="V108" s="3"/>
-    </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V108" s="25"/>
+      <c r="W108" s="3"/>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="9"/>
-      <c r="G109" s="25"/>
       <c r="H109" s="25"/>
       <c r="I109" s="25"/>
       <c r="J109" s="25"/>
@@ -12492,16 +12730,16 @@
       <c r="S109" s="25"/>
       <c r="T109" s="25"/>
       <c r="U109" s="25"/>
-      <c r="V109" s="3"/>
-    </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V109" s="25"/>
+      <c r="W109" s="3"/>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="9"/>
-      <c r="G110" s="25"/>
       <c r="H110" s="25"/>
       <c r="I110" s="25"/>
       <c r="J110" s="25"/>
@@ -12516,16 +12754,16 @@
       <c r="S110" s="25"/>
       <c r="T110" s="25"/>
       <c r="U110" s="25"/>
-      <c r="V110" s="3"/>
-    </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V110" s="25"/>
+      <c r="W110" s="3"/>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="9"/>
-      <c r="G111" s="25"/>
       <c r="H111" s="25"/>
       <c r="I111" s="25"/>
       <c r="J111" s="25"/>
@@ -12540,16 +12778,16 @@
       <c r="S111" s="25"/>
       <c r="T111" s="25"/>
       <c r="U111" s="25"/>
-      <c r="V111" s="3"/>
-    </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V111" s="25"/>
+      <c r="W111" s="3"/>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="9"/>
-      <c r="G112" s="25"/>
       <c r="H112" s="25"/>
       <c r="I112" s="25"/>
       <c r="J112" s="25"/>
@@ -12564,16 +12802,16 @@
       <c r="S112" s="25"/>
       <c r="T112" s="25"/>
       <c r="U112" s="25"/>
-      <c r="V112" s="3"/>
-    </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V112" s="25"/>
+      <c r="W112" s="3"/>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="9"/>
-      <c r="G113" s="25"/>
       <c r="H113" s="25"/>
       <c r="I113" s="25"/>
       <c r="J113" s="25"/>
@@ -12588,16 +12826,16 @@
       <c r="S113" s="25"/>
       <c r="T113" s="25"/>
       <c r="U113" s="25"/>
-      <c r="V113" s="3"/>
-    </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V113" s="25"/>
+      <c r="W113" s="3"/>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="9"/>
-      <c r="G114" s="25"/>
       <c r="H114" s="25"/>
       <c r="I114" s="25"/>
       <c r="J114" s="25"/>
@@ -12612,16 +12850,16 @@
       <c r="S114" s="25"/>
       <c r="T114" s="25"/>
       <c r="U114" s="25"/>
-      <c r="V114" s="3"/>
-    </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V114" s="25"/>
+      <c r="W114" s="3"/>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="9"/>
-      <c r="G115" s="25"/>
       <c r="H115" s="25"/>
       <c r="I115" s="25"/>
       <c r="J115" s="25"/>
@@ -12636,16 +12874,16 @@
       <c r="S115" s="25"/>
       <c r="T115" s="25"/>
       <c r="U115" s="25"/>
-      <c r="V115" s="3"/>
-    </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V115" s="25"/>
+      <c r="W115" s="3"/>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="9"/>
-      <c r="G116" s="25"/>
       <c r="H116" s="25"/>
       <c r="I116" s="25"/>
       <c r="J116" s="25"/>
@@ -12660,16 +12898,16 @@
       <c r="S116" s="25"/>
       <c r="T116" s="25"/>
       <c r="U116" s="25"/>
-      <c r="V116" s="3"/>
-    </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V116" s="25"/>
+      <c r="W116" s="3"/>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="9"/>
-      <c r="G117" s="25"/>
       <c r="H117" s="25"/>
       <c r="I117" s="25"/>
       <c r="J117" s="25"/>
@@ -12684,16 +12922,16 @@
       <c r="S117" s="25"/>
       <c r="T117" s="25"/>
       <c r="U117" s="25"/>
-      <c r="V117" s="3"/>
-    </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V117" s="25"/>
+      <c r="W117" s="3"/>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="9"/>
-      <c r="G118" s="25"/>
       <c r="H118" s="25"/>
       <c r="I118" s="25"/>
       <c r="J118" s="25"/>
@@ -12708,16 +12946,16 @@
       <c r="S118" s="25"/>
       <c r="T118" s="25"/>
       <c r="U118" s="25"/>
-      <c r="V118" s="3"/>
-    </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V118" s="25"/>
+      <c r="W118" s="3"/>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="9"/>
-      <c r="G119" s="25"/>
       <c r="H119" s="25"/>
       <c r="I119" s="25"/>
       <c r="J119" s="25"/>
@@ -12732,16 +12970,16 @@
       <c r="S119" s="25"/>
       <c r="T119" s="25"/>
       <c r="U119" s="25"/>
-      <c r="V119" s="3"/>
-    </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V119" s="25"/>
+      <c r="W119" s="3"/>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="9"/>
-      <c r="G120" s="25"/>
       <c r="H120" s="25"/>
       <c r="I120" s="25"/>
       <c r="J120" s="25"/>
@@ -12756,16 +12994,16 @@
       <c r="S120" s="25"/>
       <c r="T120" s="25"/>
       <c r="U120" s="25"/>
-      <c r="V120" s="3"/>
-    </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V120" s="25"/>
+      <c r="W120" s="3"/>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="9"/>
-      <c r="G121" s="25"/>
       <c r="H121" s="25"/>
       <c r="I121" s="25"/>
       <c r="J121" s="25"/>
@@ -12780,16 +13018,16 @@
       <c r="S121" s="25"/>
       <c r="T121" s="25"/>
       <c r="U121" s="25"/>
-      <c r="V121" s="3"/>
-    </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V121" s="25"/>
+      <c r="W121" s="3"/>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="9"/>
-      <c r="G122" s="25"/>
       <c r="H122" s="25"/>
       <c r="I122" s="25"/>
       <c r="J122" s="25"/>
@@ -12804,16 +13042,16 @@
       <c r="S122" s="25"/>
       <c r="T122" s="25"/>
       <c r="U122" s="25"/>
-      <c r="V122" s="3"/>
-    </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V122" s="25"/>
+      <c r="W122" s="3"/>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="9"/>
-      <c r="G123" s="25"/>
       <c r="H123" s="25"/>
       <c r="I123" s="25"/>
       <c r="J123" s="25"/>
@@ -12828,16 +13066,16 @@
       <c r="S123" s="25"/>
       <c r="T123" s="25"/>
       <c r="U123" s="25"/>
-      <c r="V123" s="3"/>
-    </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V123" s="25"/>
+      <c r="W123" s="3"/>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="9"/>
-      <c r="G124" s="25"/>
       <c r="H124" s="25"/>
       <c r="I124" s="25"/>
       <c r="J124" s="25"/>
@@ -12852,16 +13090,16 @@
       <c r="S124" s="25"/>
       <c r="T124" s="25"/>
       <c r="U124" s="25"/>
-      <c r="V124" s="3"/>
-    </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V124" s="25"/>
+      <c r="W124" s="3"/>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="9"/>
-      <c r="G125" s="25"/>
       <c r="H125" s="25"/>
       <c r="I125" s="25"/>
       <c r="J125" s="25"/>
@@ -12876,16 +13114,16 @@
       <c r="S125" s="25"/>
       <c r="T125" s="25"/>
       <c r="U125" s="25"/>
-      <c r="V125" s="3"/>
-    </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V125" s="25"/>
+      <c r="W125" s="3"/>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="9"/>
-      <c r="G126" s="25"/>
       <c r="H126" s="25"/>
       <c r="I126" s="25"/>
       <c r="J126" s="25"/>
@@ -12900,16 +13138,16 @@
       <c r="S126" s="25"/>
       <c r="T126" s="25"/>
       <c r="U126" s="25"/>
-      <c r="V126" s="3"/>
-    </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V126" s="25"/>
+      <c r="W126" s="3"/>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="9"/>
-      <c r="G127" s="25"/>
       <c r="H127" s="25"/>
       <c r="I127" s="25"/>
       <c r="J127" s="25"/>
@@ -12924,16 +13162,16 @@
       <c r="S127" s="25"/>
       <c r="T127" s="25"/>
       <c r="U127" s="25"/>
-      <c r="V127" s="3"/>
-    </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V127" s="25"/>
+      <c r="W127" s="3"/>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="9"/>
-      <c r="G128" s="25"/>
       <c r="H128" s="25"/>
       <c r="I128" s="25"/>
       <c r="J128" s="25"/>
@@ -12948,16 +13186,16 @@
       <c r="S128" s="25"/>
       <c r="T128" s="25"/>
       <c r="U128" s="25"/>
-      <c r="V128" s="3"/>
-    </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V128" s="25"/>
+      <c r="W128" s="3"/>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="9"/>
-      <c r="G129" s="25"/>
       <c r="H129" s="25"/>
       <c r="I129" s="25"/>
       <c r="J129" s="25"/>
@@ -12972,16 +13210,16 @@
       <c r="S129" s="25"/>
       <c r="T129" s="25"/>
       <c r="U129" s="25"/>
-      <c r="V129" s="3"/>
-    </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V129" s="25"/>
+      <c r="W129" s="3"/>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="9"/>
-      <c r="G130" s="25"/>
       <c r="H130" s="25"/>
       <c r="I130" s="25"/>
       <c r="J130" s="25"/>
@@ -12996,16 +13234,16 @@
       <c r="S130" s="25"/>
       <c r="T130" s="25"/>
       <c r="U130" s="25"/>
-      <c r="V130" s="3"/>
-    </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V130" s="25"/>
+      <c r="W130" s="3"/>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="9"/>
-      <c r="G131" s="25"/>
       <c r="H131" s="25"/>
       <c r="I131" s="25"/>
       <c r="J131" s="25"/>
@@ -13020,16 +13258,16 @@
       <c r="S131" s="25"/>
       <c r="T131" s="25"/>
       <c r="U131" s="25"/>
-      <c r="V131" s="3"/>
-    </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V131" s="25"/>
+      <c r="W131" s="3"/>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="9"/>
-      <c r="G132" s="25"/>
       <c r="H132" s="25"/>
       <c r="I132" s="25"/>
       <c r="J132" s="25"/>
@@ -13044,16 +13282,16 @@
       <c r="S132" s="25"/>
       <c r="T132" s="25"/>
       <c r="U132" s="25"/>
-      <c r="V132" s="3"/>
-    </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V132" s="25"/>
+      <c r="W132" s="3"/>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="9"/>
-      <c r="G133" s="25"/>
       <c r="H133" s="25"/>
       <c r="I133" s="25"/>
       <c r="J133" s="25"/>
@@ -13068,16 +13306,16 @@
       <c r="S133" s="25"/>
       <c r="T133" s="25"/>
       <c r="U133" s="25"/>
-      <c r="V133" s="3"/>
-    </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V133" s="25"/>
+      <c r="W133" s="3"/>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="9"/>
-      <c r="G134" s="25"/>
       <c r="H134" s="25"/>
       <c r="I134" s="25"/>
       <c r="J134" s="25"/>
@@ -13092,16 +13330,16 @@
       <c r="S134" s="25"/>
       <c r="T134" s="25"/>
       <c r="U134" s="25"/>
-      <c r="V134" s="3"/>
-    </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V134" s="25"/>
+      <c r="W134" s="3"/>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="9"/>
-      <c r="G135" s="25"/>
       <c r="H135" s="25"/>
       <c r="I135" s="25"/>
       <c r="J135" s="25"/>
@@ -13116,16 +13354,16 @@
       <c r="S135" s="25"/>
       <c r="T135" s="25"/>
       <c r="U135" s="25"/>
-      <c r="V135" s="3"/>
-    </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V135" s="25"/>
+      <c r="W135" s="3"/>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="9"/>
-      <c r="G136" s="25"/>
       <c r="H136" s="25"/>
       <c r="I136" s="25"/>
       <c r="J136" s="25"/>
@@ -13140,16 +13378,16 @@
       <c r="S136" s="25"/>
       <c r="T136" s="25"/>
       <c r="U136" s="25"/>
-      <c r="V136" s="3"/>
-    </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V136" s="25"/>
+      <c r="W136" s="3"/>
+    </row>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="9"/>
-      <c r="G137" s="25"/>
       <c r="H137" s="25"/>
       <c r="I137" s="25"/>
       <c r="J137" s="25"/>
@@ -13164,16 +13402,16 @@
       <c r="S137" s="25"/>
       <c r="T137" s="25"/>
       <c r="U137" s="25"/>
-      <c r="V137" s="3"/>
-    </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V137" s="25"/>
+      <c r="W137" s="3"/>
+    </row>
+    <row r="138" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="9"/>
-      <c r="G138" s="25"/>
       <c r="H138" s="25"/>
       <c r="I138" s="25"/>
       <c r="J138" s="25"/>
@@ -13188,16 +13426,16 @@
       <c r="S138" s="25"/>
       <c r="T138" s="25"/>
       <c r="U138" s="25"/>
-      <c r="V138" s="3"/>
-    </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V138" s="25"/>
+      <c r="W138" s="3"/>
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="9"/>
-      <c r="G139" s="25"/>
       <c r="H139" s="25"/>
       <c r="I139" s="25"/>
       <c r="J139" s="25"/>
@@ -13212,16 +13450,16 @@
       <c r="S139" s="25"/>
       <c r="T139" s="25"/>
       <c r="U139" s="25"/>
-      <c r="V139" s="3"/>
-    </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V139" s="25"/>
+      <c r="W139" s="3"/>
+    </row>
+    <row r="140" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="9"/>
-      <c r="G140" s="25"/>
       <c r="H140" s="25"/>
       <c r="I140" s="25"/>
       <c r="J140" s="25"/>
@@ -13236,16 +13474,16 @@
       <c r="S140" s="25"/>
       <c r="T140" s="25"/>
       <c r="U140" s="25"/>
-      <c r="V140" s="3"/>
-    </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V140" s="25"/>
+      <c r="W140" s="3"/>
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="9"/>
-      <c r="G141" s="25"/>
       <c r="H141" s="25"/>
       <c r="I141" s="25"/>
       <c r="J141" s="25"/>
@@ -13260,16 +13498,16 @@
       <c r="S141" s="25"/>
       <c r="T141" s="25"/>
       <c r="U141" s="25"/>
-      <c r="V141" s="3"/>
-    </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V141" s="25"/>
+      <c r="W141" s="3"/>
+    </row>
+    <row r="142" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="9"/>
-      <c r="G142" s="25"/>
       <c r="H142" s="25"/>
       <c r="I142" s="25"/>
       <c r="J142" s="25"/>
@@ -13284,16 +13522,16 @@
       <c r="S142" s="25"/>
       <c r="T142" s="25"/>
       <c r="U142" s="25"/>
-      <c r="V142" s="3"/>
-    </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V142" s="25"/>
+      <c r="W142" s="3"/>
+    </row>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="9"/>
-      <c r="G143" s="25"/>
       <c r="H143" s="25"/>
       <c r="I143" s="25"/>
       <c r="J143" s="25"/>
@@ -13308,16 +13546,16 @@
       <c r="S143" s="25"/>
       <c r="T143" s="25"/>
       <c r="U143" s="25"/>
-      <c r="V143" s="3"/>
-    </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V143" s="25"/>
+      <c r="W143" s="3"/>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="9"/>
-      <c r="G144" s="25"/>
       <c r="H144" s="25"/>
       <c r="I144" s="25"/>
       <c r="J144" s="25"/>
@@ -13332,16 +13570,16 @@
       <c r="S144" s="25"/>
       <c r="T144" s="25"/>
       <c r="U144" s="25"/>
-      <c r="V144" s="3"/>
-    </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V144" s="25"/>
+      <c r="W144" s="3"/>
+    </row>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="9"/>
-      <c r="G145" s="25"/>
       <c r="H145" s="25"/>
       <c r="I145" s="25"/>
       <c r="J145" s="25"/>
@@ -13356,16 +13594,16 @@
       <c r="S145" s="25"/>
       <c r="T145" s="25"/>
       <c r="U145" s="25"/>
-      <c r="V145" s="3"/>
-    </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V145" s="25"/>
+      <c r="W145" s="3"/>
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
       <c r="F146" s="9"/>
-      <c r="G146" s="25"/>
       <c r="H146" s="25"/>
       <c r="I146" s="25"/>
       <c r="J146" s="25"/>
@@ -13380,16 +13618,16 @@
       <c r="S146" s="25"/>
       <c r="T146" s="25"/>
       <c r="U146" s="25"/>
-      <c r="V146" s="3"/>
-    </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V146" s="25"/>
+      <c r="W146" s="3"/>
+    </row>
+    <row r="147" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
       <c r="F147" s="9"/>
-      <c r="G147" s="25"/>
       <c r="H147" s="25"/>
       <c r="I147" s="25"/>
       <c r="J147" s="25"/>
@@ -13404,16 +13642,16 @@
       <c r="S147" s="25"/>
       <c r="T147" s="25"/>
       <c r="U147" s="25"/>
-      <c r="V147" s="3"/>
-    </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V147" s="25"/>
+      <c r="W147" s="3"/>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
       <c r="F148" s="9"/>
-      <c r="G148" s="25"/>
       <c r="H148" s="25"/>
       <c r="I148" s="25"/>
       <c r="J148" s="25"/>
@@ -13428,16 +13666,16 @@
       <c r="S148" s="25"/>
       <c r="T148" s="25"/>
       <c r="U148" s="25"/>
-      <c r="V148" s="3"/>
-    </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V148" s="25"/>
+      <c r="W148" s="3"/>
+    </row>
+    <row r="149" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
       <c r="F149" s="9"/>
-      <c r="G149" s="25"/>
       <c r="H149" s="25"/>
       <c r="I149" s="25"/>
       <c r="J149" s="25"/>
@@ -13452,16 +13690,16 @@
       <c r="S149" s="25"/>
       <c r="T149" s="25"/>
       <c r="U149" s="25"/>
-      <c r="V149" s="3"/>
-    </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V149" s="25"/>
+      <c r="W149" s="3"/>
+    </row>
+    <row r="150" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
       <c r="F150" s="9"/>
-      <c r="G150" s="25"/>
       <c r="H150" s="25"/>
       <c r="I150" s="25"/>
       <c r="J150" s="25"/>
@@ -13476,16 +13714,16 @@
       <c r="S150" s="25"/>
       <c r="T150" s="25"/>
       <c r="U150" s="25"/>
-      <c r="V150" s="3"/>
-    </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V150" s="25"/>
+      <c r="W150" s="3"/>
+    </row>
+    <row r="151" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
       <c r="D151" s="8"/>
       <c r="E151" s="8"/>
       <c r="F151" s="9"/>
-      <c r="G151" s="25"/>
       <c r="H151" s="25"/>
       <c r="I151" s="25"/>
       <c r="J151" s="25"/>
@@ -13500,16 +13738,16 @@
       <c r="S151" s="25"/>
       <c r="T151" s="25"/>
       <c r="U151" s="25"/>
-      <c r="V151" s="3"/>
-    </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V151" s="25"/>
+      <c r="W151" s="3"/>
+    </row>
+    <row r="152" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
       <c r="D152" s="8"/>
       <c r="E152" s="8"/>
       <c r="F152" s="9"/>
-      <c r="G152" s="25"/>
       <c r="H152" s="25"/>
       <c r="I152" s="25"/>
       <c r="J152" s="25"/>
@@ -13524,16 +13762,16 @@
       <c r="S152" s="25"/>
       <c r="T152" s="25"/>
       <c r="U152" s="25"/>
-      <c r="V152" s="3"/>
-    </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V152" s="25"/>
+      <c r="W152" s="3"/>
+    </row>
+    <row r="153" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
       <c r="D153" s="8"/>
       <c r="E153" s="8"/>
       <c r="F153" s="9"/>
-      <c r="G153" s="25"/>
       <c r="H153" s="25"/>
       <c r="I153" s="25"/>
       <c r="J153" s="25"/>
@@ -13548,16 +13786,16 @@
       <c r="S153" s="25"/>
       <c r="T153" s="25"/>
       <c r="U153" s="25"/>
-      <c r="V153" s="3"/>
-    </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V153" s="25"/>
+      <c r="W153" s="3"/>
+    </row>
+    <row r="154" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
       <c r="D154" s="8"/>
       <c r="E154" s="8"/>
       <c r="F154" s="9"/>
-      <c r="G154" s="25"/>
       <c r="H154" s="25"/>
       <c r="I154" s="25"/>
       <c r="J154" s="25"/>
@@ -13572,16 +13810,16 @@
       <c r="S154" s="25"/>
       <c r="T154" s="25"/>
       <c r="U154" s="25"/>
-      <c r="V154" s="3"/>
-    </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V154" s="25"/>
+      <c r="W154" s="3"/>
+    </row>
+    <row r="155" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
       <c r="F155" s="9"/>
-      <c r="G155" s="25"/>
       <c r="H155" s="25"/>
       <c r="I155" s="25"/>
       <c r="J155" s="25"/>
@@ -13596,16 +13834,16 @@
       <c r="S155" s="25"/>
       <c r="T155" s="25"/>
       <c r="U155" s="25"/>
-      <c r="V155" s="3"/>
-    </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V155" s="25"/>
+      <c r="W155" s="3"/>
+    </row>
+    <row r="156" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
       <c r="D156" s="8"/>
       <c r="E156" s="8"/>
       <c r="F156" s="9"/>
-      <c r="G156" s="25"/>
       <c r="H156" s="25"/>
       <c r="I156" s="25"/>
       <c r="J156" s="25"/>
@@ -13620,16 +13858,16 @@
       <c r="S156" s="25"/>
       <c r="T156" s="25"/>
       <c r="U156" s="25"/>
-      <c r="V156" s="3"/>
-    </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V156" s="25"/>
+      <c r="W156" s="3"/>
+    </row>
+    <row r="157" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
       <c r="D157" s="8"/>
       <c r="E157" s="8"/>
       <c r="F157" s="9"/>
-      <c r="G157" s="25"/>
       <c r="H157" s="25"/>
       <c r="I157" s="25"/>
       <c r="J157" s="25"/>
@@ -13644,16 +13882,16 @@
       <c r="S157" s="25"/>
       <c r="T157" s="25"/>
       <c r="U157" s="25"/>
-      <c r="V157" s="3"/>
-    </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V157" s="25"/>
+      <c r="W157" s="3"/>
+    </row>
+    <row r="158" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
       <c r="D158" s="8"/>
       <c r="E158" s="8"/>
       <c r="F158" s="9"/>
-      <c r="G158" s="25"/>
       <c r="H158" s="25"/>
       <c r="I158" s="25"/>
       <c r="J158" s="25"/>
@@ -13668,16 +13906,16 @@
       <c r="S158" s="25"/>
       <c r="T158" s="25"/>
       <c r="U158" s="25"/>
-      <c r="V158" s="3"/>
-    </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V158" s="25"/>
+      <c r="W158" s="3"/>
+    </row>
+    <row r="159" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
       <c r="D159" s="8"/>
       <c r="E159" s="8"/>
       <c r="F159" s="9"/>
-      <c r="G159" s="25"/>
       <c r="H159" s="25"/>
       <c r="I159" s="25"/>
       <c r="J159" s="25"/>
@@ -13692,16 +13930,16 @@
       <c r="S159" s="25"/>
       <c r="T159" s="25"/>
       <c r="U159" s="25"/>
-      <c r="V159" s="3"/>
-    </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V159" s="25"/>
+      <c r="W159" s="3"/>
+    </row>
+    <row r="160" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
       <c r="D160" s="8"/>
       <c r="E160" s="8"/>
       <c r="F160" s="9"/>
-      <c r="G160" s="25"/>
       <c r="H160" s="25"/>
       <c r="I160" s="25"/>
       <c r="J160" s="25"/>
@@ -13716,16 +13954,16 @@
       <c r="S160" s="25"/>
       <c r="T160" s="25"/>
       <c r="U160" s="25"/>
-      <c r="V160" s="3"/>
-    </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V160" s="25"/>
+      <c r="W160" s="3"/>
+    </row>
+    <row r="161" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
       <c r="E161" s="8"/>
       <c r="F161" s="9"/>
-      <c r="G161" s="25"/>
       <c r="H161" s="25"/>
       <c r="I161" s="25"/>
       <c r="J161" s="25"/>
@@ -13740,16 +13978,16 @@
       <c r="S161" s="25"/>
       <c r="T161" s="25"/>
       <c r="U161" s="25"/>
-      <c r="V161" s="3"/>
-    </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V161" s="25"/>
+      <c r="W161" s="3"/>
+    </row>
+    <row r="162" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
       <c r="D162" s="8"/>
       <c r="E162" s="8"/>
       <c r="F162" s="9"/>
-      <c r="G162" s="25"/>
       <c r="H162" s="25"/>
       <c r="I162" s="25"/>
       <c r="J162" s="25"/>
@@ -13764,16 +14002,16 @@
       <c r="S162" s="25"/>
       <c r="T162" s="25"/>
       <c r="U162" s="25"/>
-      <c r="V162" s="3"/>
-    </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V162" s="25"/>
+      <c r="W162" s="3"/>
+    </row>
+    <row r="163" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
       <c r="D163" s="8"/>
       <c r="E163" s="8"/>
       <c r="F163" s="9"/>
-      <c r="G163" s="25"/>
       <c r="H163" s="25"/>
       <c r="I163" s="25"/>
       <c r="J163" s="25"/>
@@ -13788,16 +14026,16 @@
       <c r="S163" s="25"/>
       <c r="T163" s="25"/>
       <c r="U163" s="25"/>
-      <c r="V163" s="3"/>
-    </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V163" s="25"/>
+      <c r="W163" s="3"/>
+    </row>
+    <row r="164" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
       <c r="D164" s="8"/>
       <c r="E164" s="8"/>
       <c r="F164" s="9"/>
-      <c r="G164" s="25"/>
       <c r="H164" s="25"/>
       <c r="I164" s="25"/>
       <c r="J164" s="25"/>
@@ -13812,16 +14050,16 @@
       <c r="S164" s="25"/>
       <c r="T164" s="25"/>
       <c r="U164" s="25"/>
-      <c r="V164" s="3"/>
-    </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V164" s="25"/>
+      <c r="W164" s="3"/>
+    </row>
+    <row r="165" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
       <c r="D165" s="8"/>
       <c r="E165" s="8"/>
       <c r="F165" s="9"/>
-      <c r="G165" s="25"/>
       <c r="H165" s="25"/>
       <c r="I165" s="25"/>
       <c r="J165" s="25"/>
@@ -13836,16 +14074,16 @@
       <c r="S165" s="25"/>
       <c r="T165" s="25"/>
       <c r="U165" s="25"/>
-      <c r="V165" s="3"/>
-    </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V165" s="25"/>
+      <c r="W165" s="3"/>
+    </row>
+    <row r="166" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
       <c r="D166" s="8"/>
       <c r="E166" s="8"/>
       <c r="F166" s="9"/>
-      <c r="G166" s="25"/>
       <c r="H166" s="25"/>
       <c r="I166" s="25"/>
       <c r="J166" s="25"/>
@@ -13860,16 +14098,16 @@
       <c r="S166" s="25"/>
       <c r="T166" s="25"/>
       <c r="U166" s="25"/>
-      <c r="V166" s="3"/>
-    </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V166" s="25"/>
+      <c r="W166" s="3"/>
+    </row>
+    <row r="167" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
       <c r="D167" s="8"/>
       <c r="E167" s="8"/>
       <c r="F167" s="9"/>
-      <c r="G167" s="25"/>
       <c r="H167" s="25"/>
       <c r="I167" s="25"/>
       <c r="J167" s="25"/>
@@ -13884,16 +14122,16 @@
       <c r="S167" s="25"/>
       <c r="T167" s="25"/>
       <c r="U167" s="25"/>
-      <c r="V167" s="3"/>
-    </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V167" s="25"/>
+      <c r="W167" s="3"/>
+    </row>
+    <row r="168" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
       <c r="D168" s="8"/>
       <c r="E168" s="8"/>
       <c r="F168" s="9"/>
-      <c r="G168" s="25"/>
       <c r="H168" s="25"/>
       <c r="I168" s="25"/>
       <c r="J168" s="25"/>
@@ -13908,16 +14146,16 @@
       <c r="S168" s="25"/>
       <c r="T168" s="25"/>
       <c r="U168" s="25"/>
-      <c r="V168" s="3"/>
-    </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V168" s="25"/>
+      <c r="W168" s="3"/>
+    </row>
+    <row r="169" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
       <c r="D169" s="8"/>
       <c r="E169" s="8"/>
       <c r="F169" s="9"/>
-      <c r="G169" s="25"/>
       <c r="H169" s="25"/>
       <c r="I169" s="25"/>
       <c r="J169" s="25"/>
@@ -13932,16 +14170,16 @@
       <c r="S169" s="25"/>
       <c r="T169" s="25"/>
       <c r="U169" s="25"/>
-      <c r="V169" s="3"/>
-    </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V169" s="25"/>
+      <c r="W169" s="3"/>
+    </row>
+    <row r="170" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
       <c r="D170" s="8"/>
       <c r="E170" s="8"/>
       <c r="F170" s="9"/>
-      <c r="G170" s="25"/>
       <c r="H170" s="25"/>
       <c r="I170" s="25"/>
       <c r="J170" s="25"/>
@@ -13956,16 +14194,16 @@
       <c r="S170" s="25"/>
       <c r="T170" s="25"/>
       <c r="U170" s="25"/>
-      <c r="V170" s="3"/>
-    </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V170" s="25"/>
+      <c r="W170" s="3"/>
+    </row>
+    <row r="171" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
       <c r="D171" s="8"/>
       <c r="E171" s="8"/>
       <c r="F171" s="9"/>
-      <c r="G171" s="25"/>
       <c r="H171" s="25"/>
       <c r="I171" s="25"/>
       <c r="J171" s="25"/>
@@ -13980,16 +14218,16 @@
       <c r="S171" s="25"/>
       <c r="T171" s="25"/>
       <c r="U171" s="25"/>
-      <c r="V171" s="3"/>
-    </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V171" s="25"/>
+      <c r="W171" s="3"/>
+    </row>
+    <row r="172" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
       <c r="D172" s="8"/>
       <c r="E172" s="8"/>
       <c r="F172" s="9"/>
-      <c r="G172" s="25"/>
       <c r="H172" s="25"/>
       <c r="I172" s="25"/>
       <c r="J172" s="25"/>
@@ -14004,16 +14242,16 @@
       <c r="S172" s="25"/>
       <c r="T172" s="25"/>
       <c r="U172" s="25"/>
-      <c r="V172" s="3"/>
-    </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V172" s="25"/>
+      <c r="W172" s="3"/>
+    </row>
+    <row r="173" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
       <c r="D173" s="8"/>
       <c r="E173" s="8"/>
       <c r="F173" s="9"/>
-      <c r="G173" s="25"/>
       <c r="H173" s="25"/>
       <c r="I173" s="25"/>
       <c r="J173" s="25"/>
@@ -14028,16 +14266,16 @@
       <c r="S173" s="25"/>
       <c r="T173" s="25"/>
       <c r="U173" s="25"/>
-      <c r="V173" s="3"/>
-    </row>
-    <row r="174" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V173" s="25"/>
+      <c r="W173" s="3"/>
+    </row>
+    <row r="174" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
       <c r="D174" s="8"/>
       <c r="E174" s="8"/>
       <c r="F174" s="9"/>
-      <c r="G174" s="25"/>
       <c r="H174" s="25"/>
       <c r="I174" s="25"/>
       <c r="J174" s="25"/>
@@ -14052,16 +14290,16 @@
       <c r="S174" s="25"/>
       <c r="T174" s="25"/>
       <c r="U174" s="25"/>
-      <c r="V174" s="3"/>
-    </row>
-    <row r="175" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V174" s="25"/>
+      <c r="W174" s="3"/>
+    </row>
+    <row r="175" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
       <c r="D175" s="8"/>
       <c r="E175" s="8"/>
       <c r="F175" s="9"/>
-      <c r="G175" s="25"/>
       <c r="H175" s="25"/>
       <c r="I175" s="25"/>
       <c r="J175" s="25"/>
@@ -14076,16 +14314,16 @@
       <c r="S175" s="25"/>
       <c r="T175" s="25"/>
       <c r="U175" s="25"/>
-      <c r="V175" s="3"/>
-    </row>
-    <row r="176" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V175" s="25"/>
+      <c r="W175" s="3"/>
+    </row>
+    <row r="176" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
       <c r="D176" s="8"/>
       <c r="E176" s="8"/>
       <c r="F176" s="9"/>
-      <c r="G176" s="25"/>
       <c r="H176" s="25"/>
       <c r="I176" s="25"/>
       <c r="J176" s="25"/>
@@ -14100,16 +14338,16 @@
       <c r="S176" s="25"/>
       <c r="T176" s="25"/>
       <c r="U176" s="25"/>
-      <c r="V176" s="3"/>
-    </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V176" s="25"/>
+      <c r="W176" s="3"/>
+    </row>
+    <row r="177" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="8"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
       <c r="D177" s="8"/>
       <c r="E177" s="8"/>
       <c r="F177" s="9"/>
-      <c r="G177" s="25"/>
       <c r="H177" s="25"/>
       <c r="I177" s="25"/>
       <c r="J177" s="25"/>
@@ -14124,16 +14362,16 @@
       <c r="S177" s="25"/>
       <c r="T177" s="25"/>
       <c r="U177" s="25"/>
-      <c r="V177" s="3"/>
-    </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V177" s="25"/>
+      <c r="W177" s="3"/>
+    </row>
+    <row r="178" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="8"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
       <c r="D178" s="8"/>
       <c r="E178" s="8"/>
       <c r="F178" s="9"/>
-      <c r="G178" s="25"/>
       <c r="H178" s="25"/>
       <c r="I178" s="25"/>
       <c r="J178" s="25"/>
@@ -14148,16 +14386,16 @@
       <c r="S178" s="25"/>
       <c r="T178" s="25"/>
       <c r="U178" s="25"/>
-      <c r="V178" s="3"/>
-    </row>
-    <row r="179" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V178" s="25"/>
+      <c r="W178" s="3"/>
+    </row>
+    <row r="179" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
       <c r="D179" s="8"/>
       <c r="E179" s="8"/>
       <c r="F179" s="9"/>
-      <c r="G179" s="25"/>
       <c r="H179" s="25"/>
       <c r="I179" s="25"/>
       <c r="J179" s="25"/>
@@ -14172,16 +14410,16 @@
       <c r="S179" s="25"/>
       <c r="T179" s="25"/>
       <c r="U179" s="25"/>
-      <c r="V179" s="3"/>
-    </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V179" s="25"/>
+      <c r="W179" s="3"/>
+    </row>
+    <row r="180" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
       <c r="D180" s="8"/>
       <c r="E180" s="8"/>
       <c r="F180" s="9"/>
-      <c r="G180" s="25"/>
       <c r="H180" s="25"/>
       <c r="I180" s="25"/>
       <c r="J180" s="25"/>
@@ -14196,16 +14434,16 @@
       <c r="S180" s="25"/>
       <c r="T180" s="25"/>
       <c r="U180" s="25"/>
-      <c r="V180" s="3"/>
-    </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V180" s="25"/>
+      <c r="W180" s="3"/>
+    </row>
+    <row r="181" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="8"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
       <c r="D181" s="8"/>
       <c r="E181" s="8"/>
       <c r="F181" s="9"/>
-      <c r="G181" s="25"/>
       <c r="H181" s="25"/>
       <c r="I181" s="25"/>
       <c r="J181" s="25"/>
@@ -14220,16 +14458,16 @@
       <c r="S181" s="25"/>
       <c r="T181" s="25"/>
       <c r="U181" s="25"/>
-      <c r="V181" s="3"/>
-    </row>
-    <row r="182" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V181" s="25"/>
+      <c r="W181" s="3"/>
+    </row>
+    <row r="182" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="8"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
       <c r="D182" s="8"/>
       <c r="E182" s="8"/>
       <c r="F182" s="9"/>
-      <c r="G182" s="25"/>
       <c r="H182" s="25"/>
       <c r="I182" s="25"/>
       <c r="J182" s="25"/>
@@ -14244,16 +14482,16 @@
       <c r="S182" s="25"/>
       <c r="T182" s="25"/>
       <c r="U182" s="25"/>
-      <c r="V182" s="3"/>
-    </row>
-    <row r="183" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V182" s="25"/>
+      <c r="W182" s="3"/>
+    </row>
+    <row r="183" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="8"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
       <c r="D183" s="8"/>
       <c r="E183" s="8"/>
       <c r="F183" s="9"/>
-      <c r="G183" s="25"/>
       <c r="H183" s="25"/>
       <c r="I183" s="25"/>
       <c r="J183" s="25"/>
@@ -14268,16 +14506,16 @@
       <c r="S183" s="25"/>
       <c r="T183" s="25"/>
       <c r="U183" s="25"/>
-      <c r="V183" s="3"/>
-    </row>
-    <row r="184" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V183" s="25"/>
+      <c r="W183" s="3"/>
+    </row>
+    <row r="184" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="8"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
       <c r="D184" s="8"/>
       <c r="E184" s="8"/>
       <c r="F184" s="9"/>
-      <c r="G184" s="25"/>
       <c r="H184" s="25"/>
       <c r="I184" s="25"/>
       <c r="J184" s="25"/>
@@ -14292,16 +14530,16 @@
       <c r="S184" s="25"/>
       <c r="T184" s="25"/>
       <c r="U184" s="25"/>
-      <c r="V184" s="3"/>
-    </row>
-    <row r="185" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V184" s="25"/>
+      <c r="W184" s="3"/>
+    </row>
+    <row r="185" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="8"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
       <c r="D185" s="8"/>
       <c r="E185" s="8"/>
       <c r="F185" s="9"/>
-      <c r="G185" s="25"/>
       <c r="H185" s="25"/>
       <c r="I185" s="25"/>
       <c r="J185" s="25"/>
@@ -14316,16 +14554,16 @@
       <c r="S185" s="25"/>
       <c r="T185" s="25"/>
       <c r="U185" s="25"/>
-      <c r="V185" s="3"/>
-    </row>
-    <row r="186" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V185" s="25"/>
+      <c r="W185" s="3"/>
+    </row>
+    <row r="186" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="8"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
       <c r="D186" s="8"/>
       <c r="E186" s="8"/>
       <c r="F186" s="9"/>
-      <c r="G186" s="25"/>
       <c r="H186" s="25"/>
       <c r="I186" s="25"/>
       <c r="J186" s="25"/>
@@ -14340,16 +14578,16 @@
       <c r="S186" s="25"/>
       <c r="T186" s="25"/>
       <c r="U186" s="25"/>
-      <c r="V186" s="3"/>
-    </row>
-    <row r="187" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V186" s="25"/>
+      <c r="W186" s="3"/>
+    </row>
+    <row r="187" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="8"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
       <c r="D187" s="8"/>
       <c r="E187" s="8"/>
       <c r="F187" s="9"/>
-      <c r="G187" s="25"/>
       <c r="H187" s="25"/>
       <c r="I187" s="25"/>
       <c r="J187" s="25"/>
@@ -14364,16 +14602,16 @@
       <c r="S187" s="25"/>
       <c r="T187" s="25"/>
       <c r="U187" s="25"/>
-      <c r="V187" s="3"/>
-    </row>
-    <row r="188" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V187" s="25"/>
+      <c r="W187" s="3"/>
+    </row>
+    <row r="188" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="8"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
       <c r="D188" s="8"/>
       <c r="E188" s="8"/>
       <c r="F188" s="9"/>
-      <c r="G188" s="25"/>
       <c r="H188" s="25"/>
       <c r="I188" s="25"/>
       <c r="J188" s="25"/>
@@ -14388,16 +14626,16 @@
       <c r="S188" s="25"/>
       <c r="T188" s="25"/>
       <c r="U188" s="25"/>
-      <c r="V188" s="3"/>
-    </row>
-    <row r="189" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V188" s="25"/>
+      <c r="W188" s="3"/>
+    </row>
+    <row r="189" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="8"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
       <c r="D189" s="8"/>
       <c r="E189" s="8"/>
       <c r="F189" s="9"/>
-      <c r="G189" s="25"/>
       <c r="H189" s="25"/>
       <c r="I189" s="25"/>
       <c r="J189" s="25"/>
@@ -14412,16 +14650,16 @@
       <c r="S189" s="25"/>
       <c r="T189" s="25"/>
       <c r="U189" s="25"/>
-      <c r="V189" s="3"/>
-    </row>
-    <row r="190" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V189" s="25"/>
+      <c r="W189" s="3"/>
+    </row>
+    <row r="190" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="8"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
       <c r="D190" s="8"/>
       <c r="E190" s="8"/>
       <c r="F190" s="9"/>
-      <c r="G190" s="25"/>
       <c r="H190" s="25"/>
       <c r="I190" s="25"/>
       <c r="J190" s="25"/>
@@ -14436,16 +14674,16 @@
       <c r="S190" s="25"/>
       <c r="T190" s="25"/>
       <c r="U190" s="25"/>
-      <c r="V190" s="3"/>
-    </row>
-    <row r="191" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V190" s="25"/>
+      <c r="W190" s="3"/>
+    </row>
+    <row r="191" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="8"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
       <c r="D191" s="8"/>
       <c r="E191" s="8"/>
       <c r="F191" s="9"/>
-      <c r="G191" s="25"/>
       <c r="H191" s="25"/>
       <c r="I191" s="25"/>
       <c r="J191" s="25"/>
@@ -14460,16 +14698,16 @@
       <c r="S191" s="25"/>
       <c r="T191" s="25"/>
       <c r="U191" s="25"/>
-      <c r="V191" s="3"/>
-    </row>
-    <row r="192" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V191" s="25"/>
+      <c r="W191" s="3"/>
+    </row>
+    <row r="192" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="8"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
       <c r="D192" s="8"/>
       <c r="E192" s="8"/>
       <c r="F192" s="9"/>
-      <c r="G192" s="25"/>
       <c r="H192" s="25"/>
       <c r="I192" s="25"/>
       <c r="J192" s="25"/>
@@ -14484,16 +14722,16 @@
       <c r="S192" s="25"/>
       <c r="T192" s="25"/>
       <c r="U192" s="25"/>
-      <c r="V192" s="3"/>
-    </row>
-    <row r="193" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V192" s="25"/>
+      <c r="W192" s="3"/>
+    </row>
+    <row r="193" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="8"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
       <c r="D193" s="8"/>
       <c r="E193" s="8"/>
       <c r="F193" s="9"/>
-      <c r="G193" s="25"/>
       <c r="H193" s="25"/>
       <c r="I193" s="25"/>
       <c r="J193" s="25"/>
@@ -14508,16 +14746,16 @@
       <c r="S193" s="25"/>
       <c r="T193" s="25"/>
       <c r="U193" s="25"/>
-      <c r="V193" s="3"/>
-    </row>
-    <row r="194" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V193" s="25"/>
+      <c r="W193" s="3"/>
+    </row>
+    <row r="194" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="8"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
       <c r="D194" s="8"/>
       <c r="E194" s="8"/>
       <c r="F194" s="9"/>
-      <c r="G194" s="25"/>
       <c r="H194" s="25"/>
       <c r="I194" s="25"/>
       <c r="J194" s="25"/>
@@ -14532,16 +14770,16 @@
       <c r="S194" s="25"/>
       <c r="T194" s="25"/>
       <c r="U194" s="25"/>
-      <c r="V194" s="3"/>
-    </row>
-    <row r="195" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V194" s="25"/>
+      <c r="W194" s="3"/>
+    </row>
+    <row r="195" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="8"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
       <c r="D195" s="8"/>
       <c r="E195" s="8"/>
       <c r="F195" s="9"/>
-      <c r="G195" s="25"/>
       <c r="H195" s="25"/>
       <c r="I195" s="25"/>
       <c r="J195" s="25"/>
@@ -14556,16 +14794,16 @@
       <c r="S195" s="25"/>
       <c r="T195" s="25"/>
       <c r="U195" s="25"/>
-      <c r="V195" s="3"/>
-    </row>
-    <row r="196" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V195" s="25"/>
+      <c r="W195" s="3"/>
+    </row>
+    <row r="196" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="8"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
       <c r="D196" s="8"/>
       <c r="E196" s="8"/>
       <c r="F196" s="9"/>
-      <c r="G196" s="25"/>
       <c r="H196" s="25"/>
       <c r="I196" s="25"/>
       <c r="J196" s="25"/>
@@ -14580,16 +14818,16 @@
       <c r="S196" s="25"/>
       <c r="T196" s="25"/>
       <c r="U196" s="25"/>
-      <c r="V196" s="3"/>
-    </row>
-    <row r="197" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V196" s="25"/>
+      <c r="W196" s="3"/>
+    </row>
+    <row r="197" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="8"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
       <c r="D197" s="8"/>
       <c r="E197" s="8"/>
       <c r="F197" s="9"/>
-      <c r="G197" s="25"/>
       <c r="H197" s="25"/>
       <c r="I197" s="25"/>
       <c r="J197" s="25"/>
@@ -14604,16 +14842,16 @@
       <c r="S197" s="25"/>
       <c r="T197" s="25"/>
       <c r="U197" s="25"/>
-      <c r="V197" s="3"/>
-    </row>
-    <row r="198" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V197" s="25"/>
+      <c r="W197" s="3"/>
+    </row>
+    <row r="198" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="8"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
       <c r="D198" s="8"/>
       <c r="E198" s="8"/>
       <c r="F198" s="9"/>
-      <c r="G198" s="25"/>
       <c r="H198" s="25"/>
       <c r="I198" s="25"/>
       <c r="J198" s="25"/>
@@ -14628,16 +14866,16 @@
       <c r="S198" s="25"/>
       <c r="T198" s="25"/>
       <c r="U198" s="25"/>
-      <c r="V198" s="3"/>
-    </row>
-    <row r="199" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V198" s="25"/>
+      <c r="W198" s="3"/>
+    </row>
+    <row r="199" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="8"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
       <c r="D199" s="8"/>
       <c r="E199" s="8"/>
       <c r="F199" s="9"/>
-      <c r="G199" s="25"/>
       <c r="H199" s="25"/>
       <c r="I199" s="25"/>
       <c r="J199" s="25"/>
@@ -14652,16 +14890,16 @@
       <c r="S199" s="25"/>
       <c r="T199" s="25"/>
       <c r="U199" s="25"/>
-      <c r="V199" s="3"/>
-    </row>
-    <row r="200" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V199" s="25"/>
+      <c r="W199" s="3"/>
+    </row>
+    <row r="200" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="8"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
       <c r="D200" s="8"/>
       <c r="E200" s="8"/>
       <c r="F200" s="9"/>
-      <c r="G200" s="25"/>
       <c r="H200" s="25"/>
       <c r="I200" s="25"/>
       <c r="J200" s="25"/>
@@ -14676,16 +14914,16 @@
       <c r="S200" s="25"/>
       <c r="T200" s="25"/>
       <c r="U200" s="25"/>
-      <c r="V200" s="3"/>
-    </row>
-    <row r="201" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V200" s="25"/>
+      <c r="W200" s="3"/>
+    </row>
+    <row r="201" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="8"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
       <c r="D201" s="8"/>
       <c r="E201" s="8"/>
       <c r="F201" s="9"/>
-      <c r="G201" s="25"/>
       <c r="H201" s="25"/>
       <c r="I201" s="25"/>
       <c r="J201" s="25"/>
@@ -14700,7 +14938,8 @@
       <c r="S201" s="25"/>
       <c r="T201" s="25"/>
       <c r="U201" s="25"/>
-      <c r="V201" s="3"/>
+      <c r="V201" s="25"/>
+      <c r="W201" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -14711,17 +14950,17 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Status" error="Please select a supported Status." sqref="E2:E1048576" xr:uid="{E4E44019-3B35-4B46-AB56-CBA9A747E3AA}">
       <formula1>"Active,Inactive"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:S1048576" xr:uid="{4619DB89-2596-4A90-8B24-A3BF136CF673}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:T1048576" xr:uid="{4619DB89-2596-4A90-8B24-A3BF136CF673}">
       <formula1>0</formula1>
       <formula2>32767</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576" xr:uid="{AFEB2A73-72D6-4EEB-9862-5FFFE53DF683}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576" xr:uid="{AFEB2A73-72D6-4EEB-9862-5FFFE53DF683}">
       <formula1>"Verbose, Trace, Information, Warning, Error, Critical, Off"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:J1048576 T2:U1048576 M2:M1048576 O2:P1048576" xr:uid="{B5E6E82F-20DE-4CF7-A3C7-05DC586DFBD7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:K1048576 U2:V1048576 N2:N1048576 P2:Q1048576 G2:G1048576" xr:uid="{B5E6E82F-20DE-4CF7-A3C7-05DC586DFBD7}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{9791015B-8956-4B9E-831E-F8DAD2116E7B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576" xr:uid="{9791015B-8956-4B9E-831E-F8DAD2116E7B}">
       <formula1>"NonProduction, Attended, Unattended, Studio, Development, StudioX, Headless, StudioPro, TestAutomation"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14758,7 +14997,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -15794,16 +16033,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -17040,16 +17279,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">

--- a/Workbooks/JA/ユーザー.xlsx
+++ b/Workbooks/JA/ユーザー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4F23FD-D44B-40B8-A441-83B7EEF158C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFCE773-6A5A-4DC3-93E7-F3E8B23FD490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63030" yWindow="690" windowWidth="28800" windowHeight="11265" tabRatio="774" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4940" yWindow="4940" windowWidth="28800" windowHeight="15460" tabRatio="774" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
   <si>
     <t>タイプ</t>
     <phoneticPr fontId="3"/>
@@ -77,6 +77,10 @@
   </si>
   <si>
     <t>ユーザー名 *</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ドメイン名 (ディレクトリ)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -566,7 +570,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="84">
+  <dxfs count="85">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -1548,6 +1552,33 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="5"/>
@@ -1872,28 +1903,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:I201" headerRowDxfId="83" dataDxfId="81" totalsRowDxfId="79" headerRowBorderDxfId="82" tableBorderDxfId="80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:I201" headerRowDxfId="84" dataDxfId="82" totalsRowDxfId="80" headerRowBorderDxfId="83" tableBorderDxfId="81">
   <autoFilter ref="A1:I201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{06CD766F-781E-4B1E-8E49-C07F180816BA}" name="タイプ" dataDxfId="78" totalsRowDxfId="77"/>
-    <tableColumn id="8" xr3:uid="{1372863E-1574-486C-96A5-9F8A48DBEB17}" name="ID" dataDxfId="76"/>
-    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="ユーザー名" dataDxfId="75"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="名" totalsRowLabel="Total" dataDxfId="74"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="姓" dataDxfId="73"/>
-    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="メールアドレス" dataDxfId="72"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="組織単位名" totalsRowFunction="count" dataDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="ロール名" dataDxfId="70"/>
-    <tableColumn id="4" xr3:uid="{73F4371D-09E6-432B-A8D2-FDF51584A3F9}" name="ステータス" dataDxfId="69"/>
+    <tableColumn id="9" xr3:uid="{06CD766F-781E-4B1E-8E49-C07F180816BA}" name="タイプ" dataDxfId="79" totalsRowDxfId="78"/>
+    <tableColumn id="8" xr3:uid="{1372863E-1574-486C-96A5-9F8A48DBEB17}" name="ID" dataDxfId="77"/>
+    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="ユーザー名" dataDxfId="76"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="名" totalsRowLabel="Total" dataDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="姓" dataDxfId="74"/>
+    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="メールアドレス" dataDxfId="73"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="組織単位名" totalsRowFunction="count" dataDxfId="72"/>
+    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="ロール名" dataDxfId="71"/>
+    <tableColumn id="4" xr3:uid="{73F4371D-09E6-432B-A8D2-FDF51584A3F9}" name="ステータス" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:Y201" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
-  <autoFilter ref="A1:Y201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="25">
-    <tableColumn id="10" xr3:uid="{65749B7E-1278-4BF9-BE0E-B0B1A7EBF445}" name="ユーザー名 *" dataDxfId="66"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:Z201" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
+  <autoFilter ref="A1:Z201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="26">
+    <tableColumn id="10" xr3:uid="{65749B7E-1278-4BF9-BE0E-B0B1A7EBF445}" name="ユーザー名 *" dataDxfId="67"/>
+    <tableColumn id="26" xr3:uid="{038ED767-0AD3-4903-8220-FE18439B9060}" name="ドメイン名 (ディレクトリ)" dataDxfId="66"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="名" dataDxfId="65"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="姓" dataDxfId="64"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="メールアドレス" dataDxfId="63"/>
@@ -4526,7 +4558,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Y201"/>
+  <dimension ref="A1:Z201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -4534,17 +4566,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="25.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.75" style="2" customWidth="1"/>
-    <col min="5" max="6" width="45.75" style="2" customWidth="1"/>
-    <col min="7" max="23" width="25.75" style="2" customWidth="1"/>
-    <col min="24" max="24" width="15.75" style="2" customWidth="1"/>
-    <col min="25" max="25" width="45.75" style="2" customWidth="1"/>
-    <col min="26" max="26" width="11.25" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="8.75" style="2"/>
+    <col min="1" max="4" width="25.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.75" style="2" customWidth="1"/>
+    <col min="6" max="7" width="45.75" style="2" customWidth="1"/>
+    <col min="8" max="24" width="25.75" style="2" customWidth="1"/>
+    <col min="25" max="25" width="15.75" style="2" customWidth="1"/>
+    <col min="26" max="26" width="45.75" style="2" customWidth="1"/>
+    <col min="27" max="27" width="11.25" style="2" customWidth="1"/>
+    <col min="28" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:26" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
@@ -4563,10 +4595,10 @@
       <c r="F1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="9" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="25" t="s">
@@ -4614,22 +4646,25 @@
       <c r="W1" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="X1" s="25" t="s">
         <v>32</v>
       </c>
       <c r="Y1" s="21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z1" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="26"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
       <c r="I2" s="26"/>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
@@ -4645,18 +4680,19 @@
       <c r="U2" s="26"/>
       <c r="V2" s="26"/>
       <c r="W2" s="26"/>
-      <c r="X2" s="3"/>
+      <c r="X2" s="26"/>
       <c r="Y2" s="3"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z2" s="3"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="25"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
       <c r="K3" s="25"/>
@@ -4672,18 +4708,19 @@
       <c r="U3" s="25"/>
       <c r="V3" s="25"/>
       <c r="W3" s="25"/>
-      <c r="X3" s="3"/>
+      <c r="X3" s="25"/>
       <c r="Y3" s="3"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z3" s="3"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="25"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
@@ -4699,18 +4736,19 @@
       <c r="U4" s="25"/>
       <c r="V4" s="25"/>
       <c r="W4" s="25"/>
-      <c r="X4" s="3"/>
+      <c r="X4" s="25"/>
       <c r="Y4" s="3"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z4" s="3"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="25"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
       <c r="K5" s="25"/>
@@ -4726,18 +4764,19 @@
       <c r="U5" s="25"/>
       <c r="V5" s="25"/>
       <c r="W5" s="25"/>
-      <c r="X5" s="3"/>
+      <c r="X5" s="25"/>
       <c r="Y5" s="3"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z5" s="3"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="25"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
       <c r="K6" s="25"/>
@@ -4753,18 +4792,19 @@
       <c r="U6" s="25"/>
       <c r="V6" s="25"/>
       <c r="W6" s="25"/>
-      <c r="X6" s="3"/>
+      <c r="X6" s="25"/>
       <c r="Y6" s="3"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z6" s="3"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="25"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
       <c r="K7" s="25"/>
@@ -4780,18 +4820,19 @@
       <c r="U7" s="25"/>
       <c r="V7" s="25"/>
       <c r="W7" s="25"/>
-      <c r="X7" s="3"/>
+      <c r="X7" s="25"/>
       <c r="Y7" s="3"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z7" s="3"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="25"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
@@ -4807,18 +4848,19 @@
       <c r="U8" s="25"/>
       <c r="V8" s="25"/>
       <c r="W8" s="25"/>
-      <c r="X8" s="3"/>
+      <c r="X8" s="25"/>
       <c r="Y8" s="3"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z8" s="3"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="25"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
@@ -4834,18 +4876,19 @@
       <c r="U9" s="25"/>
       <c r="V9" s="25"/>
       <c r="W9" s="25"/>
-      <c r="X9" s="3"/>
+      <c r="X9" s="25"/>
       <c r="Y9" s="3"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z9" s="3"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="25"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
@@ -4861,18 +4904,19 @@
       <c r="U10" s="25"/>
       <c r="V10" s="25"/>
       <c r="W10" s="25"/>
-      <c r="X10" s="3"/>
+      <c r="X10" s="25"/>
       <c r="Y10" s="3"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z10" s="3"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="25"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
@@ -4888,18 +4932,19 @@
       <c r="U11" s="25"/>
       <c r="V11" s="25"/>
       <c r="W11" s="25"/>
-      <c r="X11" s="3"/>
+      <c r="X11" s="25"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="25"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
@@ -4915,18 +4960,19 @@
       <c r="U12" s="25"/>
       <c r="V12" s="25"/>
       <c r="W12" s="25"/>
-      <c r="X12" s="3"/>
+      <c r="X12" s="25"/>
       <c r="Y12" s="3"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z12" s="3"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="25"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
       <c r="I13" s="25"/>
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
@@ -4942,18 +4988,19 @@
       <c r="U13" s="25"/>
       <c r="V13" s="25"/>
       <c r="W13" s="25"/>
-      <c r="X13" s="3"/>
+      <c r="X13" s="25"/>
       <c r="Y13" s="3"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z13" s="3"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="25"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
       <c r="K14" s="25"/>
@@ -4969,18 +5016,19 @@
       <c r="U14" s="25"/>
       <c r="V14" s="25"/>
       <c r="W14" s="25"/>
-      <c r="X14" s="3"/>
+      <c r="X14" s="25"/>
       <c r="Y14" s="3"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z14" s="3"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="25"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
@@ -4996,18 +5044,19 @@
       <c r="U15" s="25"/>
       <c r="V15" s="25"/>
       <c r="W15" s="25"/>
-      <c r="X15" s="3"/>
+      <c r="X15" s="25"/>
       <c r="Y15" s="3"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z15" s="3"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="25"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
       <c r="K16" s="25"/>
@@ -5023,18 +5072,19 @@
       <c r="U16" s="25"/>
       <c r="V16" s="25"/>
       <c r="W16" s="25"/>
-      <c r="X16" s="3"/>
+      <c r="X16" s="25"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="25"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
@@ -5050,18 +5100,19 @@
       <c r="U17" s="25"/>
       <c r="V17" s="25"/>
       <c r="W17" s="25"/>
-      <c r="X17" s="3"/>
+      <c r="X17" s="25"/>
       <c r="Y17" s="3"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z17" s="3"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="25"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
@@ -5077,18 +5128,19 @@
       <c r="U18" s="25"/>
       <c r="V18" s="25"/>
       <c r="W18" s="25"/>
-      <c r="X18" s="3"/>
+      <c r="X18" s="25"/>
       <c r="Y18" s="3"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z18" s="3"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="25"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
@@ -5104,18 +5156,19 @@
       <c r="U19" s="25"/>
       <c r="V19" s="25"/>
       <c r="W19" s="25"/>
-      <c r="X19" s="3"/>
+      <c r="X19" s="25"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="25"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
@@ -5131,18 +5184,19 @@
       <c r="U20" s="25"/>
       <c r="V20" s="25"/>
       <c r="W20" s="25"/>
-      <c r="X20" s="3"/>
+      <c r="X20" s="25"/>
       <c r="Y20" s="3"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z20" s="3"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="25"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
@@ -5158,18 +5212,19 @@
       <c r="U21" s="25"/>
       <c r="V21" s="25"/>
       <c r="W21" s="25"/>
-      <c r="X21" s="3"/>
+      <c r="X21" s="25"/>
       <c r="Y21" s="3"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z21" s="3"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="25"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
@@ -5185,18 +5240,19 @@
       <c r="U22" s="25"/>
       <c r="V22" s="25"/>
       <c r="W22" s="25"/>
-      <c r="X22" s="3"/>
+      <c r="X22" s="25"/>
       <c r="Y22" s="3"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z22" s="3"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="25"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
@@ -5212,18 +5268,19 @@
       <c r="U23" s="25"/>
       <c r="V23" s="25"/>
       <c r="W23" s="25"/>
-      <c r="X23" s="3"/>
+      <c r="X23" s="25"/>
       <c r="Y23" s="3"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z23" s="3"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="25"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
       <c r="K24" s="25"/>
@@ -5239,18 +5296,19 @@
       <c r="U24" s="25"/>
       <c r="V24" s="25"/>
       <c r="W24" s="25"/>
-      <c r="X24" s="3"/>
+      <c r="X24" s="25"/>
       <c r="Y24" s="3"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z24" s="3"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="25"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="9"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
@@ -5266,18 +5324,19 @@
       <c r="U25" s="25"/>
       <c r="V25" s="25"/>
       <c r="W25" s="25"/>
-      <c r="X25" s="3"/>
+      <c r="X25" s="25"/>
       <c r="Y25" s="3"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z25" s="3"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="25"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
@@ -5293,18 +5352,19 @@
       <c r="U26" s="25"/>
       <c r="V26" s="25"/>
       <c r="W26" s="25"/>
-      <c r="X26" s="3"/>
+      <c r="X26" s="25"/>
       <c r="Y26" s="3"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z26" s="3"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="25"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
@@ -5320,18 +5380,19 @@
       <c r="U27" s="25"/>
       <c r="V27" s="25"/>
       <c r="W27" s="25"/>
-      <c r="X27" s="3"/>
+      <c r="X27" s="25"/>
       <c r="Y27" s="3"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z27" s="3"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="25"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9"/>
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
@@ -5347,18 +5408,19 @@
       <c r="U28" s="25"/>
       <c r="V28" s="25"/>
       <c r="W28" s="25"/>
-      <c r="X28" s="3"/>
+      <c r="X28" s="25"/>
       <c r="Y28" s="3"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z28" s="3"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="25"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
       <c r="I29" s="25"/>
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
@@ -5374,18 +5436,19 @@
       <c r="U29" s="25"/>
       <c r="V29" s="25"/>
       <c r="W29" s="25"/>
-      <c r="X29" s="3"/>
+      <c r="X29" s="25"/>
       <c r="Y29" s="3"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z29" s="3"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="25"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
       <c r="K30" s="25"/>
@@ -5401,18 +5464,19 @@
       <c r="U30" s="25"/>
       <c r="V30" s="25"/>
       <c r="W30" s="25"/>
-      <c r="X30" s="3"/>
+      <c r="X30" s="25"/>
       <c r="Y30" s="3"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z30" s="3"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="25"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
       <c r="I31" s="25"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
@@ -5428,18 +5492,19 @@
       <c r="U31" s="25"/>
       <c r="V31" s="25"/>
       <c r="W31" s="25"/>
-      <c r="X31" s="3"/>
+      <c r="X31" s="25"/>
       <c r="Y31" s="3"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z31" s="3"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="25"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="9"/>
       <c r="I32" s="25"/>
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
@@ -5455,18 +5520,19 @@
       <c r="U32" s="25"/>
       <c r="V32" s="25"/>
       <c r="W32" s="25"/>
-      <c r="X32" s="3"/>
+      <c r="X32" s="25"/>
       <c r="Y32" s="3"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z32" s="3"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="25"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="9"/>
       <c r="I33" s="25"/>
       <c r="J33" s="25"/>
       <c r="K33" s="25"/>
@@ -5482,18 +5548,19 @@
       <c r="U33" s="25"/>
       <c r="V33" s="25"/>
       <c r="W33" s="25"/>
-      <c r="X33" s="3"/>
+      <c r="X33" s="25"/>
       <c r="Y33" s="3"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z33" s="3"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="25"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="9"/>
       <c r="I34" s="25"/>
       <c r="J34" s="25"/>
       <c r="K34" s="25"/>
@@ -5509,18 +5576,19 @@
       <c r="U34" s="25"/>
       <c r="V34" s="25"/>
       <c r="W34" s="25"/>
-      <c r="X34" s="3"/>
+      <c r="X34" s="25"/>
       <c r="Y34" s="3"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z34" s="3"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="25"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="9"/>
       <c r="I35" s="25"/>
       <c r="J35" s="25"/>
       <c r="K35" s="25"/>
@@ -5536,18 +5604,19 @@
       <c r="U35" s="25"/>
       <c r="V35" s="25"/>
       <c r="W35" s="25"/>
-      <c r="X35" s="3"/>
+      <c r="X35" s="25"/>
       <c r="Y35" s="3"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z35" s="3"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="25"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="9"/>
       <c r="I36" s="25"/>
       <c r="J36" s="25"/>
       <c r="K36" s="25"/>
@@ -5563,18 +5632,19 @@
       <c r="U36" s="25"/>
       <c r="V36" s="25"/>
       <c r="W36" s="25"/>
-      <c r="X36" s="3"/>
+      <c r="X36" s="25"/>
       <c r="Y36" s="3"/>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z36" s="3"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="25"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="9"/>
       <c r="I37" s="25"/>
       <c r="J37" s="25"/>
       <c r="K37" s="25"/>
@@ -5590,18 +5660,19 @@
       <c r="U37" s="25"/>
       <c r="V37" s="25"/>
       <c r="W37" s="25"/>
-      <c r="X37" s="3"/>
+      <c r="X37" s="25"/>
       <c r="Y37" s="3"/>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z37" s="3"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="25"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="9"/>
       <c r="I38" s="25"/>
       <c r="J38" s="25"/>
       <c r="K38" s="25"/>
@@ -5617,18 +5688,19 @@
       <c r="U38" s="25"/>
       <c r="V38" s="25"/>
       <c r="W38" s="25"/>
-      <c r="X38" s="3"/>
+      <c r="X38" s="25"/>
       <c r="Y38" s="3"/>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z38" s="3"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="25"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="9"/>
       <c r="I39" s="25"/>
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
@@ -5644,18 +5716,19 @@
       <c r="U39" s="25"/>
       <c r="V39" s="25"/>
       <c r="W39" s="25"/>
-      <c r="X39" s="3"/>
+      <c r="X39" s="25"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="25"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="9"/>
       <c r="I40" s="25"/>
       <c r="J40" s="25"/>
       <c r="K40" s="25"/>
@@ -5671,18 +5744,19 @@
       <c r="U40" s="25"/>
       <c r="V40" s="25"/>
       <c r="W40" s="25"/>
-      <c r="X40" s="3"/>
+      <c r="X40" s="25"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="25"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="9"/>
       <c r="I41" s="25"/>
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
@@ -5698,18 +5772,19 @@
       <c r="U41" s="25"/>
       <c r="V41" s="25"/>
       <c r="W41" s="25"/>
-      <c r="X41" s="3"/>
+      <c r="X41" s="25"/>
       <c r="Y41" s="3"/>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z41" s="3"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="25"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="9"/>
       <c r="I42" s="25"/>
       <c r="J42" s="25"/>
       <c r="K42" s="25"/>
@@ -5725,18 +5800,19 @@
       <c r="U42" s="25"/>
       <c r="V42" s="25"/>
       <c r="W42" s="25"/>
-      <c r="X42" s="3"/>
+      <c r="X42" s="25"/>
       <c r="Y42" s="3"/>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z42" s="3"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="25"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="9"/>
       <c r="I43" s="25"/>
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
@@ -5752,18 +5828,19 @@
       <c r="U43" s="25"/>
       <c r="V43" s="25"/>
       <c r="W43" s="25"/>
-      <c r="X43" s="3"/>
+      <c r="X43" s="25"/>
       <c r="Y43" s="3"/>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z43" s="3"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="25"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="9"/>
       <c r="I44" s="25"/>
       <c r="J44" s="25"/>
       <c r="K44" s="25"/>
@@ -5779,18 +5856,19 @@
       <c r="U44" s="25"/>
       <c r="V44" s="25"/>
       <c r="W44" s="25"/>
-      <c r="X44" s="3"/>
+      <c r="X44" s="25"/>
       <c r="Y44" s="3"/>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z44" s="3"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="25"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="9"/>
       <c r="I45" s="25"/>
       <c r="J45" s="25"/>
       <c r="K45" s="25"/>
@@ -5806,18 +5884,19 @@
       <c r="U45" s="25"/>
       <c r="V45" s="25"/>
       <c r="W45" s="25"/>
-      <c r="X45" s="3"/>
+      <c r="X45" s="25"/>
       <c r="Y45" s="3"/>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z45" s="3"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="25"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="9"/>
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
       <c r="K46" s="25"/>
@@ -5833,18 +5912,19 @@
       <c r="U46" s="25"/>
       <c r="V46" s="25"/>
       <c r="W46" s="25"/>
-      <c r="X46" s="3"/>
+      <c r="X46" s="25"/>
       <c r="Y46" s="3"/>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z46" s="3"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="25"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="9"/>
       <c r="I47" s="25"/>
       <c r="J47" s="25"/>
       <c r="K47" s="25"/>
@@ -5860,18 +5940,19 @@
       <c r="U47" s="25"/>
       <c r="V47" s="25"/>
       <c r="W47" s="25"/>
-      <c r="X47" s="3"/>
+      <c r="X47" s="25"/>
       <c r="Y47" s="3"/>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z47" s="3"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="25"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="9"/>
       <c r="I48" s="25"/>
       <c r="J48" s="25"/>
       <c r="K48" s="25"/>
@@ -5887,18 +5968,19 @@
       <c r="U48" s="25"/>
       <c r="V48" s="25"/>
       <c r="W48" s="25"/>
-      <c r="X48" s="3"/>
+      <c r="X48" s="25"/>
       <c r="Y48" s="3"/>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z48" s="3"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="25"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="9"/>
       <c r="I49" s="25"/>
       <c r="J49" s="25"/>
       <c r="K49" s="25"/>
@@ -5914,18 +5996,19 @@
       <c r="U49" s="25"/>
       <c r="V49" s="25"/>
       <c r="W49" s="25"/>
-      <c r="X49" s="3"/>
+      <c r="X49" s="25"/>
       <c r="Y49" s="3"/>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z49" s="3"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="25"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="9"/>
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
       <c r="K50" s="25"/>
@@ -5941,18 +6024,19 @@
       <c r="U50" s="25"/>
       <c r="V50" s="25"/>
       <c r="W50" s="25"/>
-      <c r="X50" s="3"/>
+      <c r="X50" s="25"/>
       <c r="Y50" s="3"/>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z50" s="3"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="25"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="9"/>
       <c r="I51" s="25"/>
       <c r="J51" s="25"/>
       <c r="K51" s="25"/>
@@ -5968,18 +6052,19 @@
       <c r="U51" s="25"/>
       <c r="V51" s="25"/>
       <c r="W51" s="25"/>
-      <c r="X51" s="3"/>
+      <c r="X51" s="25"/>
       <c r="Y51" s="3"/>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z51" s="3"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="25"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="9"/>
       <c r="I52" s="25"/>
       <c r="J52" s="25"/>
       <c r="K52" s="25"/>
@@ -5995,18 +6080,19 @@
       <c r="U52" s="25"/>
       <c r="V52" s="25"/>
       <c r="W52" s="25"/>
-      <c r="X52" s="3"/>
+      <c r="X52" s="25"/>
       <c r="Y52" s="3"/>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z52" s="3"/>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="25"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="9"/>
       <c r="I53" s="25"/>
       <c r="J53" s="25"/>
       <c r="K53" s="25"/>
@@ -6022,18 +6108,19 @@
       <c r="U53" s="25"/>
       <c r="V53" s="25"/>
       <c r="W53" s="25"/>
-      <c r="X53" s="3"/>
+      <c r="X53" s="25"/>
       <c r="Y53" s="3"/>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z53" s="3"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="25"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="9"/>
       <c r="I54" s="25"/>
       <c r="J54" s="25"/>
       <c r="K54" s="25"/>
@@ -6049,18 +6136,19 @@
       <c r="U54" s="25"/>
       <c r="V54" s="25"/>
       <c r="W54" s="25"/>
-      <c r="X54" s="3"/>
+      <c r="X54" s="25"/>
       <c r="Y54" s="3"/>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z54" s="3"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="25"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="9"/>
       <c r="I55" s="25"/>
       <c r="J55" s="25"/>
       <c r="K55" s="25"/>
@@ -6076,18 +6164,19 @@
       <c r="U55" s="25"/>
       <c r="V55" s="25"/>
       <c r="W55" s="25"/>
-      <c r="X55" s="3"/>
+      <c r="X55" s="25"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="25"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="9"/>
       <c r="I56" s="25"/>
       <c r="J56" s="25"/>
       <c r="K56" s="25"/>
@@ -6103,18 +6192,19 @@
       <c r="U56" s="25"/>
       <c r="V56" s="25"/>
       <c r="W56" s="25"/>
-      <c r="X56" s="3"/>
+      <c r="X56" s="25"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="25"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="9"/>
       <c r="I57" s="25"/>
       <c r="J57" s="25"/>
       <c r="K57" s="25"/>
@@ -6130,18 +6220,19 @@
       <c r="U57" s="25"/>
       <c r="V57" s="25"/>
       <c r="W57" s="25"/>
-      <c r="X57" s="3"/>
+      <c r="X57" s="25"/>
       <c r="Y57" s="3"/>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z57" s="3"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="25"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="9"/>
       <c r="I58" s="25"/>
       <c r="J58" s="25"/>
       <c r="K58" s="25"/>
@@ -6157,18 +6248,19 @@
       <c r="U58" s="25"/>
       <c r="V58" s="25"/>
       <c r="W58" s="25"/>
-      <c r="X58" s="3"/>
+      <c r="X58" s="25"/>
       <c r="Y58" s="3"/>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z58" s="3"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="25"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="9"/>
       <c r="I59" s="25"/>
       <c r="J59" s="25"/>
       <c r="K59" s="25"/>
@@ -6184,18 +6276,19 @@
       <c r="U59" s="25"/>
       <c r="V59" s="25"/>
       <c r="W59" s="25"/>
-      <c r="X59" s="3"/>
+      <c r="X59" s="25"/>
       <c r="Y59" s="3"/>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z59" s="3"/>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="25"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="9"/>
       <c r="I60" s="25"/>
       <c r="J60" s="25"/>
       <c r="K60" s="25"/>
@@ -6211,18 +6304,19 @@
       <c r="U60" s="25"/>
       <c r="V60" s="25"/>
       <c r="W60" s="25"/>
-      <c r="X60" s="3"/>
+      <c r="X60" s="25"/>
       <c r="Y60" s="3"/>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z60" s="3"/>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="25"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="9"/>
       <c r="I61" s="25"/>
       <c r="J61" s="25"/>
       <c r="K61" s="25"/>
@@ -6238,18 +6332,19 @@
       <c r="U61" s="25"/>
       <c r="V61" s="25"/>
       <c r="W61" s="25"/>
-      <c r="X61" s="3"/>
+      <c r="X61" s="25"/>
       <c r="Y61" s="3"/>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z61" s="3"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="25"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="9"/>
       <c r="I62" s="25"/>
       <c r="J62" s="25"/>
       <c r="K62" s="25"/>
@@ -6265,18 +6360,19 @@
       <c r="U62" s="25"/>
       <c r="V62" s="25"/>
       <c r="W62" s="25"/>
-      <c r="X62" s="3"/>
+      <c r="X62" s="25"/>
       <c r="Y62" s="3"/>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z62" s="3"/>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="25"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="9"/>
       <c r="I63" s="25"/>
       <c r="J63" s="25"/>
       <c r="K63" s="25"/>
@@ -6292,18 +6388,19 @@
       <c r="U63" s="25"/>
       <c r="V63" s="25"/>
       <c r="W63" s="25"/>
-      <c r="X63" s="3"/>
+      <c r="X63" s="25"/>
       <c r="Y63" s="3"/>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z63" s="3"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="25"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="9"/>
       <c r="I64" s="25"/>
       <c r="J64" s="25"/>
       <c r="K64" s="25"/>
@@ -6319,18 +6416,19 @@
       <c r="U64" s="25"/>
       <c r="V64" s="25"/>
       <c r="W64" s="25"/>
-      <c r="X64" s="3"/>
+      <c r="X64" s="25"/>
       <c r="Y64" s="3"/>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z64" s="3"/>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="25"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="9"/>
       <c r="I65" s="25"/>
       <c r="J65" s="25"/>
       <c r="K65" s="25"/>
@@ -6346,18 +6444,19 @@
       <c r="U65" s="25"/>
       <c r="V65" s="25"/>
       <c r="W65" s="25"/>
-      <c r="X65" s="3"/>
+      <c r="X65" s="25"/>
       <c r="Y65" s="3"/>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z65" s="3"/>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="25"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="9"/>
       <c r="I66" s="25"/>
       <c r="J66" s="25"/>
       <c r="K66" s="25"/>
@@ -6373,18 +6472,19 @@
       <c r="U66" s="25"/>
       <c r="V66" s="25"/>
       <c r="W66" s="25"/>
-      <c r="X66" s="3"/>
+      <c r="X66" s="25"/>
       <c r="Y66" s="3"/>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z66" s="3"/>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="25"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="9"/>
       <c r="I67" s="25"/>
       <c r="J67" s="25"/>
       <c r="K67" s="25"/>
@@ -6400,18 +6500,19 @@
       <c r="U67" s="25"/>
       <c r="V67" s="25"/>
       <c r="W67" s="25"/>
-      <c r="X67" s="3"/>
+      <c r="X67" s="25"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="25"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="9"/>
       <c r="I68" s="25"/>
       <c r="J68" s="25"/>
       <c r="K68" s="25"/>
@@ -6427,18 +6528,19 @@
       <c r="U68" s="25"/>
       <c r="V68" s="25"/>
       <c r="W68" s="25"/>
-      <c r="X68" s="3"/>
+      <c r="X68" s="25"/>
       <c r="Y68" s="3"/>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z68" s="3"/>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="25"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="9"/>
       <c r="I69" s="25"/>
       <c r="J69" s="25"/>
       <c r="K69" s="25"/>
@@ -6454,18 +6556,19 @@
       <c r="U69" s="25"/>
       <c r="V69" s="25"/>
       <c r="W69" s="25"/>
-      <c r="X69" s="3"/>
+      <c r="X69" s="25"/>
       <c r="Y69" s="3"/>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z69" s="3"/>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="25"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="9"/>
       <c r="I70" s="25"/>
       <c r="J70" s="25"/>
       <c r="K70" s="25"/>
@@ -6481,18 +6584,19 @@
       <c r="U70" s="25"/>
       <c r="V70" s="25"/>
       <c r="W70" s="25"/>
-      <c r="X70" s="3"/>
+      <c r="X70" s="25"/>
       <c r="Y70" s="3"/>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z70" s="3"/>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="25"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="9"/>
       <c r="I71" s="25"/>
       <c r="J71" s="25"/>
       <c r="K71" s="25"/>
@@ -6508,18 +6612,19 @@
       <c r="U71" s="25"/>
       <c r="V71" s="25"/>
       <c r="W71" s="25"/>
-      <c r="X71" s="3"/>
+      <c r="X71" s="25"/>
       <c r="Y71" s="3"/>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z71" s="3"/>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="25"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="9"/>
       <c r="I72" s="25"/>
       <c r="J72" s="25"/>
       <c r="K72" s="25"/>
@@ -6535,18 +6640,19 @@
       <c r="U72" s="25"/>
       <c r="V72" s="25"/>
       <c r="W72" s="25"/>
-      <c r="X72" s="3"/>
+      <c r="X72" s="25"/>
       <c r="Y72" s="3"/>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z72" s="3"/>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="25"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="9"/>
       <c r="I73" s="25"/>
       <c r="J73" s="25"/>
       <c r="K73" s="25"/>
@@ -6562,18 +6668,19 @@
       <c r="U73" s="25"/>
       <c r="V73" s="25"/>
       <c r="W73" s="25"/>
-      <c r="X73" s="3"/>
+      <c r="X73" s="25"/>
       <c r="Y73" s="3"/>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z73" s="3"/>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="25"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="9"/>
       <c r="I74" s="25"/>
       <c r="J74" s="25"/>
       <c r="K74" s="25"/>
@@ -6589,18 +6696,19 @@
       <c r="U74" s="25"/>
       <c r="V74" s="25"/>
       <c r="W74" s="25"/>
-      <c r="X74" s="3"/>
+      <c r="X74" s="25"/>
       <c r="Y74" s="3"/>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z74" s="3"/>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="25"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="9"/>
       <c r="I75" s="25"/>
       <c r="J75" s="25"/>
       <c r="K75" s="25"/>
@@ -6616,18 +6724,19 @@
       <c r="U75" s="25"/>
       <c r="V75" s="25"/>
       <c r="W75" s="25"/>
-      <c r="X75" s="3"/>
+      <c r="X75" s="25"/>
       <c r="Y75" s="3"/>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z75" s="3"/>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="25"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="9"/>
       <c r="I76" s="25"/>
       <c r="J76" s="25"/>
       <c r="K76" s="25"/>
@@ -6643,18 +6752,19 @@
       <c r="U76" s="25"/>
       <c r="V76" s="25"/>
       <c r="W76" s="25"/>
-      <c r="X76" s="3"/>
+      <c r="X76" s="25"/>
       <c r="Y76" s="3"/>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z76" s="3"/>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="25"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="9"/>
       <c r="I77" s="25"/>
       <c r="J77" s="25"/>
       <c r="K77" s="25"/>
@@ -6670,18 +6780,19 @@
       <c r="U77" s="25"/>
       <c r="V77" s="25"/>
       <c r="W77" s="25"/>
-      <c r="X77" s="3"/>
+      <c r="X77" s="25"/>
       <c r="Y77" s="3"/>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z77" s="3"/>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="25"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="9"/>
       <c r="I78" s="25"/>
       <c r="J78" s="25"/>
       <c r="K78" s="25"/>
@@ -6697,18 +6808,19 @@
       <c r="U78" s="25"/>
       <c r="V78" s="25"/>
       <c r="W78" s="25"/>
-      <c r="X78" s="3"/>
+      <c r="X78" s="25"/>
       <c r="Y78" s="3"/>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z78" s="3"/>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="25"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="9"/>
       <c r="I79" s="25"/>
       <c r="J79" s="25"/>
       <c r="K79" s="25"/>
@@ -6724,18 +6836,19 @@
       <c r="U79" s="25"/>
       <c r="V79" s="25"/>
       <c r="W79" s="25"/>
-      <c r="X79" s="3"/>
+      <c r="X79" s="25"/>
       <c r="Y79" s="3"/>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z79" s="3"/>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="25"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="9"/>
       <c r="I80" s="25"/>
       <c r="J80" s="25"/>
       <c r="K80" s="25"/>
@@ -6751,18 +6864,19 @@
       <c r="U80" s="25"/>
       <c r="V80" s="25"/>
       <c r="W80" s="25"/>
-      <c r="X80" s="3"/>
+      <c r="X80" s="25"/>
       <c r="Y80" s="3"/>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z80" s="3"/>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="25"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="9"/>
       <c r="I81" s="25"/>
       <c r="J81" s="25"/>
       <c r="K81" s="25"/>
@@ -6778,18 +6892,19 @@
       <c r="U81" s="25"/>
       <c r="V81" s="25"/>
       <c r="W81" s="25"/>
-      <c r="X81" s="3"/>
+      <c r="X81" s="25"/>
       <c r="Y81" s="3"/>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z81" s="3"/>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="25"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="9"/>
       <c r="I82" s="25"/>
       <c r="J82" s="25"/>
       <c r="K82" s="25"/>
@@ -6805,18 +6920,19 @@
       <c r="U82" s="25"/>
       <c r="V82" s="25"/>
       <c r="W82" s="25"/>
-      <c r="X82" s="3"/>
+      <c r="X82" s="25"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="25"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="9"/>
       <c r="I83" s="25"/>
       <c r="J83" s="25"/>
       <c r="K83" s="25"/>
@@ -6832,18 +6948,19 @@
       <c r="U83" s="25"/>
       <c r="V83" s="25"/>
       <c r="W83" s="25"/>
-      <c r="X83" s="3"/>
+      <c r="X83" s="25"/>
       <c r="Y83" s="3"/>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z83" s="3"/>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="25"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="9"/>
       <c r="I84" s="25"/>
       <c r="J84" s="25"/>
       <c r="K84" s="25"/>
@@ -6859,18 +6976,19 @@
       <c r="U84" s="25"/>
       <c r="V84" s="25"/>
       <c r="W84" s="25"/>
-      <c r="X84" s="3"/>
+      <c r="X84" s="25"/>
       <c r="Y84" s="3"/>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z84" s="3"/>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="25"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="9"/>
       <c r="I85" s="25"/>
       <c r="J85" s="25"/>
       <c r="K85" s="25"/>
@@ -6886,18 +7004,19 @@
       <c r="U85" s="25"/>
       <c r="V85" s="25"/>
       <c r="W85" s="25"/>
-      <c r="X85" s="3"/>
+      <c r="X85" s="25"/>
       <c r="Y85" s="3"/>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z85" s="3"/>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="25"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="9"/>
       <c r="I86" s="25"/>
       <c r="J86" s="25"/>
       <c r="K86" s="25"/>
@@ -6913,18 +7032,19 @@
       <c r="U86" s="25"/>
       <c r="V86" s="25"/>
       <c r="W86" s="25"/>
-      <c r="X86" s="3"/>
+      <c r="X86" s="25"/>
       <c r="Y86" s="3"/>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z86" s="3"/>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="25"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="9"/>
       <c r="I87" s="25"/>
       <c r="J87" s="25"/>
       <c r="K87" s="25"/>
@@ -6940,18 +7060,19 @@
       <c r="U87" s="25"/>
       <c r="V87" s="25"/>
       <c r="W87" s="25"/>
-      <c r="X87" s="3"/>
+      <c r="X87" s="25"/>
       <c r="Y87" s="3"/>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z87" s="3"/>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="25"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="9"/>
       <c r="I88" s="25"/>
       <c r="J88" s="25"/>
       <c r="K88" s="25"/>
@@ -6967,18 +7088,19 @@
       <c r="U88" s="25"/>
       <c r="V88" s="25"/>
       <c r="W88" s="25"/>
-      <c r="X88" s="3"/>
+      <c r="X88" s="25"/>
       <c r="Y88" s="3"/>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z88" s="3"/>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="25"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="9"/>
       <c r="I89" s="25"/>
       <c r="J89" s="25"/>
       <c r="K89" s="25"/>
@@ -6994,18 +7116,19 @@
       <c r="U89" s="25"/>
       <c r="V89" s="25"/>
       <c r="W89" s="25"/>
-      <c r="X89" s="3"/>
+      <c r="X89" s="25"/>
       <c r="Y89" s="3"/>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z89" s="3"/>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="25"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="9"/>
       <c r="I90" s="25"/>
       <c r="J90" s="25"/>
       <c r="K90" s="25"/>
@@ -7021,18 +7144,19 @@
       <c r="U90" s="25"/>
       <c r="V90" s="25"/>
       <c r="W90" s="25"/>
-      <c r="X90" s="3"/>
+      <c r="X90" s="25"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="25"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="9"/>
       <c r="I91" s="25"/>
       <c r="J91" s="25"/>
       <c r="K91" s="25"/>
@@ -7048,18 +7172,19 @@
       <c r="U91" s="25"/>
       <c r="V91" s="25"/>
       <c r="W91" s="25"/>
-      <c r="X91" s="3"/>
+      <c r="X91" s="25"/>
       <c r="Y91" s="3"/>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z91" s="3"/>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="25"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="9"/>
       <c r="I92" s="25"/>
       <c r="J92" s="25"/>
       <c r="K92" s="25"/>
@@ -7075,18 +7200,19 @@
       <c r="U92" s="25"/>
       <c r="V92" s="25"/>
       <c r="W92" s="25"/>
-      <c r="X92" s="3"/>
+      <c r="X92" s="25"/>
       <c r="Y92" s="3"/>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z92" s="3"/>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="25"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="9"/>
       <c r="I93" s="25"/>
       <c r="J93" s="25"/>
       <c r="K93" s="25"/>
@@ -7102,18 +7228,19 @@
       <c r="U93" s="25"/>
       <c r="V93" s="25"/>
       <c r="W93" s="25"/>
-      <c r="X93" s="3"/>
+      <c r="X93" s="25"/>
       <c r="Y93" s="3"/>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z93" s="3"/>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="25"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="9"/>
       <c r="I94" s="25"/>
       <c r="J94" s="25"/>
       <c r="K94" s="25"/>
@@ -7129,18 +7256,19 @@
       <c r="U94" s="25"/>
       <c r="V94" s="25"/>
       <c r="W94" s="25"/>
-      <c r="X94" s="3"/>
+      <c r="X94" s="25"/>
       <c r="Y94" s="3"/>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z94" s="3"/>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="25"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="9"/>
       <c r="I95" s="25"/>
       <c r="J95" s="25"/>
       <c r="K95" s="25"/>
@@ -7156,18 +7284,19 @@
       <c r="U95" s="25"/>
       <c r="V95" s="25"/>
       <c r="W95" s="25"/>
-      <c r="X95" s="3"/>
+      <c r="X95" s="25"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="25"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="9"/>
       <c r="I96" s="25"/>
       <c r="J96" s="25"/>
       <c r="K96" s="25"/>
@@ -7183,18 +7312,19 @@
       <c r="U96" s="25"/>
       <c r="V96" s="25"/>
       <c r="W96" s="25"/>
-      <c r="X96" s="3"/>
+      <c r="X96" s="25"/>
       <c r="Y96" s="3"/>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z96" s="3"/>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="25"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="9"/>
       <c r="I97" s="25"/>
       <c r="J97" s="25"/>
       <c r="K97" s="25"/>
@@ -7210,18 +7340,19 @@
       <c r="U97" s="25"/>
       <c r="V97" s="25"/>
       <c r="W97" s="25"/>
-      <c r="X97" s="3"/>
+      <c r="X97" s="25"/>
       <c r="Y97" s="3"/>
-    </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z97" s="3"/>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="25"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="9"/>
       <c r="I98" s="25"/>
       <c r="J98" s="25"/>
       <c r="K98" s="25"/>
@@ -7237,18 +7368,19 @@
       <c r="U98" s="25"/>
       <c r="V98" s="25"/>
       <c r="W98" s="25"/>
-      <c r="X98" s="3"/>
+      <c r="X98" s="25"/>
       <c r="Y98" s="3"/>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z98" s="3"/>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="25"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="9"/>
       <c r="I99" s="25"/>
       <c r="J99" s="25"/>
       <c r="K99" s="25"/>
@@ -7264,18 +7396,19 @@
       <c r="U99" s="25"/>
       <c r="V99" s="25"/>
       <c r="W99" s="25"/>
-      <c r="X99" s="3"/>
+      <c r="X99" s="25"/>
       <c r="Y99" s="3"/>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z99" s="3"/>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="25"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="9"/>
       <c r="I100" s="25"/>
       <c r="J100" s="25"/>
       <c r="K100" s="25"/>
@@ -7291,18 +7424,19 @@
       <c r="U100" s="25"/>
       <c r="V100" s="25"/>
       <c r="W100" s="25"/>
-      <c r="X100" s="3"/>
+      <c r="X100" s="25"/>
       <c r="Y100" s="3"/>
-    </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z100" s="3"/>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="25"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="9"/>
       <c r="I101" s="25"/>
       <c r="J101" s="25"/>
       <c r="K101" s="25"/>
@@ -7318,18 +7452,19 @@
       <c r="U101" s="25"/>
       <c r="V101" s="25"/>
       <c r="W101" s="25"/>
-      <c r="X101" s="3"/>
+      <c r="X101" s="25"/>
       <c r="Y101" s="3"/>
-    </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z101" s="3"/>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
-      <c r="D102" s="22"/>
-      <c r="E102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="22"/>
       <c r="F102" s="8"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="25"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="9"/>
       <c r="I102" s="25"/>
       <c r="J102" s="25"/>
       <c r="K102" s="25"/>
@@ -7345,18 +7480,19 @@
       <c r="U102" s="25"/>
       <c r="V102" s="25"/>
       <c r="W102" s="25"/>
-      <c r="X102" s="3"/>
+      <c r="X102" s="25"/>
       <c r="Y102" s="3"/>
-    </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z102" s="3"/>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
-      <c r="D103" s="22"/>
-      <c r="E103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="22"/>
       <c r="F103" s="8"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="25"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="9"/>
       <c r="I103" s="25"/>
       <c r="J103" s="25"/>
       <c r="K103" s="25"/>
@@ -7372,18 +7508,19 @@
       <c r="U103" s="25"/>
       <c r="V103" s="25"/>
       <c r="W103" s="25"/>
-      <c r="X103" s="3"/>
+      <c r="X103" s="25"/>
       <c r="Y103" s="3"/>
-    </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z103" s="3"/>
+    </row>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
-      <c r="D104" s="22"/>
-      <c r="E104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="22"/>
       <c r="F104" s="8"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="25"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="9"/>
       <c r="I104" s="25"/>
       <c r="J104" s="25"/>
       <c r="K104" s="25"/>
@@ -7399,18 +7536,19 @@
       <c r="U104" s="25"/>
       <c r="V104" s="25"/>
       <c r="W104" s="25"/>
-      <c r="X104" s="3"/>
+      <c r="X104" s="25"/>
       <c r="Y104" s="3"/>
-    </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z104" s="3"/>
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
-      <c r="D105" s="22"/>
-      <c r="E105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="22"/>
       <c r="F105" s="8"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="25"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="9"/>
       <c r="I105" s="25"/>
       <c r="J105" s="25"/>
       <c r="K105" s="25"/>
@@ -7426,18 +7564,19 @@
       <c r="U105" s="25"/>
       <c r="V105" s="25"/>
       <c r="W105" s="25"/>
-      <c r="X105" s="3"/>
+      <c r="X105" s="25"/>
       <c r="Y105" s="3"/>
-    </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z105" s="3"/>
+    </row>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
-      <c r="D106" s="22"/>
-      <c r="E106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="22"/>
       <c r="F106" s="8"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="25"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="9"/>
       <c r="I106" s="25"/>
       <c r="J106" s="25"/>
       <c r="K106" s="25"/>
@@ -7453,18 +7592,19 @@
       <c r="U106" s="25"/>
       <c r="V106" s="25"/>
       <c r="W106" s="25"/>
-      <c r="X106" s="3"/>
+      <c r="X106" s="25"/>
       <c r="Y106" s="3"/>
-    </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z106" s="3"/>
+    </row>
+    <row r="107" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
-      <c r="D107" s="22"/>
-      <c r="E107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="22"/>
       <c r="F107" s="8"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="25"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="9"/>
       <c r="I107" s="25"/>
       <c r="J107" s="25"/>
       <c r="K107" s="25"/>
@@ -7480,18 +7620,19 @@
       <c r="U107" s="25"/>
       <c r="V107" s="25"/>
       <c r="W107" s="25"/>
-      <c r="X107" s="3"/>
+      <c r="X107" s="25"/>
       <c r="Y107" s="3"/>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z107" s="3"/>
+    </row>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
-      <c r="D108" s="22"/>
-      <c r="E108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="22"/>
       <c r="F108" s="8"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="25"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="9"/>
       <c r="I108" s="25"/>
       <c r="J108" s="25"/>
       <c r="K108" s="25"/>
@@ -7507,18 +7648,19 @@
       <c r="U108" s="25"/>
       <c r="V108" s="25"/>
       <c r="W108" s="25"/>
-      <c r="X108" s="3"/>
+      <c r="X108" s="25"/>
       <c r="Y108" s="3"/>
-    </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z108" s="3"/>
+    </row>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
-      <c r="D109" s="22"/>
-      <c r="E109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="22"/>
       <c r="F109" s="8"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="25"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="9"/>
       <c r="I109" s="25"/>
       <c r="J109" s="25"/>
       <c r="K109" s="25"/>
@@ -7534,18 +7676,19 @@
       <c r="U109" s="25"/>
       <c r="V109" s="25"/>
       <c r="W109" s="25"/>
-      <c r="X109" s="3"/>
+      <c r="X109" s="25"/>
       <c r="Y109" s="3"/>
-    </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z109" s="3"/>
+    </row>
+    <row r="110" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
-      <c r="D110" s="22"/>
-      <c r="E110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="22"/>
       <c r="F110" s="8"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="25"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="9"/>
       <c r="I110" s="25"/>
       <c r="J110" s="25"/>
       <c r="K110" s="25"/>
@@ -7561,18 +7704,19 @@
       <c r="U110" s="25"/>
       <c r="V110" s="25"/>
       <c r="W110" s="25"/>
-      <c r="X110" s="3"/>
+      <c r="X110" s="25"/>
       <c r="Y110" s="3"/>
-    </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z110" s="3"/>
+    </row>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="22"/>
       <c r="F111" s="8"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="25"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="9"/>
       <c r="I111" s="25"/>
       <c r="J111" s="25"/>
       <c r="K111" s="25"/>
@@ -7588,18 +7732,19 @@
       <c r="U111" s="25"/>
       <c r="V111" s="25"/>
       <c r="W111" s="25"/>
-      <c r="X111" s="3"/>
+      <c r="X111" s="25"/>
       <c r="Y111" s="3"/>
-    </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z111" s="3"/>
+    </row>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
-      <c r="D112" s="22"/>
-      <c r="E112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="22"/>
       <c r="F112" s="8"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="25"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="9"/>
       <c r="I112" s="25"/>
       <c r="J112" s="25"/>
       <c r="K112" s="25"/>
@@ -7615,18 +7760,19 @@
       <c r="U112" s="25"/>
       <c r="V112" s="25"/>
       <c r="W112" s="25"/>
-      <c r="X112" s="3"/>
+      <c r="X112" s="25"/>
       <c r="Y112" s="3"/>
-    </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z112" s="3"/>
+    </row>
+    <row r="113" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
-      <c r="D113" s="22"/>
-      <c r="E113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="22"/>
       <c r="F113" s="8"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="25"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="9"/>
       <c r="I113" s="25"/>
       <c r="J113" s="25"/>
       <c r="K113" s="25"/>
@@ -7642,18 +7788,19 @@
       <c r="U113" s="25"/>
       <c r="V113" s="25"/>
       <c r="W113" s="25"/>
-      <c r="X113" s="3"/>
+      <c r="X113" s="25"/>
       <c r="Y113" s="3"/>
-    </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z113" s="3"/>
+    </row>
+    <row r="114" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
-      <c r="D114" s="22"/>
-      <c r="E114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="22"/>
       <c r="F114" s="8"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="25"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="9"/>
       <c r="I114" s="25"/>
       <c r="J114" s="25"/>
       <c r="K114" s="25"/>
@@ -7669,18 +7816,19 @@
       <c r="U114" s="25"/>
       <c r="V114" s="25"/>
       <c r="W114" s="25"/>
-      <c r="X114" s="3"/>
+      <c r="X114" s="25"/>
       <c r="Y114" s="3"/>
-    </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z114" s="3"/>
+    </row>
+    <row r="115" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
-      <c r="D115" s="22"/>
-      <c r="E115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="22"/>
       <c r="F115" s="8"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="25"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="9"/>
       <c r="I115" s="25"/>
       <c r="J115" s="25"/>
       <c r="K115" s="25"/>
@@ -7696,18 +7844,19 @@
       <c r="U115" s="25"/>
       <c r="V115" s="25"/>
       <c r="W115" s="25"/>
-      <c r="X115" s="3"/>
+      <c r="X115" s="25"/>
       <c r="Y115" s="3"/>
-    </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z115" s="3"/>
+    </row>
+    <row r="116" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
-      <c r="D116" s="22"/>
-      <c r="E116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="22"/>
       <c r="F116" s="8"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="25"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="9"/>
       <c r="I116" s="25"/>
       <c r="J116" s="25"/>
       <c r="K116" s="25"/>
@@ -7723,18 +7872,19 @@
       <c r="U116" s="25"/>
       <c r="V116" s="25"/>
       <c r="W116" s="25"/>
-      <c r="X116" s="3"/>
+      <c r="X116" s="25"/>
       <c r="Y116" s="3"/>
-    </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z116" s="3"/>
+    </row>
+    <row r="117" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
-      <c r="D117" s="22"/>
-      <c r="E117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="22"/>
       <c r="F117" s="8"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="25"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="9"/>
       <c r="I117" s="25"/>
       <c r="J117" s="25"/>
       <c r="K117" s="25"/>
@@ -7750,18 +7900,19 @@
       <c r="U117" s="25"/>
       <c r="V117" s="25"/>
       <c r="W117" s="25"/>
-      <c r="X117" s="3"/>
+      <c r="X117" s="25"/>
       <c r="Y117" s="3"/>
-    </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z117" s="3"/>
+    </row>
+    <row r="118" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
-      <c r="D118" s="22"/>
-      <c r="E118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="22"/>
       <c r="F118" s="8"/>
-      <c r="G118" s="9"/>
-      <c r="H118" s="25"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="9"/>
       <c r="I118" s="25"/>
       <c r="J118" s="25"/>
       <c r="K118" s="25"/>
@@ -7777,18 +7928,19 @@
       <c r="U118" s="25"/>
       <c r="V118" s="25"/>
       <c r="W118" s="25"/>
-      <c r="X118" s="3"/>
+      <c r="X118" s="25"/>
       <c r="Y118" s="3"/>
-    </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z118" s="3"/>
+    </row>
+    <row r="119" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
-      <c r="D119" s="22"/>
-      <c r="E119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="22"/>
       <c r="F119" s="8"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="25"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="9"/>
       <c r="I119" s="25"/>
       <c r="J119" s="25"/>
       <c r="K119" s="25"/>
@@ -7804,18 +7956,19 @@
       <c r="U119" s="25"/>
       <c r="V119" s="25"/>
       <c r="W119" s="25"/>
-      <c r="X119" s="3"/>
+      <c r="X119" s="25"/>
       <c r="Y119" s="3"/>
-    </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z119" s="3"/>
+    </row>
+    <row r="120" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
-      <c r="D120" s="22"/>
-      <c r="E120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="22"/>
       <c r="F120" s="8"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="25"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="9"/>
       <c r="I120" s="25"/>
       <c r="J120" s="25"/>
       <c r="K120" s="25"/>
@@ -7831,18 +7984,19 @@
       <c r="U120" s="25"/>
       <c r="V120" s="25"/>
       <c r="W120" s="25"/>
-      <c r="X120" s="3"/>
+      <c r="X120" s="25"/>
       <c r="Y120" s="3"/>
-    </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z120" s="3"/>
+    </row>
+    <row r="121" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
-      <c r="D121" s="22"/>
-      <c r="E121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="22"/>
       <c r="F121" s="8"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="25"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="9"/>
       <c r="I121" s="25"/>
       <c r="J121" s="25"/>
       <c r="K121" s="25"/>
@@ -7858,18 +8012,19 @@
       <c r="U121" s="25"/>
       <c r="V121" s="25"/>
       <c r="W121" s="25"/>
-      <c r="X121" s="3"/>
+      <c r="X121" s="25"/>
       <c r="Y121" s="3"/>
-    </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z121" s="3"/>
+    </row>
+    <row r="122" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
-      <c r="D122" s="22"/>
-      <c r="E122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="22"/>
       <c r="F122" s="8"/>
-      <c r="G122" s="9"/>
-      <c r="H122" s="25"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="9"/>
       <c r="I122" s="25"/>
       <c r="J122" s="25"/>
       <c r="K122" s="25"/>
@@ -7885,18 +8040,19 @@
       <c r="U122" s="25"/>
       <c r="V122" s="25"/>
       <c r="W122" s="25"/>
-      <c r="X122" s="3"/>
+      <c r="X122" s="25"/>
       <c r="Y122" s="3"/>
-    </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z122" s="3"/>
+    </row>
+    <row r="123" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
-      <c r="D123" s="22"/>
-      <c r="E123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="22"/>
       <c r="F123" s="8"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="25"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="9"/>
       <c r="I123" s="25"/>
       <c r="J123" s="25"/>
       <c r="K123" s="25"/>
@@ -7912,18 +8068,19 @@
       <c r="U123" s="25"/>
       <c r="V123" s="25"/>
       <c r="W123" s="25"/>
-      <c r="X123" s="3"/>
+      <c r="X123" s="25"/>
       <c r="Y123" s="3"/>
-    </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z123" s="3"/>
+    </row>
+    <row r="124" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
-      <c r="D124" s="22"/>
-      <c r="E124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="22"/>
       <c r="F124" s="8"/>
-      <c r="G124" s="9"/>
-      <c r="H124" s="25"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="9"/>
       <c r="I124" s="25"/>
       <c r="J124" s="25"/>
       <c r="K124" s="25"/>
@@ -7939,18 +8096,19 @@
       <c r="U124" s="25"/>
       <c r="V124" s="25"/>
       <c r="W124" s="25"/>
-      <c r="X124" s="3"/>
+      <c r="X124" s="25"/>
       <c r="Y124" s="3"/>
-    </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z124" s="3"/>
+    </row>
+    <row r="125" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
-      <c r="D125" s="22"/>
-      <c r="E125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="22"/>
       <c r="F125" s="8"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="25"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="9"/>
       <c r="I125" s="25"/>
       <c r="J125" s="25"/>
       <c r="K125" s="25"/>
@@ -7966,18 +8124,19 @@
       <c r="U125" s="25"/>
       <c r="V125" s="25"/>
       <c r="W125" s="25"/>
-      <c r="X125" s="3"/>
+      <c r="X125" s="25"/>
       <c r="Y125" s="3"/>
-    </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z125" s="3"/>
+    </row>
+    <row r="126" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
-      <c r="D126" s="22"/>
-      <c r="E126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="22"/>
       <c r="F126" s="8"/>
-      <c r="G126" s="9"/>
-      <c r="H126" s="25"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="9"/>
       <c r="I126" s="25"/>
       <c r="J126" s="25"/>
       <c r="K126" s="25"/>
@@ -7993,18 +8152,19 @@
       <c r="U126" s="25"/>
       <c r="V126" s="25"/>
       <c r="W126" s="25"/>
-      <c r="X126" s="3"/>
+      <c r="X126" s="25"/>
       <c r="Y126" s="3"/>
-    </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z126" s="3"/>
+    </row>
+    <row r="127" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
-      <c r="D127" s="22"/>
-      <c r="E127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="22"/>
       <c r="F127" s="8"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="25"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="9"/>
       <c r="I127" s="25"/>
       <c r="J127" s="25"/>
       <c r="K127" s="25"/>
@@ -8020,18 +8180,19 @@
       <c r="U127" s="25"/>
       <c r="V127" s="25"/>
       <c r="W127" s="25"/>
-      <c r="X127" s="3"/>
+      <c r="X127" s="25"/>
       <c r="Y127" s="3"/>
-    </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z127" s="3"/>
+    </row>
+    <row r="128" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
-      <c r="D128" s="22"/>
-      <c r="E128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="22"/>
       <c r="F128" s="8"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="25"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="9"/>
       <c r="I128" s="25"/>
       <c r="J128" s="25"/>
       <c r="K128" s="25"/>
@@ -8047,18 +8208,19 @@
       <c r="U128" s="25"/>
       <c r="V128" s="25"/>
       <c r="W128" s="25"/>
-      <c r="X128" s="3"/>
+      <c r="X128" s="25"/>
       <c r="Y128" s="3"/>
-    </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z128" s="3"/>
+    </row>
+    <row r="129" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
-      <c r="D129" s="22"/>
-      <c r="E129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="22"/>
       <c r="F129" s="8"/>
-      <c r="G129" s="9"/>
-      <c r="H129" s="25"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="9"/>
       <c r="I129" s="25"/>
       <c r="J129" s="25"/>
       <c r="K129" s="25"/>
@@ -8074,18 +8236,19 @@
       <c r="U129" s="25"/>
       <c r="V129" s="25"/>
       <c r="W129" s="25"/>
-      <c r="X129" s="3"/>
+      <c r="X129" s="25"/>
       <c r="Y129" s="3"/>
-    </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z129" s="3"/>
+    </row>
+    <row r="130" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
-      <c r="D130" s="22"/>
-      <c r="E130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="22"/>
       <c r="F130" s="8"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="25"/>
+      <c r="G130" s="8"/>
+      <c r="H130" s="9"/>
       <c r="I130" s="25"/>
       <c r="J130" s="25"/>
       <c r="K130" s="25"/>
@@ -8101,18 +8264,19 @@
       <c r="U130" s="25"/>
       <c r="V130" s="25"/>
       <c r="W130" s="25"/>
-      <c r="X130" s="3"/>
+      <c r="X130" s="25"/>
       <c r="Y130" s="3"/>
-    </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z130" s="3"/>
+    </row>
+    <row r="131" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
-      <c r="D131" s="22"/>
-      <c r="E131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="22"/>
       <c r="F131" s="8"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="25"/>
+      <c r="G131" s="8"/>
+      <c r="H131" s="9"/>
       <c r="I131" s="25"/>
       <c r="J131" s="25"/>
       <c r="K131" s="25"/>
@@ -8128,18 +8292,19 @@
       <c r="U131" s="25"/>
       <c r="V131" s="25"/>
       <c r="W131" s="25"/>
-      <c r="X131" s="3"/>
+      <c r="X131" s="25"/>
       <c r="Y131" s="3"/>
-    </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z131" s="3"/>
+    </row>
+    <row r="132" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
-      <c r="D132" s="22"/>
-      <c r="E132" s="8"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="22"/>
       <c r="F132" s="8"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="25"/>
+      <c r="G132" s="8"/>
+      <c r="H132" s="9"/>
       <c r="I132" s="25"/>
       <c r="J132" s="25"/>
       <c r="K132" s="25"/>
@@ -8155,18 +8320,19 @@
       <c r="U132" s="25"/>
       <c r="V132" s="25"/>
       <c r="W132" s="25"/>
-      <c r="X132" s="3"/>
+      <c r="X132" s="25"/>
       <c r="Y132" s="3"/>
-    </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z132" s="3"/>
+    </row>
+    <row r="133" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
-      <c r="D133" s="22"/>
-      <c r="E133" s="8"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="22"/>
       <c r="F133" s="8"/>
-      <c r="G133" s="9"/>
-      <c r="H133" s="25"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="9"/>
       <c r="I133" s="25"/>
       <c r="J133" s="25"/>
       <c r="K133" s="25"/>
@@ -8182,18 +8348,19 @@
       <c r="U133" s="25"/>
       <c r="V133" s="25"/>
       <c r="W133" s="25"/>
-      <c r="X133" s="3"/>
+      <c r="X133" s="25"/>
       <c r="Y133" s="3"/>
-    </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z133" s="3"/>
+    </row>
+    <row r="134" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
-      <c r="D134" s="22"/>
-      <c r="E134" s="8"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="22"/>
       <c r="F134" s="8"/>
-      <c r="G134" s="9"/>
-      <c r="H134" s="25"/>
+      <c r="G134" s="8"/>
+      <c r="H134" s="9"/>
       <c r="I134" s="25"/>
       <c r="J134" s="25"/>
       <c r="K134" s="25"/>
@@ -8209,18 +8376,19 @@
       <c r="U134" s="25"/>
       <c r="V134" s="25"/>
       <c r="W134" s="25"/>
-      <c r="X134" s="3"/>
+      <c r="X134" s="25"/>
       <c r="Y134" s="3"/>
-    </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z134" s="3"/>
+    </row>
+    <row r="135" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
-      <c r="D135" s="22"/>
-      <c r="E135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="22"/>
       <c r="F135" s="8"/>
-      <c r="G135" s="9"/>
-      <c r="H135" s="25"/>
+      <c r="G135" s="8"/>
+      <c r="H135" s="9"/>
       <c r="I135" s="25"/>
       <c r="J135" s="25"/>
       <c r="K135" s="25"/>
@@ -8236,18 +8404,19 @@
       <c r="U135" s="25"/>
       <c r="V135" s="25"/>
       <c r="W135" s="25"/>
-      <c r="X135" s="3"/>
+      <c r="X135" s="25"/>
       <c r="Y135" s="3"/>
-    </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z135" s="3"/>
+    </row>
+    <row r="136" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
-      <c r="D136" s="22"/>
-      <c r="E136" s="8"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="22"/>
       <c r="F136" s="8"/>
-      <c r="G136" s="9"/>
-      <c r="H136" s="25"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="9"/>
       <c r="I136" s="25"/>
       <c r="J136" s="25"/>
       <c r="K136" s="25"/>
@@ -8263,18 +8432,19 @@
       <c r="U136" s="25"/>
       <c r="V136" s="25"/>
       <c r="W136" s="25"/>
-      <c r="X136" s="3"/>
+      <c r="X136" s="25"/>
       <c r="Y136" s="3"/>
-    </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z136" s="3"/>
+    </row>
+    <row r="137" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
-      <c r="D137" s="22"/>
-      <c r="E137" s="8"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="22"/>
       <c r="F137" s="8"/>
-      <c r="G137" s="9"/>
-      <c r="H137" s="25"/>
+      <c r="G137" s="8"/>
+      <c r="H137" s="9"/>
       <c r="I137" s="25"/>
       <c r="J137" s="25"/>
       <c r="K137" s="25"/>
@@ -8290,18 +8460,19 @@
       <c r="U137" s="25"/>
       <c r="V137" s="25"/>
       <c r="W137" s="25"/>
-      <c r="X137" s="3"/>
+      <c r="X137" s="25"/>
       <c r="Y137" s="3"/>
-    </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z137" s="3"/>
+    </row>
+    <row r="138" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
-      <c r="D138" s="22"/>
-      <c r="E138" s="8"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="22"/>
       <c r="F138" s="8"/>
-      <c r="G138" s="9"/>
-      <c r="H138" s="25"/>
+      <c r="G138" s="8"/>
+      <c r="H138" s="9"/>
       <c r="I138" s="25"/>
       <c r="J138" s="25"/>
       <c r="K138" s="25"/>
@@ -8317,18 +8488,19 @@
       <c r="U138" s="25"/>
       <c r="V138" s="25"/>
       <c r="W138" s="25"/>
-      <c r="X138" s="3"/>
+      <c r="X138" s="25"/>
       <c r="Y138" s="3"/>
-    </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z138" s="3"/>
+    </row>
+    <row r="139" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
-      <c r="D139" s="22"/>
-      <c r="E139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="22"/>
       <c r="F139" s="8"/>
-      <c r="G139" s="9"/>
-      <c r="H139" s="25"/>
+      <c r="G139" s="8"/>
+      <c r="H139" s="9"/>
       <c r="I139" s="25"/>
       <c r="J139" s="25"/>
       <c r="K139" s="25"/>
@@ -8344,18 +8516,19 @@
       <c r="U139" s="25"/>
       <c r="V139" s="25"/>
       <c r="W139" s="25"/>
-      <c r="X139" s="3"/>
+      <c r="X139" s="25"/>
       <c r="Y139" s="3"/>
-    </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z139" s="3"/>
+    </row>
+    <row r="140" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
-      <c r="D140" s="22"/>
-      <c r="E140" s="8"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="22"/>
       <c r="F140" s="8"/>
-      <c r="G140" s="9"/>
-      <c r="H140" s="25"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="9"/>
       <c r="I140" s="25"/>
       <c r="J140" s="25"/>
       <c r="K140" s="25"/>
@@ -8371,18 +8544,19 @@
       <c r="U140" s="25"/>
       <c r="V140" s="25"/>
       <c r="W140" s="25"/>
-      <c r="X140" s="3"/>
+      <c r="X140" s="25"/>
       <c r="Y140" s="3"/>
-    </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z140" s="3"/>
+    </row>
+    <row r="141" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
-      <c r="D141" s="22"/>
-      <c r="E141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="22"/>
       <c r="F141" s="8"/>
-      <c r="G141" s="9"/>
-      <c r="H141" s="25"/>
+      <c r="G141" s="8"/>
+      <c r="H141" s="9"/>
       <c r="I141" s="25"/>
       <c r="J141" s="25"/>
       <c r="K141" s="25"/>
@@ -8398,18 +8572,19 @@
       <c r="U141" s="25"/>
       <c r="V141" s="25"/>
       <c r="W141" s="25"/>
-      <c r="X141" s="3"/>
+      <c r="X141" s="25"/>
       <c r="Y141" s="3"/>
-    </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z141" s="3"/>
+    </row>
+    <row r="142" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
-      <c r="D142" s="22"/>
-      <c r="E142" s="8"/>
+      <c r="D142" s="8"/>
+      <c r="E142" s="22"/>
       <c r="F142" s="8"/>
-      <c r="G142" s="9"/>
-      <c r="H142" s="25"/>
+      <c r="G142" s="8"/>
+      <c r="H142" s="9"/>
       <c r="I142" s="25"/>
       <c r="J142" s="25"/>
       <c r="K142" s="25"/>
@@ -8425,18 +8600,19 @@
       <c r="U142" s="25"/>
       <c r="V142" s="25"/>
       <c r="W142" s="25"/>
-      <c r="X142" s="3"/>
+      <c r="X142" s="25"/>
       <c r="Y142" s="3"/>
-    </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z142" s="3"/>
+    </row>
+    <row r="143" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
-      <c r="D143" s="22"/>
-      <c r="E143" s="8"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="22"/>
       <c r="F143" s="8"/>
-      <c r="G143" s="9"/>
-      <c r="H143" s="25"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="9"/>
       <c r="I143" s="25"/>
       <c r="J143" s="25"/>
       <c r="K143" s="25"/>
@@ -8452,18 +8628,19 @@
       <c r="U143" s="25"/>
       <c r="V143" s="25"/>
       <c r="W143" s="25"/>
-      <c r="X143" s="3"/>
+      <c r="X143" s="25"/>
       <c r="Y143" s="3"/>
-    </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z143" s="3"/>
+    </row>
+    <row r="144" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
-      <c r="D144" s="22"/>
-      <c r="E144" s="8"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="22"/>
       <c r="F144" s="8"/>
-      <c r="G144" s="9"/>
-      <c r="H144" s="25"/>
+      <c r="G144" s="8"/>
+      <c r="H144" s="9"/>
       <c r="I144" s="25"/>
       <c r="J144" s="25"/>
       <c r="K144" s="25"/>
@@ -8479,18 +8656,19 @@
       <c r="U144" s="25"/>
       <c r="V144" s="25"/>
       <c r="W144" s="25"/>
-      <c r="X144" s="3"/>
+      <c r="X144" s="25"/>
       <c r="Y144" s="3"/>
-    </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z144" s="3"/>
+    </row>
+    <row r="145" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
-      <c r="D145" s="22"/>
-      <c r="E145" s="8"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="22"/>
       <c r="F145" s="8"/>
-      <c r="G145" s="9"/>
-      <c r="H145" s="25"/>
+      <c r="G145" s="8"/>
+      <c r="H145" s="9"/>
       <c r="I145" s="25"/>
       <c r="J145" s="25"/>
       <c r="K145" s="25"/>
@@ -8506,18 +8684,19 @@
       <c r="U145" s="25"/>
       <c r="V145" s="25"/>
       <c r="W145" s="25"/>
-      <c r="X145" s="3"/>
+      <c r="X145" s="25"/>
       <c r="Y145" s="3"/>
-    </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z145" s="3"/>
+    </row>
+    <row r="146" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
-      <c r="D146" s="22"/>
-      <c r="E146" s="8"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="22"/>
       <c r="F146" s="8"/>
-      <c r="G146" s="9"/>
-      <c r="H146" s="25"/>
+      <c r="G146" s="8"/>
+      <c r="H146" s="9"/>
       <c r="I146" s="25"/>
       <c r="J146" s="25"/>
       <c r="K146" s="25"/>
@@ -8533,18 +8712,19 @@
       <c r="U146" s="25"/>
       <c r="V146" s="25"/>
       <c r="W146" s="25"/>
-      <c r="X146" s="3"/>
+      <c r="X146" s="25"/>
       <c r="Y146" s="3"/>
-    </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z146" s="3"/>
+    </row>
+    <row r="147" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
-      <c r="D147" s="22"/>
-      <c r="E147" s="8"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="22"/>
       <c r="F147" s="8"/>
-      <c r="G147" s="9"/>
-      <c r="H147" s="25"/>
+      <c r="G147" s="8"/>
+      <c r="H147" s="9"/>
       <c r="I147" s="25"/>
       <c r="J147" s="25"/>
       <c r="K147" s="25"/>
@@ -8560,18 +8740,19 @@
       <c r="U147" s="25"/>
       <c r="V147" s="25"/>
       <c r="W147" s="25"/>
-      <c r="X147" s="3"/>
+      <c r="X147" s="25"/>
       <c r="Y147" s="3"/>
-    </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z147" s="3"/>
+    </row>
+    <row r="148" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
-      <c r="D148" s="22"/>
-      <c r="E148" s="8"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="22"/>
       <c r="F148" s="8"/>
-      <c r="G148" s="9"/>
-      <c r="H148" s="25"/>
+      <c r="G148" s="8"/>
+      <c r="H148" s="9"/>
       <c r="I148" s="25"/>
       <c r="J148" s="25"/>
       <c r="K148" s="25"/>
@@ -8587,18 +8768,19 @@
       <c r="U148" s="25"/>
       <c r="V148" s="25"/>
       <c r="W148" s="25"/>
-      <c r="X148" s="3"/>
+      <c r="X148" s="25"/>
       <c r="Y148" s="3"/>
-    </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z148" s="3"/>
+    </row>
+    <row r="149" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
-      <c r="D149" s="22"/>
-      <c r="E149" s="8"/>
+      <c r="D149" s="8"/>
+      <c r="E149" s="22"/>
       <c r="F149" s="8"/>
-      <c r="G149" s="9"/>
-      <c r="H149" s="25"/>
+      <c r="G149" s="8"/>
+      <c r="H149" s="9"/>
       <c r="I149" s="25"/>
       <c r="J149" s="25"/>
       <c r="K149" s="25"/>
@@ -8614,18 +8796,19 @@
       <c r="U149" s="25"/>
       <c r="V149" s="25"/>
       <c r="W149" s="25"/>
-      <c r="X149" s="3"/>
+      <c r="X149" s="25"/>
       <c r="Y149" s="3"/>
-    </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z149" s="3"/>
+    </row>
+    <row r="150" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
-      <c r="D150" s="22"/>
-      <c r="E150" s="8"/>
+      <c r="D150" s="8"/>
+      <c r="E150" s="22"/>
       <c r="F150" s="8"/>
-      <c r="G150" s="9"/>
-      <c r="H150" s="25"/>
+      <c r="G150" s="8"/>
+      <c r="H150" s="9"/>
       <c r="I150" s="25"/>
       <c r="J150" s="25"/>
       <c r="K150" s="25"/>
@@ -8641,18 +8824,19 @@
       <c r="U150" s="25"/>
       <c r="V150" s="25"/>
       <c r="W150" s="25"/>
-      <c r="X150" s="3"/>
+      <c r="X150" s="25"/>
       <c r="Y150" s="3"/>
-    </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z150" s="3"/>
+    </row>
+    <row r="151" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
-      <c r="D151" s="22"/>
-      <c r="E151" s="8"/>
+      <c r="D151" s="8"/>
+      <c r="E151" s="22"/>
       <c r="F151" s="8"/>
-      <c r="G151" s="9"/>
-      <c r="H151" s="25"/>
+      <c r="G151" s="8"/>
+      <c r="H151" s="9"/>
       <c r="I151" s="25"/>
       <c r="J151" s="25"/>
       <c r="K151" s="25"/>
@@ -8668,18 +8852,19 @@
       <c r="U151" s="25"/>
       <c r="V151" s="25"/>
       <c r="W151" s="25"/>
-      <c r="X151" s="3"/>
+      <c r="X151" s="25"/>
       <c r="Y151" s="3"/>
-    </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z151" s="3"/>
+    </row>
+    <row r="152" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
-      <c r="D152" s="22"/>
-      <c r="E152" s="8"/>
+      <c r="D152" s="8"/>
+      <c r="E152" s="22"/>
       <c r="F152" s="8"/>
-      <c r="G152" s="9"/>
-      <c r="H152" s="25"/>
+      <c r="G152" s="8"/>
+      <c r="H152" s="9"/>
       <c r="I152" s="25"/>
       <c r="J152" s="25"/>
       <c r="K152" s="25"/>
@@ -8695,18 +8880,19 @@
       <c r="U152" s="25"/>
       <c r="V152" s="25"/>
       <c r="W152" s="25"/>
-      <c r="X152" s="3"/>
+      <c r="X152" s="25"/>
       <c r="Y152" s="3"/>
-    </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z152" s="3"/>
+    </row>
+    <row r="153" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
-      <c r="D153" s="22"/>
-      <c r="E153" s="8"/>
+      <c r="D153" s="8"/>
+      <c r="E153" s="22"/>
       <c r="F153" s="8"/>
-      <c r="G153" s="9"/>
-      <c r="H153" s="25"/>
+      <c r="G153" s="8"/>
+      <c r="H153" s="9"/>
       <c r="I153" s="25"/>
       <c r="J153" s="25"/>
       <c r="K153" s="25"/>
@@ -8722,18 +8908,19 @@
       <c r="U153" s="25"/>
       <c r="V153" s="25"/>
       <c r="W153" s="25"/>
-      <c r="X153" s="3"/>
+      <c r="X153" s="25"/>
       <c r="Y153" s="3"/>
-    </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z153" s="3"/>
+    </row>
+    <row r="154" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
-      <c r="D154" s="22"/>
-      <c r="E154" s="8"/>
+      <c r="D154" s="8"/>
+      <c r="E154" s="22"/>
       <c r="F154" s="8"/>
-      <c r="G154" s="9"/>
-      <c r="H154" s="25"/>
+      <c r="G154" s="8"/>
+      <c r="H154" s="9"/>
       <c r="I154" s="25"/>
       <c r="J154" s="25"/>
       <c r="K154" s="25"/>
@@ -8749,18 +8936,19 @@
       <c r="U154" s="25"/>
       <c r="V154" s="25"/>
       <c r="W154" s="25"/>
-      <c r="X154" s="3"/>
+      <c r="X154" s="25"/>
       <c r="Y154" s="3"/>
-    </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z154" s="3"/>
+    </row>
+    <row r="155" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
-      <c r="D155" s="22"/>
-      <c r="E155" s="8"/>
+      <c r="D155" s="8"/>
+      <c r="E155" s="22"/>
       <c r="F155" s="8"/>
-      <c r="G155" s="9"/>
-      <c r="H155" s="25"/>
+      <c r="G155" s="8"/>
+      <c r="H155" s="9"/>
       <c r="I155" s="25"/>
       <c r="J155" s="25"/>
       <c r="K155" s="25"/>
@@ -8776,18 +8964,19 @@
       <c r="U155" s="25"/>
       <c r="V155" s="25"/>
       <c r="W155" s="25"/>
-      <c r="X155" s="3"/>
+      <c r="X155" s="25"/>
       <c r="Y155" s="3"/>
-    </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z155" s="3"/>
+    </row>
+    <row r="156" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
-      <c r="D156" s="22"/>
-      <c r="E156" s="8"/>
+      <c r="D156" s="8"/>
+      <c r="E156" s="22"/>
       <c r="F156" s="8"/>
-      <c r="G156" s="9"/>
-      <c r="H156" s="25"/>
+      <c r="G156" s="8"/>
+      <c r="H156" s="9"/>
       <c r="I156" s="25"/>
       <c r="J156" s="25"/>
       <c r="K156" s="25"/>
@@ -8803,18 +8992,19 @@
       <c r="U156" s="25"/>
       <c r="V156" s="25"/>
       <c r="W156" s="25"/>
-      <c r="X156" s="3"/>
+      <c r="X156" s="25"/>
       <c r="Y156" s="3"/>
-    </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z156" s="3"/>
+    </row>
+    <row r="157" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
-      <c r="D157" s="22"/>
-      <c r="E157" s="8"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="22"/>
       <c r="F157" s="8"/>
-      <c r="G157" s="9"/>
-      <c r="H157" s="25"/>
+      <c r="G157" s="8"/>
+      <c r="H157" s="9"/>
       <c r="I157" s="25"/>
       <c r="J157" s="25"/>
       <c r="K157" s="25"/>
@@ -8830,18 +9020,19 @@
       <c r="U157" s="25"/>
       <c r="V157" s="25"/>
       <c r="W157" s="25"/>
-      <c r="X157" s="3"/>
+      <c r="X157" s="25"/>
       <c r="Y157" s="3"/>
-    </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z157" s="3"/>
+    </row>
+    <row r="158" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
-      <c r="D158" s="22"/>
-      <c r="E158" s="8"/>
+      <c r="D158" s="8"/>
+      <c r="E158" s="22"/>
       <c r="F158" s="8"/>
-      <c r="G158" s="9"/>
-      <c r="H158" s="25"/>
+      <c r="G158" s="8"/>
+      <c r="H158" s="9"/>
       <c r="I158" s="25"/>
       <c r="J158" s="25"/>
       <c r="K158" s="25"/>
@@ -8857,18 +9048,19 @@
       <c r="U158" s="25"/>
       <c r="V158" s="25"/>
       <c r="W158" s="25"/>
-      <c r="X158" s="3"/>
+      <c r="X158" s="25"/>
       <c r="Y158" s="3"/>
-    </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z158" s="3"/>
+    </row>
+    <row r="159" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
-      <c r="D159" s="22"/>
-      <c r="E159" s="8"/>
+      <c r="D159" s="8"/>
+      <c r="E159" s="22"/>
       <c r="F159" s="8"/>
-      <c r="G159" s="9"/>
-      <c r="H159" s="25"/>
+      <c r="G159" s="8"/>
+      <c r="H159" s="9"/>
       <c r="I159" s="25"/>
       <c r="J159" s="25"/>
       <c r="K159" s="25"/>
@@ -8884,18 +9076,19 @@
       <c r="U159" s="25"/>
       <c r="V159" s="25"/>
       <c r="W159" s="25"/>
-      <c r="X159" s="3"/>
+      <c r="X159" s="25"/>
       <c r="Y159" s="3"/>
-    </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z159" s="3"/>
+    </row>
+    <row r="160" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
-      <c r="D160" s="22"/>
-      <c r="E160" s="8"/>
+      <c r="D160" s="8"/>
+      <c r="E160" s="22"/>
       <c r="F160" s="8"/>
-      <c r="G160" s="9"/>
-      <c r="H160" s="25"/>
+      <c r="G160" s="8"/>
+      <c r="H160" s="9"/>
       <c r="I160" s="25"/>
       <c r="J160" s="25"/>
       <c r="K160" s="25"/>
@@ -8911,18 +9104,19 @@
       <c r="U160" s="25"/>
       <c r="V160" s="25"/>
       <c r="W160" s="25"/>
-      <c r="X160" s="3"/>
+      <c r="X160" s="25"/>
       <c r="Y160" s="3"/>
-    </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z160" s="3"/>
+    </row>
+    <row r="161" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
-      <c r="D161" s="22"/>
-      <c r="E161" s="8"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="22"/>
       <c r="F161" s="8"/>
-      <c r="G161" s="9"/>
-      <c r="H161" s="25"/>
+      <c r="G161" s="8"/>
+      <c r="H161" s="9"/>
       <c r="I161" s="25"/>
       <c r="J161" s="25"/>
       <c r="K161" s="25"/>
@@ -8938,18 +9132,19 @@
       <c r="U161" s="25"/>
       <c r="V161" s="25"/>
       <c r="W161" s="25"/>
-      <c r="X161" s="3"/>
+      <c r="X161" s="25"/>
       <c r="Y161" s="3"/>
-    </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z161" s="3"/>
+    </row>
+    <row r="162" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
-      <c r="D162" s="22"/>
-      <c r="E162" s="8"/>
+      <c r="D162" s="8"/>
+      <c r="E162" s="22"/>
       <c r="F162" s="8"/>
-      <c r="G162" s="9"/>
-      <c r="H162" s="25"/>
+      <c r="G162" s="8"/>
+      <c r="H162" s="9"/>
       <c r="I162" s="25"/>
       <c r="J162" s="25"/>
       <c r="K162" s="25"/>
@@ -8965,18 +9160,19 @@
       <c r="U162" s="25"/>
       <c r="V162" s="25"/>
       <c r="W162" s="25"/>
-      <c r="X162" s="3"/>
+      <c r="X162" s="25"/>
       <c r="Y162" s="3"/>
-    </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z162" s="3"/>
+    </row>
+    <row r="163" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
-      <c r="D163" s="22"/>
-      <c r="E163" s="8"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="22"/>
       <c r="F163" s="8"/>
-      <c r="G163" s="9"/>
-      <c r="H163" s="25"/>
+      <c r="G163" s="8"/>
+      <c r="H163" s="9"/>
       <c r="I163" s="25"/>
       <c r="J163" s="25"/>
       <c r="K163" s="25"/>
@@ -8992,18 +9188,19 @@
       <c r="U163" s="25"/>
       <c r="V163" s="25"/>
       <c r="W163" s="25"/>
-      <c r="X163" s="3"/>
+      <c r="X163" s="25"/>
       <c r="Y163" s="3"/>
-    </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z163" s="3"/>
+    </row>
+    <row r="164" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
-      <c r="D164" s="22"/>
-      <c r="E164" s="8"/>
+      <c r="D164" s="8"/>
+      <c r="E164" s="22"/>
       <c r="F164" s="8"/>
-      <c r="G164" s="9"/>
-      <c r="H164" s="25"/>
+      <c r="G164" s="8"/>
+      <c r="H164" s="9"/>
       <c r="I164" s="25"/>
       <c r="J164" s="25"/>
       <c r="K164" s="25"/>
@@ -9019,18 +9216,19 @@
       <c r="U164" s="25"/>
       <c r="V164" s="25"/>
       <c r="W164" s="25"/>
-      <c r="X164" s="3"/>
+      <c r="X164" s="25"/>
       <c r="Y164" s="3"/>
-    </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z164" s="3"/>
+    </row>
+    <row r="165" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
-      <c r="D165" s="22"/>
-      <c r="E165" s="8"/>
+      <c r="D165" s="8"/>
+      <c r="E165" s="22"/>
       <c r="F165" s="8"/>
-      <c r="G165" s="9"/>
-      <c r="H165" s="25"/>
+      <c r="G165" s="8"/>
+      <c r="H165" s="9"/>
       <c r="I165" s="25"/>
       <c r="J165" s="25"/>
       <c r="K165" s="25"/>
@@ -9046,18 +9244,19 @@
       <c r="U165" s="25"/>
       <c r="V165" s="25"/>
       <c r="W165" s="25"/>
-      <c r="X165" s="3"/>
+      <c r="X165" s="25"/>
       <c r="Y165" s="3"/>
-    </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z165" s="3"/>
+    </row>
+    <row r="166" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
-      <c r="D166" s="22"/>
-      <c r="E166" s="8"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="22"/>
       <c r="F166" s="8"/>
-      <c r="G166" s="9"/>
-      <c r="H166" s="25"/>
+      <c r="G166" s="8"/>
+      <c r="H166" s="9"/>
       <c r="I166" s="25"/>
       <c r="J166" s="25"/>
       <c r="K166" s="25"/>
@@ -9073,18 +9272,19 @@
       <c r="U166" s="25"/>
       <c r="V166" s="25"/>
       <c r="W166" s="25"/>
-      <c r="X166" s="3"/>
+      <c r="X166" s="25"/>
       <c r="Y166" s="3"/>
-    </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z166" s="3"/>
+    </row>
+    <row r="167" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
-      <c r="D167" s="22"/>
-      <c r="E167" s="8"/>
+      <c r="D167" s="8"/>
+      <c r="E167" s="22"/>
       <c r="F167" s="8"/>
-      <c r="G167" s="9"/>
-      <c r="H167" s="25"/>
+      <c r="G167" s="8"/>
+      <c r="H167" s="9"/>
       <c r="I167" s="25"/>
       <c r="J167" s="25"/>
       <c r="K167" s="25"/>
@@ -9100,18 +9300,19 @@
       <c r="U167" s="25"/>
       <c r="V167" s="25"/>
       <c r="W167" s="25"/>
-      <c r="X167" s="3"/>
+      <c r="X167" s="25"/>
       <c r="Y167" s="3"/>
-    </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z167" s="3"/>
+    </row>
+    <row r="168" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
-      <c r="D168" s="22"/>
-      <c r="E168" s="8"/>
+      <c r="D168" s="8"/>
+      <c r="E168" s="22"/>
       <c r="F168" s="8"/>
-      <c r="G168" s="9"/>
-      <c r="H168" s="25"/>
+      <c r="G168" s="8"/>
+      <c r="H168" s="9"/>
       <c r="I168" s="25"/>
       <c r="J168" s="25"/>
       <c r="K168" s="25"/>
@@ -9127,18 +9328,19 @@
       <c r="U168" s="25"/>
       <c r="V168" s="25"/>
       <c r="W168" s="25"/>
-      <c r="X168" s="3"/>
+      <c r="X168" s="25"/>
       <c r="Y168" s="3"/>
-    </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z168" s="3"/>
+    </row>
+    <row r="169" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
-      <c r="D169" s="22"/>
-      <c r="E169" s="8"/>
+      <c r="D169" s="8"/>
+      <c r="E169" s="22"/>
       <c r="F169" s="8"/>
-      <c r="G169" s="9"/>
-      <c r="H169" s="25"/>
+      <c r="G169" s="8"/>
+      <c r="H169" s="9"/>
       <c r="I169" s="25"/>
       <c r="J169" s="25"/>
       <c r="K169" s="25"/>
@@ -9154,18 +9356,19 @@
       <c r="U169" s="25"/>
       <c r="V169" s="25"/>
       <c r="W169" s="25"/>
-      <c r="X169" s="3"/>
+      <c r="X169" s="25"/>
       <c r="Y169" s="3"/>
-    </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z169" s="3"/>
+    </row>
+    <row r="170" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
-      <c r="D170" s="22"/>
-      <c r="E170" s="8"/>
+      <c r="D170" s="8"/>
+      <c r="E170" s="22"/>
       <c r="F170" s="8"/>
-      <c r="G170" s="9"/>
-      <c r="H170" s="25"/>
+      <c r="G170" s="8"/>
+      <c r="H170" s="9"/>
       <c r="I170" s="25"/>
       <c r="J170" s="25"/>
       <c r="K170" s="25"/>
@@ -9181,18 +9384,19 @@
       <c r="U170" s="25"/>
       <c r="V170" s="25"/>
       <c r="W170" s="25"/>
-      <c r="X170" s="3"/>
+      <c r="X170" s="25"/>
       <c r="Y170" s="3"/>
-    </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z170" s="3"/>
+    </row>
+    <row r="171" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
-      <c r="D171" s="22"/>
-      <c r="E171" s="8"/>
+      <c r="D171" s="8"/>
+      <c r="E171" s="22"/>
       <c r="F171" s="8"/>
-      <c r="G171" s="9"/>
-      <c r="H171" s="25"/>
+      <c r="G171" s="8"/>
+      <c r="H171" s="9"/>
       <c r="I171" s="25"/>
       <c r="J171" s="25"/>
       <c r="K171" s="25"/>
@@ -9208,18 +9412,19 @@
       <c r="U171" s="25"/>
       <c r="V171" s="25"/>
       <c r="W171" s="25"/>
-      <c r="X171" s="3"/>
+      <c r="X171" s="25"/>
       <c r="Y171" s="3"/>
-    </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z171" s="3"/>
+    </row>
+    <row r="172" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
-      <c r="D172" s="22"/>
-      <c r="E172" s="8"/>
+      <c r="D172" s="8"/>
+      <c r="E172" s="22"/>
       <c r="F172" s="8"/>
-      <c r="G172" s="9"/>
-      <c r="H172" s="25"/>
+      <c r="G172" s="8"/>
+      <c r="H172" s="9"/>
       <c r="I172" s="25"/>
       <c r="J172" s="25"/>
       <c r="K172" s="25"/>
@@ -9235,18 +9440,19 @@
       <c r="U172" s="25"/>
       <c r="V172" s="25"/>
       <c r="W172" s="25"/>
-      <c r="X172" s="3"/>
+      <c r="X172" s="25"/>
       <c r="Y172" s="3"/>
-    </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z172" s="3"/>
+    </row>
+    <row r="173" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
-      <c r="D173" s="22"/>
-      <c r="E173" s="8"/>
+      <c r="D173" s="8"/>
+      <c r="E173" s="22"/>
       <c r="F173" s="8"/>
-      <c r="G173" s="9"/>
-      <c r="H173" s="25"/>
+      <c r="G173" s="8"/>
+      <c r="H173" s="9"/>
       <c r="I173" s="25"/>
       <c r="J173" s="25"/>
       <c r="K173" s="25"/>
@@ -9262,18 +9468,19 @@
       <c r="U173" s="25"/>
       <c r="V173" s="25"/>
       <c r="W173" s="25"/>
-      <c r="X173" s="3"/>
+      <c r="X173" s="25"/>
       <c r="Y173" s="3"/>
-    </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z173" s="3"/>
+    </row>
+    <row r="174" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
-      <c r="D174" s="22"/>
-      <c r="E174" s="8"/>
+      <c r="D174" s="8"/>
+      <c r="E174" s="22"/>
       <c r="F174" s="8"/>
-      <c r="G174" s="9"/>
-      <c r="H174" s="25"/>
+      <c r="G174" s="8"/>
+      <c r="H174" s="9"/>
       <c r="I174" s="25"/>
       <c r="J174" s="25"/>
       <c r="K174" s="25"/>
@@ -9289,18 +9496,19 @@
       <c r="U174" s="25"/>
       <c r="V174" s="25"/>
       <c r="W174" s="25"/>
-      <c r="X174" s="3"/>
+      <c r="X174" s="25"/>
       <c r="Y174" s="3"/>
-    </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z174" s="3"/>
+    </row>
+    <row r="175" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
-      <c r="D175" s="22"/>
-      <c r="E175" s="8"/>
+      <c r="D175" s="8"/>
+      <c r="E175" s="22"/>
       <c r="F175" s="8"/>
-      <c r="G175" s="9"/>
-      <c r="H175" s="25"/>
+      <c r="G175" s="8"/>
+      <c r="H175" s="9"/>
       <c r="I175" s="25"/>
       <c r="J175" s="25"/>
       <c r="K175" s="25"/>
@@ -9316,18 +9524,19 @@
       <c r="U175" s="25"/>
       <c r="V175" s="25"/>
       <c r="W175" s="25"/>
-      <c r="X175" s="3"/>
+      <c r="X175" s="25"/>
       <c r="Y175" s="3"/>
-    </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z175" s="3"/>
+    </row>
+    <row r="176" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
-      <c r="D176" s="22"/>
-      <c r="E176" s="8"/>
+      <c r="D176" s="8"/>
+      <c r="E176" s="22"/>
       <c r="F176" s="8"/>
-      <c r="G176" s="9"/>
-      <c r="H176" s="25"/>
+      <c r="G176" s="8"/>
+      <c r="H176" s="9"/>
       <c r="I176" s="25"/>
       <c r="J176" s="25"/>
       <c r="K176" s="25"/>
@@ -9343,18 +9552,19 @@
       <c r="U176" s="25"/>
       <c r="V176" s="25"/>
       <c r="W176" s="25"/>
-      <c r="X176" s="3"/>
+      <c r="X176" s="25"/>
       <c r="Y176" s="3"/>
-    </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z176" s="3"/>
+    </row>
+    <row r="177" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="8"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
-      <c r="D177" s="22"/>
-      <c r="E177" s="8"/>
+      <c r="D177" s="8"/>
+      <c r="E177" s="22"/>
       <c r="F177" s="8"/>
-      <c r="G177" s="9"/>
-      <c r="H177" s="25"/>
+      <c r="G177" s="8"/>
+      <c r="H177" s="9"/>
       <c r="I177" s="25"/>
       <c r="J177" s="25"/>
       <c r="K177" s="25"/>
@@ -9370,18 +9580,19 @@
       <c r="U177" s="25"/>
       <c r="V177" s="25"/>
       <c r="W177" s="25"/>
-      <c r="X177" s="3"/>
+      <c r="X177" s="25"/>
       <c r="Y177" s="3"/>
-    </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z177" s="3"/>
+    </row>
+    <row r="178" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="8"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
-      <c r="D178" s="22"/>
-      <c r="E178" s="8"/>
+      <c r="D178" s="8"/>
+      <c r="E178" s="22"/>
       <c r="F178" s="8"/>
-      <c r="G178" s="9"/>
-      <c r="H178" s="25"/>
+      <c r="G178" s="8"/>
+      <c r="H178" s="9"/>
       <c r="I178" s="25"/>
       <c r="J178" s="25"/>
       <c r="K178" s="25"/>
@@ -9397,18 +9608,19 @@
       <c r="U178" s="25"/>
       <c r="V178" s="25"/>
       <c r="W178" s="25"/>
-      <c r="X178" s="3"/>
+      <c r="X178" s="25"/>
       <c r="Y178" s="3"/>
-    </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z178" s="3"/>
+    </row>
+    <row r="179" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
-      <c r="D179" s="22"/>
-      <c r="E179" s="8"/>
+      <c r="D179" s="8"/>
+      <c r="E179" s="22"/>
       <c r="F179" s="8"/>
-      <c r="G179" s="9"/>
-      <c r="H179" s="25"/>
+      <c r="G179" s="8"/>
+      <c r="H179" s="9"/>
       <c r="I179" s="25"/>
       <c r="J179" s="25"/>
       <c r="K179" s="25"/>
@@ -9424,18 +9636,19 @@
       <c r="U179" s="25"/>
       <c r="V179" s="25"/>
       <c r="W179" s="25"/>
-      <c r="X179" s="3"/>
+      <c r="X179" s="25"/>
       <c r="Y179" s="3"/>
-    </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z179" s="3"/>
+    </row>
+    <row r="180" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
-      <c r="D180" s="22"/>
-      <c r="E180" s="8"/>
+      <c r="D180" s="8"/>
+      <c r="E180" s="22"/>
       <c r="F180" s="8"/>
-      <c r="G180" s="9"/>
-      <c r="H180" s="25"/>
+      <c r="G180" s="8"/>
+      <c r="H180" s="9"/>
       <c r="I180" s="25"/>
       <c r="J180" s="25"/>
       <c r="K180" s="25"/>
@@ -9451,18 +9664,19 @@
       <c r="U180" s="25"/>
       <c r="V180" s="25"/>
       <c r="W180" s="25"/>
-      <c r="X180" s="3"/>
+      <c r="X180" s="25"/>
       <c r="Y180" s="3"/>
-    </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z180" s="3"/>
+    </row>
+    <row r="181" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="8"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
-      <c r="D181" s="22"/>
-      <c r="E181" s="8"/>
+      <c r="D181" s="8"/>
+      <c r="E181" s="22"/>
       <c r="F181" s="8"/>
-      <c r="G181" s="9"/>
-      <c r="H181" s="25"/>
+      <c r="G181" s="8"/>
+      <c r="H181" s="9"/>
       <c r="I181" s="25"/>
       <c r="J181" s="25"/>
       <c r="K181" s="25"/>
@@ -9478,18 +9692,19 @@
       <c r="U181" s="25"/>
       <c r="V181" s="25"/>
       <c r="W181" s="25"/>
-      <c r="X181" s="3"/>
+      <c r="X181" s="25"/>
       <c r="Y181" s="3"/>
-    </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z181" s="3"/>
+    </row>
+    <row r="182" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="8"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
-      <c r="D182" s="22"/>
-      <c r="E182" s="8"/>
+      <c r="D182" s="8"/>
+      <c r="E182" s="22"/>
       <c r="F182" s="8"/>
-      <c r="G182" s="9"/>
-      <c r="H182" s="25"/>
+      <c r="G182" s="8"/>
+      <c r="H182" s="9"/>
       <c r="I182" s="25"/>
       <c r="J182" s="25"/>
       <c r="K182" s="25"/>
@@ -9505,18 +9720,19 @@
       <c r="U182" s="25"/>
       <c r="V182" s="25"/>
       <c r="W182" s="25"/>
-      <c r="X182" s="3"/>
+      <c r="X182" s="25"/>
       <c r="Y182" s="3"/>
-    </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z182" s="3"/>
+    </row>
+    <row r="183" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="8"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
-      <c r="D183" s="22"/>
-      <c r="E183" s="8"/>
+      <c r="D183" s="8"/>
+      <c r="E183" s="22"/>
       <c r="F183" s="8"/>
-      <c r="G183" s="9"/>
-      <c r="H183" s="25"/>
+      <c r="G183" s="8"/>
+      <c r="H183" s="9"/>
       <c r="I183" s="25"/>
       <c r="J183" s="25"/>
       <c r="K183" s="25"/>
@@ -9532,18 +9748,19 @@
       <c r="U183" s="25"/>
       <c r="V183" s="25"/>
       <c r="W183" s="25"/>
-      <c r="X183" s="3"/>
+      <c r="X183" s="25"/>
       <c r="Y183" s="3"/>
-    </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z183" s="3"/>
+    </row>
+    <row r="184" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="8"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
-      <c r="D184" s="22"/>
-      <c r="E184" s="8"/>
+      <c r="D184" s="8"/>
+      <c r="E184" s="22"/>
       <c r="F184" s="8"/>
-      <c r="G184" s="9"/>
-      <c r="H184" s="25"/>
+      <c r="G184" s="8"/>
+      <c r="H184" s="9"/>
       <c r="I184" s="25"/>
       <c r="J184" s="25"/>
       <c r="K184" s="25"/>
@@ -9559,18 +9776,19 @@
       <c r="U184" s="25"/>
       <c r="V184" s="25"/>
       <c r="W184" s="25"/>
-      <c r="X184" s="3"/>
+      <c r="X184" s="25"/>
       <c r="Y184" s="3"/>
-    </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z184" s="3"/>
+    </row>
+    <row r="185" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="8"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
-      <c r="D185" s="22"/>
-      <c r="E185" s="8"/>
+      <c r="D185" s="8"/>
+      <c r="E185" s="22"/>
       <c r="F185" s="8"/>
-      <c r="G185" s="9"/>
-      <c r="H185" s="25"/>
+      <c r="G185" s="8"/>
+      <c r="H185" s="9"/>
       <c r="I185" s="25"/>
       <c r="J185" s="25"/>
       <c r="K185" s="25"/>
@@ -9586,18 +9804,19 @@
       <c r="U185" s="25"/>
       <c r="V185" s="25"/>
       <c r="W185" s="25"/>
-      <c r="X185" s="3"/>
+      <c r="X185" s="25"/>
       <c r="Y185" s="3"/>
-    </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z185" s="3"/>
+    </row>
+    <row r="186" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="8"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
-      <c r="D186" s="22"/>
-      <c r="E186" s="8"/>
+      <c r="D186" s="8"/>
+      <c r="E186" s="22"/>
       <c r="F186" s="8"/>
-      <c r="G186" s="9"/>
-      <c r="H186" s="25"/>
+      <c r="G186" s="8"/>
+      <c r="H186" s="9"/>
       <c r="I186" s="25"/>
       <c r="J186" s="25"/>
       <c r="K186" s="25"/>
@@ -9613,18 +9832,19 @@
       <c r="U186" s="25"/>
       <c r="V186" s="25"/>
       <c r="W186" s="25"/>
-      <c r="X186" s="3"/>
+      <c r="X186" s="25"/>
       <c r="Y186" s="3"/>
-    </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z186" s="3"/>
+    </row>
+    <row r="187" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="8"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
-      <c r="D187" s="22"/>
-      <c r="E187" s="8"/>
+      <c r="D187" s="8"/>
+      <c r="E187" s="22"/>
       <c r="F187" s="8"/>
-      <c r="G187" s="9"/>
-      <c r="H187" s="25"/>
+      <c r="G187" s="8"/>
+      <c r="H187" s="9"/>
       <c r="I187" s="25"/>
       <c r="J187" s="25"/>
       <c r="K187" s="25"/>
@@ -9640,18 +9860,19 @@
       <c r="U187" s="25"/>
       <c r="V187" s="25"/>
       <c r="W187" s="25"/>
-      <c r="X187" s="3"/>
+      <c r="X187" s="25"/>
       <c r="Y187" s="3"/>
-    </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z187" s="3"/>
+    </row>
+    <row r="188" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="8"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
-      <c r="D188" s="22"/>
-      <c r="E188" s="8"/>
+      <c r="D188" s="8"/>
+      <c r="E188" s="22"/>
       <c r="F188" s="8"/>
-      <c r="G188" s="9"/>
-      <c r="H188" s="25"/>
+      <c r="G188" s="8"/>
+      <c r="H188" s="9"/>
       <c r="I188" s="25"/>
       <c r="J188" s="25"/>
       <c r="K188" s="25"/>
@@ -9667,18 +9888,19 @@
       <c r="U188" s="25"/>
       <c r="V188" s="25"/>
       <c r="W188" s="25"/>
-      <c r="X188" s="3"/>
+      <c r="X188" s="25"/>
       <c r="Y188" s="3"/>
-    </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z188" s="3"/>
+    </row>
+    <row r="189" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="8"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
-      <c r="D189" s="22"/>
-      <c r="E189" s="8"/>
+      <c r="D189" s="8"/>
+      <c r="E189" s="22"/>
       <c r="F189" s="8"/>
-      <c r="G189" s="9"/>
-      <c r="H189" s="25"/>
+      <c r="G189" s="8"/>
+      <c r="H189" s="9"/>
       <c r="I189" s="25"/>
       <c r="J189" s="25"/>
       <c r="K189" s="25"/>
@@ -9694,18 +9916,19 @@
       <c r="U189" s="25"/>
       <c r="V189" s="25"/>
       <c r="W189" s="25"/>
-      <c r="X189" s="3"/>
+      <c r="X189" s="25"/>
       <c r="Y189" s="3"/>
-    </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z189" s="3"/>
+    </row>
+    <row r="190" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="8"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
-      <c r="D190" s="22"/>
-      <c r="E190" s="8"/>
+      <c r="D190" s="8"/>
+      <c r="E190" s="22"/>
       <c r="F190" s="8"/>
-      <c r="G190" s="9"/>
-      <c r="H190" s="25"/>
+      <c r="G190" s="8"/>
+      <c r="H190" s="9"/>
       <c r="I190" s="25"/>
       <c r="J190" s="25"/>
       <c r="K190" s="25"/>
@@ -9721,18 +9944,19 @@
       <c r="U190" s="25"/>
       <c r="V190" s="25"/>
       <c r="W190" s="25"/>
-      <c r="X190" s="3"/>
+      <c r="X190" s="25"/>
       <c r="Y190" s="3"/>
-    </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z190" s="3"/>
+    </row>
+    <row r="191" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="8"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
-      <c r="D191" s="22"/>
-      <c r="E191" s="8"/>
+      <c r="D191" s="8"/>
+      <c r="E191" s="22"/>
       <c r="F191" s="8"/>
-      <c r="G191" s="9"/>
-      <c r="H191" s="25"/>
+      <c r="G191" s="8"/>
+      <c r="H191" s="9"/>
       <c r="I191" s="25"/>
       <c r="J191" s="25"/>
       <c r="K191" s="25"/>
@@ -9748,18 +9972,19 @@
       <c r="U191" s="25"/>
       <c r="V191" s="25"/>
       <c r="W191" s="25"/>
-      <c r="X191" s="3"/>
+      <c r="X191" s="25"/>
       <c r="Y191" s="3"/>
-    </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z191" s="3"/>
+    </row>
+    <row r="192" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="8"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
-      <c r="D192" s="22"/>
-      <c r="E192" s="8"/>
+      <c r="D192" s="8"/>
+      <c r="E192" s="22"/>
       <c r="F192" s="8"/>
-      <c r="G192" s="9"/>
-      <c r="H192" s="25"/>
+      <c r="G192" s="8"/>
+      <c r="H192" s="9"/>
       <c r="I192" s="25"/>
       <c r="J192" s="25"/>
       <c r="K192" s="25"/>
@@ -9775,18 +10000,19 @@
       <c r="U192" s="25"/>
       <c r="V192" s="25"/>
       <c r="W192" s="25"/>
-      <c r="X192" s="3"/>
+      <c r="X192" s="25"/>
       <c r="Y192" s="3"/>
-    </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z192" s="3"/>
+    </row>
+    <row r="193" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="8"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
-      <c r="D193" s="22"/>
-      <c r="E193" s="8"/>
+      <c r="D193" s="8"/>
+      <c r="E193" s="22"/>
       <c r="F193" s="8"/>
-      <c r="G193" s="9"/>
-      <c r="H193" s="25"/>
+      <c r="G193" s="8"/>
+      <c r="H193" s="9"/>
       <c r="I193" s="25"/>
       <c r="J193" s="25"/>
       <c r="K193" s="25"/>
@@ -9802,18 +10028,19 @@
       <c r="U193" s="25"/>
       <c r="V193" s="25"/>
       <c r="W193" s="25"/>
-      <c r="X193" s="3"/>
+      <c r="X193" s="25"/>
       <c r="Y193" s="3"/>
-    </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z193" s="3"/>
+    </row>
+    <row r="194" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="8"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
-      <c r="D194" s="22"/>
-      <c r="E194" s="8"/>
+      <c r="D194" s="8"/>
+      <c r="E194" s="22"/>
       <c r="F194" s="8"/>
-      <c r="G194" s="9"/>
-      <c r="H194" s="25"/>
+      <c r="G194" s="8"/>
+      <c r="H194" s="9"/>
       <c r="I194" s="25"/>
       <c r="J194" s="25"/>
       <c r="K194" s="25"/>
@@ -9829,18 +10056,19 @@
       <c r="U194" s="25"/>
       <c r="V194" s="25"/>
       <c r="W194" s="25"/>
-      <c r="X194" s="3"/>
+      <c r="X194" s="25"/>
       <c r="Y194" s="3"/>
-    </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z194" s="3"/>
+    </row>
+    <row r="195" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="8"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
-      <c r="D195" s="22"/>
-      <c r="E195" s="8"/>
+      <c r="D195" s="8"/>
+      <c r="E195" s="22"/>
       <c r="F195" s="8"/>
-      <c r="G195" s="9"/>
-      <c r="H195" s="25"/>
+      <c r="G195" s="8"/>
+      <c r="H195" s="9"/>
       <c r="I195" s="25"/>
       <c r="J195" s="25"/>
       <c r="K195" s="25"/>
@@ -9856,18 +10084,19 @@
       <c r="U195" s="25"/>
       <c r="V195" s="25"/>
       <c r="W195" s="25"/>
-      <c r="X195" s="3"/>
+      <c r="X195" s="25"/>
       <c r="Y195" s="3"/>
-    </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z195" s="3"/>
+    </row>
+    <row r="196" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="8"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
-      <c r="D196" s="22"/>
-      <c r="E196" s="8"/>
+      <c r="D196" s="8"/>
+      <c r="E196" s="22"/>
       <c r="F196" s="8"/>
-      <c r="G196" s="9"/>
-      <c r="H196" s="25"/>
+      <c r="G196" s="8"/>
+      <c r="H196" s="9"/>
       <c r="I196" s="25"/>
       <c r="J196" s="25"/>
       <c r="K196" s="25"/>
@@ -9883,18 +10112,19 @@
       <c r="U196" s="25"/>
       <c r="V196" s="25"/>
       <c r="W196" s="25"/>
-      <c r="X196" s="3"/>
+      <c r="X196" s="25"/>
       <c r="Y196" s="3"/>
-    </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z196" s="3"/>
+    </row>
+    <row r="197" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="8"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
-      <c r="D197" s="22"/>
-      <c r="E197" s="8"/>
+      <c r="D197" s="8"/>
+      <c r="E197" s="22"/>
       <c r="F197" s="8"/>
-      <c r="G197" s="9"/>
-      <c r="H197" s="25"/>
+      <c r="G197" s="8"/>
+      <c r="H197" s="9"/>
       <c r="I197" s="25"/>
       <c r="J197" s="25"/>
       <c r="K197" s="25"/>
@@ -9910,18 +10140,19 @@
       <c r="U197" s="25"/>
       <c r="V197" s="25"/>
       <c r="W197" s="25"/>
-      <c r="X197" s="3"/>
+      <c r="X197" s="25"/>
       <c r="Y197" s="3"/>
-    </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z197" s="3"/>
+    </row>
+    <row r="198" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="8"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
-      <c r="D198" s="22"/>
-      <c r="E198" s="8"/>
+      <c r="D198" s="8"/>
+      <c r="E198" s="22"/>
       <c r="F198" s="8"/>
-      <c r="G198" s="9"/>
-      <c r="H198" s="25"/>
+      <c r="G198" s="8"/>
+      <c r="H198" s="9"/>
       <c r="I198" s="25"/>
       <c r="J198" s="25"/>
       <c r="K198" s="25"/>
@@ -9937,18 +10168,19 @@
       <c r="U198" s="25"/>
       <c r="V198" s="25"/>
       <c r="W198" s="25"/>
-      <c r="X198" s="3"/>
+      <c r="X198" s="25"/>
       <c r="Y198" s="3"/>
-    </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z198" s="3"/>
+    </row>
+    <row r="199" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="8"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
-      <c r="D199" s="22"/>
-      <c r="E199" s="8"/>
+      <c r="D199" s="8"/>
+      <c r="E199" s="22"/>
       <c r="F199" s="8"/>
-      <c r="G199" s="9"/>
-      <c r="H199" s="25"/>
+      <c r="G199" s="8"/>
+      <c r="H199" s="9"/>
       <c r="I199" s="25"/>
       <c r="J199" s="25"/>
       <c r="K199" s="25"/>
@@ -9964,18 +10196,19 @@
       <c r="U199" s="25"/>
       <c r="V199" s="25"/>
       <c r="W199" s="25"/>
-      <c r="X199" s="3"/>
+      <c r="X199" s="25"/>
       <c r="Y199" s="3"/>
-    </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z199" s="3"/>
+    </row>
+    <row r="200" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="8"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
-      <c r="D200" s="22"/>
-      <c r="E200" s="8"/>
+      <c r="D200" s="8"/>
+      <c r="E200" s="22"/>
       <c r="F200" s="8"/>
-      <c r="G200" s="9"/>
-      <c r="H200" s="25"/>
+      <c r="G200" s="8"/>
+      <c r="H200" s="9"/>
       <c r="I200" s="25"/>
       <c r="J200" s="25"/>
       <c r="K200" s="25"/>
@@ -9991,18 +10224,19 @@
       <c r="U200" s="25"/>
       <c r="V200" s="25"/>
       <c r="W200" s="25"/>
-      <c r="X200" s="3"/>
+      <c r="X200" s="25"/>
       <c r="Y200" s="3"/>
-    </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z200" s="3"/>
+    </row>
+    <row r="201" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="8"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
-      <c r="D201" s="22"/>
-      <c r="E201" s="8"/>
+      <c r="D201" s="8"/>
+      <c r="E201" s="22"/>
       <c r="F201" s="8"/>
-      <c r="G201" s="9"/>
-      <c r="H201" s="25"/>
+      <c r="G201" s="8"/>
+      <c r="H201" s="9"/>
       <c r="I201" s="25"/>
       <c r="J201" s="25"/>
       <c r="K201" s="25"/>
@@ -10018,25 +10252,26 @@
       <c r="U201" s="25"/>
       <c r="V201" s="25"/>
       <c r="W201" s="25"/>
-      <c r="X201" s="3"/>
+      <c r="X201" s="25"/>
       <c r="Y201" s="3"/>
+      <c r="Z201" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid ID" error="ID must be an integer greater than 0." sqref="X2:X1048576" xr:uid="{EF111386-0BAE-4DDF-A24D-79B0B7D4CC7E}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid ID" error="ID must be an integer greater than 0." sqref="Y2:Y1048576" xr:uid="{EF111386-0BAE-4DDF-A24D-79B0B7D4CC7E}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576" xr:uid="{6F7C7187-3764-415A-BC5A-14E3BBE20675}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576" xr:uid="{6F7C7187-3764-415A-BC5A-14E3BBE20675}">
       <formula1>"NonProduction, Attended, Unattended, Studio, Development, StudioX, Headless, StudioPro, TestAutomation"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576 L2:L1048576 V2:W2 V2:W1048576 O2:O1048576 O2 O3:O1048576 Q3:R1048576 Q2:R1048576 Q2:R2 V3:W1048576 H2:H1048576" xr:uid="{B4730FF1-EE13-4FD9-927F-DE1C7444137B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576 M2:M1048576 W2:X2 W2:X1048576 P2:P1048576 P2 P3:P1048576 R3:S1048576 R2:S1048576 R2:S2 W3:X1048576 I2:I1048576" xr:uid="{B4730FF1-EE13-4FD9-927F-DE1C7444137B}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P1048576" xr:uid="{2380D758-D9E5-4B34-8FB6-E35BEFBAAAAF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576" xr:uid="{2380D758-D9E5-4B34-8FB6-E35BEFBAAAAF}">
       <formula1>"Verbose, Trace, Information, Warning, Error, Critical, Off"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:U1048576" xr:uid="{42A5B7D1-A07F-4DE2-9D78-9FFB6342D7C5}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:V1048576" xr:uid="{42A5B7D1-A07F-4DE2-9D78-9FFB6342D7C5}">
       <formula1>0</formula1>
       <formula2>32767</formula2>
     </dataValidation>
@@ -10086,58 +10321,58 @@
         <v>8</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J1" s="25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L1" s="25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M1" s="25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N1" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O1" s="25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P1" s="25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q1" s="25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R1" s="25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S1" s="25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T1" s="25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U1" s="25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V1" s="25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W1" s="21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
@@ -14997,7 +15232,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -16033,16 +16268,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -17279,16 +17514,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">

--- a/Workbooks/JA/ユーザー.xlsx
+++ b/Workbooks/JA/ユーザー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFCE773-6A5A-4DC3-93E7-F3E8B23FD490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049C2B2E-DB8E-4F52-A5F1-E4CC4C93B7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="4940" windowWidth="28800" windowHeight="15460" tabRatio="774" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="61575" yWindow="1260" windowWidth="23640" windowHeight="12630" tabRatio="774" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/ユーザー.xlsx
+++ b/Workbooks/JA/ユーザー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049C2B2E-DB8E-4F52-A5F1-E4CC4C93B7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDE6DCE-5D59-4B54-BE3E-C1DCD560DBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="61575" yWindow="1260" windowWidth="23640" windowHeight="12630" tabRatio="774" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Workbooks/JA/ユーザー.xlsx
+++ b/Workbooks/JA/ユーザー.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDE6DCE-5D59-4B54-BE3E-C1DCD560DBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AC11AF-44BB-41D5-8B7D-C51434D7A690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61575" yWindow="1260" windowWidth="23640" windowHeight="12630" tabRatio="774" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60075" yWindow="1200" windowWidth="35190" windowHeight="12660" tabRatio="774" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/ユーザー.xlsx
+++ b/Workbooks/JA/ユーザー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AC11AF-44BB-41D5-8B7D-C51434D7A690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F68F86-FFE5-4A53-9AC2-57F59F28387A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60075" yWindow="1200" windowWidth="35190" windowHeight="12660" tabRatio="774" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Workbooks/JA/ユーザー.xlsx
+++ b/Workbooks/JA/ユーザー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F68F86-FFE5-4A53-9AC2-57F59F28387A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB9B5A9-B739-45EE-A1B7-0AE6257ED5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60075" yWindow="1200" windowWidth="35190" windowHeight="12660" tabRatio="774" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60585" yWindow="1710" windowWidth="35190" windowHeight="12660" tabRatio="774" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/ユーザー.xlsx
+++ b/Workbooks/JA/ユーザー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB9B5A9-B739-45EE-A1B7-0AE6257ED5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3673E358-2EFB-4C38-BD5E-9194A8333B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60585" yWindow="1710" windowWidth="35190" windowHeight="12660" tabRatio="774" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60075" yWindow="1200" windowWidth="35190" windowHeight="12660" tabRatio="774" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/ユーザー.xlsx
+++ b/Workbooks/JA/ユーザー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3673E358-2EFB-4C38-BD5E-9194A8333B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92C06F1-2DC1-49D8-B54C-99E8E0F41B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60075" yWindow="1200" windowWidth="35190" windowHeight="12660" tabRatio="774" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="774" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/ユーザー.xlsx
+++ b/Workbooks/JA/ユーザー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92C06F1-2DC1-49D8-B54C-99E8E0F41B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2B2140-F9CF-4CBF-83C9-37D1117F7ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="774" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="10690" windowWidth="19420" windowHeight="10420" tabRatio="774" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/ユーザー.xlsx
+++ b/Workbooks/JA/ユーザー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078CB9E2-1B2D-4C18-99E1-D46EC5C13869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0244C7-AA9B-4B51-A21C-C6796206FB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8550" yWindow="2430" windowWidth="28800" windowHeight="11385" tabRatio="774" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5925" yWindow="1335" windowWidth="30510" windowHeight="10200" tabRatio="774" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
   <si>
     <t>タイプ</t>
     <phoneticPr fontId="3"/>
@@ -116,6 +116,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Atteded ロボットを作成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ドメイン\ユーザ名 - Attended ロボット</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,6 +133,10 @@
   </si>
   <si>
     <t>スタンドアロンライセンス - Attended ロボット</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unatteded ロボットを作成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -192,6 +200,10 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>Atteded ロボットを作成</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>ドメイン\ユーザ名 - Attended ロボット</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -205,6 +217,10 @@
   </si>
   <si>
     <t>スタンドアロンライセンス - Attended ロボット</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Unatteded ロボットを作成</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -574,7 +590,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="86">
+  <dxfs count="90">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -1072,6 +1088,28 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="5"/>
@@ -1243,6 +1281,28 @@
           <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
       </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -1930,74 +1990,78 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:J201" headerRowDxfId="85" dataDxfId="83" totalsRowDxfId="81" headerRowBorderDxfId="84" tableBorderDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:J201" headerRowDxfId="89" dataDxfId="87" totalsRowDxfId="85" headerRowBorderDxfId="88" tableBorderDxfId="86">
   <autoFilter ref="A1:J201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="10">
-    <tableColumn id="9" xr3:uid="{06CD766F-781E-4B1E-8E49-C07F180816BA}" name="タイプ" dataDxfId="80" totalsRowDxfId="79"/>
-    <tableColumn id="8" xr3:uid="{1372863E-1574-486C-96A5-9F8A48DBEB17}" name="ID" dataDxfId="78"/>
-    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="ユーザー名" dataDxfId="77"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="名" totalsRowLabel="Total" dataDxfId="76"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="姓" dataDxfId="75"/>
-    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="メールアドレス" dataDxfId="74"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="組織単位名" totalsRowFunction="count" dataDxfId="73"/>
-    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="ロール名" dataDxfId="72"/>
-    <tableColumn id="10" xr3:uid="{F168EEBC-DF91-4BD6-8A2C-0C238D044E55}" name="ライセンスの種類" dataDxfId="71"/>
-    <tableColumn id="4" xr3:uid="{73F4371D-09E6-432B-A8D2-FDF51584A3F9}" name="ステータス" dataDxfId="70"/>
+    <tableColumn id="9" xr3:uid="{06CD766F-781E-4B1E-8E49-C07F180816BA}" name="タイプ" dataDxfId="84" totalsRowDxfId="83"/>
+    <tableColumn id="8" xr3:uid="{1372863E-1574-486C-96A5-9F8A48DBEB17}" name="ID" dataDxfId="82"/>
+    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="ユーザー名" dataDxfId="81"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="名" totalsRowLabel="Total" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="姓" dataDxfId="79"/>
+    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="メールアドレス" dataDxfId="78"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="組織単位名" totalsRowFunction="count" dataDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="ロール名" dataDxfId="76"/>
+    <tableColumn id="10" xr3:uid="{F168EEBC-DF91-4BD6-8A2C-0C238D044E55}" name="ライセンスの種類" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{73F4371D-09E6-432B-A8D2-FDF51584A3F9}" name="ステータス" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:Z201" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
-  <autoFilter ref="A1:Z201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="26">
-    <tableColumn id="10" xr3:uid="{65749B7E-1278-4BF9-BE0E-B0B1A7EBF445}" name="ユーザー名 *" dataDxfId="67"/>
-    <tableColumn id="26" xr3:uid="{038ED767-0AD3-4903-8220-FE18439B9060}" name="ドメイン名 (ディレクトリ)" dataDxfId="66"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="名" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="姓" dataDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="メールアドレス" dataDxfId="63"/>
-    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="組織単位名" dataDxfId="62"/>
-    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="ロール" dataDxfId="61"/>
-    <tableColumn id="9" xr3:uid="{4E111FFE-AC48-4FF2-B3E5-DEDE4EC1D531}" name="パスワード" dataDxfId="60"/>
-    <tableColumn id="25" xr3:uid="{D520E602-B3C2-4F82-8D83-415FE0050004}" name="Web ログインを許可" dataDxfId="59"/>
-    <tableColumn id="14" xr3:uid="{1A4FAD89-F93A-4B1B-84C7-B32A3F985830}" name="ドメイン\ユーザ名 - Attended ロボット" dataDxfId="58"/>
-    <tableColumn id="15" xr3:uid="{DA0547EC-F276-415B-92E5-028784C029B7}" name="ライセンスの種類 - Attended ロボット" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{7108AAA8-2061-479C-A446-E6DA738F4D8B}" name="個人のワークスペースを作成 - Attended ロボット" dataDxfId="56"/>
-    <tableColumn id="12" xr3:uid="{D04E7F8D-CC16-4F65-9D9D-973F2498F4FC}" name="スタンドアロンライセンス - Attended ロボット" dataDxfId="55"/>
-    <tableColumn id="13" xr3:uid="{5E413036-A266-4CF7-A1FD-79FDAC7F9601}" name="ドメイン\ユーザー名 - Unattended ロボット" dataDxfId="54"/>
-    <tableColumn id="11" xr3:uid="{79ADE701-342C-46D1-AB7A-751E972CD13C}" name="パスワード - Unattended Robot" dataDxfId="53"/>
-    <tableColumn id="16" xr3:uid="{E6C49AE1-50A3-4A1E-B68A-0B2B0C10E805}" name="同時接続実行を無効化 - Unattended Robot" dataDxfId="52"/>
-    <tableColumn id="17" xr3:uid="{46C87FCA-C0AC-4AD1-8317-80E1CF50F2D2}" name="ログレベル" dataDxfId="51"/>
-    <tableColumn id="18" xr3:uid="{57EF6998-E383-4F06-B1DA-C52A08349D91}" name="開発ログを許可" dataDxfId="50"/>
-    <tableColumn id="19" xr3:uid="{275263AD-3D21-4069-803E-5DB25F17969D}" name="コンソールへログイン" dataDxfId="49"/>
-    <tableColumn id="24" xr3:uid="{1EDB8FD2-8E09-4474-91A5-A36ECEB14726}" name="解像度の幅" dataDxfId="48"/>
-    <tableColumn id="23" xr3:uid="{DB0036E5-18AF-4A7A-A604-C4CE721E562A}" name="解像度の高さ" dataDxfId="47"/>
-    <tableColumn id="22" xr3:uid="{36F3B513-66B2-4106-8E60-914DCF115BF0}" name="解像度の階調" dataDxfId="46"/>
-    <tableColumn id="20" xr3:uid="{8D155233-4738-4D3E-98AB-9BC866128487}" name="フォントスムージング" dataDxfId="45"/>
-    <tableColumn id="21" xr3:uid="{1F0CDD28-64EC-4EBF-91ED-86542199B14B}" name="プロセスを自動ダウンロード" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="ID" dataDxfId="43"/>
-    <tableColumn id="8" xr3:uid="{08B4DCAC-6628-4928-B533-CE43508622D2}" name="結果" dataDxfId="42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AB201" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72">
+  <autoFilter ref="A1:AB201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="28">
+    <tableColumn id="10" xr3:uid="{65749B7E-1278-4BF9-BE0E-B0B1A7EBF445}" name="ユーザー名 *" dataDxfId="71"/>
+    <tableColumn id="26" xr3:uid="{038ED767-0AD3-4903-8220-FE18439B9060}" name="ドメイン名 (ディレクトリ)" dataDxfId="70"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="名" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="姓" dataDxfId="68"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="メールアドレス" dataDxfId="67"/>
+    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="組織単位名" dataDxfId="66"/>
+    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="ロール" dataDxfId="65"/>
+    <tableColumn id="9" xr3:uid="{4E111FFE-AC48-4FF2-B3E5-DEDE4EC1D531}" name="パスワード" dataDxfId="64"/>
+    <tableColumn id="25" xr3:uid="{D520E602-B3C2-4F82-8D83-415FE0050004}" name="Web ログインを許可" dataDxfId="63"/>
+    <tableColumn id="27" xr3:uid="{AE80027D-16A4-4743-987C-2B8B5568DC93}" name="Atteded ロボットを作成" dataDxfId="62"/>
+    <tableColumn id="14" xr3:uid="{1A4FAD89-F93A-4B1B-84C7-B32A3F985830}" name="ドメイン\ユーザ名 - Attended ロボット" dataDxfId="61"/>
+    <tableColumn id="15" xr3:uid="{DA0547EC-F276-415B-92E5-028784C029B7}" name="ライセンスの種類 - Attended ロボット" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{7108AAA8-2061-479C-A446-E6DA738F4D8B}" name="個人のワークスペースを作成 - Attended ロボット" dataDxfId="59"/>
+    <tableColumn id="12" xr3:uid="{D04E7F8D-CC16-4F65-9D9D-973F2498F4FC}" name="スタンドアロンライセンス - Attended ロボット" dataDxfId="58"/>
+    <tableColumn id="28" xr3:uid="{1EA6732A-46AA-4AC0-91C1-FBACD51337DD}" name="Unatteded ロボットを作成" dataDxfId="57"/>
+    <tableColumn id="13" xr3:uid="{5E413036-A266-4CF7-A1FD-79FDAC7F9601}" name="ドメイン\ユーザー名 - Unattended ロボット" dataDxfId="56"/>
+    <tableColumn id="11" xr3:uid="{79ADE701-342C-46D1-AB7A-751E972CD13C}" name="パスワード - Unattended Robot" dataDxfId="55"/>
+    <tableColumn id="16" xr3:uid="{E6C49AE1-50A3-4A1E-B68A-0B2B0C10E805}" name="同時接続実行を無効化 - Unattended Robot" dataDxfId="54"/>
+    <tableColumn id="17" xr3:uid="{46C87FCA-C0AC-4AD1-8317-80E1CF50F2D2}" name="ログレベル" dataDxfId="53"/>
+    <tableColumn id="18" xr3:uid="{57EF6998-E383-4F06-B1DA-C52A08349D91}" name="開発ログを許可" dataDxfId="52"/>
+    <tableColumn id="19" xr3:uid="{275263AD-3D21-4069-803E-5DB25F17969D}" name="コンソールへログイン" dataDxfId="51"/>
+    <tableColumn id="24" xr3:uid="{1EDB8FD2-8E09-4474-91A5-A36ECEB14726}" name="解像度の幅" dataDxfId="50"/>
+    <tableColumn id="23" xr3:uid="{DB0036E5-18AF-4A7A-A604-C4CE721E562A}" name="解像度の高さ" dataDxfId="49"/>
+    <tableColumn id="22" xr3:uid="{36F3B513-66B2-4106-8E60-914DCF115BF0}" name="解像度の階調" dataDxfId="48"/>
+    <tableColumn id="20" xr3:uid="{8D155233-4738-4D3E-98AB-9BC866128487}" name="フォントスムージング" dataDxfId="47"/>
+    <tableColumn id="21" xr3:uid="{1F0CDD28-64EC-4EBF-91ED-86542199B14B}" name="プロセスを自動ダウンロード" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="ID" dataDxfId="45"/>
+    <tableColumn id="8" xr3:uid="{08B4DCAC-6628-4928-B533-CE43508622D2}" name="結果" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:W201" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
-  <autoFilter ref="A1:W201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="23">
-    <tableColumn id="3" xr3:uid="{01450210-36BE-4B28-9B3B-758A2770B142}" name="ID" dataDxfId="39"/>
-    <tableColumn id="1" xr3:uid="{D002318D-F09E-4941-86F7-CB540B53CA38}" name="名" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="姓" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="メールアドレス" dataDxfId="36"/>
-    <tableColumn id="9" xr3:uid="{310BA8C6-70B4-40F4-B90F-2C40BB19BC10}" name="ステータス" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="パスワード" dataDxfId="34"/>
-    <tableColumn id="10" xr3:uid="{3431FCE0-26EF-4093-9AE7-4084AE841E8A}" name="Web ログインを許可" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{D8AF75B1-BA5F-4C40-881D-BE4839E452FB}" name="ドメイン\ユーザ名 - Attended ロボット" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{9A1A257D-4C53-482B-A330-4A8DCE96C60A}" name="ライセンスの種類 - Attended ロボット" dataDxfId="31"/>
-    <tableColumn id="14" xr3:uid="{C4940F77-AEFE-4413-8C8E-2CBEFB736317}" name="個人のワークスペースを作成 - Attended ロボット" dataDxfId="30"/>
-    <tableColumn id="15" xr3:uid="{F7FF3B29-DE31-4E85-8342-0FADB80BB48C}" name="スタンドアロンライセンス - Attended ロボット" dataDxfId="29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:Y201" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="A1:Y201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="25">
+    <tableColumn id="3" xr3:uid="{01450210-36BE-4B28-9B3B-758A2770B142}" name="ID" dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{D002318D-F09E-4941-86F7-CB540B53CA38}" name="名" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="姓" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="メールアドレス" dataDxfId="38"/>
+    <tableColumn id="9" xr3:uid="{310BA8C6-70B4-40F4-B90F-2C40BB19BC10}" name="ステータス" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="パスワード" dataDxfId="36"/>
+    <tableColumn id="10" xr3:uid="{3431FCE0-26EF-4093-9AE7-4084AE841E8A}" name="Web ログインを許可" dataDxfId="35"/>
+    <tableColumn id="11" xr3:uid="{9D6CE8B3-5135-423E-9EB3-C3D821397366}" name="Atteded ロボットを作成" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{D8AF75B1-BA5F-4C40-881D-BE4839E452FB}" name="ドメイン\ユーザ名 - Attended ロボット" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{9A1A257D-4C53-482B-A330-4A8DCE96C60A}" name="ライセンスの種類 - Attended ロボット" dataDxfId="32"/>
+    <tableColumn id="14" xr3:uid="{C4940F77-AEFE-4413-8C8E-2CBEFB736317}" name="個人のワークスペースを作成 - Attended ロボット" dataDxfId="31"/>
+    <tableColumn id="15" xr3:uid="{F7FF3B29-DE31-4E85-8342-0FADB80BB48C}" name="スタンドアロンライセンス - Attended ロボット" dataDxfId="30"/>
+    <tableColumn id="12" xr3:uid="{69C7D05D-6548-42DE-831F-BCDAC63BE0DA}" name="Unatteded ロボットを作成" dataDxfId="29"/>
     <tableColumn id="16" xr3:uid="{DFD2B603-59FD-4B56-9A88-14DCC2549155}" name="ドメイン\ユーザー名 - Unattended ロボット" dataDxfId="28"/>
     <tableColumn id="17" xr3:uid="{7EBE6B6B-CBB3-4B4C-B66D-8E0975320B3F}" name="パスワード - Unattended Robot" dataDxfId="27"/>
     <tableColumn id="18" xr3:uid="{EC106D03-6620-4CAF-ADF1-8D4E1F1A3F92}" name="同時接続実行を無効化 - Unattended Robot" dataDxfId="26"/>
@@ -4789,9 +4853,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Z201"/>
+  <dimension ref="A1:AB201"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4800,14 +4864,14 @@
     <col min="1" max="4" width="25.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.75" style="2" customWidth="1"/>
     <col min="6" max="7" width="45.75" style="2" customWidth="1"/>
-    <col min="8" max="24" width="25.75" style="2" customWidth="1"/>
-    <col min="25" max="25" width="15.75" style="2" customWidth="1"/>
-    <col min="26" max="26" width="45.75" style="2" customWidth="1"/>
-    <col min="27" max="27" width="11.25" style="2" customWidth="1"/>
-    <col min="28" max="16384" width="8.75" style="2"/>
+    <col min="8" max="26" width="25.75" style="2" customWidth="1"/>
+    <col min="27" max="27" width="15.75" style="2" customWidth="1"/>
+    <col min="28" max="28" width="45.75" style="2" customWidth="1"/>
+    <col min="29" max="29" width="11.25" style="2" customWidth="1"/>
+    <col min="30" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="36.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" ht="36.75" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
@@ -4880,14 +4944,20 @@
       <c r="X1" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="Y1" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="Z1" s="25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB1" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -4912,10 +4982,12 @@
       <c r="V2" s="26"/>
       <c r="W2" s="26"/>
       <c r="X2" s="26"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -4940,10 +5012,12 @@
       <c r="V3" s="25"/>
       <c r="W3" s="25"/>
       <c r="X3" s="25"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -4968,10 +5042,12 @@
       <c r="V4" s="25"/>
       <c r="W4" s="25"/>
       <c r="X4" s="25"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -4996,10 +5072,12 @@
       <c r="V5" s="25"/>
       <c r="W5" s="25"/>
       <c r="X5" s="25"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -5024,10 +5102,12 @@
       <c r="V6" s="25"/>
       <c r="W6" s="25"/>
       <c r="X6" s="25"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -5052,10 +5132,12 @@
       <c r="V7" s="25"/>
       <c r="W7" s="25"/>
       <c r="X7" s="25"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -5080,10 +5162,12 @@
       <c r="V8" s="25"/>
       <c r="W8" s="25"/>
       <c r="X8" s="25"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -5108,10 +5192,12 @@
       <c r="V9" s="25"/>
       <c r="W9" s="25"/>
       <c r="X9" s="25"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -5136,10 +5222,12 @@
       <c r="V10" s="25"/>
       <c r="W10" s="25"/>
       <c r="X10" s="25"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -5164,10 +5252,12 @@
       <c r="V11" s="25"/>
       <c r="W11" s="25"/>
       <c r="X11" s="25"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -5192,10 +5282,12 @@
       <c r="V12" s="25"/>
       <c r="W12" s="25"/>
       <c r="X12" s="25"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -5220,10 +5312,12 @@
       <c r="V13" s="25"/>
       <c r="W13" s="25"/>
       <c r="X13" s="25"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -5248,10 +5342,12 @@
       <c r="V14" s="25"/>
       <c r="W14" s="25"/>
       <c r="X14" s="25"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -5276,10 +5372,12 @@
       <c r="V15" s="25"/>
       <c r="W15" s="25"/>
       <c r="X15" s="25"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -5304,10 +5402,12 @@
       <c r="V16" s="25"/>
       <c r="W16" s="25"/>
       <c r="X16" s="25"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -5332,10 +5432,12 @@
       <c r="V17" s="25"/>
       <c r="W17" s="25"/>
       <c r="X17" s="25"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -5360,10 +5462,12 @@
       <c r="V18" s="25"/>
       <c r="W18" s="25"/>
       <c r="X18" s="25"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -5388,10 +5492,12 @@
       <c r="V19" s="25"/>
       <c r="W19" s="25"/>
       <c r="X19" s="25"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -5416,10 +5522,12 @@
       <c r="V20" s="25"/>
       <c r="W20" s="25"/>
       <c r="X20" s="25"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -5444,10 +5552,12 @@
       <c r="V21" s="25"/>
       <c r="W21" s="25"/>
       <c r="X21" s="25"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -5472,10 +5582,12 @@
       <c r="V22" s="25"/>
       <c r="W22" s="25"/>
       <c r="X22" s="25"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -5500,10 +5612,12 @@
       <c r="V23" s="25"/>
       <c r="W23" s="25"/>
       <c r="X23" s="25"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -5528,10 +5642,12 @@
       <c r="V24" s="25"/>
       <c r="W24" s="25"/>
       <c r="X24" s="25"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -5556,10 +5672,12 @@
       <c r="V25" s="25"/>
       <c r="W25" s="25"/>
       <c r="X25" s="25"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -5584,10 +5702,12 @@
       <c r="V26" s="25"/>
       <c r="W26" s="25"/>
       <c r="X26" s="25"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -5612,10 +5732,12 @@
       <c r="V27" s="25"/>
       <c r="W27" s="25"/>
       <c r="X27" s="25"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -5640,10 +5762,12 @@
       <c r="V28" s="25"/>
       <c r="W28" s="25"/>
       <c r="X28" s="25"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="25"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -5668,10 +5792,12 @@
       <c r="V29" s="25"/>
       <c r="W29" s="25"/>
       <c r="X29" s="25"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y29" s="25"/>
+      <c r="Z29" s="25"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -5696,10 +5822,12 @@
       <c r="V30" s="25"/>
       <c r="W30" s="25"/>
       <c r="X30" s="25"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="25"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -5724,10 +5852,12 @@
       <c r="V31" s="25"/>
       <c r="W31" s="25"/>
       <c r="X31" s="25"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y31" s="25"/>
+      <c r="Z31" s="25"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -5752,10 +5882,12 @@
       <c r="V32" s="25"/>
       <c r="W32" s="25"/>
       <c r="X32" s="25"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y32" s="25"/>
+      <c r="Z32" s="25"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -5780,10 +5912,12 @@
       <c r="V33" s="25"/>
       <c r="W33" s="25"/>
       <c r="X33" s="25"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y33" s="25"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -5808,10 +5942,12 @@
       <c r="V34" s="25"/>
       <c r="W34" s="25"/>
       <c r="X34" s="25"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y34" s="25"/>
+      <c r="Z34" s="25"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -5836,10 +5972,12 @@
       <c r="V35" s="25"/>
       <c r="W35" s="25"/>
       <c r="X35" s="25"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y35" s="25"/>
+      <c r="Z35" s="25"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -5864,10 +6002,12 @@
       <c r="V36" s="25"/>
       <c r="W36" s="25"/>
       <c r="X36" s="25"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y36" s="25"/>
+      <c r="Z36" s="25"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -5892,10 +6032,12 @@
       <c r="V37" s="25"/>
       <c r="W37" s="25"/>
       <c r="X37" s="25"/>
-      <c r="Y37" s="3"/>
-      <c r="Z37" s="3"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y37" s="25"/>
+      <c r="Z37" s="25"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -5920,10 +6062,12 @@
       <c r="V38" s="25"/>
       <c r="W38" s="25"/>
       <c r="X38" s="25"/>
-      <c r="Y38" s="3"/>
-      <c r="Z38" s="3"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y38" s="25"/>
+      <c r="Z38" s="25"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -5948,10 +6092,12 @@
       <c r="V39" s="25"/>
       <c r="W39" s="25"/>
       <c r="X39" s="25"/>
-      <c r="Y39" s="3"/>
-      <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y39" s="25"/>
+      <c r="Z39" s="25"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -5976,10 +6122,12 @@
       <c r="V40" s="25"/>
       <c r="W40" s="25"/>
       <c r="X40" s="25"/>
-      <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y40" s="25"/>
+      <c r="Z40" s="25"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -6004,10 +6152,12 @@
       <c r="V41" s="25"/>
       <c r="W41" s="25"/>
       <c r="X41" s="25"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y41" s="25"/>
+      <c r="Z41" s="25"/>
+      <c r="AA41" s="3"/>
+      <c r="AB41" s="3"/>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -6032,10 +6182,12 @@
       <c r="V42" s="25"/>
       <c r="W42" s="25"/>
       <c r="X42" s="25"/>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y42" s="25"/>
+      <c r="Z42" s="25"/>
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="3"/>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -6060,10 +6212,12 @@
       <c r="V43" s="25"/>
       <c r="W43" s="25"/>
       <c r="X43" s="25"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y43" s="25"/>
+      <c r="Z43" s="25"/>
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="3"/>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -6088,10 +6242,12 @@
       <c r="V44" s="25"/>
       <c r="W44" s="25"/>
       <c r="X44" s="25"/>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="3"/>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y44" s="25"/>
+      <c r="Z44" s="25"/>
+      <c r="AA44" s="3"/>
+      <c r="AB44" s="3"/>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -6116,10 +6272,12 @@
       <c r="V45" s="25"/>
       <c r="W45" s="25"/>
       <c r="X45" s="25"/>
-      <c r="Y45" s="3"/>
-      <c r="Z45" s="3"/>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y45" s="25"/>
+      <c r="Z45" s="25"/>
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="3"/>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -6144,10 +6302,12 @@
       <c r="V46" s="25"/>
       <c r="W46" s="25"/>
       <c r="X46" s="25"/>
-      <c r="Y46" s="3"/>
-      <c r="Z46" s="3"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y46" s="25"/>
+      <c r="Z46" s="25"/>
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="3"/>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -6172,10 +6332,12 @@
       <c r="V47" s="25"/>
       <c r="W47" s="25"/>
       <c r="X47" s="25"/>
-      <c r="Y47" s="3"/>
-      <c r="Z47" s="3"/>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y47" s="25"/>
+      <c r="Z47" s="25"/>
+      <c r="AA47" s="3"/>
+      <c r="AB47" s="3"/>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -6200,10 +6362,12 @@
       <c r="V48" s="25"/>
       <c r="W48" s="25"/>
       <c r="X48" s="25"/>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="3"/>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y48" s="25"/>
+      <c r="Z48" s="25"/>
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="3"/>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -6228,10 +6392,12 @@
       <c r="V49" s="25"/>
       <c r="W49" s="25"/>
       <c r="X49" s="25"/>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="3"/>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y49" s="25"/>
+      <c r="Z49" s="25"/>
+      <c r="AA49" s="3"/>
+      <c r="AB49" s="3"/>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -6256,10 +6422,12 @@
       <c r="V50" s="25"/>
       <c r="W50" s="25"/>
       <c r="X50" s="25"/>
-      <c r="Y50" s="3"/>
-      <c r="Z50" s="3"/>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y50" s="25"/>
+      <c r="Z50" s="25"/>
+      <c r="AA50" s="3"/>
+      <c r="AB50" s="3"/>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -6284,10 +6452,12 @@
       <c r="V51" s="25"/>
       <c r="W51" s="25"/>
       <c r="X51" s="25"/>
-      <c r="Y51" s="3"/>
-      <c r="Z51" s="3"/>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y51" s="25"/>
+      <c r="Z51" s="25"/>
+      <c r="AA51" s="3"/>
+      <c r="AB51" s="3"/>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -6312,10 +6482,12 @@
       <c r="V52" s="25"/>
       <c r="W52" s="25"/>
       <c r="X52" s="25"/>
-      <c r="Y52" s="3"/>
-      <c r="Z52" s="3"/>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y52" s="25"/>
+      <c r="Z52" s="25"/>
+      <c r="AA52" s="3"/>
+      <c r="AB52" s="3"/>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -6340,10 +6512,12 @@
       <c r="V53" s="25"/>
       <c r="W53" s="25"/>
       <c r="X53" s="25"/>
-      <c r="Y53" s="3"/>
-      <c r="Z53" s="3"/>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y53" s="25"/>
+      <c r="Z53" s="25"/>
+      <c r="AA53" s="3"/>
+      <c r="AB53" s="3"/>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -6368,10 +6542,12 @@
       <c r="V54" s="25"/>
       <c r="W54" s="25"/>
       <c r="X54" s="25"/>
-      <c r="Y54" s="3"/>
-      <c r="Z54" s="3"/>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y54" s="25"/>
+      <c r="Z54" s="25"/>
+      <c r="AA54" s="3"/>
+      <c r="AB54" s="3"/>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -6396,10 +6572,12 @@
       <c r="V55" s="25"/>
       <c r="W55" s="25"/>
       <c r="X55" s="25"/>
-      <c r="Y55" s="3"/>
-      <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y55" s="25"/>
+      <c r="Z55" s="25"/>
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -6424,10 +6602,12 @@
       <c r="V56" s="25"/>
       <c r="W56" s="25"/>
       <c r="X56" s="25"/>
-      <c r="Y56" s="3"/>
-      <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y56" s="25"/>
+      <c r="Z56" s="25"/>
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -6452,10 +6632,12 @@
       <c r="V57" s="25"/>
       <c r="W57" s="25"/>
       <c r="X57" s="25"/>
-      <c r="Y57" s="3"/>
-      <c r="Z57" s="3"/>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y57" s="25"/>
+      <c r="Z57" s="25"/>
+      <c r="AA57" s="3"/>
+      <c r="AB57" s="3"/>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -6480,10 +6662,12 @@
       <c r="V58" s="25"/>
       <c r="W58" s="25"/>
       <c r="X58" s="25"/>
-      <c r="Y58" s="3"/>
-      <c r="Z58" s="3"/>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y58" s="25"/>
+      <c r="Z58" s="25"/>
+      <c r="AA58" s="3"/>
+      <c r="AB58" s="3"/>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -6508,10 +6692,12 @@
       <c r="V59" s="25"/>
       <c r="W59" s="25"/>
       <c r="X59" s="25"/>
-      <c r="Y59" s="3"/>
-      <c r="Z59" s="3"/>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y59" s="25"/>
+      <c r="Z59" s="25"/>
+      <c r="AA59" s="3"/>
+      <c r="AB59" s="3"/>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -6536,10 +6722,12 @@
       <c r="V60" s="25"/>
       <c r="W60" s="25"/>
       <c r="X60" s="25"/>
-      <c r="Y60" s="3"/>
-      <c r="Z60" s="3"/>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y60" s="25"/>
+      <c r="Z60" s="25"/>
+      <c r="AA60" s="3"/>
+      <c r="AB60" s="3"/>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -6564,10 +6752,12 @@
       <c r="V61" s="25"/>
       <c r="W61" s="25"/>
       <c r="X61" s="25"/>
-      <c r="Y61" s="3"/>
-      <c r="Z61" s="3"/>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y61" s="25"/>
+      <c r="Z61" s="25"/>
+      <c r="AA61" s="3"/>
+      <c r="AB61" s="3"/>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -6592,10 +6782,12 @@
       <c r="V62" s="25"/>
       <c r="W62" s="25"/>
       <c r="X62" s="25"/>
-      <c r="Y62" s="3"/>
-      <c r="Z62" s="3"/>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y62" s="25"/>
+      <c r="Z62" s="25"/>
+      <c r="AA62" s="3"/>
+      <c r="AB62" s="3"/>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -6620,10 +6812,12 @@
       <c r="V63" s="25"/>
       <c r="W63" s="25"/>
       <c r="X63" s="25"/>
-      <c r="Y63" s="3"/>
-      <c r="Z63" s="3"/>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y63" s="25"/>
+      <c r="Z63" s="25"/>
+      <c r="AA63" s="3"/>
+      <c r="AB63" s="3"/>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -6648,10 +6842,12 @@
       <c r="V64" s="25"/>
       <c r="W64" s="25"/>
       <c r="X64" s="25"/>
-      <c r="Y64" s="3"/>
-      <c r="Z64" s="3"/>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y64" s="25"/>
+      <c r="Z64" s="25"/>
+      <c r="AA64" s="3"/>
+      <c r="AB64" s="3"/>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -6676,10 +6872,12 @@
       <c r="V65" s="25"/>
       <c r="W65" s="25"/>
       <c r="X65" s="25"/>
-      <c r="Y65" s="3"/>
-      <c r="Z65" s="3"/>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y65" s="25"/>
+      <c r="Z65" s="25"/>
+      <c r="AA65" s="3"/>
+      <c r="AB65" s="3"/>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -6704,10 +6902,12 @@
       <c r="V66" s="25"/>
       <c r="W66" s="25"/>
       <c r="X66" s="25"/>
-      <c r="Y66" s="3"/>
-      <c r="Z66" s="3"/>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y66" s="25"/>
+      <c r="Z66" s="25"/>
+      <c r="AA66" s="3"/>
+      <c r="AB66" s="3"/>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -6732,10 +6932,12 @@
       <c r="V67" s="25"/>
       <c r="W67" s="25"/>
       <c r="X67" s="25"/>
-      <c r="Y67" s="3"/>
-      <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y67" s="25"/>
+      <c r="Z67" s="25"/>
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -6760,10 +6962,12 @@
       <c r="V68" s="25"/>
       <c r="W68" s="25"/>
       <c r="X68" s="25"/>
-      <c r="Y68" s="3"/>
-      <c r="Z68" s="3"/>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y68" s="25"/>
+      <c r="Z68" s="25"/>
+      <c r="AA68" s="3"/>
+      <c r="AB68" s="3"/>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -6788,10 +6992,12 @@
       <c r="V69" s="25"/>
       <c r="W69" s="25"/>
       <c r="X69" s="25"/>
-      <c r="Y69" s="3"/>
-      <c r="Z69" s="3"/>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y69" s="25"/>
+      <c r="Z69" s="25"/>
+      <c r="AA69" s="3"/>
+      <c r="AB69" s="3"/>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -6816,10 +7022,12 @@
       <c r="V70" s="25"/>
       <c r="W70" s="25"/>
       <c r="X70" s="25"/>
-      <c r="Y70" s="3"/>
-      <c r="Z70" s="3"/>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y70" s="25"/>
+      <c r="Z70" s="25"/>
+      <c r="AA70" s="3"/>
+      <c r="AB70" s="3"/>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -6844,10 +7052,12 @@
       <c r="V71" s="25"/>
       <c r="W71" s="25"/>
       <c r="X71" s="25"/>
-      <c r="Y71" s="3"/>
-      <c r="Z71" s="3"/>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y71" s="25"/>
+      <c r="Z71" s="25"/>
+      <c r="AA71" s="3"/>
+      <c r="AB71" s="3"/>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -6872,10 +7082,12 @@
       <c r="V72" s="25"/>
       <c r="W72" s="25"/>
       <c r="X72" s="25"/>
-      <c r="Y72" s="3"/>
-      <c r="Z72" s="3"/>
-    </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y72" s="25"/>
+      <c r="Z72" s="25"/>
+      <c r="AA72" s="3"/>
+      <c r="AB72" s="3"/>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -6900,10 +7112,12 @@
       <c r="V73" s="25"/>
       <c r="W73" s="25"/>
       <c r="X73" s="25"/>
-      <c r="Y73" s="3"/>
-      <c r="Z73" s="3"/>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y73" s="25"/>
+      <c r="Z73" s="25"/>
+      <c r="AA73" s="3"/>
+      <c r="AB73" s="3"/>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -6928,10 +7142,12 @@
       <c r="V74" s="25"/>
       <c r="W74" s="25"/>
       <c r="X74" s="25"/>
-      <c r="Y74" s="3"/>
-      <c r="Z74" s="3"/>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y74" s="25"/>
+      <c r="Z74" s="25"/>
+      <c r="AA74" s="3"/>
+      <c r="AB74" s="3"/>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -6956,10 +7172,12 @@
       <c r="V75" s="25"/>
       <c r="W75" s="25"/>
       <c r="X75" s="25"/>
-      <c r="Y75" s="3"/>
-      <c r="Z75" s="3"/>
-    </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y75" s="25"/>
+      <c r="Z75" s="25"/>
+      <c r="AA75" s="3"/>
+      <c r="AB75" s="3"/>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -6984,10 +7202,12 @@
       <c r="V76" s="25"/>
       <c r="W76" s="25"/>
       <c r="X76" s="25"/>
-      <c r="Y76" s="3"/>
-      <c r="Z76" s="3"/>
-    </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y76" s="25"/>
+      <c r="Z76" s="25"/>
+      <c r="AA76" s="3"/>
+      <c r="AB76" s="3"/>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -7012,10 +7232,12 @@
       <c r="V77" s="25"/>
       <c r="W77" s="25"/>
       <c r="X77" s="25"/>
-      <c r="Y77" s="3"/>
-      <c r="Z77" s="3"/>
-    </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y77" s="25"/>
+      <c r="Z77" s="25"/>
+      <c r="AA77" s="3"/>
+      <c r="AB77" s="3"/>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -7040,10 +7262,12 @@
       <c r="V78" s="25"/>
       <c r="W78" s="25"/>
       <c r="X78" s="25"/>
-      <c r="Y78" s="3"/>
-      <c r="Z78" s="3"/>
-    </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y78" s="25"/>
+      <c r="Z78" s="25"/>
+      <c r="AA78" s="3"/>
+      <c r="AB78" s="3"/>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -7068,10 +7292,12 @@
       <c r="V79" s="25"/>
       <c r="W79" s="25"/>
       <c r="X79" s="25"/>
-      <c r="Y79" s="3"/>
-      <c r="Z79" s="3"/>
-    </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y79" s="25"/>
+      <c r="Z79" s="25"/>
+      <c r="AA79" s="3"/>
+      <c r="AB79" s="3"/>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -7096,10 +7322,12 @@
       <c r="V80" s="25"/>
       <c r="W80" s="25"/>
       <c r="X80" s="25"/>
-      <c r="Y80" s="3"/>
-      <c r="Z80" s="3"/>
-    </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y80" s="25"/>
+      <c r="Z80" s="25"/>
+      <c r="AA80" s="3"/>
+      <c r="AB80" s="3"/>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -7124,10 +7352,12 @@
       <c r="V81" s="25"/>
       <c r="W81" s="25"/>
       <c r="X81" s="25"/>
-      <c r="Y81" s="3"/>
-      <c r="Z81" s="3"/>
-    </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y81" s="25"/>
+      <c r="Z81" s="25"/>
+      <c r="AA81" s="3"/>
+      <c r="AB81" s="3"/>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -7152,10 +7382,12 @@
       <c r="V82" s="25"/>
       <c r="W82" s="25"/>
       <c r="X82" s="25"/>
-      <c r="Y82" s="3"/>
-      <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y82" s="25"/>
+      <c r="Z82" s="25"/>
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -7180,10 +7412,12 @@
       <c r="V83" s="25"/>
       <c r="W83" s="25"/>
       <c r="X83" s="25"/>
-      <c r="Y83" s="3"/>
-      <c r="Z83" s="3"/>
-    </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y83" s="25"/>
+      <c r="Z83" s="25"/>
+      <c r="AA83" s="3"/>
+      <c r="AB83" s="3"/>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -7208,10 +7442,12 @@
       <c r="V84" s="25"/>
       <c r="W84" s="25"/>
       <c r="X84" s="25"/>
-      <c r="Y84" s="3"/>
-      <c r="Z84" s="3"/>
-    </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y84" s="25"/>
+      <c r="Z84" s="25"/>
+      <c r="AA84" s="3"/>
+      <c r="AB84" s="3"/>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -7236,10 +7472,12 @@
       <c r="V85" s="25"/>
       <c r="W85" s="25"/>
       <c r="X85" s="25"/>
-      <c r="Y85" s="3"/>
-      <c r="Z85" s="3"/>
-    </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y85" s="25"/>
+      <c r="Z85" s="25"/>
+      <c r="AA85" s="3"/>
+      <c r="AB85" s="3"/>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -7264,10 +7502,12 @@
       <c r="V86" s="25"/>
       <c r="W86" s="25"/>
       <c r="X86" s="25"/>
-      <c r="Y86" s="3"/>
-      <c r="Z86" s="3"/>
-    </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y86" s="25"/>
+      <c r="Z86" s="25"/>
+      <c r="AA86" s="3"/>
+      <c r="AB86" s="3"/>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -7292,10 +7532,12 @@
       <c r="V87" s="25"/>
       <c r="W87" s="25"/>
       <c r="X87" s="25"/>
-      <c r="Y87" s="3"/>
-      <c r="Z87" s="3"/>
-    </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y87" s="25"/>
+      <c r="Z87" s="25"/>
+      <c r="AA87" s="3"/>
+      <c r="AB87" s="3"/>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -7320,10 +7562,12 @@
       <c r="V88" s="25"/>
       <c r="W88" s="25"/>
       <c r="X88" s="25"/>
-      <c r="Y88" s="3"/>
-      <c r="Z88" s="3"/>
-    </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y88" s="25"/>
+      <c r="Z88" s="25"/>
+      <c r="AA88" s="3"/>
+      <c r="AB88" s="3"/>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -7348,10 +7592,12 @@
       <c r="V89" s="25"/>
       <c r="W89" s="25"/>
       <c r="X89" s="25"/>
-      <c r="Y89" s="3"/>
-      <c r="Z89" s="3"/>
-    </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y89" s="25"/>
+      <c r="Z89" s="25"/>
+      <c r="AA89" s="3"/>
+      <c r="AB89" s="3"/>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -7376,10 +7622,12 @@
       <c r="V90" s="25"/>
       <c r="W90" s="25"/>
       <c r="X90" s="25"/>
-      <c r="Y90" s="3"/>
-      <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y90" s="25"/>
+      <c r="Z90" s="25"/>
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -7404,10 +7652,12 @@
       <c r="V91" s="25"/>
       <c r="W91" s="25"/>
       <c r="X91" s="25"/>
-      <c r="Y91" s="3"/>
-      <c r="Z91" s="3"/>
-    </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y91" s="25"/>
+      <c r="Z91" s="25"/>
+      <c r="AA91" s="3"/>
+      <c r="AB91" s="3"/>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -7432,10 +7682,12 @@
       <c r="V92" s="25"/>
       <c r="W92" s="25"/>
       <c r="X92" s="25"/>
-      <c r="Y92" s="3"/>
-      <c r="Z92" s="3"/>
-    </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y92" s="25"/>
+      <c r="Z92" s="25"/>
+      <c r="AA92" s="3"/>
+      <c r="AB92" s="3"/>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -7460,10 +7712,12 @@
       <c r="V93" s="25"/>
       <c r="W93" s="25"/>
       <c r="X93" s="25"/>
-      <c r="Y93" s="3"/>
-      <c r="Z93" s="3"/>
-    </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y93" s="25"/>
+      <c r="Z93" s="25"/>
+      <c r="AA93" s="3"/>
+      <c r="AB93" s="3"/>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -7488,10 +7742,12 @@
       <c r="V94" s="25"/>
       <c r="W94" s="25"/>
       <c r="X94" s="25"/>
-      <c r="Y94" s="3"/>
-      <c r="Z94" s="3"/>
-    </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y94" s="25"/>
+      <c r="Z94" s="25"/>
+      <c r="AA94" s="3"/>
+      <c r="AB94" s="3"/>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -7516,10 +7772,12 @@
       <c r="V95" s="25"/>
       <c r="W95" s="25"/>
       <c r="X95" s="25"/>
-      <c r="Y95" s="3"/>
-      <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y95" s="25"/>
+      <c r="Z95" s="25"/>
+      <c r="AA95" s="3"/>
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -7544,10 +7802,12 @@
       <c r="V96" s="25"/>
       <c r="W96" s="25"/>
       <c r="X96" s="25"/>
-      <c r="Y96" s="3"/>
-      <c r="Z96" s="3"/>
-    </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y96" s="25"/>
+      <c r="Z96" s="25"/>
+      <c r="AA96" s="3"/>
+      <c r="AB96" s="3"/>
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -7572,10 +7832,12 @@
       <c r="V97" s="25"/>
       <c r="W97" s="25"/>
       <c r="X97" s="25"/>
-      <c r="Y97" s="3"/>
-      <c r="Z97" s="3"/>
-    </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y97" s="25"/>
+      <c r="Z97" s="25"/>
+      <c r="AA97" s="3"/>
+      <c r="AB97" s="3"/>
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -7600,10 +7862,12 @@
       <c r="V98" s="25"/>
       <c r="W98" s="25"/>
       <c r="X98" s="25"/>
-      <c r="Y98" s="3"/>
-      <c r="Z98" s="3"/>
-    </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y98" s="25"/>
+      <c r="Z98" s="25"/>
+      <c r="AA98" s="3"/>
+      <c r="AB98" s="3"/>
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -7628,10 +7892,12 @@
       <c r="V99" s="25"/>
       <c r="W99" s="25"/>
       <c r="X99" s="25"/>
-      <c r="Y99" s="3"/>
-      <c r="Z99" s="3"/>
-    </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y99" s="25"/>
+      <c r="Z99" s="25"/>
+      <c r="AA99" s="3"/>
+      <c r="AB99" s="3"/>
+    </row>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -7656,10 +7922,12 @@
       <c r="V100" s="25"/>
       <c r="W100" s="25"/>
       <c r="X100" s="25"/>
-      <c r="Y100" s="3"/>
-      <c r="Z100" s="3"/>
-    </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y100" s="25"/>
+      <c r="Z100" s="25"/>
+      <c r="AA100" s="3"/>
+      <c r="AB100" s="3"/>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -7684,10 +7952,12 @@
       <c r="V101" s="25"/>
       <c r="W101" s="25"/>
       <c r="X101" s="25"/>
-      <c r="Y101" s="3"/>
-      <c r="Z101" s="3"/>
-    </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y101" s="25"/>
+      <c r="Z101" s="25"/>
+      <c r="AA101" s="3"/>
+      <c r="AB101" s="3"/>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -7712,10 +7982,12 @@
       <c r="V102" s="25"/>
       <c r="W102" s="25"/>
       <c r="X102" s="25"/>
-      <c r="Y102" s="3"/>
-      <c r="Z102" s="3"/>
-    </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y102" s="25"/>
+      <c r="Z102" s="25"/>
+      <c r="AA102" s="3"/>
+      <c r="AB102" s="3"/>
+    </row>
+    <row r="103" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -7740,10 +8012,12 @@
       <c r="V103" s="25"/>
       <c r="W103" s="25"/>
       <c r="X103" s="25"/>
-      <c r="Y103" s="3"/>
-      <c r="Z103" s="3"/>
-    </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y103" s="25"/>
+      <c r="Z103" s="25"/>
+      <c r="AA103" s="3"/>
+      <c r="AB103" s="3"/>
+    </row>
+    <row r="104" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -7768,10 +8042,12 @@
       <c r="V104" s="25"/>
       <c r="W104" s="25"/>
       <c r="X104" s="25"/>
-      <c r="Y104" s="3"/>
-      <c r="Z104" s="3"/>
-    </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y104" s="25"/>
+      <c r="Z104" s="25"/>
+      <c r="AA104" s="3"/>
+      <c r="AB104" s="3"/>
+    </row>
+    <row r="105" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -7796,10 +8072,12 @@
       <c r="V105" s="25"/>
       <c r="W105" s="25"/>
       <c r="X105" s="25"/>
-      <c r="Y105" s="3"/>
-      <c r="Z105" s="3"/>
-    </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y105" s="25"/>
+      <c r="Z105" s="25"/>
+      <c r="AA105" s="3"/>
+      <c r="AB105" s="3"/>
+    </row>
+    <row r="106" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -7824,10 +8102,12 @@
       <c r="V106" s="25"/>
       <c r="W106" s="25"/>
       <c r="X106" s="25"/>
-      <c r="Y106" s="3"/>
-      <c r="Z106" s="3"/>
-    </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y106" s="25"/>
+      <c r="Z106" s="25"/>
+      <c r="AA106" s="3"/>
+      <c r="AB106" s="3"/>
+    </row>
+    <row r="107" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -7852,10 +8132,12 @@
       <c r="V107" s="25"/>
       <c r="W107" s="25"/>
       <c r="X107" s="25"/>
-      <c r="Y107" s="3"/>
-      <c r="Z107" s="3"/>
-    </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y107" s="25"/>
+      <c r="Z107" s="25"/>
+      <c r="AA107" s="3"/>
+      <c r="AB107" s="3"/>
+    </row>
+    <row r="108" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -7880,10 +8162,12 @@
       <c r="V108" s="25"/>
       <c r="W108" s="25"/>
       <c r="X108" s="25"/>
-      <c r="Y108" s="3"/>
-      <c r="Z108" s="3"/>
-    </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y108" s="25"/>
+      <c r="Z108" s="25"/>
+      <c r="AA108" s="3"/>
+      <c r="AB108" s="3"/>
+    </row>
+    <row r="109" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -7908,10 +8192,12 @@
       <c r="V109" s="25"/>
       <c r="W109" s="25"/>
       <c r="X109" s="25"/>
-      <c r="Y109" s="3"/>
-      <c r="Z109" s="3"/>
-    </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y109" s="25"/>
+      <c r="Z109" s="25"/>
+      <c r="AA109" s="3"/>
+      <c r="AB109" s="3"/>
+    </row>
+    <row r="110" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -7936,10 +8222,12 @@
       <c r="V110" s="25"/>
       <c r="W110" s="25"/>
       <c r="X110" s="25"/>
-      <c r="Y110" s="3"/>
-      <c r="Z110" s="3"/>
-    </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y110" s="25"/>
+      <c r="Z110" s="25"/>
+      <c r="AA110" s="3"/>
+      <c r="AB110" s="3"/>
+    </row>
+    <row r="111" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -7964,10 +8252,12 @@
       <c r="V111" s="25"/>
       <c r="W111" s="25"/>
       <c r="X111" s="25"/>
-      <c r="Y111" s="3"/>
-      <c r="Z111" s="3"/>
-    </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y111" s="25"/>
+      <c r="Z111" s="25"/>
+      <c r="AA111" s="3"/>
+      <c r="AB111" s="3"/>
+    </row>
+    <row r="112" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -7992,10 +8282,12 @@
       <c r="V112" s="25"/>
       <c r="W112" s="25"/>
       <c r="X112" s="25"/>
-      <c r="Y112" s="3"/>
-      <c r="Z112" s="3"/>
-    </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y112" s="25"/>
+      <c r="Z112" s="25"/>
+      <c r="AA112" s="3"/>
+      <c r="AB112" s="3"/>
+    </row>
+    <row r="113" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -8020,10 +8312,12 @@
       <c r="V113" s="25"/>
       <c r="W113" s="25"/>
       <c r="X113" s="25"/>
-      <c r="Y113" s="3"/>
-      <c r="Z113" s="3"/>
-    </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y113" s="25"/>
+      <c r="Z113" s="25"/>
+      <c r="AA113" s="3"/>
+      <c r="AB113" s="3"/>
+    </row>
+    <row r="114" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -8048,10 +8342,12 @@
       <c r="V114" s="25"/>
       <c r="W114" s="25"/>
       <c r="X114" s="25"/>
-      <c r="Y114" s="3"/>
-      <c r="Z114" s="3"/>
-    </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y114" s="25"/>
+      <c r="Z114" s="25"/>
+      <c r="AA114" s="3"/>
+      <c r="AB114" s="3"/>
+    </row>
+    <row r="115" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -8076,10 +8372,12 @@
       <c r="V115" s="25"/>
       <c r="W115" s="25"/>
       <c r="X115" s="25"/>
-      <c r="Y115" s="3"/>
-      <c r="Z115" s="3"/>
-    </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y115" s="25"/>
+      <c r="Z115" s="25"/>
+      <c r="AA115" s="3"/>
+      <c r="AB115" s="3"/>
+    </row>
+    <row r="116" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -8104,10 +8402,12 @@
       <c r="V116" s="25"/>
       <c r="W116" s="25"/>
       <c r="X116" s="25"/>
-      <c r="Y116" s="3"/>
-      <c r="Z116" s="3"/>
-    </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y116" s="25"/>
+      <c r="Z116" s="25"/>
+      <c r="AA116" s="3"/>
+      <c r="AB116" s="3"/>
+    </row>
+    <row r="117" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -8132,10 +8432,12 @@
       <c r="V117" s="25"/>
       <c r="W117" s="25"/>
       <c r="X117" s="25"/>
-      <c r="Y117" s="3"/>
-      <c r="Z117" s="3"/>
-    </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y117" s="25"/>
+      <c r="Z117" s="25"/>
+      <c r="AA117" s="3"/>
+      <c r="AB117" s="3"/>
+    </row>
+    <row r="118" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -8160,10 +8462,12 @@
       <c r="V118" s="25"/>
       <c r="W118" s="25"/>
       <c r="X118" s="25"/>
-      <c r="Y118" s="3"/>
-      <c r="Z118" s="3"/>
-    </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y118" s="25"/>
+      <c r="Z118" s="25"/>
+      <c r="AA118" s="3"/>
+      <c r="AB118" s="3"/>
+    </row>
+    <row r="119" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -8188,10 +8492,12 @@
       <c r="V119" s="25"/>
       <c r="W119" s="25"/>
       <c r="X119" s="25"/>
-      <c r="Y119" s="3"/>
-      <c r="Z119" s="3"/>
-    </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y119" s="25"/>
+      <c r="Z119" s="25"/>
+      <c r="AA119" s="3"/>
+      <c r="AB119" s="3"/>
+    </row>
+    <row r="120" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -8216,10 +8522,12 @@
       <c r="V120" s="25"/>
       <c r="W120" s="25"/>
       <c r="X120" s="25"/>
-      <c r="Y120" s="3"/>
-      <c r="Z120" s="3"/>
-    </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y120" s="25"/>
+      <c r="Z120" s="25"/>
+      <c r="AA120" s="3"/>
+      <c r="AB120" s="3"/>
+    </row>
+    <row r="121" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -8244,10 +8552,12 @@
       <c r="V121" s="25"/>
       <c r="W121" s="25"/>
       <c r="X121" s="25"/>
-      <c r="Y121" s="3"/>
-      <c r="Z121" s="3"/>
-    </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y121" s="25"/>
+      <c r="Z121" s="25"/>
+      <c r="AA121" s="3"/>
+      <c r="AB121" s="3"/>
+    </row>
+    <row r="122" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -8272,10 +8582,12 @@
       <c r="V122" s="25"/>
       <c r="W122" s="25"/>
       <c r="X122" s="25"/>
-      <c r="Y122" s="3"/>
-      <c r="Z122" s="3"/>
-    </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y122" s="25"/>
+      <c r="Z122" s="25"/>
+      <c r="AA122" s="3"/>
+      <c r="AB122" s="3"/>
+    </row>
+    <row r="123" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -8300,10 +8612,12 @@
       <c r="V123" s="25"/>
       <c r="W123" s="25"/>
       <c r="X123" s="25"/>
-      <c r="Y123" s="3"/>
-      <c r="Z123" s="3"/>
-    </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y123" s="25"/>
+      <c r="Z123" s="25"/>
+      <c r="AA123" s="3"/>
+      <c r="AB123" s="3"/>
+    </row>
+    <row r="124" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -8328,10 +8642,12 @@
       <c r="V124" s="25"/>
       <c r="W124" s="25"/>
       <c r="X124" s="25"/>
-      <c r="Y124" s="3"/>
-      <c r="Z124" s="3"/>
-    </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y124" s="25"/>
+      <c r="Z124" s="25"/>
+      <c r="AA124" s="3"/>
+      <c r="AB124" s="3"/>
+    </row>
+    <row r="125" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -8356,10 +8672,12 @@
       <c r="V125" s="25"/>
       <c r="W125" s="25"/>
       <c r="X125" s="25"/>
-      <c r="Y125" s="3"/>
-      <c r="Z125" s="3"/>
-    </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y125" s="25"/>
+      <c r="Z125" s="25"/>
+      <c r="AA125" s="3"/>
+      <c r="AB125" s="3"/>
+    </row>
+    <row r="126" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -8384,10 +8702,12 @@
       <c r="V126" s="25"/>
       <c r="W126" s="25"/>
       <c r="X126" s="25"/>
-      <c r="Y126" s="3"/>
-      <c r="Z126" s="3"/>
-    </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y126" s="25"/>
+      <c r="Z126" s="25"/>
+      <c r="AA126" s="3"/>
+      <c r="AB126" s="3"/>
+    </row>
+    <row r="127" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -8412,10 +8732,12 @@
       <c r="V127" s="25"/>
       <c r="W127" s="25"/>
       <c r="X127" s="25"/>
-      <c r="Y127" s="3"/>
-      <c r="Z127" s="3"/>
-    </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y127" s="25"/>
+      <c r="Z127" s="25"/>
+      <c r="AA127" s="3"/>
+      <c r="AB127" s="3"/>
+    </row>
+    <row r="128" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -8440,10 +8762,12 @@
       <c r="V128" s="25"/>
       <c r="W128" s="25"/>
       <c r="X128" s="25"/>
-      <c r="Y128" s="3"/>
-      <c r="Z128" s="3"/>
-    </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y128" s="25"/>
+      <c r="Z128" s="25"/>
+      <c r="AA128" s="3"/>
+      <c r="AB128" s="3"/>
+    </row>
+    <row r="129" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -8468,10 +8792,12 @@
       <c r="V129" s="25"/>
       <c r="W129" s="25"/>
       <c r="X129" s="25"/>
-      <c r="Y129" s="3"/>
-      <c r="Z129" s="3"/>
-    </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y129" s="25"/>
+      <c r="Z129" s="25"/>
+      <c r="AA129" s="3"/>
+      <c r="AB129" s="3"/>
+    </row>
+    <row r="130" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -8496,10 +8822,12 @@
       <c r="V130" s="25"/>
       <c r="W130" s="25"/>
       <c r="X130" s="25"/>
-      <c r="Y130" s="3"/>
-      <c r="Z130" s="3"/>
-    </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y130" s="25"/>
+      <c r="Z130" s="25"/>
+      <c r="AA130" s="3"/>
+      <c r="AB130" s="3"/>
+    </row>
+    <row r="131" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -8524,10 +8852,12 @@
       <c r="V131" s="25"/>
       <c r="W131" s="25"/>
       <c r="X131" s="25"/>
-      <c r="Y131" s="3"/>
-      <c r="Z131" s="3"/>
-    </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y131" s="25"/>
+      <c r="Z131" s="25"/>
+      <c r="AA131" s="3"/>
+      <c r="AB131" s="3"/>
+    </row>
+    <row r="132" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -8552,10 +8882,12 @@
       <c r="V132" s="25"/>
       <c r="W132" s="25"/>
       <c r="X132" s="25"/>
-      <c r="Y132" s="3"/>
-      <c r="Z132" s="3"/>
-    </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y132" s="25"/>
+      <c r="Z132" s="25"/>
+      <c r="AA132" s="3"/>
+      <c r="AB132" s="3"/>
+    </row>
+    <row r="133" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -8580,10 +8912,12 @@
       <c r="V133" s="25"/>
       <c r="W133" s="25"/>
       <c r="X133" s="25"/>
-      <c r="Y133" s="3"/>
-      <c r="Z133" s="3"/>
-    </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y133" s="25"/>
+      <c r="Z133" s="25"/>
+      <c r="AA133" s="3"/>
+      <c r="AB133" s="3"/>
+    </row>
+    <row r="134" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -8608,10 +8942,12 @@
       <c r="V134" s="25"/>
       <c r="W134" s="25"/>
       <c r="X134" s="25"/>
-      <c r="Y134" s="3"/>
-      <c r="Z134" s="3"/>
-    </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y134" s="25"/>
+      <c r="Z134" s="25"/>
+      <c r="AA134" s="3"/>
+      <c r="AB134" s="3"/>
+    </row>
+    <row r="135" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -8636,10 +8972,12 @@
       <c r="V135" s="25"/>
       <c r="W135" s="25"/>
       <c r="X135" s="25"/>
-      <c r="Y135" s="3"/>
-      <c r="Z135" s="3"/>
-    </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y135" s="25"/>
+      <c r="Z135" s="25"/>
+      <c r="AA135" s="3"/>
+      <c r="AB135" s="3"/>
+    </row>
+    <row r="136" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -8664,10 +9002,12 @@
       <c r="V136" s="25"/>
       <c r="W136" s="25"/>
       <c r="X136" s="25"/>
-      <c r="Y136" s="3"/>
-      <c r="Z136" s="3"/>
-    </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y136" s="25"/>
+      <c r="Z136" s="25"/>
+      <c r="AA136" s="3"/>
+      <c r="AB136" s="3"/>
+    </row>
+    <row r="137" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -8692,10 +9032,12 @@
       <c r="V137" s="25"/>
       <c r="W137" s="25"/>
       <c r="X137" s="25"/>
-      <c r="Y137" s="3"/>
-      <c r="Z137" s="3"/>
-    </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y137" s="25"/>
+      <c r="Z137" s="25"/>
+      <c r="AA137" s="3"/>
+      <c r="AB137" s="3"/>
+    </row>
+    <row r="138" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -8720,10 +9062,12 @@
       <c r="V138" s="25"/>
       <c r="W138" s="25"/>
       <c r="X138" s="25"/>
-      <c r="Y138" s="3"/>
-      <c r="Z138" s="3"/>
-    </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y138" s="25"/>
+      <c r="Z138" s="25"/>
+      <c r="AA138" s="3"/>
+      <c r="AB138" s="3"/>
+    </row>
+    <row r="139" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -8748,10 +9092,12 @@
       <c r="V139" s="25"/>
       <c r="W139" s="25"/>
       <c r="X139" s="25"/>
-      <c r="Y139" s="3"/>
-      <c r="Z139" s="3"/>
-    </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y139" s="25"/>
+      <c r="Z139" s="25"/>
+      <c r="AA139" s="3"/>
+      <c r="AB139" s="3"/>
+    </row>
+    <row r="140" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -8776,10 +9122,12 @@
       <c r="V140" s="25"/>
       <c r="W140" s="25"/>
       <c r="X140" s="25"/>
-      <c r="Y140" s="3"/>
-      <c r="Z140" s="3"/>
-    </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y140" s="25"/>
+      <c r="Z140" s="25"/>
+      <c r="AA140" s="3"/>
+      <c r="AB140" s="3"/>
+    </row>
+    <row r="141" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -8804,10 +9152,12 @@
       <c r="V141" s="25"/>
       <c r="W141" s="25"/>
       <c r="X141" s="25"/>
-      <c r="Y141" s="3"/>
-      <c r="Z141" s="3"/>
-    </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y141" s="25"/>
+      <c r="Z141" s="25"/>
+      <c r="AA141" s="3"/>
+      <c r="AB141" s="3"/>
+    </row>
+    <row r="142" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -8832,10 +9182,12 @@
       <c r="V142" s="25"/>
       <c r="W142" s="25"/>
       <c r="X142" s="25"/>
-      <c r="Y142" s="3"/>
-      <c r="Z142" s="3"/>
-    </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y142" s="25"/>
+      <c r="Z142" s="25"/>
+      <c r="AA142" s="3"/>
+      <c r="AB142" s="3"/>
+    </row>
+    <row r="143" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -8860,10 +9212,12 @@
       <c r="V143" s="25"/>
       <c r="W143" s="25"/>
       <c r="X143" s="25"/>
-      <c r="Y143" s="3"/>
-      <c r="Z143" s="3"/>
-    </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y143" s="25"/>
+      <c r="Z143" s="25"/>
+      <c r="AA143" s="3"/>
+      <c r="AB143" s="3"/>
+    </row>
+    <row r="144" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -8888,10 +9242,12 @@
       <c r="V144" s="25"/>
       <c r="W144" s="25"/>
       <c r="X144" s="25"/>
-      <c r="Y144" s="3"/>
-      <c r="Z144" s="3"/>
-    </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y144" s="25"/>
+      <c r="Z144" s="25"/>
+      <c r="AA144" s="3"/>
+      <c r="AB144" s="3"/>
+    </row>
+    <row r="145" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -8916,10 +9272,12 @@
       <c r="V145" s="25"/>
       <c r="W145" s="25"/>
       <c r="X145" s="25"/>
-      <c r="Y145" s="3"/>
-      <c r="Z145" s="3"/>
-    </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y145" s="25"/>
+      <c r="Z145" s="25"/>
+      <c r="AA145" s="3"/>
+      <c r="AB145" s="3"/>
+    </row>
+    <row r="146" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -8944,10 +9302,12 @@
       <c r="V146" s="25"/>
       <c r="W146" s="25"/>
       <c r="X146" s="25"/>
-      <c r="Y146" s="3"/>
-      <c r="Z146" s="3"/>
-    </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y146" s="25"/>
+      <c r="Z146" s="25"/>
+      <c r="AA146" s="3"/>
+      <c r="AB146" s="3"/>
+    </row>
+    <row r="147" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -8972,10 +9332,12 @@
       <c r="V147" s="25"/>
       <c r="W147" s="25"/>
       <c r="X147" s="25"/>
-      <c r="Y147" s="3"/>
-      <c r="Z147" s="3"/>
-    </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y147" s="25"/>
+      <c r="Z147" s="25"/>
+      <c r="AA147" s="3"/>
+      <c r="AB147" s="3"/>
+    </row>
+    <row r="148" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -9000,10 +9362,12 @@
       <c r="V148" s="25"/>
       <c r="W148" s="25"/>
       <c r="X148" s="25"/>
-      <c r="Y148" s="3"/>
-      <c r="Z148" s="3"/>
-    </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y148" s="25"/>
+      <c r="Z148" s="25"/>
+      <c r="AA148" s="3"/>
+      <c r="AB148" s="3"/>
+    </row>
+    <row r="149" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -9028,10 +9392,12 @@
       <c r="V149" s="25"/>
       <c r="W149" s="25"/>
       <c r="X149" s="25"/>
-      <c r="Y149" s="3"/>
-      <c r="Z149" s="3"/>
-    </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y149" s="25"/>
+      <c r="Z149" s="25"/>
+      <c r="AA149" s="3"/>
+      <c r="AB149" s="3"/>
+    </row>
+    <row r="150" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -9056,10 +9422,12 @@
       <c r="V150" s="25"/>
       <c r="W150" s="25"/>
       <c r="X150" s="25"/>
-      <c r="Y150" s="3"/>
-      <c r="Z150" s="3"/>
-    </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y150" s="25"/>
+      <c r="Z150" s="25"/>
+      <c r="AA150" s="3"/>
+      <c r="AB150" s="3"/>
+    </row>
+    <row r="151" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -9084,10 +9452,12 @@
       <c r="V151" s="25"/>
       <c r="W151" s="25"/>
       <c r="X151" s="25"/>
-      <c r="Y151" s="3"/>
-      <c r="Z151" s="3"/>
-    </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y151" s="25"/>
+      <c r="Z151" s="25"/>
+      <c r="AA151" s="3"/>
+      <c r="AB151" s="3"/>
+    </row>
+    <row r="152" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -9112,10 +9482,12 @@
       <c r="V152" s="25"/>
       <c r="W152" s="25"/>
       <c r="X152" s="25"/>
-      <c r="Y152" s="3"/>
-      <c r="Z152" s="3"/>
-    </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y152" s="25"/>
+      <c r="Z152" s="25"/>
+      <c r="AA152" s="3"/>
+      <c r="AB152" s="3"/>
+    </row>
+    <row r="153" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -9140,10 +9512,12 @@
       <c r="V153" s="25"/>
       <c r="W153" s="25"/>
       <c r="X153" s="25"/>
-      <c r="Y153" s="3"/>
-      <c r="Z153" s="3"/>
-    </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y153" s="25"/>
+      <c r="Z153" s="25"/>
+      <c r="AA153" s="3"/>
+      <c r="AB153" s="3"/>
+    </row>
+    <row r="154" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -9168,10 +9542,12 @@
       <c r="V154" s="25"/>
       <c r="W154" s="25"/>
       <c r="X154" s="25"/>
-      <c r="Y154" s="3"/>
-      <c r="Z154" s="3"/>
-    </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y154" s="25"/>
+      <c r="Z154" s="25"/>
+      <c r="AA154" s="3"/>
+      <c r="AB154" s="3"/>
+    </row>
+    <row r="155" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -9196,10 +9572,12 @@
       <c r="V155" s="25"/>
       <c r="W155" s="25"/>
       <c r="X155" s="25"/>
-      <c r="Y155" s="3"/>
-      <c r="Z155" s="3"/>
-    </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y155" s="25"/>
+      <c r="Z155" s="25"/>
+      <c r="AA155" s="3"/>
+      <c r="AB155" s="3"/>
+    </row>
+    <row r="156" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -9224,10 +9602,12 @@
       <c r="V156" s="25"/>
       <c r="W156" s="25"/>
       <c r="X156" s="25"/>
-      <c r="Y156" s="3"/>
-      <c r="Z156" s="3"/>
-    </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y156" s="25"/>
+      <c r="Z156" s="25"/>
+      <c r="AA156" s="3"/>
+      <c r="AB156" s="3"/>
+    </row>
+    <row r="157" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -9252,10 +9632,12 @@
       <c r="V157" s="25"/>
       <c r="W157" s="25"/>
       <c r="X157" s="25"/>
-      <c r="Y157" s="3"/>
-      <c r="Z157" s="3"/>
-    </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y157" s="25"/>
+      <c r="Z157" s="25"/>
+      <c r="AA157" s="3"/>
+      <c r="AB157" s="3"/>
+    </row>
+    <row r="158" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -9280,10 +9662,12 @@
       <c r="V158" s="25"/>
       <c r="W158" s="25"/>
       <c r="X158" s="25"/>
-      <c r="Y158" s="3"/>
-      <c r="Z158" s="3"/>
-    </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y158" s="25"/>
+      <c r="Z158" s="25"/>
+      <c r="AA158" s="3"/>
+      <c r="AB158" s="3"/>
+    </row>
+    <row r="159" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -9308,10 +9692,12 @@
       <c r="V159" s="25"/>
       <c r="W159" s="25"/>
       <c r="X159" s="25"/>
-      <c r="Y159" s="3"/>
-      <c r="Z159" s="3"/>
-    </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y159" s="25"/>
+      <c r="Z159" s="25"/>
+      <c r="AA159" s="3"/>
+      <c r="AB159" s="3"/>
+    </row>
+    <row r="160" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -9336,10 +9722,12 @@
       <c r="V160" s="25"/>
       <c r="W160" s="25"/>
       <c r="X160" s="25"/>
-      <c r="Y160" s="3"/>
-      <c r="Z160" s="3"/>
-    </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y160" s="25"/>
+      <c r="Z160" s="25"/>
+      <c r="AA160" s="3"/>
+      <c r="AB160" s="3"/>
+    </row>
+    <row r="161" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -9364,10 +9752,12 @@
       <c r="V161" s="25"/>
       <c r="W161" s="25"/>
       <c r="X161" s="25"/>
-      <c r="Y161" s="3"/>
-      <c r="Z161" s="3"/>
-    </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y161" s="25"/>
+      <c r="Z161" s="25"/>
+      <c r="AA161" s="3"/>
+      <c r="AB161" s="3"/>
+    </row>
+    <row r="162" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -9392,10 +9782,12 @@
       <c r="V162" s="25"/>
       <c r="W162" s="25"/>
       <c r="X162" s="25"/>
-      <c r="Y162" s="3"/>
-      <c r="Z162" s="3"/>
-    </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y162" s="25"/>
+      <c r="Z162" s="25"/>
+      <c r="AA162" s="3"/>
+      <c r="AB162" s="3"/>
+    </row>
+    <row r="163" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -9420,10 +9812,12 @@
       <c r="V163" s="25"/>
       <c r="W163" s="25"/>
       <c r="X163" s="25"/>
-      <c r="Y163" s="3"/>
-      <c r="Z163" s="3"/>
-    </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y163" s="25"/>
+      <c r="Z163" s="25"/>
+      <c r="AA163" s="3"/>
+      <c r="AB163" s="3"/>
+    </row>
+    <row r="164" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
@@ -9448,10 +9842,12 @@
       <c r="V164" s="25"/>
       <c r="W164" s="25"/>
       <c r="X164" s="25"/>
-      <c r="Y164" s="3"/>
-      <c r="Z164" s="3"/>
-    </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y164" s="25"/>
+      <c r="Z164" s="25"/>
+      <c r="AA164" s="3"/>
+      <c r="AB164" s="3"/>
+    </row>
+    <row r="165" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
@@ -9476,10 +9872,12 @@
       <c r="V165" s="25"/>
       <c r="W165" s="25"/>
       <c r="X165" s="25"/>
-      <c r="Y165" s="3"/>
-      <c r="Z165" s="3"/>
-    </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y165" s="25"/>
+      <c r="Z165" s="25"/>
+      <c r="AA165" s="3"/>
+      <c r="AB165" s="3"/>
+    </row>
+    <row r="166" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
@@ -9504,10 +9902,12 @@
       <c r="V166" s="25"/>
       <c r="W166" s="25"/>
       <c r="X166" s="25"/>
-      <c r="Y166" s="3"/>
-      <c r="Z166" s="3"/>
-    </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y166" s="25"/>
+      <c r="Z166" s="25"/>
+      <c r="AA166" s="3"/>
+      <c r="AB166" s="3"/>
+    </row>
+    <row r="167" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
@@ -9532,10 +9932,12 @@
       <c r="V167" s="25"/>
       <c r="W167" s="25"/>
       <c r="X167" s="25"/>
-      <c r="Y167" s="3"/>
-      <c r="Z167" s="3"/>
-    </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y167" s="25"/>
+      <c r="Z167" s="25"/>
+      <c r="AA167" s="3"/>
+      <c r="AB167" s="3"/>
+    </row>
+    <row r="168" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
@@ -9560,10 +9962,12 @@
       <c r="V168" s="25"/>
       <c r="W168" s="25"/>
       <c r="X168" s="25"/>
-      <c r="Y168" s="3"/>
-      <c r="Z168" s="3"/>
-    </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y168" s="25"/>
+      <c r="Z168" s="25"/>
+      <c r="AA168" s="3"/>
+      <c r="AB168" s="3"/>
+    </row>
+    <row r="169" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
@@ -9588,10 +9992,12 @@
       <c r="V169" s="25"/>
       <c r="W169" s="25"/>
       <c r="X169" s="25"/>
-      <c r="Y169" s="3"/>
-      <c r="Z169" s="3"/>
-    </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y169" s="25"/>
+      <c r="Z169" s="25"/>
+      <c r="AA169" s="3"/>
+      <c r="AB169" s="3"/>
+    </row>
+    <row r="170" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
@@ -9616,10 +10022,12 @@
       <c r="V170" s="25"/>
       <c r="W170" s="25"/>
       <c r="X170" s="25"/>
-      <c r="Y170" s="3"/>
-      <c r="Z170" s="3"/>
-    </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y170" s="25"/>
+      <c r="Z170" s="25"/>
+      <c r="AA170" s="3"/>
+      <c r="AB170" s="3"/>
+    </row>
+    <row r="171" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
@@ -9644,10 +10052,12 @@
       <c r="V171" s="25"/>
       <c r="W171" s="25"/>
       <c r="X171" s="25"/>
-      <c r="Y171" s="3"/>
-      <c r="Z171" s="3"/>
-    </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y171" s="25"/>
+      <c r="Z171" s="25"/>
+      <c r="AA171" s="3"/>
+      <c r="AB171" s="3"/>
+    </row>
+    <row r="172" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
@@ -9672,10 +10082,12 @@
       <c r="V172" s="25"/>
       <c r="W172" s="25"/>
       <c r="X172" s="25"/>
-      <c r="Y172" s="3"/>
-      <c r="Z172" s="3"/>
-    </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y172" s="25"/>
+      <c r="Z172" s="25"/>
+      <c r="AA172" s="3"/>
+      <c r="AB172" s="3"/>
+    </row>
+    <row r="173" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
@@ -9700,10 +10112,12 @@
       <c r="V173" s="25"/>
       <c r="W173" s="25"/>
       <c r="X173" s="25"/>
-      <c r="Y173" s="3"/>
-      <c r="Z173" s="3"/>
-    </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y173" s="25"/>
+      <c r="Z173" s="25"/>
+      <c r="AA173" s="3"/>
+      <c r="AB173" s="3"/>
+    </row>
+    <row r="174" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
@@ -9728,10 +10142,12 @@
       <c r="V174" s="25"/>
       <c r="W174" s="25"/>
       <c r="X174" s="25"/>
-      <c r="Y174" s="3"/>
-      <c r="Z174" s="3"/>
-    </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y174" s="25"/>
+      <c r="Z174" s="25"/>
+      <c r="AA174" s="3"/>
+      <c r="AB174" s="3"/>
+    </row>
+    <row r="175" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
@@ -9756,10 +10172,12 @@
       <c r="V175" s="25"/>
       <c r="W175" s="25"/>
       <c r="X175" s="25"/>
-      <c r="Y175" s="3"/>
-      <c r="Z175" s="3"/>
-    </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y175" s="25"/>
+      <c r="Z175" s="25"/>
+      <c r="AA175" s="3"/>
+      <c r="AB175" s="3"/>
+    </row>
+    <row r="176" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -9784,10 +10202,12 @@
       <c r="V176" s="25"/>
       <c r="W176" s="25"/>
       <c r="X176" s="25"/>
-      <c r="Y176" s="3"/>
-      <c r="Z176" s="3"/>
-    </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y176" s="25"/>
+      <c r="Z176" s="25"/>
+      <c r="AA176" s="3"/>
+      <c r="AB176" s="3"/>
+    </row>
+    <row r="177" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A177" s="8"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
@@ -9812,10 +10232,12 @@
       <c r="V177" s="25"/>
       <c r="W177" s="25"/>
       <c r="X177" s="25"/>
-      <c r="Y177" s="3"/>
-      <c r="Z177" s="3"/>
-    </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y177" s="25"/>
+      <c r="Z177" s="25"/>
+      <c r="AA177" s="3"/>
+      <c r="AB177" s="3"/>
+    </row>
+    <row r="178" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A178" s="8"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
@@ -9840,10 +10262,12 @@
       <c r="V178" s="25"/>
       <c r="W178" s="25"/>
       <c r="X178" s="25"/>
-      <c r="Y178" s="3"/>
-      <c r="Z178" s="3"/>
-    </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y178" s="25"/>
+      <c r="Z178" s="25"/>
+      <c r="AA178" s="3"/>
+      <c r="AB178" s="3"/>
+    </row>
+    <row r="179" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
@@ -9868,10 +10292,12 @@
       <c r="V179" s="25"/>
       <c r="W179" s="25"/>
       <c r="X179" s="25"/>
-      <c r="Y179" s="3"/>
-      <c r="Z179" s="3"/>
-    </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y179" s="25"/>
+      <c r="Z179" s="25"/>
+      <c r="AA179" s="3"/>
+      <c r="AB179" s="3"/>
+    </row>
+    <row r="180" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
@@ -9896,10 +10322,12 @@
       <c r="V180" s="25"/>
       <c r="W180" s="25"/>
       <c r="X180" s="25"/>
-      <c r="Y180" s="3"/>
-      <c r="Z180" s="3"/>
-    </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y180" s="25"/>
+      <c r="Z180" s="25"/>
+      <c r="AA180" s="3"/>
+      <c r="AB180" s="3"/>
+    </row>
+    <row r="181" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A181" s="8"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
@@ -9924,10 +10352,12 @@
       <c r="V181" s="25"/>
       <c r="W181" s="25"/>
       <c r="X181" s="25"/>
-      <c r="Y181" s="3"/>
-      <c r="Z181" s="3"/>
-    </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y181" s="25"/>
+      <c r="Z181" s="25"/>
+      <c r="AA181" s="3"/>
+      <c r="AB181" s="3"/>
+    </row>
+    <row r="182" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A182" s="8"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
@@ -9952,10 +10382,12 @@
       <c r="V182" s="25"/>
       <c r="W182" s="25"/>
       <c r="X182" s="25"/>
-      <c r="Y182" s="3"/>
-      <c r="Z182" s="3"/>
-    </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y182" s="25"/>
+      <c r="Z182" s="25"/>
+      <c r="AA182" s="3"/>
+      <c r="AB182" s="3"/>
+    </row>
+    <row r="183" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A183" s="8"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
@@ -9980,10 +10412,12 @@
       <c r="V183" s="25"/>
       <c r="W183" s="25"/>
       <c r="X183" s="25"/>
-      <c r="Y183" s="3"/>
-      <c r="Z183" s="3"/>
-    </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y183" s="25"/>
+      <c r="Z183" s="25"/>
+      <c r="AA183" s="3"/>
+      <c r="AB183" s="3"/>
+    </row>
+    <row r="184" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A184" s="8"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
@@ -10008,10 +10442,12 @@
       <c r="V184" s="25"/>
       <c r="W184" s="25"/>
       <c r="X184" s="25"/>
-      <c r="Y184" s="3"/>
-      <c r="Z184" s="3"/>
-    </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y184" s="25"/>
+      <c r="Z184" s="25"/>
+      <c r="AA184" s="3"/>
+      <c r="AB184" s="3"/>
+    </row>
+    <row r="185" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A185" s="8"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
@@ -10036,10 +10472,12 @@
       <c r="V185" s="25"/>
       <c r="W185" s="25"/>
       <c r="X185" s="25"/>
-      <c r="Y185" s="3"/>
-      <c r="Z185" s="3"/>
-    </row>
-    <row r="186" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y185" s="25"/>
+      <c r="Z185" s="25"/>
+      <c r="AA185" s="3"/>
+      <c r="AB185" s="3"/>
+    </row>
+    <row r="186" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A186" s="8"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
@@ -10064,10 +10502,12 @@
       <c r="V186" s="25"/>
       <c r="W186" s="25"/>
       <c r="X186" s="25"/>
-      <c r="Y186" s="3"/>
-      <c r="Z186" s="3"/>
-    </row>
-    <row r="187" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y186" s="25"/>
+      <c r="Z186" s="25"/>
+      <c r="AA186" s="3"/>
+      <c r="AB186" s="3"/>
+    </row>
+    <row r="187" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A187" s="8"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
@@ -10092,10 +10532,12 @@
       <c r="V187" s="25"/>
       <c r="W187" s="25"/>
       <c r="X187" s="25"/>
-      <c r="Y187" s="3"/>
-      <c r="Z187" s="3"/>
-    </row>
-    <row r="188" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y187" s="25"/>
+      <c r="Z187" s="25"/>
+      <c r="AA187" s="3"/>
+      <c r="AB187" s="3"/>
+    </row>
+    <row r="188" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A188" s="8"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
@@ -10120,10 +10562,12 @@
       <c r="V188" s="25"/>
       <c r="W188" s="25"/>
       <c r="X188" s="25"/>
-      <c r="Y188" s="3"/>
-      <c r="Z188" s="3"/>
-    </row>
-    <row r="189" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y188" s="25"/>
+      <c r="Z188" s="25"/>
+      <c r="AA188" s="3"/>
+      <c r="AB188" s="3"/>
+    </row>
+    <row r="189" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A189" s="8"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
@@ -10148,10 +10592,12 @@
       <c r="V189" s="25"/>
       <c r="W189" s="25"/>
       <c r="X189" s="25"/>
-      <c r="Y189" s="3"/>
-      <c r="Z189" s="3"/>
-    </row>
-    <row r="190" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y189" s="25"/>
+      <c r="Z189" s="25"/>
+      <c r="AA189" s="3"/>
+      <c r="AB189" s="3"/>
+    </row>
+    <row r="190" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A190" s="8"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
@@ -10176,10 +10622,12 @@
       <c r="V190" s="25"/>
       <c r="W190" s="25"/>
       <c r="X190" s="25"/>
-      <c r="Y190" s="3"/>
-      <c r="Z190" s="3"/>
-    </row>
-    <row r="191" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y190" s="25"/>
+      <c r="Z190" s="25"/>
+      <c r="AA190" s="3"/>
+      <c r="AB190" s="3"/>
+    </row>
+    <row r="191" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A191" s="8"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
@@ -10204,10 +10652,12 @@
       <c r="V191" s="25"/>
       <c r="W191" s="25"/>
       <c r="X191" s="25"/>
-      <c r="Y191" s="3"/>
-      <c r="Z191" s="3"/>
-    </row>
-    <row r="192" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y191" s="25"/>
+      <c r="Z191" s="25"/>
+      <c r="AA191" s="3"/>
+      <c r="AB191" s="3"/>
+    </row>
+    <row r="192" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A192" s="8"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
@@ -10232,10 +10682,12 @@
       <c r="V192" s="25"/>
       <c r="W192" s="25"/>
       <c r="X192" s="25"/>
-      <c r="Y192" s="3"/>
-      <c r="Z192" s="3"/>
-    </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y192" s="25"/>
+      <c r="Z192" s="25"/>
+      <c r="AA192" s="3"/>
+      <c r="AB192" s="3"/>
+    </row>
+    <row r="193" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A193" s="8"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
@@ -10260,10 +10712,12 @@
       <c r="V193" s="25"/>
       <c r="W193" s="25"/>
       <c r="X193" s="25"/>
-      <c r="Y193" s="3"/>
-      <c r="Z193" s="3"/>
-    </row>
-    <row r="194" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y193" s="25"/>
+      <c r="Z193" s="25"/>
+      <c r="AA193" s="3"/>
+      <c r="AB193" s="3"/>
+    </row>
+    <row r="194" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A194" s="8"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
@@ -10288,10 +10742,12 @@
       <c r="V194" s="25"/>
       <c r="W194" s="25"/>
       <c r="X194" s="25"/>
-      <c r="Y194" s="3"/>
-      <c r="Z194" s="3"/>
-    </row>
-    <row r="195" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y194" s="25"/>
+      <c r="Z194" s="25"/>
+      <c r="AA194" s="3"/>
+      <c r="AB194" s="3"/>
+    </row>
+    <row r="195" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A195" s="8"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
@@ -10316,10 +10772,12 @@
       <c r="V195" s="25"/>
       <c r="W195" s="25"/>
       <c r="X195" s="25"/>
-      <c r="Y195" s="3"/>
-      <c r="Z195" s="3"/>
-    </row>
-    <row r="196" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y195" s="25"/>
+      <c r="Z195" s="25"/>
+      <c r="AA195" s="3"/>
+      <c r="AB195" s="3"/>
+    </row>
+    <row r="196" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A196" s="8"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
@@ -10344,10 +10802,12 @@
       <c r="V196" s="25"/>
       <c r="W196" s="25"/>
       <c r="X196" s="25"/>
-      <c r="Y196" s="3"/>
-      <c r="Z196" s="3"/>
-    </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y196" s="25"/>
+      <c r="Z196" s="25"/>
+      <c r="AA196" s="3"/>
+      <c r="AB196" s="3"/>
+    </row>
+    <row r="197" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A197" s="8"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
@@ -10372,10 +10832,12 @@
       <c r="V197" s="25"/>
       <c r="W197" s="25"/>
       <c r="X197" s="25"/>
-      <c r="Y197" s="3"/>
-      <c r="Z197" s="3"/>
-    </row>
-    <row r="198" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y197" s="25"/>
+      <c r="Z197" s="25"/>
+      <c r="AA197" s="3"/>
+      <c r="AB197" s="3"/>
+    </row>
+    <row r="198" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A198" s="8"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
@@ -10400,10 +10862,12 @@
       <c r="V198" s="25"/>
       <c r="W198" s="25"/>
       <c r="X198" s="25"/>
-      <c r="Y198" s="3"/>
-      <c r="Z198" s="3"/>
-    </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y198" s="25"/>
+      <c r="Z198" s="25"/>
+      <c r="AA198" s="3"/>
+      <c r="AB198" s="3"/>
+    </row>
+    <row r="199" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A199" s="8"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
@@ -10428,10 +10892,12 @@
       <c r="V199" s="25"/>
       <c r="W199" s="25"/>
       <c r="X199" s="25"/>
-      <c r="Y199" s="3"/>
-      <c r="Z199" s="3"/>
-    </row>
-    <row r="200" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y199" s="25"/>
+      <c r="Z199" s="25"/>
+      <c r="AA199" s="3"/>
+      <c r="AB199" s="3"/>
+    </row>
+    <row r="200" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A200" s="8"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
@@ -10456,10 +10922,12 @@
       <c r="V200" s="25"/>
       <c r="W200" s="25"/>
       <c r="X200" s="25"/>
-      <c r="Y200" s="3"/>
-      <c r="Z200" s="3"/>
-    </row>
-    <row r="201" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y200" s="25"/>
+      <c r="Z200" s="25"/>
+      <c r="AA200" s="3"/>
+      <c r="AB200" s="3"/>
+    </row>
+    <row r="201" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A201" s="8"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
@@ -10484,25 +10952,27 @@
       <c r="V201" s="25"/>
       <c r="W201" s="25"/>
       <c r="X201" s="25"/>
-      <c r="Y201" s="3"/>
-      <c r="Z201" s="3"/>
+      <c r="Y201" s="25"/>
+      <c r="Z201" s="25"/>
+      <c r="AA201" s="3"/>
+      <c r="AB201" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid ID" error="ID must be an integer greater than 0." sqref="Y2:Y1048576" xr:uid="{EF111386-0BAE-4DDF-A24D-79B0B7D4CC7E}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid ID" error="ID must be an integer greater than 0." sqref="AA2:AA1048576" xr:uid="{EF111386-0BAE-4DDF-A24D-79B0B7D4CC7E}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576" xr:uid="{6F7C7187-3764-415A-BC5A-14E3BBE20675}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{6F7C7187-3764-415A-BC5A-14E3BBE20675}">
       <formula1>"NonProduction, Attended, Unattended, Studio, Development, StudioX, Headless, StudioPro, TestAutomation"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576 M2:M1048576 W2:X2 W2:X1048576 P2:P1048576 P2 P3:P1048576 R3:S1048576 R2:S1048576 R2:S2 W3:X1048576 I2:I1048576" xr:uid="{B4730FF1-EE13-4FD9-927F-DE1C7444137B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576 N2:O1048576 Y2:Z2 Y2:Z1048576 R2:R1048576 R2 R3:R1048576 T3:U1048576 T2:U1048576 T2:U2 Y3:Z1048576 I2:J1048576" xr:uid="{B4730FF1-EE13-4FD9-927F-DE1C7444137B}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576" xr:uid="{2380D758-D9E5-4B34-8FB6-E35BEFBAAAAF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S1048576" xr:uid="{2380D758-D9E5-4B34-8FB6-E35BEFBAAAAF}">
       <formula1>"Verbose, Trace, Information, Warning, Error, Critical, Off"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:V1048576" xr:uid="{42A5B7D1-A07F-4DE2-9D78-9FFB6342D7C5}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:X1048576" xr:uid="{42A5B7D1-A07F-4DE2-9D78-9FFB6342D7C5}">
       <formula1>0</formula1>
       <formula2>32767</formula2>
     </dataValidation>
@@ -10518,7 +10988,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF20293-3040-451C-BEA0-1DF5FCF14B01}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:W201"/>
+  <dimension ref="A1:Y201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -10529,13 +10999,13 @@
     <col min="1" max="1" width="15.75" style="25" customWidth="1"/>
     <col min="2" max="4" width="25.75" style="25" customWidth="1"/>
     <col min="5" max="5" width="15.75" style="25" customWidth="1"/>
-    <col min="6" max="7" width="25.75" style="25" customWidth="1"/>
-    <col min="8" max="22" width="25.75" style="2" customWidth="1"/>
-    <col min="23" max="23" width="15.875" style="27" customWidth="1"/>
-    <col min="24" max="16384" width="8.75" style="2"/>
+    <col min="6" max="8" width="25.75" style="25" customWidth="1"/>
+    <col min="9" max="24" width="25.75" style="2" customWidth="1"/>
+    <col min="25" max="25" width="15.875" style="27" customWidth="1"/>
+    <col min="26" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="36.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" ht="36.75" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -10552,61 +11022,67 @@
         <v>9</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J1" s="25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L1" s="25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M1" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N1" s="25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O1" s="25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P1" s="25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q1" s="25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R1" s="25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S1" s="25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T1" s="25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U1" s="25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V1" s="25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
-      <c r="W1" s="21" t="s">
-        <v>53</v>
+      <c r="W1" s="25" t="s">
+        <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X1" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y1" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A2" s="22"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -10629,16 +11105,17 @@
       <c r="T2" s="26"/>
       <c r="U2" s="26"/>
       <c r="V2" s="26"/>
-      <c r="W2" s="3"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="3"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="22"/>
       <c r="F3" s="9"/>
-      <c r="H3" s="25"/>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
       <c r="K3" s="25"/>
@@ -10653,16 +11130,17 @@
       <c r="T3" s="25"/>
       <c r="U3" s="25"/>
       <c r="V3" s="25"/>
-      <c r="W3" s="3"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="3"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="9"/>
-      <c r="H4" s="25"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
@@ -10677,16 +11155,17 @@
       <c r="T4" s="25"/>
       <c r="U4" s="25"/>
       <c r="V4" s="25"/>
-      <c r="W4" s="3"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="3"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="9"/>
-      <c r="H5" s="25"/>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
       <c r="K5" s="25"/>
@@ -10701,16 +11180,17 @@
       <c r="T5" s="25"/>
       <c r="U5" s="25"/>
       <c r="V5" s="25"/>
-      <c r="W5" s="3"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="3"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="9"/>
-      <c r="H6" s="25"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
       <c r="K6" s="25"/>
@@ -10725,16 +11205,17 @@
       <c r="T6" s="25"/>
       <c r="U6" s="25"/>
       <c r="V6" s="25"/>
-      <c r="W6" s="3"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="3"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="9"/>
-      <c r="H7" s="25"/>
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
       <c r="K7" s="25"/>
@@ -10749,16 +11230,17 @@
       <c r="T7" s="25"/>
       <c r="U7" s="25"/>
       <c r="V7" s="25"/>
-      <c r="W7" s="3"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="3"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
-      <c r="H8" s="25"/>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
@@ -10773,16 +11255,17 @@
       <c r="T8" s="25"/>
       <c r="U8" s="25"/>
       <c r="V8" s="25"/>
-      <c r="W8" s="3"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="3"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="9"/>
-      <c r="H9" s="25"/>
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
@@ -10797,16 +11280,17 @@
       <c r="T9" s="25"/>
       <c r="U9" s="25"/>
       <c r="V9" s="25"/>
-      <c r="W9" s="3"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="3"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="9"/>
-      <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
@@ -10821,16 +11305,17 @@
       <c r="T10" s="25"/>
       <c r="U10" s="25"/>
       <c r="V10" s="25"/>
-      <c r="W10" s="3"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="3"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="9"/>
-      <c r="H11" s="25"/>
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
@@ -10845,16 +11330,17 @@
       <c r="T11" s="25"/>
       <c r="U11" s="25"/>
       <c r="V11" s="25"/>
-      <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="9"/>
-      <c r="H12" s="25"/>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
@@ -10869,16 +11355,17 @@
       <c r="T12" s="25"/>
       <c r="U12" s="25"/>
       <c r="V12" s="25"/>
-      <c r="W12" s="3"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="3"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="9"/>
-      <c r="H13" s="25"/>
       <c r="I13" s="25"/>
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
@@ -10893,16 +11380,17 @@
       <c r="T13" s="25"/>
       <c r="U13" s="25"/>
       <c r="V13" s="25"/>
-      <c r="W13" s="3"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="3"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="9"/>
-      <c r="H14" s="25"/>
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
       <c r="K14" s="25"/>
@@ -10917,16 +11405,17 @@
       <c r="T14" s="25"/>
       <c r="U14" s="25"/>
       <c r="V14" s="25"/>
-      <c r="W14" s="3"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="3"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="9"/>
-      <c r="H15" s="25"/>
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
@@ -10941,16 +11430,17 @@
       <c r="T15" s="25"/>
       <c r="U15" s="25"/>
       <c r="V15" s="25"/>
-      <c r="W15" s="3"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="3"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="9"/>
-      <c r="H16" s="25"/>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
       <c r="K16" s="25"/>
@@ -10965,16 +11455,17 @@
       <c r="T16" s="25"/>
       <c r="U16" s="25"/>
       <c r="V16" s="25"/>
-      <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="9"/>
-      <c r="H17" s="25"/>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
@@ -10989,16 +11480,17 @@
       <c r="T17" s="25"/>
       <c r="U17" s="25"/>
       <c r="V17" s="25"/>
-      <c r="W17" s="3"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="3"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="9"/>
-      <c r="H18" s="25"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
@@ -11013,16 +11505,17 @@
       <c r="T18" s="25"/>
       <c r="U18" s="25"/>
       <c r="V18" s="25"/>
-      <c r="W18" s="3"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="3"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="9"/>
-      <c r="H19" s="25"/>
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
@@ -11037,16 +11530,17 @@
       <c r="T19" s="25"/>
       <c r="U19" s="25"/>
       <c r="V19" s="25"/>
-      <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="9"/>
-      <c r="H20" s="25"/>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
@@ -11061,16 +11555,17 @@
       <c r="T20" s="25"/>
       <c r="U20" s="25"/>
       <c r="V20" s="25"/>
-      <c r="W20" s="3"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="3"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9"/>
-      <c r="H21" s="25"/>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
@@ -11085,16 +11580,17 @@
       <c r="T21" s="25"/>
       <c r="U21" s="25"/>
       <c r="V21" s="25"/>
-      <c r="W21" s="3"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W21" s="25"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="3"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9"/>
-      <c r="H22" s="25"/>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
@@ -11109,16 +11605,17 @@
       <c r="T22" s="25"/>
       <c r="U22" s="25"/>
       <c r="V22" s="25"/>
-      <c r="W22" s="3"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="3"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9"/>
-      <c r="H23" s="25"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
@@ -11133,16 +11630,17 @@
       <c r="T23" s="25"/>
       <c r="U23" s="25"/>
       <c r="V23" s="25"/>
-      <c r="W23" s="3"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="3"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="9"/>
-      <c r="H24" s="25"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
       <c r="K24" s="25"/>
@@ -11157,16 +11655,17 @@
       <c r="T24" s="25"/>
       <c r="U24" s="25"/>
       <c r="V24" s="25"/>
-      <c r="W24" s="3"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="3"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="9"/>
-      <c r="H25" s="25"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
@@ -11181,16 +11680,17 @@
       <c r="T25" s="25"/>
       <c r="U25" s="25"/>
       <c r="V25" s="25"/>
-      <c r="W25" s="3"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="3"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9"/>
-      <c r="H26" s="25"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
@@ -11205,16 +11705,17 @@
       <c r="T26" s="25"/>
       <c r="U26" s="25"/>
       <c r="V26" s="25"/>
-      <c r="W26" s="3"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="3"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9"/>
-      <c r="H27" s="25"/>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
@@ -11229,16 +11730,17 @@
       <c r="T27" s="25"/>
       <c r="U27" s="25"/>
       <c r="V27" s="25"/>
-      <c r="W27" s="3"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W27" s="25"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="3"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9"/>
-      <c r="H28" s="25"/>
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
@@ -11253,16 +11755,17 @@
       <c r="T28" s="25"/>
       <c r="U28" s="25"/>
       <c r="V28" s="25"/>
-      <c r="W28" s="3"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="3"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="9"/>
-      <c r="H29" s="25"/>
       <c r="I29" s="25"/>
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
@@ -11277,16 +11780,17 @@
       <c r="T29" s="25"/>
       <c r="U29" s="25"/>
       <c r="V29" s="25"/>
-      <c r="W29" s="3"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W29" s="25"/>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="3"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="H30" s="25"/>
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
       <c r="K30" s="25"/>
@@ -11301,16 +11805,17 @@
       <c r="T30" s="25"/>
       <c r="U30" s="25"/>
       <c r="V30" s="25"/>
-      <c r="W30" s="3"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W30" s="25"/>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="3"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9"/>
-      <c r="H31" s="25"/>
       <c r="I31" s="25"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
@@ -11325,16 +11830,17 @@
       <c r="T31" s="25"/>
       <c r="U31" s="25"/>
       <c r="V31" s="25"/>
-      <c r="W31" s="3"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W31" s="25"/>
+      <c r="X31" s="25"/>
+      <c r="Y31" s="3"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9"/>
-      <c r="H32" s="25"/>
       <c r="I32" s="25"/>
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
@@ -11349,16 +11855,17 @@
       <c r="T32" s="25"/>
       <c r="U32" s="25"/>
       <c r="V32" s="25"/>
-      <c r="W32" s="3"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W32" s="25"/>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="3"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9"/>
-      <c r="H33" s="25"/>
       <c r="I33" s="25"/>
       <c r="J33" s="25"/>
       <c r="K33" s="25"/>
@@ -11373,16 +11880,17 @@
       <c r="T33" s="25"/>
       <c r="U33" s="25"/>
       <c r="V33" s="25"/>
-      <c r="W33" s="3"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W33" s="25"/>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="3"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="9"/>
-      <c r="H34" s="25"/>
       <c r="I34" s="25"/>
       <c r="J34" s="25"/>
       <c r="K34" s="25"/>
@@ -11397,16 +11905,17 @@
       <c r="T34" s="25"/>
       <c r="U34" s="25"/>
       <c r="V34" s="25"/>
-      <c r="W34" s="3"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W34" s="25"/>
+      <c r="X34" s="25"/>
+      <c r="Y34" s="3"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="9"/>
-      <c r="H35" s="25"/>
       <c r="I35" s="25"/>
       <c r="J35" s="25"/>
       <c r="K35" s="25"/>
@@ -11421,16 +11930,17 @@
       <c r="T35" s="25"/>
       <c r="U35" s="25"/>
       <c r="V35" s="25"/>
-      <c r="W35" s="3"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W35" s="25"/>
+      <c r="X35" s="25"/>
+      <c r="Y35" s="3"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="9"/>
-      <c r="H36" s="25"/>
       <c r="I36" s="25"/>
       <c r="J36" s="25"/>
       <c r="K36" s="25"/>
@@ -11445,16 +11955,17 @@
       <c r="T36" s="25"/>
       <c r="U36" s="25"/>
       <c r="V36" s="25"/>
-      <c r="W36" s="3"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W36" s="25"/>
+      <c r="X36" s="25"/>
+      <c r="Y36" s="3"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="9"/>
-      <c r="H37" s="25"/>
       <c r="I37" s="25"/>
       <c r="J37" s="25"/>
       <c r="K37" s="25"/>
@@ -11469,16 +11980,17 @@
       <c r="T37" s="25"/>
       <c r="U37" s="25"/>
       <c r="V37" s="25"/>
-      <c r="W37" s="3"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W37" s="25"/>
+      <c r="X37" s="25"/>
+      <c r="Y37" s="3"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="9"/>
-      <c r="H38" s="25"/>
       <c r="I38" s="25"/>
       <c r="J38" s="25"/>
       <c r="K38" s="25"/>
@@ -11493,16 +12005,17 @@
       <c r="T38" s="25"/>
       <c r="U38" s="25"/>
       <c r="V38" s="25"/>
-      <c r="W38" s="3"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W38" s="25"/>
+      <c r="X38" s="25"/>
+      <c r="Y38" s="3"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="9"/>
-      <c r="H39" s="25"/>
       <c r="I39" s="25"/>
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
@@ -11517,16 +12030,17 @@
       <c r="T39" s="25"/>
       <c r="U39" s="25"/>
       <c r="V39" s="25"/>
-      <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W39" s="25"/>
+      <c r="X39" s="25"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9"/>
-      <c r="H40" s="25"/>
       <c r="I40" s="25"/>
       <c r="J40" s="25"/>
       <c r="K40" s="25"/>
@@ -11541,16 +12055,17 @@
       <c r="T40" s="25"/>
       <c r="U40" s="25"/>
       <c r="V40" s="25"/>
-      <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W40" s="25"/>
+      <c r="X40" s="25"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9"/>
-      <c r="H41" s="25"/>
       <c r="I41" s="25"/>
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
@@ -11565,16 +12080,17 @@
       <c r="T41" s="25"/>
       <c r="U41" s="25"/>
       <c r="V41" s="25"/>
-      <c r="W41" s="3"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W41" s="25"/>
+      <c r="X41" s="25"/>
+      <c r="Y41" s="3"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9"/>
-      <c r="H42" s="25"/>
       <c r="I42" s="25"/>
       <c r="J42" s="25"/>
       <c r="K42" s="25"/>
@@ -11589,16 +12105,17 @@
       <c r="T42" s="25"/>
       <c r="U42" s="25"/>
       <c r="V42" s="25"/>
-      <c r="W42" s="3"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W42" s="25"/>
+      <c r="X42" s="25"/>
+      <c r="Y42" s="3"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9"/>
-      <c r="H43" s="25"/>
       <c r="I43" s="25"/>
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
@@ -11613,16 +12130,17 @@
       <c r="T43" s="25"/>
       <c r="U43" s="25"/>
       <c r="V43" s="25"/>
-      <c r="W43" s="3"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W43" s="25"/>
+      <c r="X43" s="25"/>
+      <c r="Y43" s="3"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="9"/>
-      <c r="H44" s="25"/>
       <c r="I44" s="25"/>
       <c r="J44" s="25"/>
       <c r="K44" s="25"/>
@@ -11637,16 +12155,17 @@
       <c r="T44" s="25"/>
       <c r="U44" s="25"/>
       <c r="V44" s="25"/>
-      <c r="W44" s="3"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W44" s="25"/>
+      <c r="X44" s="25"/>
+      <c r="Y44" s="3"/>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="9"/>
-      <c r="H45" s="25"/>
       <c r="I45" s="25"/>
       <c r="J45" s="25"/>
       <c r="K45" s="25"/>
@@ -11661,16 +12180,17 @@
       <c r="T45" s="25"/>
       <c r="U45" s="25"/>
       <c r="V45" s="25"/>
-      <c r="W45" s="3"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W45" s="25"/>
+      <c r="X45" s="25"/>
+      <c r="Y45" s="3"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9"/>
-      <c r="H46" s="25"/>
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
       <c r="K46" s="25"/>
@@ -11685,16 +12205,17 @@
       <c r="T46" s="25"/>
       <c r="U46" s="25"/>
       <c r="V46" s="25"/>
-      <c r="W46" s="3"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W46" s="25"/>
+      <c r="X46" s="25"/>
+      <c r="Y46" s="3"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9"/>
-      <c r="H47" s="25"/>
       <c r="I47" s="25"/>
       <c r="J47" s="25"/>
       <c r="K47" s="25"/>
@@ -11709,16 +12230,17 @@
       <c r="T47" s="25"/>
       <c r="U47" s="25"/>
       <c r="V47" s="25"/>
-      <c r="W47" s="3"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W47" s="25"/>
+      <c r="X47" s="25"/>
+      <c r="Y47" s="3"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9"/>
-      <c r="H48" s="25"/>
       <c r="I48" s="25"/>
       <c r="J48" s="25"/>
       <c r="K48" s="25"/>
@@ -11733,16 +12255,17 @@
       <c r="T48" s="25"/>
       <c r="U48" s="25"/>
       <c r="V48" s="25"/>
-      <c r="W48" s="3"/>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W48" s="25"/>
+      <c r="X48" s="25"/>
+      <c r="Y48" s="3"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9"/>
-      <c r="H49" s="25"/>
       <c r="I49" s="25"/>
       <c r="J49" s="25"/>
       <c r="K49" s="25"/>
@@ -11757,16 +12280,17 @@
       <c r="T49" s="25"/>
       <c r="U49" s="25"/>
       <c r="V49" s="25"/>
-      <c r="W49" s="3"/>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W49" s="25"/>
+      <c r="X49" s="25"/>
+      <c r="Y49" s="3"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="9"/>
-      <c r="H50" s="25"/>
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
       <c r="K50" s="25"/>
@@ -11781,16 +12305,17 @@
       <c r="T50" s="25"/>
       <c r="U50" s="25"/>
       <c r="V50" s="25"/>
-      <c r="W50" s="3"/>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W50" s="25"/>
+      <c r="X50" s="25"/>
+      <c r="Y50" s="3"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="9"/>
-      <c r="H51" s="25"/>
       <c r="I51" s="25"/>
       <c r="J51" s="25"/>
       <c r="K51" s="25"/>
@@ -11805,16 +12330,17 @@
       <c r="T51" s="25"/>
       <c r="U51" s="25"/>
       <c r="V51" s="25"/>
-      <c r="W51" s="3"/>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W51" s="25"/>
+      <c r="X51" s="25"/>
+      <c r="Y51" s="3"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9"/>
-      <c r="H52" s="25"/>
       <c r="I52" s="25"/>
       <c r="J52" s="25"/>
       <c r="K52" s="25"/>
@@ -11829,16 +12355,17 @@
       <c r="T52" s="25"/>
       <c r="U52" s="25"/>
       <c r="V52" s="25"/>
-      <c r="W52" s="3"/>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W52" s="25"/>
+      <c r="X52" s="25"/>
+      <c r="Y52" s="3"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9"/>
-      <c r="H53" s="25"/>
       <c r="I53" s="25"/>
       <c r="J53" s="25"/>
       <c r="K53" s="25"/>
@@ -11853,16 +12380,17 @@
       <c r="T53" s="25"/>
       <c r="U53" s="25"/>
       <c r="V53" s="25"/>
-      <c r="W53" s="3"/>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W53" s="25"/>
+      <c r="X53" s="25"/>
+      <c r="Y53" s="3"/>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9"/>
-      <c r="H54" s="25"/>
       <c r="I54" s="25"/>
       <c r="J54" s="25"/>
       <c r="K54" s="25"/>
@@ -11877,16 +12405,17 @@
       <c r="T54" s="25"/>
       <c r="U54" s="25"/>
       <c r="V54" s="25"/>
-      <c r="W54" s="3"/>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W54" s="25"/>
+      <c r="X54" s="25"/>
+      <c r="Y54" s="3"/>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9"/>
-      <c r="H55" s="25"/>
       <c r="I55" s="25"/>
       <c r="J55" s="25"/>
       <c r="K55" s="25"/>
@@ -11901,16 +12430,17 @@
       <c r="T55" s="25"/>
       <c r="U55" s="25"/>
       <c r="V55" s="25"/>
-      <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W55" s="25"/>
+      <c r="X55" s="25"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="9"/>
-      <c r="H56" s="25"/>
       <c r="I56" s="25"/>
       <c r="J56" s="25"/>
       <c r="K56" s="25"/>
@@ -11925,16 +12455,17 @@
       <c r="T56" s="25"/>
       <c r="U56" s="25"/>
       <c r="V56" s="25"/>
-      <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W56" s="25"/>
+      <c r="X56" s="25"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="9"/>
-      <c r="H57" s="25"/>
       <c r="I57" s="25"/>
       <c r="J57" s="25"/>
       <c r="K57" s="25"/>
@@ -11949,16 +12480,17 @@
       <c r="T57" s="25"/>
       <c r="U57" s="25"/>
       <c r="V57" s="25"/>
-      <c r="W57" s="3"/>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W57" s="25"/>
+      <c r="X57" s="25"/>
+      <c r="Y57" s="3"/>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9"/>
-      <c r="H58" s="25"/>
       <c r="I58" s="25"/>
       <c r="J58" s="25"/>
       <c r="K58" s="25"/>
@@ -11973,16 +12505,17 @@
       <c r="T58" s="25"/>
       <c r="U58" s="25"/>
       <c r="V58" s="25"/>
-      <c r="W58" s="3"/>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W58" s="25"/>
+      <c r="X58" s="25"/>
+      <c r="Y58" s="3"/>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9"/>
-      <c r="H59" s="25"/>
       <c r="I59" s="25"/>
       <c r="J59" s="25"/>
       <c r="K59" s="25"/>
@@ -11997,16 +12530,17 @@
       <c r="T59" s="25"/>
       <c r="U59" s="25"/>
       <c r="V59" s="25"/>
-      <c r="W59" s="3"/>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W59" s="25"/>
+      <c r="X59" s="25"/>
+      <c r="Y59" s="3"/>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9"/>
-      <c r="H60" s="25"/>
       <c r="I60" s="25"/>
       <c r="J60" s="25"/>
       <c r="K60" s="25"/>
@@ -12021,16 +12555,17 @@
       <c r="T60" s="25"/>
       <c r="U60" s="25"/>
       <c r="V60" s="25"/>
-      <c r="W60" s="3"/>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W60" s="25"/>
+      <c r="X60" s="25"/>
+      <c r="Y60" s="3"/>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="9"/>
-      <c r="H61" s="25"/>
       <c r="I61" s="25"/>
       <c r="J61" s="25"/>
       <c r="K61" s="25"/>
@@ -12045,16 +12580,17 @@
       <c r="T61" s="25"/>
       <c r="U61" s="25"/>
       <c r="V61" s="25"/>
-      <c r="W61" s="3"/>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W61" s="25"/>
+      <c r="X61" s="25"/>
+      <c r="Y61" s="3"/>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="9"/>
-      <c r="H62" s="25"/>
       <c r="I62" s="25"/>
       <c r="J62" s="25"/>
       <c r="K62" s="25"/>
@@ -12069,16 +12605,17 @@
       <c r="T62" s="25"/>
       <c r="U62" s="25"/>
       <c r="V62" s="25"/>
-      <c r="W62" s="3"/>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W62" s="25"/>
+      <c r="X62" s="25"/>
+      <c r="Y62" s="3"/>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="9"/>
-      <c r="H63" s="25"/>
       <c r="I63" s="25"/>
       <c r="J63" s="25"/>
       <c r="K63" s="25"/>
@@ -12093,16 +12630,17 @@
       <c r="T63" s="25"/>
       <c r="U63" s="25"/>
       <c r="V63" s="25"/>
-      <c r="W63" s="3"/>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W63" s="25"/>
+      <c r="X63" s="25"/>
+      <c r="Y63" s="3"/>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="9"/>
-      <c r="H64" s="25"/>
       <c r="I64" s="25"/>
       <c r="J64" s="25"/>
       <c r="K64" s="25"/>
@@ -12117,16 +12655,17 @@
       <c r="T64" s="25"/>
       <c r="U64" s="25"/>
       <c r="V64" s="25"/>
-      <c r="W64" s="3"/>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W64" s="25"/>
+      <c r="X64" s="25"/>
+      <c r="Y64" s="3"/>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="9"/>
-      <c r="H65" s="25"/>
       <c r="I65" s="25"/>
       <c r="J65" s="25"/>
       <c r="K65" s="25"/>
@@ -12141,16 +12680,17 @@
       <c r="T65" s="25"/>
       <c r="U65" s="25"/>
       <c r="V65" s="25"/>
-      <c r="W65" s="3"/>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W65" s="25"/>
+      <c r="X65" s="25"/>
+      <c r="Y65" s="3"/>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="9"/>
-      <c r="H66" s="25"/>
       <c r="I66" s="25"/>
       <c r="J66" s="25"/>
       <c r="K66" s="25"/>
@@ -12165,16 +12705,17 @@
       <c r="T66" s="25"/>
       <c r="U66" s="25"/>
       <c r="V66" s="25"/>
-      <c r="W66" s="3"/>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W66" s="25"/>
+      <c r="X66" s="25"/>
+      <c r="Y66" s="3"/>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="9"/>
-      <c r="H67" s="25"/>
       <c r="I67" s="25"/>
       <c r="J67" s="25"/>
       <c r="K67" s="25"/>
@@ -12189,16 +12730,17 @@
       <c r="T67" s="25"/>
       <c r="U67" s="25"/>
       <c r="V67" s="25"/>
-      <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W67" s="25"/>
+      <c r="X67" s="25"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="9"/>
-      <c r="H68" s="25"/>
       <c r="I68" s="25"/>
       <c r="J68" s="25"/>
       <c r="K68" s="25"/>
@@ -12213,16 +12755,17 @@
       <c r="T68" s="25"/>
       <c r="U68" s="25"/>
       <c r="V68" s="25"/>
-      <c r="W68" s="3"/>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W68" s="25"/>
+      <c r="X68" s="25"/>
+      <c r="Y68" s="3"/>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="9"/>
-      <c r="H69" s="25"/>
       <c r="I69" s="25"/>
       <c r="J69" s="25"/>
       <c r="K69" s="25"/>
@@ -12237,16 +12780,17 @@
       <c r="T69" s="25"/>
       <c r="U69" s="25"/>
       <c r="V69" s="25"/>
-      <c r="W69" s="3"/>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W69" s="25"/>
+      <c r="X69" s="25"/>
+      <c r="Y69" s="3"/>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="9"/>
-      <c r="H70" s="25"/>
       <c r="I70" s="25"/>
       <c r="J70" s="25"/>
       <c r="K70" s="25"/>
@@ -12261,16 +12805,17 @@
       <c r="T70" s="25"/>
       <c r="U70" s="25"/>
       <c r="V70" s="25"/>
-      <c r="W70" s="3"/>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W70" s="25"/>
+      <c r="X70" s="25"/>
+      <c r="Y70" s="3"/>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="9"/>
-      <c r="H71" s="25"/>
       <c r="I71" s="25"/>
       <c r="J71" s="25"/>
       <c r="K71" s="25"/>
@@ -12285,16 +12830,17 @@
       <c r="T71" s="25"/>
       <c r="U71" s="25"/>
       <c r="V71" s="25"/>
-      <c r="W71" s="3"/>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W71" s="25"/>
+      <c r="X71" s="25"/>
+      <c r="Y71" s="3"/>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="9"/>
-      <c r="H72" s="25"/>
       <c r="I72" s="25"/>
       <c r="J72" s="25"/>
       <c r="K72" s="25"/>
@@ -12309,16 +12855,17 @@
       <c r="T72" s="25"/>
       <c r="U72" s="25"/>
       <c r="V72" s="25"/>
-      <c r="W72" s="3"/>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W72" s="25"/>
+      <c r="X72" s="25"/>
+      <c r="Y72" s="3"/>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="9"/>
-      <c r="H73" s="25"/>
       <c r="I73" s="25"/>
       <c r="J73" s="25"/>
       <c r="K73" s="25"/>
@@ -12333,16 +12880,17 @@
       <c r="T73" s="25"/>
       <c r="U73" s="25"/>
       <c r="V73" s="25"/>
-      <c r="W73" s="3"/>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W73" s="25"/>
+      <c r="X73" s="25"/>
+      <c r="Y73" s="3"/>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="9"/>
-      <c r="H74" s="25"/>
       <c r="I74" s="25"/>
       <c r="J74" s="25"/>
       <c r="K74" s="25"/>
@@ -12357,16 +12905,17 @@
       <c r="T74" s="25"/>
       <c r="U74" s="25"/>
       <c r="V74" s="25"/>
-      <c r="W74" s="3"/>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W74" s="25"/>
+      <c r="X74" s="25"/>
+      <c r="Y74" s="3"/>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="9"/>
-      <c r="H75" s="25"/>
       <c r="I75" s="25"/>
       <c r="J75" s="25"/>
       <c r="K75" s="25"/>
@@ -12381,16 +12930,17 @@
       <c r="T75" s="25"/>
       <c r="U75" s="25"/>
       <c r="V75" s="25"/>
-      <c r="W75" s="3"/>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W75" s="25"/>
+      <c r="X75" s="25"/>
+      <c r="Y75" s="3"/>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="9"/>
-      <c r="H76" s="25"/>
       <c r="I76" s="25"/>
       <c r="J76" s="25"/>
       <c r="K76" s="25"/>
@@ -12405,16 +12955,17 @@
       <c r="T76" s="25"/>
       <c r="U76" s="25"/>
       <c r="V76" s="25"/>
-      <c r="W76" s="3"/>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W76" s="25"/>
+      <c r="X76" s="25"/>
+      <c r="Y76" s="3"/>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="9"/>
-      <c r="H77" s="25"/>
       <c r="I77" s="25"/>
       <c r="J77" s="25"/>
       <c r="K77" s="25"/>
@@ -12429,16 +12980,17 @@
       <c r="T77" s="25"/>
       <c r="U77" s="25"/>
       <c r="V77" s="25"/>
-      <c r="W77" s="3"/>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W77" s="25"/>
+      <c r="X77" s="25"/>
+      <c r="Y77" s="3"/>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="9"/>
-      <c r="H78" s="25"/>
       <c r="I78" s="25"/>
       <c r="J78" s="25"/>
       <c r="K78" s="25"/>
@@ -12453,16 +13005,17 @@
       <c r="T78" s="25"/>
       <c r="U78" s="25"/>
       <c r="V78" s="25"/>
-      <c r="W78" s="3"/>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W78" s="25"/>
+      <c r="X78" s="25"/>
+      <c r="Y78" s="3"/>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="9"/>
-      <c r="H79" s="25"/>
       <c r="I79" s="25"/>
       <c r="J79" s="25"/>
       <c r="K79" s="25"/>
@@ -12477,16 +13030,17 @@
       <c r="T79" s="25"/>
       <c r="U79" s="25"/>
       <c r="V79" s="25"/>
-      <c r="W79" s="3"/>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W79" s="25"/>
+      <c r="X79" s="25"/>
+      <c r="Y79" s="3"/>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="9"/>
-      <c r="H80" s="25"/>
       <c r="I80" s="25"/>
       <c r="J80" s="25"/>
       <c r="K80" s="25"/>
@@ -12501,16 +13055,17 @@
       <c r="T80" s="25"/>
       <c r="U80" s="25"/>
       <c r="V80" s="25"/>
-      <c r="W80" s="3"/>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W80" s="25"/>
+      <c r="X80" s="25"/>
+      <c r="Y80" s="3"/>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="9"/>
-      <c r="H81" s="25"/>
       <c r="I81" s="25"/>
       <c r="J81" s="25"/>
       <c r="K81" s="25"/>
@@ -12525,16 +13080,17 @@
       <c r="T81" s="25"/>
       <c r="U81" s="25"/>
       <c r="V81" s="25"/>
-      <c r="W81" s="3"/>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W81" s="25"/>
+      <c r="X81" s="25"/>
+      <c r="Y81" s="3"/>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="9"/>
-      <c r="H82" s="25"/>
       <c r="I82" s="25"/>
       <c r="J82" s="25"/>
       <c r="K82" s="25"/>
@@ -12549,16 +13105,17 @@
       <c r="T82" s="25"/>
       <c r="U82" s="25"/>
       <c r="V82" s="25"/>
-      <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W82" s="25"/>
+      <c r="X82" s="25"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="9"/>
-      <c r="H83" s="25"/>
       <c r="I83" s="25"/>
       <c r="J83" s="25"/>
       <c r="K83" s="25"/>
@@ -12573,16 +13130,17 @@
       <c r="T83" s="25"/>
       <c r="U83" s="25"/>
       <c r="V83" s="25"/>
-      <c r="W83" s="3"/>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W83" s="25"/>
+      <c r="X83" s="25"/>
+      <c r="Y83" s="3"/>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="9"/>
-      <c r="H84" s="25"/>
       <c r="I84" s="25"/>
       <c r="J84" s="25"/>
       <c r="K84" s="25"/>
@@ -12597,16 +13155,17 @@
       <c r="T84" s="25"/>
       <c r="U84" s="25"/>
       <c r="V84" s="25"/>
-      <c r="W84" s="3"/>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W84" s="25"/>
+      <c r="X84" s="25"/>
+      <c r="Y84" s="3"/>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="9"/>
-      <c r="H85" s="25"/>
       <c r="I85" s="25"/>
       <c r="J85" s="25"/>
       <c r="K85" s="25"/>
@@ -12621,16 +13180,17 @@
       <c r="T85" s="25"/>
       <c r="U85" s="25"/>
       <c r="V85" s="25"/>
-      <c r="W85" s="3"/>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W85" s="25"/>
+      <c r="X85" s="25"/>
+      <c r="Y85" s="3"/>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="9"/>
-      <c r="H86" s="25"/>
       <c r="I86" s="25"/>
       <c r="J86" s="25"/>
       <c r="K86" s="25"/>
@@ -12645,16 +13205,17 @@
       <c r="T86" s="25"/>
       <c r="U86" s="25"/>
       <c r="V86" s="25"/>
-      <c r="W86" s="3"/>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W86" s="25"/>
+      <c r="X86" s="25"/>
+      <c r="Y86" s="3"/>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="9"/>
-      <c r="H87" s="25"/>
       <c r="I87" s="25"/>
       <c r="J87" s="25"/>
       <c r="K87" s="25"/>
@@ -12669,16 +13230,17 @@
       <c r="T87" s="25"/>
       <c r="U87" s="25"/>
       <c r="V87" s="25"/>
-      <c r="W87" s="3"/>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W87" s="25"/>
+      <c r="X87" s="25"/>
+      <c r="Y87" s="3"/>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="9"/>
-      <c r="H88" s="25"/>
       <c r="I88" s="25"/>
       <c r="J88" s="25"/>
       <c r="K88" s="25"/>
@@ -12693,16 +13255,17 @@
       <c r="T88" s="25"/>
       <c r="U88" s="25"/>
       <c r="V88" s="25"/>
-      <c r="W88" s="3"/>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W88" s="25"/>
+      <c r="X88" s="25"/>
+      <c r="Y88" s="3"/>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="9"/>
-      <c r="H89" s="25"/>
       <c r="I89" s="25"/>
       <c r="J89" s="25"/>
       <c r="K89" s="25"/>
@@ -12717,16 +13280,17 @@
       <c r="T89" s="25"/>
       <c r="U89" s="25"/>
       <c r="V89" s="25"/>
-      <c r="W89" s="3"/>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W89" s="25"/>
+      <c r="X89" s="25"/>
+      <c r="Y89" s="3"/>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="9"/>
-      <c r="H90" s="25"/>
       <c r="I90" s="25"/>
       <c r="J90" s="25"/>
       <c r="K90" s="25"/>
@@ -12741,16 +13305,17 @@
       <c r="T90" s="25"/>
       <c r="U90" s="25"/>
       <c r="V90" s="25"/>
-      <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W90" s="25"/>
+      <c r="X90" s="25"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="9"/>
-      <c r="H91" s="25"/>
       <c r="I91" s="25"/>
       <c r="J91" s="25"/>
       <c r="K91" s="25"/>
@@ -12765,16 +13330,17 @@
       <c r="T91" s="25"/>
       <c r="U91" s="25"/>
       <c r="V91" s="25"/>
-      <c r="W91" s="3"/>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W91" s="25"/>
+      <c r="X91" s="25"/>
+      <c r="Y91" s="3"/>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="9"/>
-      <c r="H92" s="25"/>
       <c r="I92" s="25"/>
       <c r="J92" s="25"/>
       <c r="K92" s="25"/>
@@ -12789,16 +13355,17 @@
       <c r="T92" s="25"/>
       <c r="U92" s="25"/>
       <c r="V92" s="25"/>
-      <c r="W92" s="3"/>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W92" s="25"/>
+      <c r="X92" s="25"/>
+      <c r="Y92" s="3"/>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="9"/>
-      <c r="H93" s="25"/>
       <c r="I93" s="25"/>
       <c r="J93" s="25"/>
       <c r="K93" s="25"/>
@@ -12813,16 +13380,17 @@
       <c r="T93" s="25"/>
       <c r="U93" s="25"/>
       <c r="V93" s="25"/>
-      <c r="W93" s="3"/>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W93" s="25"/>
+      <c r="X93" s="25"/>
+      <c r="Y93" s="3"/>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="9"/>
-      <c r="H94" s="25"/>
       <c r="I94" s="25"/>
       <c r="J94" s="25"/>
       <c r="K94" s="25"/>
@@ -12837,16 +13405,17 @@
       <c r="T94" s="25"/>
       <c r="U94" s="25"/>
       <c r="V94" s="25"/>
-      <c r="W94" s="3"/>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W94" s="25"/>
+      <c r="X94" s="25"/>
+      <c r="Y94" s="3"/>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="9"/>
-      <c r="H95" s="25"/>
       <c r="I95" s="25"/>
       <c r="J95" s="25"/>
       <c r="K95" s="25"/>
@@ -12861,16 +13430,17 @@
       <c r="T95" s="25"/>
       <c r="U95" s="25"/>
       <c r="V95" s="25"/>
-      <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W95" s="25"/>
+      <c r="X95" s="25"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="9"/>
-      <c r="H96" s="25"/>
       <c r="I96" s="25"/>
       <c r="J96" s="25"/>
       <c r="K96" s="25"/>
@@ -12885,16 +13455,17 @@
       <c r="T96" s="25"/>
       <c r="U96" s="25"/>
       <c r="V96" s="25"/>
-      <c r="W96" s="3"/>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W96" s="25"/>
+      <c r="X96" s="25"/>
+      <c r="Y96" s="3"/>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="9"/>
-      <c r="H97" s="25"/>
       <c r="I97" s="25"/>
       <c r="J97" s="25"/>
       <c r="K97" s="25"/>
@@ -12909,16 +13480,17 @@
       <c r="T97" s="25"/>
       <c r="U97" s="25"/>
       <c r="V97" s="25"/>
-      <c r="W97" s="3"/>
-    </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W97" s="25"/>
+      <c r="X97" s="25"/>
+      <c r="Y97" s="3"/>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="9"/>
-      <c r="H98" s="25"/>
       <c r="I98" s="25"/>
       <c r="J98" s="25"/>
       <c r="K98" s="25"/>
@@ -12933,16 +13505,17 @@
       <c r="T98" s="25"/>
       <c r="U98" s="25"/>
       <c r="V98" s="25"/>
-      <c r="W98" s="3"/>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W98" s="25"/>
+      <c r="X98" s="25"/>
+      <c r="Y98" s="3"/>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="9"/>
-      <c r="H99" s="25"/>
       <c r="I99" s="25"/>
       <c r="J99" s="25"/>
       <c r="K99" s="25"/>
@@ -12957,16 +13530,17 @@
       <c r="T99" s="25"/>
       <c r="U99" s="25"/>
       <c r="V99" s="25"/>
-      <c r="W99" s="3"/>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W99" s="25"/>
+      <c r="X99" s="25"/>
+      <c r="Y99" s="3"/>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="9"/>
-      <c r="H100" s="25"/>
       <c r="I100" s="25"/>
       <c r="J100" s="25"/>
       <c r="K100" s="25"/>
@@ -12981,16 +13555,17 @@
       <c r="T100" s="25"/>
       <c r="U100" s="25"/>
       <c r="V100" s="25"/>
-      <c r="W100" s="3"/>
-    </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W100" s="25"/>
+      <c r="X100" s="25"/>
+      <c r="Y100" s="3"/>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="9"/>
-      <c r="H101" s="25"/>
       <c r="I101" s="25"/>
       <c r="J101" s="25"/>
       <c r="K101" s="25"/>
@@ -13005,16 +13580,17 @@
       <c r="T101" s="25"/>
       <c r="U101" s="25"/>
       <c r="V101" s="25"/>
-      <c r="W101" s="3"/>
-    </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W101" s="25"/>
+      <c r="X101" s="25"/>
+      <c r="Y101" s="3"/>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="9"/>
-      <c r="H102" s="25"/>
       <c r="I102" s="25"/>
       <c r="J102" s="25"/>
       <c r="K102" s="25"/>
@@ -13029,16 +13605,17 @@
       <c r="T102" s="25"/>
       <c r="U102" s="25"/>
       <c r="V102" s="25"/>
-      <c r="W102" s="3"/>
-    </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W102" s="25"/>
+      <c r="X102" s="25"/>
+      <c r="Y102" s="3"/>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="9"/>
-      <c r="H103" s="25"/>
       <c r="I103" s="25"/>
       <c r="J103" s="25"/>
       <c r="K103" s="25"/>
@@ -13053,16 +13630,17 @@
       <c r="T103" s="25"/>
       <c r="U103" s="25"/>
       <c r="V103" s="25"/>
-      <c r="W103" s="3"/>
-    </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W103" s="25"/>
+      <c r="X103" s="25"/>
+      <c r="Y103" s="3"/>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="9"/>
-      <c r="H104" s="25"/>
       <c r="I104" s="25"/>
       <c r="J104" s="25"/>
       <c r="K104" s="25"/>
@@ -13077,16 +13655,17 @@
       <c r="T104" s="25"/>
       <c r="U104" s="25"/>
       <c r="V104" s="25"/>
-      <c r="W104" s="3"/>
-    </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W104" s="25"/>
+      <c r="X104" s="25"/>
+      <c r="Y104" s="3"/>
+    </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="9"/>
-      <c r="H105" s="25"/>
       <c r="I105" s="25"/>
       <c r="J105" s="25"/>
       <c r="K105" s="25"/>
@@ -13101,16 +13680,17 @@
       <c r="T105" s="25"/>
       <c r="U105" s="25"/>
       <c r="V105" s="25"/>
-      <c r="W105" s="3"/>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W105" s="25"/>
+      <c r="X105" s="25"/>
+      <c r="Y105" s="3"/>
+    </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="9"/>
-      <c r="H106" s="25"/>
       <c r="I106" s="25"/>
       <c r="J106" s="25"/>
       <c r="K106" s="25"/>
@@ -13125,16 +13705,17 @@
       <c r="T106" s="25"/>
       <c r="U106" s="25"/>
       <c r="V106" s="25"/>
-      <c r="W106" s="3"/>
-    </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W106" s="25"/>
+      <c r="X106" s="25"/>
+      <c r="Y106" s="3"/>
+    </row>
+    <row r="107" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="9"/>
-      <c r="H107" s="25"/>
       <c r="I107" s="25"/>
       <c r="J107" s="25"/>
       <c r="K107" s="25"/>
@@ -13149,16 +13730,17 @@
       <c r="T107" s="25"/>
       <c r="U107" s="25"/>
       <c r="V107" s="25"/>
-      <c r="W107" s="3"/>
-    </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W107" s="25"/>
+      <c r="X107" s="25"/>
+      <c r="Y107" s="3"/>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="9"/>
-      <c r="H108" s="25"/>
       <c r="I108" s="25"/>
       <c r="J108" s="25"/>
       <c r="K108" s="25"/>
@@ -13173,16 +13755,17 @@
       <c r="T108" s="25"/>
       <c r="U108" s="25"/>
       <c r="V108" s="25"/>
-      <c r="W108" s="3"/>
-    </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W108" s="25"/>
+      <c r="X108" s="25"/>
+      <c r="Y108" s="3"/>
+    </row>
+    <row r="109" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="9"/>
-      <c r="H109" s="25"/>
       <c r="I109" s="25"/>
       <c r="J109" s="25"/>
       <c r="K109" s="25"/>
@@ -13197,16 +13780,17 @@
       <c r="T109" s="25"/>
       <c r="U109" s="25"/>
       <c r="V109" s="25"/>
-      <c r="W109" s="3"/>
-    </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W109" s="25"/>
+      <c r="X109" s="25"/>
+      <c r="Y109" s="3"/>
+    </row>
+    <row r="110" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="9"/>
-      <c r="H110" s="25"/>
       <c r="I110" s="25"/>
       <c r="J110" s="25"/>
       <c r="K110" s="25"/>
@@ -13221,16 +13805,17 @@
       <c r="T110" s="25"/>
       <c r="U110" s="25"/>
       <c r="V110" s="25"/>
-      <c r="W110" s="3"/>
-    </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W110" s="25"/>
+      <c r="X110" s="25"/>
+      <c r="Y110" s="3"/>
+    </row>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="9"/>
-      <c r="H111" s="25"/>
       <c r="I111" s="25"/>
       <c r="J111" s="25"/>
       <c r="K111" s="25"/>
@@ -13245,16 +13830,17 @@
       <c r="T111" s="25"/>
       <c r="U111" s="25"/>
       <c r="V111" s="25"/>
-      <c r="W111" s="3"/>
-    </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W111" s="25"/>
+      <c r="X111" s="25"/>
+      <c r="Y111" s="3"/>
+    </row>
+    <row r="112" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="9"/>
-      <c r="H112" s="25"/>
       <c r="I112" s="25"/>
       <c r="J112" s="25"/>
       <c r="K112" s="25"/>
@@ -13269,16 +13855,17 @@
       <c r="T112" s="25"/>
       <c r="U112" s="25"/>
       <c r="V112" s="25"/>
-      <c r="W112" s="3"/>
-    </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W112" s="25"/>
+      <c r="X112" s="25"/>
+      <c r="Y112" s="3"/>
+    </row>
+    <row r="113" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="9"/>
-      <c r="H113" s="25"/>
       <c r="I113" s="25"/>
       <c r="J113" s="25"/>
       <c r="K113" s="25"/>
@@ -13293,16 +13880,17 @@
       <c r="T113" s="25"/>
       <c r="U113" s="25"/>
       <c r="V113" s="25"/>
-      <c r="W113" s="3"/>
-    </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W113" s="25"/>
+      <c r="X113" s="25"/>
+      <c r="Y113" s="3"/>
+    </row>
+    <row r="114" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="9"/>
-      <c r="H114" s="25"/>
       <c r="I114" s="25"/>
       <c r="J114" s="25"/>
       <c r="K114" s="25"/>
@@ -13317,16 +13905,17 @@
       <c r="T114" s="25"/>
       <c r="U114" s="25"/>
       <c r="V114" s="25"/>
-      <c r="W114" s="3"/>
-    </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W114" s="25"/>
+      <c r="X114" s="25"/>
+      <c r="Y114" s="3"/>
+    </row>
+    <row r="115" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="9"/>
-      <c r="H115" s="25"/>
       <c r="I115" s="25"/>
       <c r="J115" s="25"/>
       <c r="K115" s="25"/>
@@ -13341,16 +13930,17 @@
       <c r="T115" s="25"/>
       <c r="U115" s="25"/>
       <c r="V115" s="25"/>
-      <c r="W115" s="3"/>
-    </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W115" s="25"/>
+      <c r="X115" s="25"/>
+      <c r="Y115" s="3"/>
+    </row>
+    <row r="116" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="9"/>
-      <c r="H116" s="25"/>
       <c r="I116" s="25"/>
       <c r="J116" s="25"/>
       <c r="K116" s="25"/>
@@ -13365,16 +13955,17 @@
       <c r="T116" s="25"/>
       <c r="U116" s="25"/>
       <c r="V116" s="25"/>
-      <c r="W116" s="3"/>
-    </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W116" s="25"/>
+      <c r="X116" s="25"/>
+      <c r="Y116" s="3"/>
+    </row>
+    <row r="117" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="9"/>
-      <c r="H117" s="25"/>
       <c r="I117" s="25"/>
       <c r="J117" s="25"/>
       <c r="K117" s="25"/>
@@ -13389,16 +13980,17 @@
       <c r="T117" s="25"/>
       <c r="U117" s="25"/>
       <c r="V117" s="25"/>
-      <c r="W117" s="3"/>
-    </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W117" s="25"/>
+      <c r="X117" s="25"/>
+      <c r="Y117" s="3"/>
+    </row>
+    <row r="118" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="9"/>
-      <c r="H118" s="25"/>
       <c r="I118" s="25"/>
       <c r="J118" s="25"/>
       <c r="K118" s="25"/>
@@ -13413,16 +14005,17 @@
       <c r="T118" s="25"/>
       <c r="U118" s="25"/>
       <c r="V118" s="25"/>
-      <c r="W118" s="3"/>
-    </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W118" s="25"/>
+      <c r="X118" s="25"/>
+      <c r="Y118" s="3"/>
+    </row>
+    <row r="119" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="9"/>
-      <c r="H119" s="25"/>
       <c r="I119" s="25"/>
       <c r="J119" s="25"/>
       <c r="K119" s="25"/>
@@ -13437,16 +14030,17 @@
       <c r="T119" s="25"/>
       <c r="U119" s="25"/>
       <c r="V119" s="25"/>
-      <c r="W119" s="3"/>
-    </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W119" s="25"/>
+      <c r="X119" s="25"/>
+      <c r="Y119" s="3"/>
+    </row>
+    <row r="120" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="9"/>
-      <c r="H120" s="25"/>
       <c r="I120" s="25"/>
       <c r="J120" s="25"/>
       <c r="K120" s="25"/>
@@ -13461,16 +14055,17 @@
       <c r="T120" s="25"/>
       <c r="U120" s="25"/>
       <c r="V120" s="25"/>
-      <c r="W120" s="3"/>
-    </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W120" s="25"/>
+      <c r="X120" s="25"/>
+      <c r="Y120" s="3"/>
+    </row>
+    <row r="121" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="9"/>
-      <c r="H121" s="25"/>
       <c r="I121" s="25"/>
       <c r="J121" s="25"/>
       <c r="K121" s="25"/>
@@ -13485,16 +14080,17 @@
       <c r="T121" s="25"/>
       <c r="U121" s="25"/>
       <c r="V121" s="25"/>
-      <c r="W121" s="3"/>
-    </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W121" s="25"/>
+      <c r="X121" s="25"/>
+      <c r="Y121" s="3"/>
+    </row>
+    <row r="122" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="9"/>
-      <c r="H122" s="25"/>
       <c r="I122" s="25"/>
       <c r="J122" s="25"/>
       <c r="K122" s="25"/>
@@ -13509,16 +14105,17 @@
       <c r="T122" s="25"/>
       <c r="U122" s="25"/>
       <c r="V122" s="25"/>
-      <c r="W122" s="3"/>
-    </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W122" s="25"/>
+      <c r="X122" s="25"/>
+      <c r="Y122" s="3"/>
+    </row>
+    <row r="123" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="9"/>
-      <c r="H123" s="25"/>
       <c r="I123" s="25"/>
       <c r="J123" s="25"/>
       <c r="K123" s="25"/>
@@ -13533,16 +14130,17 @@
       <c r="T123" s="25"/>
       <c r="U123" s="25"/>
       <c r="V123" s="25"/>
-      <c r="W123" s="3"/>
-    </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W123" s="25"/>
+      <c r="X123" s="25"/>
+      <c r="Y123" s="3"/>
+    </row>
+    <row r="124" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="9"/>
-      <c r="H124" s="25"/>
       <c r="I124" s="25"/>
       <c r="J124" s="25"/>
       <c r="K124" s="25"/>
@@ -13557,16 +14155,17 @@
       <c r="T124" s="25"/>
       <c r="U124" s="25"/>
       <c r="V124" s="25"/>
-      <c r="W124" s="3"/>
-    </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W124" s="25"/>
+      <c r="X124" s="25"/>
+      <c r="Y124" s="3"/>
+    </row>
+    <row r="125" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="9"/>
-      <c r="H125" s="25"/>
       <c r="I125" s="25"/>
       <c r="J125" s="25"/>
       <c r="K125" s="25"/>
@@ -13581,16 +14180,17 @@
       <c r="T125" s="25"/>
       <c r="U125" s="25"/>
       <c r="V125" s="25"/>
-      <c r="W125" s="3"/>
-    </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W125" s="25"/>
+      <c r="X125" s="25"/>
+      <c r="Y125" s="3"/>
+    </row>
+    <row r="126" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="9"/>
-      <c r="H126" s="25"/>
       <c r="I126" s="25"/>
       <c r="J126" s="25"/>
       <c r="K126" s="25"/>
@@ -13605,16 +14205,17 @@
       <c r="T126" s="25"/>
       <c r="U126" s="25"/>
       <c r="V126" s="25"/>
-      <c r="W126" s="3"/>
-    </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W126" s="25"/>
+      <c r="X126" s="25"/>
+      <c r="Y126" s="3"/>
+    </row>
+    <row r="127" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="9"/>
-      <c r="H127" s="25"/>
       <c r="I127" s="25"/>
       <c r="J127" s="25"/>
       <c r="K127" s="25"/>
@@ -13629,16 +14230,17 @@
       <c r="T127" s="25"/>
       <c r="U127" s="25"/>
       <c r="V127" s="25"/>
-      <c r="W127" s="3"/>
-    </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W127" s="25"/>
+      <c r="X127" s="25"/>
+      <c r="Y127" s="3"/>
+    </row>
+    <row r="128" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="9"/>
-      <c r="H128" s="25"/>
       <c r="I128" s="25"/>
       <c r="J128" s="25"/>
       <c r="K128" s="25"/>
@@ -13653,16 +14255,17 @@
       <c r="T128" s="25"/>
       <c r="U128" s="25"/>
       <c r="V128" s="25"/>
-      <c r="W128" s="3"/>
-    </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W128" s="25"/>
+      <c r="X128" s="25"/>
+      <c r="Y128" s="3"/>
+    </row>
+    <row r="129" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="9"/>
-      <c r="H129" s="25"/>
       <c r="I129" s="25"/>
       <c r="J129" s="25"/>
       <c r="K129" s="25"/>
@@ -13677,16 +14280,17 @@
       <c r="T129" s="25"/>
       <c r="U129" s="25"/>
       <c r="V129" s="25"/>
-      <c r="W129" s="3"/>
-    </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W129" s="25"/>
+      <c r="X129" s="25"/>
+      <c r="Y129" s="3"/>
+    </row>
+    <row r="130" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="9"/>
-      <c r="H130" s="25"/>
       <c r="I130" s="25"/>
       <c r="J130" s="25"/>
       <c r="K130" s="25"/>
@@ -13701,16 +14305,17 @@
       <c r="T130" s="25"/>
       <c r="U130" s="25"/>
       <c r="V130" s="25"/>
-      <c r="W130" s="3"/>
-    </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W130" s="25"/>
+      <c r="X130" s="25"/>
+      <c r="Y130" s="3"/>
+    </row>
+    <row r="131" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="9"/>
-      <c r="H131" s="25"/>
       <c r="I131" s="25"/>
       <c r="J131" s="25"/>
       <c r="K131" s="25"/>
@@ -13725,16 +14330,17 @@
       <c r="T131" s="25"/>
       <c r="U131" s="25"/>
       <c r="V131" s="25"/>
-      <c r="W131" s="3"/>
-    </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W131" s="25"/>
+      <c r="X131" s="25"/>
+      <c r="Y131" s="3"/>
+    </row>
+    <row r="132" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="9"/>
-      <c r="H132" s="25"/>
       <c r="I132" s="25"/>
       <c r="J132" s="25"/>
       <c r="K132" s="25"/>
@@ -13749,16 +14355,17 @@
       <c r="T132" s="25"/>
       <c r="U132" s="25"/>
       <c r="V132" s="25"/>
-      <c r="W132" s="3"/>
-    </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W132" s="25"/>
+      <c r="X132" s="25"/>
+      <c r="Y132" s="3"/>
+    </row>
+    <row r="133" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="9"/>
-      <c r="H133" s="25"/>
       <c r="I133" s="25"/>
       <c r="J133" s="25"/>
       <c r="K133" s="25"/>
@@ -13773,16 +14380,17 @@
       <c r="T133" s="25"/>
       <c r="U133" s="25"/>
       <c r="V133" s="25"/>
-      <c r="W133" s="3"/>
-    </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W133" s="25"/>
+      <c r="X133" s="25"/>
+      <c r="Y133" s="3"/>
+    </row>
+    <row r="134" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="9"/>
-      <c r="H134" s="25"/>
       <c r="I134" s="25"/>
       <c r="J134" s="25"/>
       <c r="K134" s="25"/>
@@ -13797,16 +14405,17 @@
       <c r="T134" s="25"/>
       <c r="U134" s="25"/>
       <c r="V134" s="25"/>
-      <c r="W134" s="3"/>
-    </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W134" s="25"/>
+      <c r="X134" s="25"/>
+      <c r="Y134" s="3"/>
+    </row>
+    <row r="135" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="9"/>
-      <c r="H135" s="25"/>
       <c r="I135" s="25"/>
       <c r="J135" s="25"/>
       <c r="K135" s="25"/>
@@ -13821,16 +14430,17 @@
       <c r="T135" s="25"/>
       <c r="U135" s="25"/>
       <c r="V135" s="25"/>
-      <c r="W135" s="3"/>
-    </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W135" s="25"/>
+      <c r="X135" s="25"/>
+      <c r="Y135" s="3"/>
+    </row>
+    <row r="136" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="9"/>
-      <c r="H136" s="25"/>
       <c r="I136" s="25"/>
       <c r="J136" s="25"/>
       <c r="K136" s="25"/>
@@ -13845,16 +14455,17 @@
       <c r="T136" s="25"/>
       <c r="U136" s="25"/>
       <c r="V136" s="25"/>
-      <c r="W136" s="3"/>
-    </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W136" s="25"/>
+      <c r="X136" s="25"/>
+      <c r="Y136" s="3"/>
+    </row>
+    <row r="137" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="9"/>
-      <c r="H137" s="25"/>
       <c r="I137" s="25"/>
       <c r="J137" s="25"/>
       <c r="K137" s="25"/>
@@ -13869,16 +14480,17 @@
       <c r="T137" s="25"/>
       <c r="U137" s="25"/>
       <c r="V137" s="25"/>
-      <c r="W137" s="3"/>
-    </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W137" s="25"/>
+      <c r="X137" s="25"/>
+      <c r="Y137" s="3"/>
+    </row>
+    <row r="138" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="9"/>
-      <c r="H138" s="25"/>
       <c r="I138" s="25"/>
       <c r="J138" s="25"/>
       <c r="K138" s="25"/>
@@ -13893,16 +14505,17 @@
       <c r="T138" s="25"/>
       <c r="U138" s="25"/>
       <c r="V138" s="25"/>
-      <c r="W138" s="3"/>
-    </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W138" s="25"/>
+      <c r="X138" s="25"/>
+      <c r="Y138" s="3"/>
+    </row>
+    <row r="139" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="9"/>
-      <c r="H139" s="25"/>
       <c r="I139" s="25"/>
       <c r="J139" s="25"/>
       <c r="K139" s="25"/>
@@ -13917,16 +14530,17 @@
       <c r="T139" s="25"/>
       <c r="U139" s="25"/>
       <c r="V139" s="25"/>
-      <c r="W139" s="3"/>
-    </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W139" s="25"/>
+      <c r="X139" s="25"/>
+      <c r="Y139" s="3"/>
+    </row>
+    <row r="140" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="9"/>
-      <c r="H140" s="25"/>
       <c r="I140" s="25"/>
       <c r="J140" s="25"/>
       <c r="K140" s="25"/>
@@ -13941,16 +14555,17 @@
       <c r="T140" s="25"/>
       <c r="U140" s="25"/>
       <c r="V140" s="25"/>
-      <c r="W140" s="3"/>
-    </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W140" s="25"/>
+      <c r="X140" s="25"/>
+      <c r="Y140" s="3"/>
+    </row>
+    <row r="141" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="9"/>
-      <c r="H141" s="25"/>
       <c r="I141" s="25"/>
       <c r="J141" s="25"/>
       <c r="K141" s="25"/>
@@ -13965,16 +14580,17 @@
       <c r="T141" s="25"/>
       <c r="U141" s="25"/>
       <c r="V141" s="25"/>
-      <c r="W141" s="3"/>
-    </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W141" s="25"/>
+      <c r="X141" s="25"/>
+      <c r="Y141" s="3"/>
+    </row>
+    <row r="142" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="9"/>
-      <c r="H142" s="25"/>
       <c r="I142" s="25"/>
       <c r="J142" s="25"/>
       <c r="K142" s="25"/>
@@ -13989,16 +14605,17 @@
       <c r="T142" s="25"/>
       <c r="U142" s="25"/>
       <c r="V142" s="25"/>
-      <c r="W142" s="3"/>
-    </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W142" s="25"/>
+      <c r="X142" s="25"/>
+      <c r="Y142" s="3"/>
+    </row>
+    <row r="143" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="9"/>
-      <c r="H143" s="25"/>
       <c r="I143" s="25"/>
       <c r="J143" s="25"/>
       <c r="K143" s="25"/>
@@ -14013,16 +14630,17 @@
       <c r="T143" s="25"/>
       <c r="U143" s="25"/>
       <c r="V143" s="25"/>
-      <c r="W143" s="3"/>
-    </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W143" s="25"/>
+      <c r="X143" s="25"/>
+      <c r="Y143" s="3"/>
+    </row>
+    <row r="144" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="9"/>
-      <c r="H144" s="25"/>
       <c r="I144" s="25"/>
       <c r="J144" s="25"/>
       <c r="K144" s="25"/>
@@ -14037,16 +14655,17 @@
       <c r="T144" s="25"/>
       <c r="U144" s="25"/>
       <c r="V144" s="25"/>
-      <c r="W144" s="3"/>
-    </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W144" s="25"/>
+      <c r="X144" s="25"/>
+      <c r="Y144" s="3"/>
+    </row>
+    <row r="145" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="9"/>
-      <c r="H145" s="25"/>
       <c r="I145" s="25"/>
       <c r="J145" s="25"/>
       <c r="K145" s="25"/>
@@ -14061,16 +14680,17 @@
       <c r="T145" s="25"/>
       <c r="U145" s="25"/>
       <c r="V145" s="25"/>
-      <c r="W145" s="3"/>
-    </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W145" s="25"/>
+      <c r="X145" s="25"/>
+      <c r="Y145" s="3"/>
+    </row>
+    <row r="146" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
       <c r="F146" s="9"/>
-      <c r="H146" s="25"/>
       <c r="I146" s="25"/>
       <c r="J146" s="25"/>
       <c r="K146" s="25"/>
@@ -14085,16 +14705,17 @@
       <c r="T146" s="25"/>
       <c r="U146" s="25"/>
       <c r="V146" s="25"/>
-      <c r="W146" s="3"/>
-    </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W146" s="25"/>
+      <c r="X146" s="25"/>
+      <c r="Y146" s="3"/>
+    </row>
+    <row r="147" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
       <c r="F147" s="9"/>
-      <c r="H147" s="25"/>
       <c r="I147" s="25"/>
       <c r="J147" s="25"/>
       <c r="K147" s="25"/>
@@ -14109,16 +14730,17 @@
       <c r="T147" s="25"/>
       <c r="U147" s="25"/>
       <c r="V147" s="25"/>
-      <c r="W147" s="3"/>
-    </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W147" s="25"/>
+      <c r="X147" s="25"/>
+      <c r="Y147" s="3"/>
+    </row>
+    <row r="148" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
       <c r="F148" s="9"/>
-      <c r="H148" s="25"/>
       <c r="I148" s="25"/>
       <c r="J148" s="25"/>
       <c r="K148" s="25"/>
@@ -14133,16 +14755,17 @@
       <c r="T148" s="25"/>
       <c r="U148" s="25"/>
       <c r="V148" s="25"/>
-      <c r="W148" s="3"/>
-    </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W148" s="25"/>
+      <c r="X148" s="25"/>
+      <c r="Y148" s="3"/>
+    </row>
+    <row r="149" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
       <c r="F149" s="9"/>
-      <c r="H149" s="25"/>
       <c r="I149" s="25"/>
       <c r="J149" s="25"/>
       <c r="K149" s="25"/>
@@ -14157,16 +14780,17 @@
       <c r="T149" s="25"/>
       <c r="U149" s="25"/>
       <c r="V149" s="25"/>
-      <c r="W149" s="3"/>
-    </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W149" s="25"/>
+      <c r="X149" s="25"/>
+      <c r="Y149" s="3"/>
+    </row>
+    <row r="150" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
       <c r="F150" s="9"/>
-      <c r="H150" s="25"/>
       <c r="I150" s="25"/>
       <c r="J150" s="25"/>
       <c r="K150" s="25"/>
@@ -14181,16 +14805,17 @@
       <c r="T150" s="25"/>
       <c r="U150" s="25"/>
       <c r="V150" s="25"/>
-      <c r="W150" s="3"/>
-    </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W150" s="25"/>
+      <c r="X150" s="25"/>
+      <c r="Y150" s="3"/>
+    </row>
+    <row r="151" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
       <c r="D151" s="8"/>
       <c r="E151" s="8"/>
       <c r="F151" s="9"/>
-      <c r="H151" s="25"/>
       <c r="I151" s="25"/>
       <c r="J151" s="25"/>
       <c r="K151" s="25"/>
@@ -14205,16 +14830,17 @@
       <c r="T151" s="25"/>
       <c r="U151" s="25"/>
       <c r="V151" s="25"/>
-      <c r="W151" s="3"/>
-    </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W151" s="25"/>
+      <c r="X151" s="25"/>
+      <c r="Y151" s="3"/>
+    </row>
+    <row r="152" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
       <c r="D152" s="8"/>
       <c r="E152" s="8"/>
       <c r="F152" s="9"/>
-      <c r="H152" s="25"/>
       <c r="I152" s="25"/>
       <c r="J152" s="25"/>
       <c r="K152" s="25"/>
@@ -14229,16 +14855,17 @@
       <c r="T152" s="25"/>
       <c r="U152" s="25"/>
       <c r="V152" s="25"/>
-      <c r="W152" s="3"/>
-    </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W152" s="25"/>
+      <c r="X152" s="25"/>
+      <c r="Y152" s="3"/>
+    </row>
+    <row r="153" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
       <c r="D153" s="8"/>
       <c r="E153" s="8"/>
       <c r="F153" s="9"/>
-      <c r="H153" s="25"/>
       <c r="I153" s="25"/>
       <c r="J153" s="25"/>
       <c r="K153" s="25"/>
@@ -14253,16 +14880,17 @@
       <c r="T153" s="25"/>
       <c r="U153" s="25"/>
       <c r="V153" s="25"/>
-      <c r="W153" s="3"/>
-    </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W153" s="25"/>
+      <c r="X153" s="25"/>
+      <c r="Y153" s="3"/>
+    </row>
+    <row r="154" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
       <c r="D154" s="8"/>
       <c r="E154" s="8"/>
       <c r="F154" s="9"/>
-      <c r="H154" s="25"/>
       <c r="I154" s="25"/>
       <c r="J154" s="25"/>
       <c r="K154" s="25"/>
@@ -14277,16 +14905,17 @@
       <c r="T154" s="25"/>
       <c r="U154" s="25"/>
       <c r="V154" s="25"/>
-      <c r="W154" s="3"/>
-    </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W154" s="25"/>
+      <c r="X154" s="25"/>
+      <c r="Y154" s="3"/>
+    </row>
+    <row r="155" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
       <c r="F155" s="9"/>
-      <c r="H155" s="25"/>
       <c r="I155" s="25"/>
       <c r="J155" s="25"/>
       <c r="K155" s="25"/>
@@ -14301,16 +14930,17 @@
       <c r="T155" s="25"/>
       <c r="U155" s="25"/>
       <c r="V155" s="25"/>
-      <c r="W155" s="3"/>
-    </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W155" s="25"/>
+      <c r="X155" s="25"/>
+      <c r="Y155" s="3"/>
+    </row>
+    <row r="156" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
       <c r="D156" s="8"/>
       <c r="E156" s="8"/>
       <c r="F156" s="9"/>
-      <c r="H156" s="25"/>
       <c r="I156" s="25"/>
       <c r="J156" s="25"/>
       <c r="K156" s="25"/>
@@ -14325,16 +14955,17 @@
       <c r="T156" s="25"/>
       <c r="U156" s="25"/>
       <c r="V156" s="25"/>
-      <c r="W156" s="3"/>
-    </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W156" s="25"/>
+      <c r="X156" s="25"/>
+      <c r="Y156" s="3"/>
+    </row>
+    <row r="157" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
       <c r="D157" s="8"/>
       <c r="E157" s="8"/>
       <c r="F157" s="9"/>
-      <c r="H157" s="25"/>
       <c r="I157" s="25"/>
       <c r="J157" s="25"/>
       <c r="K157" s="25"/>
@@ -14349,16 +14980,17 @@
       <c r="T157" s="25"/>
       <c r="U157" s="25"/>
       <c r="V157" s="25"/>
-      <c r="W157" s="3"/>
-    </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W157" s="25"/>
+      <c r="X157" s="25"/>
+      <c r="Y157" s="3"/>
+    </row>
+    <row r="158" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
       <c r="D158" s="8"/>
       <c r="E158" s="8"/>
       <c r="F158" s="9"/>
-      <c r="H158" s="25"/>
       <c r="I158" s="25"/>
       <c r="J158" s="25"/>
       <c r="K158" s="25"/>
@@ -14373,16 +15005,17 @@
       <c r="T158" s="25"/>
       <c r="U158" s="25"/>
       <c r="V158" s="25"/>
-      <c r="W158" s="3"/>
-    </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W158" s="25"/>
+      <c r="X158" s="25"/>
+      <c r="Y158" s="3"/>
+    </row>
+    <row r="159" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
       <c r="D159" s="8"/>
       <c r="E159" s="8"/>
       <c r="F159" s="9"/>
-      <c r="H159" s="25"/>
       <c r="I159" s="25"/>
       <c r="J159" s="25"/>
       <c r="K159" s="25"/>
@@ -14397,16 +15030,17 @@
       <c r="T159" s="25"/>
       <c r="U159" s="25"/>
       <c r="V159" s="25"/>
-      <c r="W159" s="3"/>
-    </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W159" s="25"/>
+      <c r="X159" s="25"/>
+      <c r="Y159" s="3"/>
+    </row>
+    <row r="160" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
       <c r="D160" s="8"/>
       <c r="E160" s="8"/>
       <c r="F160" s="9"/>
-      <c r="H160" s="25"/>
       <c r="I160" s="25"/>
       <c r="J160" s="25"/>
       <c r="K160" s="25"/>
@@ -14421,16 +15055,17 @@
       <c r="T160" s="25"/>
       <c r="U160" s="25"/>
       <c r="V160" s="25"/>
-      <c r="W160" s="3"/>
-    </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W160" s="25"/>
+      <c r="X160" s="25"/>
+      <c r="Y160" s="3"/>
+    </row>
+    <row r="161" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
       <c r="E161" s="8"/>
       <c r="F161" s="9"/>
-      <c r="H161" s="25"/>
       <c r="I161" s="25"/>
       <c r="J161" s="25"/>
       <c r="K161" s="25"/>
@@ -14445,16 +15080,17 @@
       <c r="T161" s="25"/>
       <c r="U161" s="25"/>
       <c r="V161" s="25"/>
-      <c r="W161" s="3"/>
-    </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W161" s="25"/>
+      <c r="X161" s="25"/>
+      <c r="Y161" s="3"/>
+    </row>
+    <row r="162" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
       <c r="D162" s="8"/>
       <c r="E162" s="8"/>
       <c r="F162" s="9"/>
-      <c r="H162" s="25"/>
       <c r="I162" s="25"/>
       <c r="J162" s="25"/>
       <c r="K162" s="25"/>
@@ -14469,16 +15105,17 @@
       <c r="T162" s="25"/>
       <c r="U162" s="25"/>
       <c r="V162" s="25"/>
-      <c r="W162" s="3"/>
-    </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W162" s="25"/>
+      <c r="X162" s="25"/>
+      <c r="Y162" s="3"/>
+    </row>
+    <row r="163" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
       <c r="D163" s="8"/>
       <c r="E163" s="8"/>
       <c r="F163" s="9"/>
-      <c r="H163" s="25"/>
       <c r="I163" s="25"/>
       <c r="J163" s="25"/>
       <c r="K163" s="25"/>
@@ -14493,16 +15130,17 @@
       <c r="T163" s="25"/>
       <c r="U163" s="25"/>
       <c r="V163" s="25"/>
-      <c r="W163" s="3"/>
-    </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W163" s="25"/>
+      <c r="X163" s="25"/>
+      <c r="Y163" s="3"/>
+    </row>
+    <row r="164" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
       <c r="D164" s="8"/>
       <c r="E164" s="8"/>
       <c r="F164" s="9"/>
-      <c r="H164" s="25"/>
       <c r="I164" s="25"/>
       <c r="J164" s="25"/>
       <c r="K164" s="25"/>
@@ -14517,16 +15155,17 @@
       <c r="T164" s="25"/>
       <c r="U164" s="25"/>
       <c r="V164" s="25"/>
-      <c r="W164" s="3"/>
-    </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W164" s="25"/>
+      <c r="X164" s="25"/>
+      <c r="Y164" s="3"/>
+    </row>
+    <row r="165" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
       <c r="D165" s="8"/>
       <c r="E165" s="8"/>
       <c r="F165" s="9"/>
-      <c r="H165" s="25"/>
       <c r="I165" s="25"/>
       <c r="J165" s="25"/>
       <c r="K165" s="25"/>
@@ -14541,16 +15180,17 @@
       <c r="T165" s="25"/>
       <c r="U165" s="25"/>
       <c r="V165" s="25"/>
-      <c r="W165" s="3"/>
-    </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W165" s="25"/>
+      <c r="X165" s="25"/>
+      <c r="Y165" s="3"/>
+    </row>
+    <row r="166" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
       <c r="D166" s="8"/>
       <c r="E166" s="8"/>
       <c r="F166" s="9"/>
-      <c r="H166" s="25"/>
       <c r="I166" s="25"/>
       <c r="J166" s="25"/>
       <c r="K166" s="25"/>
@@ -14565,16 +15205,17 @@
       <c r="T166" s="25"/>
       <c r="U166" s="25"/>
       <c r="V166" s="25"/>
-      <c r="W166" s="3"/>
-    </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W166" s="25"/>
+      <c r="X166" s="25"/>
+      <c r="Y166" s="3"/>
+    </row>
+    <row r="167" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
       <c r="D167" s="8"/>
       <c r="E167" s="8"/>
       <c r="F167" s="9"/>
-      <c r="H167" s="25"/>
       <c r="I167" s="25"/>
       <c r="J167" s="25"/>
       <c r="K167" s="25"/>
@@ -14589,16 +15230,17 @@
       <c r="T167" s="25"/>
       <c r="U167" s="25"/>
       <c r="V167" s="25"/>
-      <c r="W167" s="3"/>
-    </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W167" s="25"/>
+      <c r="X167" s="25"/>
+      <c r="Y167" s="3"/>
+    </row>
+    <row r="168" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
       <c r="D168" s="8"/>
       <c r="E168" s="8"/>
       <c r="F168" s="9"/>
-      <c r="H168" s="25"/>
       <c r="I168" s="25"/>
       <c r="J168" s="25"/>
       <c r="K168" s="25"/>
@@ -14613,16 +15255,17 @@
       <c r="T168" s="25"/>
       <c r="U168" s="25"/>
       <c r="V168" s="25"/>
-      <c r="W168" s="3"/>
-    </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W168" s="25"/>
+      <c r="X168" s="25"/>
+      <c r="Y168" s="3"/>
+    </row>
+    <row r="169" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
       <c r="D169" s="8"/>
       <c r="E169" s="8"/>
       <c r="F169" s="9"/>
-      <c r="H169" s="25"/>
       <c r="I169" s="25"/>
       <c r="J169" s="25"/>
       <c r="K169" s="25"/>
@@ -14637,16 +15280,17 @@
       <c r="T169" s="25"/>
       <c r="U169" s="25"/>
       <c r="V169" s="25"/>
-      <c r="W169" s="3"/>
-    </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W169" s="25"/>
+      <c r="X169" s="25"/>
+      <c r="Y169" s="3"/>
+    </row>
+    <row r="170" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
       <c r="D170" s="8"/>
       <c r="E170" s="8"/>
       <c r="F170" s="9"/>
-      <c r="H170" s="25"/>
       <c r="I170" s="25"/>
       <c r="J170" s="25"/>
       <c r="K170" s="25"/>
@@ -14661,16 +15305,17 @@
       <c r="T170" s="25"/>
       <c r="U170" s="25"/>
       <c r="V170" s="25"/>
-      <c r="W170" s="3"/>
-    </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W170" s="25"/>
+      <c r="X170" s="25"/>
+      <c r="Y170" s="3"/>
+    </row>
+    <row r="171" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
       <c r="D171" s="8"/>
       <c r="E171" s="8"/>
       <c r="F171" s="9"/>
-      <c r="H171" s="25"/>
       <c r="I171" s="25"/>
       <c r="J171" s="25"/>
       <c r="K171" s="25"/>
@@ -14685,16 +15330,17 @@
       <c r="T171" s="25"/>
       <c r="U171" s="25"/>
       <c r="V171" s="25"/>
-      <c r="W171" s="3"/>
-    </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W171" s="25"/>
+      <c r="X171" s="25"/>
+      <c r="Y171" s="3"/>
+    </row>
+    <row r="172" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
       <c r="D172" s="8"/>
       <c r="E172" s="8"/>
       <c r="F172" s="9"/>
-      <c r="H172" s="25"/>
       <c r="I172" s="25"/>
       <c r="J172" s="25"/>
       <c r="K172" s="25"/>
@@ -14709,16 +15355,17 @@
       <c r="T172" s="25"/>
       <c r="U172" s="25"/>
       <c r="V172" s="25"/>
-      <c r="W172" s="3"/>
-    </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W172" s="25"/>
+      <c r="X172" s="25"/>
+      <c r="Y172" s="3"/>
+    </row>
+    <row r="173" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
       <c r="D173" s="8"/>
       <c r="E173" s="8"/>
       <c r="F173" s="9"/>
-      <c r="H173" s="25"/>
       <c r="I173" s="25"/>
       <c r="J173" s="25"/>
       <c r="K173" s="25"/>
@@ -14733,16 +15380,17 @@
       <c r="T173" s="25"/>
       <c r="U173" s="25"/>
       <c r="V173" s="25"/>
-      <c r="W173" s="3"/>
-    </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W173" s="25"/>
+      <c r="X173" s="25"/>
+      <c r="Y173" s="3"/>
+    </row>
+    <row r="174" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
       <c r="D174" s="8"/>
       <c r="E174" s="8"/>
       <c r="F174" s="9"/>
-      <c r="H174" s="25"/>
       <c r="I174" s="25"/>
       <c r="J174" s="25"/>
       <c r="K174" s="25"/>
@@ -14757,16 +15405,17 @@
       <c r="T174" s="25"/>
       <c r="U174" s="25"/>
       <c r="V174" s="25"/>
-      <c r="W174" s="3"/>
-    </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W174" s="25"/>
+      <c r="X174" s="25"/>
+      <c r="Y174" s="3"/>
+    </row>
+    <row r="175" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
       <c r="D175" s="8"/>
       <c r="E175" s="8"/>
       <c r="F175" s="9"/>
-      <c r="H175" s="25"/>
       <c r="I175" s="25"/>
       <c r="J175" s="25"/>
       <c r="K175" s="25"/>
@@ -14781,16 +15430,17 @@
       <c r="T175" s="25"/>
       <c r="U175" s="25"/>
       <c r="V175" s="25"/>
-      <c r="W175" s="3"/>
-    </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W175" s="25"/>
+      <c r="X175" s="25"/>
+      <c r="Y175" s="3"/>
+    </row>
+    <row r="176" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
       <c r="D176" s="8"/>
       <c r="E176" s="8"/>
       <c r="F176" s="9"/>
-      <c r="H176" s="25"/>
       <c r="I176" s="25"/>
       <c r="J176" s="25"/>
       <c r="K176" s="25"/>
@@ -14805,16 +15455,17 @@
       <c r="T176" s="25"/>
       <c r="U176" s="25"/>
       <c r="V176" s="25"/>
-      <c r="W176" s="3"/>
-    </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W176" s="25"/>
+      <c r="X176" s="25"/>
+      <c r="Y176" s="3"/>
+    </row>
+    <row r="177" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A177" s="8"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
       <c r="D177" s="8"/>
       <c r="E177" s="8"/>
       <c r="F177" s="9"/>
-      <c r="H177" s="25"/>
       <c r="I177" s="25"/>
       <c r="J177" s="25"/>
       <c r="K177" s="25"/>
@@ -14829,16 +15480,17 @@
       <c r="T177" s="25"/>
       <c r="U177" s="25"/>
       <c r="V177" s="25"/>
-      <c r="W177" s="3"/>
-    </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W177" s="25"/>
+      <c r="X177" s="25"/>
+      <c r="Y177" s="3"/>
+    </row>
+    <row r="178" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A178" s="8"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
       <c r="D178" s="8"/>
       <c r="E178" s="8"/>
       <c r="F178" s="9"/>
-      <c r="H178" s="25"/>
       <c r="I178" s="25"/>
       <c r="J178" s="25"/>
       <c r="K178" s="25"/>
@@ -14853,16 +15505,17 @@
       <c r="T178" s="25"/>
       <c r="U178" s="25"/>
       <c r="V178" s="25"/>
-      <c r="W178" s="3"/>
-    </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W178" s="25"/>
+      <c r="X178" s="25"/>
+      <c r="Y178" s="3"/>
+    </row>
+    <row r="179" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
       <c r="D179" s="8"/>
       <c r="E179" s="8"/>
       <c r="F179" s="9"/>
-      <c r="H179" s="25"/>
       <c r="I179" s="25"/>
       <c r="J179" s="25"/>
       <c r="K179" s="25"/>
@@ -14877,16 +15530,17 @@
       <c r="T179" s="25"/>
       <c r="U179" s="25"/>
       <c r="V179" s="25"/>
-      <c r="W179" s="3"/>
-    </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W179" s="25"/>
+      <c r="X179" s="25"/>
+      <c r="Y179" s="3"/>
+    </row>
+    <row r="180" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
       <c r="D180" s="8"/>
       <c r="E180" s="8"/>
       <c r="F180" s="9"/>
-      <c r="H180" s="25"/>
       <c r="I180" s="25"/>
       <c r="J180" s="25"/>
       <c r="K180" s="25"/>
@@ -14901,16 +15555,17 @@
       <c r="T180" s="25"/>
       <c r="U180" s="25"/>
       <c r="V180" s="25"/>
-      <c r="W180" s="3"/>
-    </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W180" s="25"/>
+      <c r="X180" s="25"/>
+      <c r="Y180" s="3"/>
+    </row>
+    <row r="181" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A181" s="8"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
       <c r="D181" s="8"/>
       <c r="E181" s="8"/>
       <c r="F181" s="9"/>
-      <c r="H181" s="25"/>
       <c r="I181" s="25"/>
       <c r="J181" s="25"/>
       <c r="K181" s="25"/>
@@ -14925,16 +15580,17 @@
       <c r="T181" s="25"/>
       <c r="U181" s="25"/>
       <c r="V181" s="25"/>
-      <c r="W181" s="3"/>
-    </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W181" s="25"/>
+      <c r="X181" s="25"/>
+      <c r="Y181" s="3"/>
+    </row>
+    <row r="182" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A182" s="8"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
       <c r="D182" s="8"/>
       <c r="E182" s="8"/>
       <c r="F182" s="9"/>
-      <c r="H182" s="25"/>
       <c r="I182" s="25"/>
       <c r="J182" s="25"/>
       <c r="K182" s="25"/>
@@ -14949,16 +15605,17 @@
       <c r="T182" s="25"/>
       <c r="U182" s="25"/>
       <c r="V182" s="25"/>
-      <c r="W182" s="3"/>
-    </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W182" s="25"/>
+      <c r="X182" s="25"/>
+      <c r="Y182" s="3"/>
+    </row>
+    <row r="183" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A183" s="8"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
       <c r="D183" s="8"/>
       <c r="E183" s="8"/>
       <c r="F183" s="9"/>
-      <c r="H183" s="25"/>
       <c r="I183" s="25"/>
       <c r="J183" s="25"/>
       <c r="K183" s="25"/>
@@ -14973,16 +15630,17 @@
       <c r="T183" s="25"/>
       <c r="U183" s="25"/>
       <c r="V183" s="25"/>
-      <c r="W183" s="3"/>
-    </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W183" s="25"/>
+      <c r="X183" s="25"/>
+      <c r="Y183" s="3"/>
+    </row>
+    <row r="184" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A184" s="8"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
       <c r="D184" s="8"/>
       <c r="E184" s="8"/>
       <c r="F184" s="9"/>
-      <c r="H184" s="25"/>
       <c r="I184" s="25"/>
       <c r="J184" s="25"/>
       <c r="K184" s="25"/>
@@ -14997,16 +15655,17 @@
       <c r="T184" s="25"/>
       <c r="U184" s="25"/>
       <c r="V184" s="25"/>
-      <c r="W184" s="3"/>
-    </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W184" s="25"/>
+      <c r="X184" s="25"/>
+      <c r="Y184" s="3"/>
+    </row>
+    <row r="185" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A185" s="8"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
       <c r="D185" s="8"/>
       <c r="E185" s="8"/>
       <c r="F185" s="9"/>
-      <c r="H185" s="25"/>
       <c r="I185" s="25"/>
       <c r="J185" s="25"/>
       <c r="K185" s="25"/>
@@ -15021,16 +15680,17 @@
       <c r="T185" s="25"/>
       <c r="U185" s="25"/>
       <c r="V185" s="25"/>
-      <c r="W185" s="3"/>
-    </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W185" s="25"/>
+      <c r="X185" s="25"/>
+      <c r="Y185" s="3"/>
+    </row>
+    <row r="186" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A186" s="8"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
       <c r="D186" s="8"/>
       <c r="E186" s="8"/>
       <c r="F186" s="9"/>
-      <c r="H186" s="25"/>
       <c r="I186" s="25"/>
       <c r="J186" s="25"/>
       <c r="K186" s="25"/>
@@ -15045,16 +15705,17 @@
       <c r="T186" s="25"/>
       <c r="U186" s="25"/>
       <c r="V186" s="25"/>
-      <c r="W186" s="3"/>
-    </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W186" s="25"/>
+      <c r="X186" s="25"/>
+      <c r="Y186" s="3"/>
+    </row>
+    <row r="187" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A187" s="8"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
       <c r="D187" s="8"/>
       <c r="E187" s="8"/>
       <c r="F187" s="9"/>
-      <c r="H187" s="25"/>
       <c r="I187" s="25"/>
       <c r="J187" s="25"/>
       <c r="K187" s="25"/>
@@ -15069,16 +15730,17 @@
       <c r="T187" s="25"/>
       <c r="U187" s="25"/>
       <c r="V187" s="25"/>
-      <c r="W187" s="3"/>
-    </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W187" s="25"/>
+      <c r="X187" s="25"/>
+      <c r="Y187" s="3"/>
+    </row>
+    <row r="188" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A188" s="8"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
       <c r="D188" s="8"/>
       <c r="E188" s="8"/>
       <c r="F188" s="9"/>
-      <c r="H188" s="25"/>
       <c r="I188" s="25"/>
       <c r="J188" s="25"/>
       <c r="K188" s="25"/>
@@ -15093,16 +15755,17 @@
       <c r="T188" s="25"/>
       <c r="U188" s="25"/>
       <c r="V188" s="25"/>
-      <c r="W188" s="3"/>
-    </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W188" s="25"/>
+      <c r="X188" s="25"/>
+      <c r="Y188" s="3"/>
+    </row>
+    <row r="189" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A189" s="8"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
       <c r="D189" s="8"/>
       <c r="E189" s="8"/>
       <c r="F189" s="9"/>
-      <c r="H189" s="25"/>
       <c r="I189" s="25"/>
       <c r="J189" s="25"/>
       <c r="K189" s="25"/>
@@ -15117,16 +15780,17 @@
       <c r="T189" s="25"/>
       <c r="U189" s="25"/>
       <c r="V189" s="25"/>
-      <c r="W189" s="3"/>
-    </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W189" s="25"/>
+      <c r="X189" s="25"/>
+      <c r="Y189" s="3"/>
+    </row>
+    <row r="190" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A190" s="8"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
       <c r="D190" s="8"/>
       <c r="E190" s="8"/>
       <c r="F190" s="9"/>
-      <c r="H190" s="25"/>
       <c r="I190" s="25"/>
       <c r="J190" s="25"/>
       <c r="K190" s="25"/>
@@ -15141,16 +15805,17 @@
       <c r="T190" s="25"/>
       <c r="U190" s="25"/>
       <c r="V190" s="25"/>
-      <c r="W190" s="3"/>
-    </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W190" s="25"/>
+      <c r="X190" s="25"/>
+      <c r="Y190" s="3"/>
+    </row>
+    <row r="191" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A191" s="8"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
       <c r="D191" s="8"/>
       <c r="E191" s="8"/>
       <c r="F191" s="9"/>
-      <c r="H191" s="25"/>
       <c r="I191" s="25"/>
       <c r="J191" s="25"/>
       <c r="K191" s="25"/>
@@ -15165,16 +15830,17 @@
       <c r="T191" s="25"/>
       <c r="U191" s="25"/>
       <c r="V191" s="25"/>
-      <c r="W191" s="3"/>
-    </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W191" s="25"/>
+      <c r="X191" s="25"/>
+      <c r="Y191" s="3"/>
+    </row>
+    <row r="192" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A192" s="8"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
       <c r="D192" s="8"/>
       <c r="E192" s="8"/>
       <c r="F192" s="9"/>
-      <c r="H192" s="25"/>
       <c r="I192" s="25"/>
       <c r="J192" s="25"/>
       <c r="K192" s="25"/>
@@ -15189,16 +15855,17 @@
       <c r="T192" s="25"/>
       <c r="U192" s="25"/>
       <c r="V192" s="25"/>
-      <c r="W192" s="3"/>
-    </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W192" s="25"/>
+      <c r="X192" s="25"/>
+      <c r="Y192" s="3"/>
+    </row>
+    <row r="193" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A193" s="8"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
       <c r="D193" s="8"/>
       <c r="E193" s="8"/>
       <c r="F193" s="9"/>
-      <c r="H193" s="25"/>
       <c r="I193" s="25"/>
       <c r="J193" s="25"/>
       <c r="K193" s="25"/>
@@ -15213,16 +15880,17 @@
       <c r="T193" s="25"/>
       <c r="U193" s="25"/>
       <c r="V193" s="25"/>
-      <c r="W193" s="3"/>
-    </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W193" s="25"/>
+      <c r="X193" s="25"/>
+      <c r="Y193" s="3"/>
+    </row>
+    <row r="194" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A194" s="8"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
       <c r="D194" s="8"/>
       <c r="E194" s="8"/>
       <c r="F194" s="9"/>
-      <c r="H194" s="25"/>
       <c r="I194" s="25"/>
       <c r="J194" s="25"/>
       <c r="K194" s="25"/>
@@ -15237,16 +15905,17 @@
       <c r="T194" s="25"/>
       <c r="U194" s="25"/>
       <c r="V194" s="25"/>
-      <c r="W194" s="3"/>
-    </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W194" s="25"/>
+      <c r="X194" s="25"/>
+      <c r="Y194" s="3"/>
+    </row>
+    <row r="195" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A195" s="8"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
       <c r="D195" s="8"/>
       <c r="E195" s="8"/>
       <c r="F195" s="9"/>
-      <c r="H195" s="25"/>
       <c r="I195" s="25"/>
       <c r="J195" s="25"/>
       <c r="K195" s="25"/>
@@ -15261,16 +15930,17 @@
       <c r="T195" s="25"/>
       <c r="U195" s="25"/>
       <c r="V195" s="25"/>
-      <c r="W195" s="3"/>
-    </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W195" s="25"/>
+      <c r="X195" s="25"/>
+      <c r="Y195" s="3"/>
+    </row>
+    <row r="196" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A196" s="8"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
       <c r="D196" s="8"/>
       <c r="E196" s="8"/>
       <c r="F196" s="9"/>
-      <c r="H196" s="25"/>
       <c r="I196" s="25"/>
       <c r="J196" s="25"/>
       <c r="K196" s="25"/>
@@ -15285,16 +15955,17 @@
       <c r="T196" s="25"/>
       <c r="U196" s="25"/>
       <c r="V196" s="25"/>
-      <c r="W196" s="3"/>
-    </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W196" s="25"/>
+      <c r="X196" s="25"/>
+      <c r="Y196" s="3"/>
+    </row>
+    <row r="197" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A197" s="8"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
       <c r="D197" s="8"/>
       <c r="E197" s="8"/>
       <c r="F197" s="9"/>
-      <c r="H197" s="25"/>
       <c r="I197" s="25"/>
       <c r="J197" s="25"/>
       <c r="K197" s="25"/>
@@ -15309,16 +15980,17 @@
       <c r="T197" s="25"/>
       <c r="U197" s="25"/>
       <c r="V197" s="25"/>
-      <c r="W197" s="3"/>
-    </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W197" s="25"/>
+      <c r="X197" s="25"/>
+      <c r="Y197" s="3"/>
+    </row>
+    <row r="198" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A198" s="8"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
       <c r="D198" s="8"/>
       <c r="E198" s="8"/>
       <c r="F198" s="9"/>
-      <c r="H198" s="25"/>
       <c r="I198" s="25"/>
       <c r="J198" s="25"/>
       <c r="K198" s="25"/>
@@ -15333,16 +16005,17 @@
       <c r="T198" s="25"/>
       <c r="U198" s="25"/>
       <c r="V198" s="25"/>
-      <c r="W198" s="3"/>
-    </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W198" s="25"/>
+      <c r="X198" s="25"/>
+      <c r="Y198" s="3"/>
+    </row>
+    <row r="199" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A199" s="8"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
       <c r="D199" s="8"/>
       <c r="E199" s="8"/>
       <c r="F199" s="9"/>
-      <c r="H199" s="25"/>
       <c r="I199" s="25"/>
       <c r="J199" s="25"/>
       <c r="K199" s="25"/>
@@ -15357,16 +16030,17 @@
       <c r="T199" s="25"/>
       <c r="U199" s="25"/>
       <c r="V199" s="25"/>
-      <c r="W199" s="3"/>
-    </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W199" s="25"/>
+      <c r="X199" s="25"/>
+      <c r="Y199" s="3"/>
+    </row>
+    <row r="200" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A200" s="8"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
       <c r="D200" s="8"/>
       <c r="E200" s="8"/>
       <c r="F200" s="9"/>
-      <c r="H200" s="25"/>
       <c r="I200" s="25"/>
       <c r="J200" s="25"/>
       <c r="K200" s="25"/>
@@ -15381,16 +16055,17 @@
       <c r="T200" s="25"/>
       <c r="U200" s="25"/>
       <c r="V200" s="25"/>
-      <c r="W200" s="3"/>
-    </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W200" s="25"/>
+      <c r="X200" s="25"/>
+      <c r="Y200" s="3"/>
+    </row>
+    <row r="201" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A201" s="8"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
       <c r="D201" s="8"/>
       <c r="E201" s="8"/>
       <c r="F201" s="9"/>
-      <c r="H201" s="25"/>
       <c r="I201" s="25"/>
       <c r="J201" s="25"/>
       <c r="K201" s="25"/>
@@ -15405,7 +16080,9 @@
       <c r="T201" s="25"/>
       <c r="U201" s="25"/>
       <c r="V201" s="25"/>
-      <c r="W201" s="3"/>
+      <c r="W201" s="25"/>
+      <c r="X201" s="25"/>
+      <c r="Y201" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -15416,17 +16093,17 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Status" error="Please select a supported Status." sqref="E2:E1048576" xr:uid="{E4E44019-3B35-4B46-AB56-CBA9A747E3AA}">
       <formula1>"Active,Inactive"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:T1048576" xr:uid="{4619DB89-2596-4A90-8B24-A3BF136CF673}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:V1048576" xr:uid="{4619DB89-2596-4A90-8B24-A3BF136CF673}">
       <formula1>0</formula1>
       <formula2>32767</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576" xr:uid="{AFEB2A73-72D6-4EEB-9862-5FFFE53DF683}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576" xr:uid="{AFEB2A73-72D6-4EEB-9862-5FFFE53DF683}">
       <formula1>"Verbose, Trace, Information, Warning, Error, Critical, Off"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:K1048576 U2:V1048576 N2:N1048576 P2:Q1048576 G2:G1048576" xr:uid="{B5E6E82F-20DE-4CF7-A3C7-05DC586DFBD7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:M1048576 W2:X1048576 P2:P1048576 R2:S1048576 G2:H1048576" xr:uid="{B5E6E82F-20DE-4CF7-A3C7-05DC586DFBD7}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576" xr:uid="{9791015B-8956-4B9E-831E-F8DAD2116E7B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576" xr:uid="{9791015B-8956-4B9E-831E-F8DAD2116E7B}">
       <formula1>"NonProduction, Attended, Unattended, Studio, Development, StudioX, Headless, StudioPro, TestAutomation"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15463,7 +16140,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -16499,16 +17176,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -17745,16 +18422,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">

--- a/Workbooks/JA/ユーザー.xlsx
+++ b/Workbooks/JA/ユーザー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0244C7-AA9B-4B51-A21C-C6796206FB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24FF154-873B-4320-ACCC-314C97214AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5925" yWindow="1335" windowWidth="30510" windowHeight="10200" tabRatio="774" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9375" yWindow="1275" windowWidth="30510" windowHeight="10200" tabRatio="774" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/ユーザー.xlsx
+++ b/Workbooks/JA/ユーザー.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24FF154-873B-4320-ACCC-314C97214AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5276DA-6617-4837-AD6E-DE21682CA7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9375" yWindow="1275" windowWidth="30510" windowHeight="10200" tabRatio="774" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9000" yWindow="1335" windowWidth="28800" windowHeight="11385" tabRatio="774" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/ユーザー.xlsx
+++ b/Workbooks/JA/ユーザー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5276DA-6617-4837-AD6E-DE21682CA7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1A9476-7A24-47AD-A4B4-6AB8DEDB4B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9000" yWindow="1335" windowWidth="28800" windowHeight="11385" tabRatio="774" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23780" yWindow="9920" windowWidth="19200" windowHeight="4750" tabRatio="774" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/ユーザー.xlsx
+++ b/Workbooks/JA/ユーザー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1A9476-7A24-47AD-A4B4-6AB8DEDB4B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3806AFB3-71A9-4688-BA95-33B778DD5089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23780" yWindow="9920" windowWidth="19200" windowHeight="4750" tabRatio="774" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="29745" windowHeight="12540" tabRatio="774" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/ユーザー.xlsx
+++ b/Workbooks/JA/ユーザー.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3806AFB3-71A9-4688-BA95-33B778DD5089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C296358-1E39-429F-8947-B2A4D20CAD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="29745" windowHeight="12540" tabRatio="774" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8100" yWindow="885" windowWidth="27225" windowHeight="11940" tabRatio="774" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/ユーザー.xlsx
+++ b/Workbooks/JA/ユーザー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C296358-1E39-429F-8947-B2A4D20CAD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C14731C-3808-4F4C-AD6E-F4969427DC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="885" windowWidth="27225" windowHeight="11940" tabRatio="774" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7185" yWindow="3600" windowWidth="21375" windowHeight="9990" tabRatio="774" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/ユーザー.xlsx
+++ b/Workbooks/JA/ユーザー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/andra_dregan_uipath_com/Documents/Desktop/sr/OrchestratorManager/Workbooks/JA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{5C14731C-3808-4F4C-AD6E-F4969427DC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEA461D0-8A8B-450E-B3D3-B20FE146BCCE}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{5C14731C-3808-4F4C-AD6E-F4969427DC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{195C9160-502D-4261-8167-783A4936A1F4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="774" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3732" yWindow="3396" windowWidth="17280" windowHeight="8964" tabRatio="774" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -188,23 +188,11 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Web ログインを許可</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Atteded ロボットを作成</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ドメイン\ユーザ名 - Attended ロボット</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ライセンスの種類 - Attended ロボット</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>個人のワークスペースを作成 - Attended ロボット</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -295,6 +283,15 @@
   </si>
   <si>
     <t>種類 *</t>
+  </si>
+  <si>
+    <t>Web ログインを許可</t>
+  </si>
+  <si>
+    <t>Atteded ロボットを作成</t>
+  </si>
+  <si>
+    <t>個人のワークスペースを作成 - Attended ロボット</t>
   </si>
 </sst>
 </file>
@@ -2377,8 +2374,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -4824,16 +4821,17 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid ID" error="ID must be an integer greater than 0." sqref="B2:B1048576" xr:uid="{6B97F103-F7C0-4A54-9BE8-32EE16382F65}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Status" error="Please select a supported Status." sqref="J2:J1048576" xr:uid="{867C6DD1-DC7F-4176-B15E-9EEA2E0AB547}">
       <formula1>"Active,Inactive"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Type" error="Please select a supported Type." sqref="A2:A1048576" xr:uid="{A81A4870-FE34-43F1-A71F-1819E350F8B4}">
-      <formula1>"User,DirectoryUser,DirectoryGroup"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Type" error="Please select a supported Type." sqref="A2:A1048576" xr:uid="{F100BF2C-379C-4A9E-916B-76B9C7369263}">
+      <formula1>"User,DirectoryUser,DirectoryGroup,DirectoryRobot"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Type" error="Please select a supported Type." sqref="A1" xr:uid="{79F5A7C4-A351-4715-A156-427ABD5EEF68}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4848,7 +4846,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AC201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -4869,13 +4867,13 @@
         <v>10</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>11</v>
@@ -7589,8 +7587,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Y201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -7623,61 +7621,61 @@
         <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="17" t="s">
         <v>52</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y1" s="17" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -9536,7 +9534,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -10572,16 +10570,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -11818,16 +11816,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4">
